--- a/cards.json.xlsx
+++ b/cards.json.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\PC2\Facultate\Licenta\DuelMasters\IntelliJ\DuelMastersServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3D1C62-3F2F-4184-9BE9-5DA7F9149BDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67CF380-62F0-434D-A228-9CE4EC3924C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8670" yWindow="300" windowWidth="47325" windowHeight="14535" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10246" uniqueCount="3390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10379" uniqueCount="3480">
   <si>
     <t>cards</t>
   </si>
@@ -10576,9 +10576,6 @@
     <t>ACTIONS</t>
   </si>
   <si>
-    <t>Move to your hand</t>
-  </si>
-  <si>
     <t>Move to mana</t>
   </si>
   <si>
@@ -10829,9 +10826,6 @@
   </si>
   <si>
     <t>WBT</t>
-  </si>
-  <si>
-    <t>When is destroyed</t>
   </si>
   <si>
     <t>WDT</t>
@@ -10898,6 +10892,285 @@
 WAT - NONE
 …
 WDT (YOU [TC MTD])</t>
+  </si>
+  <si>
+    <t>When is destroyed / When leaves the battle zone</t>
+  </si>
+  <si>
+    <t>Deprec</t>
+  </si>
+  <si>
+    <t>V2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time = WDT
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time = WDT
+YOU - CH
+</t>
+  </si>
+  <si>
+    <t>CHOOSE</t>
+  </si>
+  <si>
+    <t>LessPower</t>
+  </si>
+  <si>
+    <t>MorePower</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Choose 3 cards from your battle zone</t>
+  </si>
+  <si>
+    <t>No filter</t>
+  </si>
+  <si>
+    <t>Choose 2 Armored Dragons from your mana</t>
+  </si>
+  <si>
+    <t>Choose 1 creature that has less than 3000 power from your hand</t>
+  </si>
+  <si>
+    <t>Choose0(3, BZ0)</t>
+  </si>
+  <si>
+    <t>Choose2(2, MN0)</t>
+  </si>
+  <si>
+    <t>Choose3(1, 3000, HD0)</t>
+  </si>
+  <si>
+    <t>Choose 3 creatures that have more than 5000 power from your opp. Mana</t>
+  </si>
+  <si>
+    <t>Choose4(3, 5000, MN1)</t>
+  </si>
+  <si>
+    <t>For each of your opp. Light creatures in the battle zone</t>
+  </si>
+  <si>
+    <t>Count1(LIGHT, BZ1)</t>
+  </si>
+  <si>
+    <t>For each of your evolutions in the mana zone</t>
+  </si>
+  <si>
+    <t>Count7(MN0)</t>
+  </si>
+  <si>
+    <t>For each creature that has more than 4000 power in the battle zone</t>
+  </si>
+  <si>
+    <t>Count4(4000, BZ2)</t>
+  </si>
+  <si>
+    <t>For each Darkness creature in your graveyard</t>
+  </si>
+  <si>
+    <t>Count1(DARKNESS, GV0)</t>
+  </si>
+  <si>
+    <t>For each Armored Dragon in the battle zone</t>
+  </si>
+  <si>
+    <t>Count2(ARMORED_DRAGON, BZ2)</t>
+  </si>
+  <si>
+    <t>For each Blocker in your opp. Battle zone</t>
+  </si>
+  <si>
+    <t>Count6(BZ1)</t>
+  </si>
+  <si>
+    <t>COUNT</t>
+  </si>
+  <si>
+    <t>Tapped</t>
+  </si>
+  <si>
+    <t>Untapped</t>
+  </si>
+  <si>
+    <t>Choose 2 tapped creatures from your battle zone</t>
+  </si>
+  <si>
+    <t>Choose8(2, BZ0)</t>
+  </si>
+  <si>
+    <t>For each tapped creature in your opp. Battle zone</t>
+  </si>
+  <si>
+    <t>Count8(BZ1)</t>
+  </si>
+  <si>
+    <t>For each untapped creature in your mana</t>
+  </si>
+  <si>
+    <t>Count9(MN0)</t>
+  </si>
+  <si>
+    <t>Move to hand</t>
+  </si>
+  <si>
+    <t>Choose0(2, MN0) + MTH</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ2) + MTH</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN1) + MTH</t>
+  </si>
+  <si>
+    <t>Choose8(2, BZ1) + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, GV0) + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + MTS</t>
+  </si>
+  <si>
+    <t>MTS</t>
+  </si>
+  <si>
+    <t>Move to shields</t>
+  </si>
+  <si>
+    <t>Choose3(1, 2000, BZ1) + ?</t>
+  </si>
+  <si>
+    <t>Choose8(1, BZ1) + ?</t>
+  </si>
+  <si>
+    <t>Choose0(3, GV0) + MTM</t>
+  </si>
+  <si>
+    <t>Choose0(3, HD0) + MTM</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN0) + MTH</t>
+  </si>
+  <si>
+    <t>Choose1(1, GV0) + MTH</t>
+  </si>
+  <si>
+    <t>Choose11(1, MN0) + MTH</t>
+  </si>
+  <si>
+    <t>Choose0(1, DK0) + MTH + ?</t>
+  </si>
+  <si>
+    <t>Choose2(1, DK0) + MTBZ + ?</t>
+  </si>
+  <si>
+    <t>Choose10(2, HD0) + ?</t>
+  </si>
+  <si>
+    <t>Choose6(1, BZ1) + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, GV0) + MTH</t>
+  </si>
+  <si>
+    <t>Count8(BZ0) + ?</t>
+  </si>
+  <si>
+    <t>Choose1(1, ~FIRE, MN0) + MTG + Choose1(1, ~FIRE, MN0) + MTG</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN1) + MTG</t>
+  </si>
+  <si>
+    <t>Count1(WATER, BZ0) + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD0) + MTS/MTM</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD0) + MTG</t>
+  </si>
+  <si>
+    <t>Choose???</t>
+  </si>
+  <si>
+    <t>Choose0(2, MN1) + MTG</t>
+  </si>
+  <si>
+    <t>Choose3(1, 4000, BZ1) + MTG</t>
+  </si>
+  <si>
+    <t>Choose9(1, BZ0) + ?</t>
+  </si>
+  <si>
+    <t>Choose12(1) + MTG</t>
+  </si>
+  <si>
+    <t>Choose12(1) + MTG + ?</t>
+  </si>
+  <si>
+    <t>Choose12(1, DK0) + MTH + ?</t>
+  </si>
+  <si>
+    <t>Choose1(1, DK0) + MTH + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, MZ1) + MTH</t>
+  </si>
+  <si>
+    <t>Choose3(1, 2000, BZ2) + MTH</t>
+  </si>
+  <si>
+    <t>Choose1(1, DARKNESS/FIRE, BZ2) + ?</t>
+  </si>
+  <si>
+    <t>Choose1(1, FIRE/NATURE, BZ0) + MTH</t>
+  </si>
+  <si>
+    <t>Choose12(1) + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN0) + MTG + ?</t>
+  </si>
+  <si>
+    <t>Choose1(1, NATURE, GV0) + MTZ</t>
+  </si>
+  <si>
+    <t>Choose1(1, DARKNESS, GV0) + MTH</t>
+  </si>
+  <si>
+    <t>Choose10(1, HD0) + ?</t>
+  </si>
+  <si>
+    <t>Choose10(1, DK0) + MTH</t>
+  </si>
+  <si>
+    <t>Count???</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + MTM</t>
+  </si>
+  <si>
+    <t>Choose10(3, HD0) + MTG</t>
+  </si>
+  <si>
+    <t>Choose6(2, BZ1) + MTG</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + MTG + Choose0(1, MN0) + MTG + ?</t>
+  </si>
+  <si>
+    <t>WTD</t>
+  </si>
+  <si>
+    <t>[MTH]</t>
   </si>
 </sst>
 </file>
@@ -10955,7 +11228,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11052,8 +11325,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -11096,11 +11375,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -11140,8 +11428,22 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -11511,7 +11813,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1399"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="D1198" workbookViewId="0">
       <selection activeCell="H73" sqref="H73"/>
     </sheetView>
   </sheetViews>
@@ -13862,7 +14164,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
         <v>144</v>
       </c>
@@ -14060,7 +14362,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="2:11" ht="75" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:11" ht="60" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
         <v>152</v>
       </c>
@@ -23690,7 +23992,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="481" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="481" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B481" t="s">
         <v>510</v>
       </c>
@@ -24281,7 +24583,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="507" spans="2:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="507" spans="2:10" ht="45" x14ac:dyDescent="0.25">
       <c r="B507" t="s">
         <v>527</v>
       </c>
@@ -30563,7 +30865,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="748" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="748" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B748" t="s">
         <v>744</v>
       </c>
@@ -47104,10 +47406,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F3F974-4C98-45F8-96F5-103C5419490D}">
-  <dimension ref="A3:F376"/>
+  <dimension ref="A3:G376"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="F228" sqref="F228"/>
+    <sheetView tabSelected="1" topLeftCell="D180" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I194" sqref="I194"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47117,6 +47419,7 @@
     <col min="3" max="3" width="142.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="86.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -47662,7 +47965,7 @@
         <v>1573</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>1802</v>
       </c>
@@ -47670,7 +47973,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B68" s="7" t="s">
         <v>1803</v>
       </c>
@@ -47678,19 +47981,19 @@
         <v>1804</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B69" s="10"/>
       <c r="C69" s="10"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B70" s="10"/>
       <c r="C70" s="10"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B71" s="10"/>
       <c r="C71" s="10"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>2982</v>
       </c>
@@ -47704,7 +48007,7 @@
         <v>2102</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>2985</v>
       </c>
@@ -47717,8 +48020,11 @@
       <c r="F76" t="s">
         <v>2103</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G76" s="33" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
         <v>2986</v>
       </c>
@@ -47731,8 +48037,9 @@
       <c r="F77" t="s">
         <v>2104</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G77" s="33"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>3019</v>
       </c>
@@ -47748,8 +48055,11 @@
       <c r="F78" t="s">
         <v>2105</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G78" s="33" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
         <v>3010</v>
       </c>
@@ -47762,8 +48072,11 @@
       <c r="F79" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G79" s="33" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
         <v>3011</v>
       </c>
@@ -47776,8 +48089,9 @@
       <c r="F80" t="s">
         <v>2107</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G80" s="33"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>3019</v>
       </c>
@@ -47793,8 +48107,9 @@
       <c r="F81" t="s">
         <v>2115</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G81" s="33"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>3019</v>
       </c>
@@ -47810,8 +48125,11 @@
       <c r="F82" t="s">
         <v>2116</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82" s="33" t="s">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
         <v>3014</v>
       </c>
@@ -47824,8 +48142,9 @@
       <c r="F83" t="s">
         <v>2117</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83" s="33"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
         <v>3015</v>
       </c>
@@ -47838,8 +48157,11 @@
       <c r="F84" t="s">
         <v>2118</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84" s="33" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
         <v>3030</v>
       </c>
@@ -47852,8 +48174,11 @@
       <c r="F85" t="s">
         <v>2119</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85" s="33" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
         <v>3031</v>
       </c>
@@ -47864,8 +48189,9 @@
       <c r="F86" t="s">
         <v>2120</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86" s="33"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
       <c r="E87" s="4" t="s">
@@ -47874,8 +48200,9 @@
       <c r="F87" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87" s="33"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
       <c r="E88" s="4" t="s">
@@ -47884,8 +48211,11 @@
       <c r="F88" t="s">
         <v>2121</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88" s="33" t="s">
+        <v>3434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
       <c r="E89" s="4" t="s">
@@ -47894,8 +48224,11 @@
       <c r="F89" t="s">
         <v>2106</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89" s="33" t="s">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
       <c r="E90" s="4" t="s">
@@ -47904,8 +48237,11 @@
       <c r="F90" t="s">
         <v>2105</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90" s="33" t="s">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
         <v>3053</v>
       </c>
@@ -47918,8 +48254,9 @@
       <c r="F91" t="s">
         <v>2122</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91" s="33"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
       <c r="E92" s="4" t="s">
@@ -47928,8 +48265,9 @@
       <c r="F92" t="s">
         <v>2123</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92" s="33"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
       <c r="E93" s="4" t="s">
@@ -47938,8 +48276,9 @@
       <c r="F93" t="s">
         <v>2124</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93" s="33"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
         <v>3207</v>
       </c>
@@ -47952,8 +48291,9 @@
       <c r="F94" t="s">
         <v>2125</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94" s="33"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
       <c r="E95" s="4" t="s">
@@ -47962,8 +48302,9 @@
       <c r="F95" t="s">
         <v>2126</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95" s="33"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="E96" s="4" t="s">
@@ -47972,8 +48313,11 @@
       <c r="F96" t="s">
         <v>2127</v>
       </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G96" s="33" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="E97" s="4" t="s">
@@ -47982,8 +48326,9 @@
       <c r="F97" t="s">
         <v>2913</v>
       </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G97" s="33"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="E98" s="4" t="s">
@@ -47992,8 +48337,9 @@
       <c r="F98" t="s">
         <v>2128</v>
       </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="33"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="E99" s="4" t="s">
@@ -48002,8 +48348,9 @@
       <c r="F99" t="s">
         <v>2129</v>
       </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G99" s="33"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="E100" s="4" t="s">
@@ -48012,8 +48359,11 @@
       <c r="F100" t="s">
         <v>2130</v>
       </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G100" s="33" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="E101" s="4" t="s">
@@ -48022,8 +48372,11 @@
       <c r="F101" t="s">
         <v>2131</v>
       </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G101" s="33" t="s">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="E102" s="4" t="s">
@@ -48032,8 +48385,9 @@
       <c r="F102" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G102" s="33"/>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="E103" s="4" t="s">
@@ -48042,8 +48396,9 @@
       <c r="F103" t="s">
         <v>2107</v>
       </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G103" s="33"/>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="E104" s="4" t="s">
@@ -48052,8 +48407,9 @@
       <c r="F104" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G104" s="33"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="E105" s="4" t="s">
@@ -48062,8 +48418,9 @@
       <c r="F105" t="s">
         <v>2134</v>
       </c>
-    </row>
-    <row r="106" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G105" s="33"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="E106" s="4" t="s">
@@ -48072,8 +48429,9 @@
       <c r="F106" t="s">
         <v>2135</v>
       </c>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G106" s="33"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="E107" s="4" t="s">
@@ -48082,8 +48440,9 @@
       <c r="F107" t="s">
         <v>2136</v>
       </c>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G107" s="33"/>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="E108" s="4" t="s">
@@ -48092,8 +48451,11 @@
       <c r="F108" t="s">
         <v>2137</v>
       </c>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G108" s="33" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="E109" s="4" t="s">
@@ -48102,8 +48464,11 @@
       <c r="F109" t="s">
         <v>2138</v>
       </c>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G109" s="33" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="E110" s="4" t="s">
@@ -48112,8 +48477,11 @@
       <c r="F110" t="s">
         <v>2139</v>
       </c>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G110" s="33" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="E111" s="4" t="s">
@@ -48122,8 +48490,9 @@
       <c r="F111" t="s">
         <v>2140</v>
       </c>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G111" s="33"/>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="E112" s="4" t="s">
@@ -48132,8 +48501,11 @@
       <c r="F112" t="s">
         <v>2141</v>
       </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G112" s="33" t="s">
+        <v>3439</v>
+      </c>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="E113" s="4" t="s">
@@ -48142,8 +48514,11 @@
       <c r="F113" t="s">
         <v>2142</v>
       </c>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="33" t="s">
+        <v>3440</v>
+      </c>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="E114" s="4" t="s">
@@ -48152,24 +48527,33 @@
       <c r="F114" t="s">
         <v>2143</v>
       </c>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="33" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E115" s="4" t="s">
         <v>2187</v>
       </c>
       <c r="F115" t="s">
         <v>2144</v>
       </c>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G115" s="33" t="s">
+        <v>3442</v>
+      </c>
+    </row>
+    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E116" s="4" t="s">
         <v>2188</v>
       </c>
       <c r="F116" t="s">
         <v>2145</v>
       </c>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="33" t="s">
+        <v>3443</v>
+      </c>
+    </row>
+    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>1830</v>
       </c>
@@ -48182,8 +48566,9 @@
       <c r="F117" t="s">
         <v>2146</v>
       </c>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G117" s="33"/>
+    </row>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>1866</v>
       </c>
@@ -48196,16 +48581,22 @@
       <c r="F118" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G118" s="33" t="s">
+        <v>3444</v>
+      </c>
+    </row>
+    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E119" s="4" t="s">
         <v>2191</v>
       </c>
       <c r="F119" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G119" s="33" t="s">
+        <v>3445</v>
+      </c>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
         <v>1872</v>
       </c>
@@ -48218,8 +48609,9 @@
       <c r="F120" t="s">
         <v>2149</v>
       </c>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G120" s="33"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
         <v>1874</v>
       </c>
@@ -48232,8 +48624,9 @@
       <c r="F121" t="s">
         <v>2150</v>
       </c>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G121" s="33"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
         <v>1875</v>
       </c>
@@ -48246,8 +48639,11 @@
       <c r="F122" t="s">
         <v>2151</v>
       </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G122" s="33" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
         <v>1876</v>
       </c>
@@ -48260,8 +48656,11 @@
       <c r="F123" t="s">
         <v>2152</v>
       </c>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G123" s="33" t="s">
+        <v>3446</v>
+      </c>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
         <v>1897</v>
       </c>
@@ -48274,8 +48673,11 @@
       <c r="F124" t="s">
         <v>2127</v>
       </c>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G124" s="33" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
         <v>1898</v>
       </c>
@@ -48288,8 +48690,9 @@
       <c r="F125" t="s">
         <v>2153</v>
       </c>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G125" s="33"/>
+    </row>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
         <v>1899</v>
       </c>
@@ -48302,8 +48705,11 @@
       <c r="F126" t="s">
         <v>2204</v>
       </c>
-    </row>
-    <row r="127" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G126" s="33" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
         <v>1900</v>
       </c>
@@ -48311,7 +48717,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="129" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
         <v>1906</v>
       </c>
@@ -48319,7 +48725,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="131" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
         <v>1912</v>
       </c>
@@ -48327,7 +48733,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="132" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
         <v>1921</v>
       </c>
@@ -48340,16 +48746,22 @@
       <c r="F132" s="5" t="s">
         <v>1303</v>
       </c>
-    </row>
-    <row r="133" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G132" s="33" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E133" s="5" t="s">
         <v>2268</v>
       </c>
       <c r="F133" s="5" t="s">
         <v>1306</v>
       </c>
-    </row>
-    <row r="134" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G133" s="33" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B134" s="7" t="s">
         <v>1929</v>
       </c>
@@ -48362,8 +48774,11 @@
       <c r="F134" s="5" t="s">
         <v>1311</v>
       </c>
-    </row>
-    <row r="135" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="33" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B135" s="7" t="s">
         <v>1930</v>
       </c>
@@ -48376,8 +48791,9 @@
       <c r="F135" s="5" t="s">
         <v>2323</v>
       </c>
-    </row>
-    <row r="136" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G135" s="33"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
         <v>1931</v>
       </c>
@@ -48390,8 +48806,11 @@
       <c r="F136" s="5" t="s">
         <v>2325</v>
       </c>
-    </row>
-    <row r="137" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G136" s="33" t="s">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B137" s="7" t="s">
         <v>1932</v>
       </c>
@@ -48404,8 +48823,11 @@
       <c r="F137" s="5" t="s">
         <v>1327</v>
       </c>
-    </row>
-    <row r="138" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G137" s="33" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B138" s="7" t="s">
         <v>1933</v>
       </c>
@@ -48418,8 +48840,9 @@
       <c r="F138" s="5" t="s">
         <v>2328</v>
       </c>
-    </row>
-    <row r="139" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G138" s="33"/>
+    </row>
+    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
         <v>1934</v>
       </c>
@@ -48432,8 +48855,11 @@
       <c r="F139" s="5" t="s">
         <v>2330</v>
       </c>
-    </row>
-    <row r="140" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="33" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B140" s="7" t="s">
         <v>1935</v>
       </c>
@@ -48446,8 +48872,9 @@
       <c r="F140" s="5" t="s">
         <v>2331</v>
       </c>
-    </row>
-    <row r="141" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G140" s="33"/>
+    </row>
+    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
         <v>1936</v>
       </c>
@@ -48460,8 +48887,9 @@
       <c r="F141" s="5" t="s">
         <v>2945</v>
       </c>
-    </row>
-    <row r="142" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G141" s="33"/>
+    </row>
+    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B142" s="7" t="s">
         <v>1937</v>
       </c>
@@ -48474,24 +48902,27 @@
       <c r="F142" s="5" t="s">
         <v>2336</v>
       </c>
-    </row>
-    <row r="143" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G142" s="33"/>
+    </row>
+    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E143" s="5" t="s">
         <v>2278</v>
       </c>
       <c r="F143" s="5" t="s">
         <v>2337</v>
       </c>
-    </row>
-    <row r="144" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G143" s="33"/>
+    </row>
+    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E144" s="5" t="s">
         <v>2279</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>2338</v>
       </c>
-    </row>
-    <row r="145" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G144" s="33"/>
+    </row>
+    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
         <v>1953</v>
       </c>
@@ -48504,8 +48935,11 @@
       <c r="F145" s="5" t="s">
         <v>2340</v>
       </c>
-    </row>
-    <row r="146" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G145" s="33" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B146" s="7" t="s">
         <v>1954</v>
       </c>
@@ -48518,8 +48952,11 @@
       <c r="F146" s="5" t="s">
         <v>2342</v>
       </c>
-    </row>
-    <row r="147" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G146" s="33" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B147" s="7" t="s">
         <v>1955</v>
       </c>
@@ -48532,8 +48969,9 @@
       <c r="F147" s="5" t="s">
         <v>2344</v>
       </c>
-    </row>
-    <row r="148" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G147" s="33"/>
+    </row>
+    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
         <v>1956</v>
       </c>
@@ -48546,8 +48984,11 @@
       <c r="F148" s="5" t="s">
         <v>2346</v>
       </c>
-    </row>
-    <row r="149" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G148" s="33" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B149" s="7" t="s">
         <v>1957</v>
       </c>
@@ -48560,8 +49001,11 @@
       <c r="F149" s="5" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="150" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G149" s="33" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B150" s="7" t="s">
         <v>1960</v>
       </c>
@@ -48574,24 +49018,31 @@
       <c r="F150" s="5" t="s">
         <v>2349</v>
       </c>
-    </row>
-    <row r="151" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G150" s="33"/>
+    </row>
+    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E151" s="5" t="s">
         <v>2286</v>
       </c>
       <c r="F151" s="5" t="s">
         <v>2350</v>
       </c>
-    </row>
-    <row r="152" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G151" s="33" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E152" s="5" t="s">
         <v>2287</v>
       </c>
       <c r="F152" s="5" t="s">
         <v>2352</v>
       </c>
-    </row>
-    <row r="153" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G152" s="33" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="13" t="s">
         <v>3220</v>
       </c>
@@ -48604,120 +49055,161 @@
       <c r="F153" s="5" t="s">
         <v>2353</v>
       </c>
-    </row>
-    <row r="154" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G153" s="33" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E154" s="5" t="s">
         <v>2289</v>
       </c>
       <c r="F154" s="5" t="s">
         <v>2355</v>
       </c>
-    </row>
-    <row r="155" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G154" s="33" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E155" s="5" t="s">
         <v>2290</v>
       </c>
       <c r="F155" s="5" t="s">
         <v>2356</v>
       </c>
-    </row>
-    <row r="156" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G155" s="33" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E156" s="5" t="s">
         <v>2291</v>
       </c>
       <c r="F156" s="5" t="s">
         <v>2357</v>
       </c>
-    </row>
-    <row r="157" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G156" s="33"/>
+    </row>
+    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E157" s="5" t="s">
         <v>2292</v>
       </c>
       <c r="F157" s="5" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="158" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G157" s="33"/>
+    </row>
+    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E158" s="5" t="s">
         <v>2293</v>
       </c>
       <c r="F158" s="5" t="s">
         <v>1485</v>
       </c>
-    </row>
-    <row r="159" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G158" s="33" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E159" s="5" t="s">
         <v>2294</v>
       </c>
       <c r="F159" s="5" t="s">
         <v>1554</v>
       </c>
-    </row>
-    <row r="160" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G159" s="33" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E160" s="5" t="s">
         <v>2295</v>
       </c>
       <c r="F160" s="5" t="s">
         <v>1551</v>
       </c>
-    </row>
-    <row r="161" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G160" s="33" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E161" s="5" t="s">
         <v>2296</v>
       </c>
       <c r="F161" s="5" t="s">
         <v>2363</v>
       </c>
-    </row>
-    <row r="162" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="33" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E162" s="5" t="s">
         <v>2297</v>
       </c>
       <c r="F162" s="5" t="s">
         <v>2365</v>
       </c>
-    </row>
-    <row r="163" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G162" s="33" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E163" s="5" t="s">
         <v>2298</v>
       </c>
       <c r="F163" s="5" t="s">
         <v>1472</v>
       </c>
-    </row>
-    <row r="164" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="33" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E164" s="5" t="s">
         <v>2299</v>
       </c>
       <c r="F164" s="5" t="s">
         <v>1522</v>
       </c>
-    </row>
-    <row r="165" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G164" s="33" t="s">
+        <v>3441</v>
+      </c>
+    </row>
+    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E165" s="5" t="s">
         <v>2300</v>
       </c>
       <c r="F165" s="5" t="s">
         <v>1443</v>
       </c>
-    </row>
-    <row r="166" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G165" s="33" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E166" s="5" t="s">
         <v>2301</v>
       </c>
       <c r="F166" s="5" t="s">
         <v>1436</v>
       </c>
-    </row>
-    <row r="167" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G166" s="33" t="s">
+        <v>3462</v>
+      </c>
+    </row>
+    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E167" s="5" t="s">
         <v>2302</v>
       </c>
       <c r="F167" s="5" t="s">
         <v>1539</v>
       </c>
-    </row>
-    <row r="168" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G167" s="33" t="s">
+        <v>3463</v>
+      </c>
+    </row>
+    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B168" s="12" t="s">
         <v>1970</v>
       </c>
@@ -48730,8 +49222,11 @@
       <c r="F168" s="5" t="s">
         <v>1435</v>
       </c>
-    </row>
-    <row r="169" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G168" s="33" t="s">
+        <v>3464</v>
+      </c>
+    </row>
+    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B169" s="12" t="s">
         <v>2872</v>
       </c>
@@ -48744,8 +49239,11 @@
       <c r="F169" s="5" t="s">
         <v>1400</v>
       </c>
-    </row>
-    <row r="170" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G169" s="33" t="s">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B170" s="12" t="s">
         <v>2873</v>
       </c>
@@ -48758,8 +49256,11 @@
       <c r="F170" s="5" t="s">
         <v>1548</v>
       </c>
-    </row>
-    <row r="171" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G170" s="33" t="s">
+        <v>3466</v>
+      </c>
+    </row>
+    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B171" s="12" t="s">
         <v>2874</v>
       </c>
@@ -48772,8 +49273,11 @@
       <c r="F171" s="5" t="s">
         <v>2375</v>
       </c>
-    </row>
-    <row r="172" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G171" s="33" t="s">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B172" s="12" t="s">
         <v>2875</v>
       </c>
@@ -48786,8 +49290,11 @@
       <c r="F172" s="5" t="s">
         <v>1476</v>
       </c>
-    </row>
-    <row r="173" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G172" s="33" t="s">
+        <v>3437</v>
+      </c>
+    </row>
+    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B173" s="12" t="s">
         <v>2876</v>
       </c>
@@ -48800,8 +49307,11 @@
       <c r="F173" s="5" t="s">
         <v>1563</v>
       </c>
-    </row>
-    <row r="174" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G173" s="33" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B174" s="12" t="s">
         <v>2877</v>
       </c>
@@ -48814,8 +49324,9 @@
       <c r="F174" s="5" t="s">
         <v>1493</v>
       </c>
-    </row>
-    <row r="175" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G174" s="33"/>
+    </row>
+    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B175" s="12" t="s">
         <v>2878</v>
       </c>
@@ -48828,8 +49339,11 @@
       <c r="F175" s="5" t="s">
         <v>1366</v>
       </c>
-    </row>
-    <row r="176" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G175" s="33" t="s">
+        <v>3467</v>
+      </c>
+    </row>
+    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
         <v>2879</v>
       </c>
@@ -48842,8 +49356,9 @@
       <c r="F176" s="5" t="s">
         <v>1444</v>
       </c>
-    </row>
-    <row r="177" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G176" s="33"/>
+    </row>
+    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B177" s="12" t="s">
         <v>2880</v>
       </c>
@@ -48856,8 +49371,11 @@
       <c r="F177" s="5" t="s">
         <v>1389</v>
       </c>
-    </row>
-    <row r="178" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G177" s="33" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B178" s="12" t="s">
         <v>2881</v>
       </c>
@@ -48870,8 +49388,11 @@
       <c r="F178" s="5" t="s">
         <v>1502</v>
       </c>
-    </row>
-    <row r="179" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G178" s="33" t="s">
+        <v>3469</v>
+      </c>
+    </row>
+    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B179" s="12" t="s">
         <v>2882</v>
       </c>
@@ -48884,8 +49405,9 @@
       <c r="F179" s="5" t="s">
         <v>1534</v>
       </c>
-    </row>
-    <row r="180" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="33"/>
+    </row>
+    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B180" s="12" t="s">
         <v>2883</v>
       </c>
@@ -48898,8 +49420,11 @@
       <c r="F180" s="5" t="s">
         <v>1397</v>
       </c>
-    </row>
-    <row r="181" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="33" t="s">
+        <v>3470</v>
+      </c>
+    </row>
+    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B181" s="12" t="s">
         <v>2884</v>
       </c>
@@ -48912,8 +49437,11 @@
       <c r="F181" s="5" t="s">
         <v>1508</v>
       </c>
-    </row>
-    <row r="182" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G181" s="33" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B182" s="12" t="s">
         <v>2885</v>
       </c>
@@ -48926,8 +49454,11 @@
       <c r="F182" s="5" t="s">
         <v>1369</v>
       </c>
-    </row>
-    <row r="183" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G182" s="33" t="s">
+        <v>3471</v>
+      </c>
+    </row>
+    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B183" s="12" t="s">
         <v>2886</v>
       </c>
@@ -48940,8 +49471,9 @@
       <c r="F183" s="5" t="s">
         <v>2387</v>
       </c>
-    </row>
-    <row r="184" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G183" s="33"/>
+    </row>
+    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B184" s="12" t="s">
         <v>2894</v>
       </c>
@@ -48954,8 +49486,9 @@
       <c r="F184" s="5" t="s">
         <v>2947</v>
       </c>
-    </row>
-    <row r="185" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G184" s="33"/>
+    </row>
+    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
         <v>2895</v>
       </c>
@@ -48963,7 +49496,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="186" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B186" s="12" t="s">
         <v>2896</v>
       </c>
@@ -48971,15 +49504,18 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="187" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B187" s="12" t="s">
         <v>2897</v>
       </c>
       <c r="C187" s="12" t="s">
         <v>2907</v>
       </c>
-    </row>
-    <row r="188" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G187" t="s">
+        <v>3478</v>
+      </c>
+    </row>
+    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B188" s="12" t="s">
         <v>2898</v>
       </c>
@@ -48992,8 +49528,11 @@
       <c r="F188" s="15" t="s">
         <v>2403</v>
       </c>
-    </row>
-    <row r="189" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G188" t="s">
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B189" s="12" t="s">
         <v>2899</v>
       </c>
@@ -49007,7 +49546,7 @@
         <v>2414</v>
       </c>
     </row>
-    <row r="190" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E190" s="15" t="s">
         <v>2416</v>
       </c>
@@ -49015,7 +49554,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="191" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>1977</v>
       </c>
@@ -49028,8 +49567,11 @@
       <c r="F191" s="15" t="s">
         <v>2446</v>
       </c>
-    </row>
-    <row r="192" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G191" t="s">
+        <v>3351</v>
+      </c>
+    </row>
+    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>1978</v>
       </c>
@@ -49243,7 +49785,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>2008</v>
       </c>
@@ -49254,7 +49796,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>2009</v>
       </c>
@@ -49265,7 +49807,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>2010</v>
       </c>
@@ -49276,7 +49818,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>2011</v>
       </c>
@@ -49287,7 +49829,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>2012</v>
       </c>
@@ -49298,7 +49840,7 @@
         <v>2948</v>
       </c>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>2013</v>
       </c>
@@ -49309,7 +49851,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>2014</v>
       </c>
@@ -49320,7 +49862,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="216" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>2015</v>
       </c>
@@ -49331,7 +49873,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="217" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>2016</v>
       </c>
@@ -49342,22 +49884,22 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="218" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>2017</v>
       </c>
     </row>
-    <row r="219" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="220" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="221" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>2020</v>
       </c>
@@ -49367,8 +49909,9 @@
       <c r="F221" s="16" t="s">
         <v>2484</v>
       </c>
-    </row>
-    <row r="222" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G221" s="33"/>
+    </row>
+    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>2021</v>
       </c>
@@ -49378,8 +49921,11 @@
       <c r="F222" s="16" t="s">
         <v>2485</v>
       </c>
-    </row>
-    <row r="223" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="33" t="s">
+        <v>3472</v>
+      </c>
+    </row>
+    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>2022</v>
       </c>
@@ -49389,8 +49935,11 @@
       <c r="F223" s="16" t="s">
         <v>2486</v>
       </c>
-    </row>
-    <row r="224" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G223" s="33" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>2023</v>
       </c>
@@ -49400,8 +49949,9 @@
       <c r="F224" s="16" t="s">
         <v>2915</v>
       </c>
-    </row>
-    <row r="225" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G224" s="33"/>
+    </row>
+    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
         <v>2024</v>
       </c>
@@ -49411,8 +49961,9 @@
       <c r="F225" s="16" t="s">
         <v>2487</v>
       </c>
-    </row>
-    <row r="226" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G225" s="33"/>
+    </row>
+    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
         <v>2025</v>
       </c>
@@ -49422,8 +49973,11 @@
       <c r="F226" s="16" t="s">
         <v>2488</v>
       </c>
-    </row>
-    <row r="227" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G226" s="33" t="s">
+        <v>3476</v>
+      </c>
+    </row>
+    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B227" t="s">
         <v>2026</v>
       </c>
@@ -49433,8 +49987,11 @@
       <c r="F227" s="16" t="s">
         <v>2489</v>
       </c>
-    </row>
-    <row r="228" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G227" s="33" t="s">
+        <v>3473</v>
+      </c>
+    </row>
+    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B228" t="s">
         <v>2027</v>
       </c>
@@ -49444,8 +50001,11 @@
       <c r="F228" s="16" t="s">
         <v>2490</v>
       </c>
-    </row>
-    <row r="229" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G228" s="33" t="s">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B229" t="s">
         <v>2028</v>
       </c>
@@ -49455,8 +50015,11 @@
       <c r="F229" s="16" t="s">
         <v>2491</v>
       </c>
-    </row>
-    <row r="230" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G229" s="33" t="s">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B230" t="s">
         <v>2029</v>
       </c>
@@ -49466,8 +50029,11 @@
       <c r="F230" s="16" t="s">
         <v>2492</v>
       </c>
-    </row>
-    <row r="231" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G230" s="33" t="s">
+        <v>3474</v>
+      </c>
+    </row>
+    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B231" t="s">
         <v>2030</v>
       </c>
@@ -49477,8 +50043,11 @@
       <c r="F231" s="16" t="s">
         <v>2493</v>
       </c>
-    </row>
-    <row r="232" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G231" s="33" t="s">
+        <v>3475</v>
+      </c>
+    </row>
+    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B232" t="s">
         <v>2031</v>
       </c>
@@ -49488,8 +50057,9 @@
       <c r="F232" s="16" t="s">
         <v>2494</v>
       </c>
-    </row>
-    <row r="233" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G232" s="33"/>
+    </row>
+    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
         <v>2032</v>
       </c>
@@ -49499,8 +50069,9 @@
       <c r="F233" s="16" t="s">
         <v>2495</v>
       </c>
-    </row>
-    <row r="234" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G233" s="33"/>
+    </row>
+    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
         <v>2033</v>
       </c>
@@ -49513,8 +50084,9 @@
       <c r="F234" s="16" t="s">
         <v>2496</v>
       </c>
-    </row>
-    <row r="235" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G234" s="33"/>
+    </row>
+    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
         <v>2034</v>
       </c>
@@ -49524,8 +50096,11 @@
       <c r="F235" s="16" t="s">
         <v>2498</v>
       </c>
-    </row>
-    <row r="236" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G235" s="33" t="s">
+        <v>3477</v>
+      </c>
+    </row>
+    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B236" t="s">
         <v>2035</v>
       </c>
@@ -49535,8 +50110,9 @@
       <c r="F236" s="16" t="s">
         <v>2499</v>
       </c>
-    </row>
-    <row r="237" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G236" s="33"/>
+    </row>
+    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
         <v>2036</v>
       </c>
@@ -49546,8 +50122,9 @@
       <c r="F237" s="16" t="s">
         <v>2500</v>
       </c>
-    </row>
-    <row r="238" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G237" s="33"/>
+    </row>
+    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
         <v>2037</v>
       </c>
@@ -49557,8 +50134,9 @@
       <c r="F238" s="16" t="s">
         <v>2501</v>
       </c>
-    </row>
-    <row r="239" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G238" s="33"/>
+    </row>
+    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
         <v>2038</v>
       </c>
@@ -49568,8 +50146,9 @@
       <c r="F239" s="16" t="s">
         <v>2502</v>
       </c>
-    </row>
-    <row r="240" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G239" s="33"/>
+    </row>
+    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
         <v>2039</v>
       </c>
@@ -49579,8 +50158,9 @@
       <c r="F240" s="16" t="s">
         <v>2503</v>
       </c>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G240" s="33"/>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>2040</v>
       </c>
@@ -49590,8 +50170,9 @@
       <c r="F241" s="16" t="s">
         <v>2504</v>
       </c>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G241" s="33"/>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>2041</v>
       </c>
@@ -49601,8 +50182,9 @@
       <c r="F242" s="16" t="s">
         <v>2505</v>
       </c>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G242" s="33"/>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>2042</v>
       </c>
@@ -49612,8 +50194,9 @@
       <c r="F243" s="16" t="s">
         <v>2506</v>
       </c>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G243" s="33"/>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>2043</v>
       </c>
@@ -49623,8 +50206,9 @@
       <c r="F244" s="16" t="s">
         <v>2507</v>
       </c>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G244" s="33"/>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>2044</v>
       </c>
@@ -49634,8 +50218,9 @@
       <c r="F245" s="16" t="s">
         <v>2508</v>
       </c>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G245" s="33"/>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>2045</v>
       </c>
@@ -49645,8 +50230,9 @@
       <c r="F246" s="16" t="s">
         <v>2949</v>
       </c>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G246" s="33"/>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>2046</v>
       </c>
@@ -49656,8 +50242,9 @@
       <c r="F247" s="16" t="s">
         <v>1448</v>
       </c>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G247" s="33"/>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>2047</v>
       </c>
@@ -49667,8 +50254,9 @@
       <c r="F248" s="16" t="s">
         <v>2509</v>
       </c>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G248" s="33"/>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>2048</v>
       </c>
@@ -49678,8 +50266,9 @@
       <c r="F249" s="16" t="s">
         <v>2510</v>
       </c>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G249" s="33"/>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>2049</v>
       </c>
@@ -49689,8 +50278,9 @@
       <c r="F250" s="16" t="s">
         <v>2511</v>
       </c>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G250" s="33"/>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>2050</v>
       </c>
@@ -49700,8 +50290,9 @@
       <c r="F251" s="16" t="s">
         <v>2512</v>
       </c>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G251" s="33"/>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>2051</v>
       </c>
@@ -49711,8 +50302,9 @@
       <c r="F252" s="16" t="s">
         <v>2513</v>
       </c>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G252" s="33"/>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>2052</v>
       </c>
@@ -49722,8 +50314,9 @@
       <c r="F253" s="16" t="s">
         <v>2514</v>
       </c>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G253" s="33"/>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>2053</v>
       </c>
@@ -49733,8 +50326,9 @@
       <c r="F254" s="16" t="s">
         <v>2515</v>
       </c>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G254" s="33"/>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>2054</v>
       </c>
@@ -49744,8 +50338,9 @@
       <c r="F255" s="16" t="s">
         <v>2516</v>
       </c>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G255" s="33"/>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>2055</v>
       </c>
@@ -49755,8 +50350,9 @@
       <c r="F256" s="16" t="s">
         <v>2517</v>
       </c>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G256" s="33"/>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>2056</v>
       </c>
@@ -49766,8 +50362,9 @@
       <c r="F257" s="16" t="s">
         <v>2518</v>
       </c>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G257" s="33"/>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>2057</v>
       </c>
@@ -49777,8 +50374,9 @@
       <c r="F258" s="16" t="s">
         <v>2519</v>
       </c>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G258" s="33"/>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>2058</v>
       </c>
@@ -49788,8 +50386,9 @@
       <c r="F259" s="16" t="s">
         <v>2520</v>
       </c>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G259" s="33"/>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>2059</v>
       </c>
@@ -49799,8 +50398,9 @@
       <c r="F260" s="16" t="s">
         <v>2521</v>
       </c>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G260" s="33"/>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>2060</v>
       </c>
@@ -49810,8 +50410,9 @@
       <c r="F261" s="16" t="s">
         <v>2522</v>
       </c>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G261" s="33"/>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>2061</v>
       </c>
@@ -49821,8 +50422,9 @@
       <c r="F262" s="16" t="s">
         <v>2523</v>
       </c>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G262" s="33"/>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>2062</v>
       </c>
@@ -49832,8 +50434,9 @@
       <c r="F263" s="16" t="s">
         <v>2916</v>
       </c>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G263" s="33"/>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>2063</v>
       </c>
@@ -49843,8 +50446,9 @@
       <c r="F264" s="16" t="s">
         <v>2524</v>
       </c>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G264" s="33"/>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>2064</v>
       </c>
@@ -49854,8 +50458,9 @@
       <c r="F265" s="16" t="s">
         <v>1458</v>
       </c>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G265" s="33"/>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>2065</v>
       </c>
@@ -49865,8 +50470,9 @@
       <c r="F266" s="16" t="s">
         <v>1513</v>
       </c>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G266" s="33"/>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>2066</v>
       </c>
@@ -49876,8 +50482,9 @@
       <c r="F267" s="16" t="s">
         <v>2525</v>
       </c>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G267" s="33"/>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>2067</v>
       </c>
@@ -49887,8 +50494,9 @@
       <c r="F268" s="16" t="s">
         <v>2526</v>
       </c>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G268" s="33"/>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>2068</v>
       </c>
@@ -49898,8 +50506,9 @@
       <c r="F269" s="16" t="s">
         <v>2527</v>
       </c>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G269" s="33"/>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>2069</v>
       </c>
@@ -49909,8 +50518,9 @@
       <c r="F270" s="16" t="s">
         <v>2528</v>
       </c>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G270" s="33"/>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>2070</v>
       </c>
@@ -49920,8 +50530,9 @@
       <c r="F271" s="16" t="s">
         <v>1308</v>
       </c>
-    </row>
-    <row r="272" spans="2:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="G271" s="33"/>
+    </row>
+    <row r="272" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>2071</v>
       </c>
@@ -49931,8 +50542,9 @@
       <c r="F272" s="17" t="s">
         <v>1357</v>
       </c>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G272" s="33"/>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>2072</v>
       </c>
@@ -49942,8 +50554,9 @@
       <c r="F273" s="16" t="s">
         <v>1356</v>
       </c>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G273" s="33"/>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>2073</v>
       </c>
@@ -49953,8 +50566,9 @@
       <c r="F274" s="16" t="s">
         <v>1392</v>
       </c>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G274" s="33"/>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>2074</v>
       </c>
@@ -49964,8 +50578,9 @@
       <c r="F275" s="16" t="s">
         <v>1512</v>
       </c>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G275" s="33"/>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>2075</v>
       </c>
@@ -49975,8 +50590,9 @@
       <c r="F276" s="16" t="s">
         <v>1518</v>
       </c>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G276" s="33"/>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>2076</v>
       </c>
@@ -49986,8 +50602,9 @@
       <c r="F277" s="16" t="s">
         <v>1324</v>
       </c>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G277" s="33"/>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>2077</v>
       </c>
@@ -49997,8 +50614,9 @@
       <c r="F278" s="16" t="s">
         <v>1523</v>
       </c>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G278" s="33"/>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>2078</v>
       </c>
@@ -50008,8 +50626,9 @@
       <c r="F279" s="16" t="s">
         <v>1578</v>
       </c>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G279" s="33"/>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>2079</v>
       </c>
@@ -50019,8 +50638,9 @@
       <c r="F280" s="16" t="s">
         <v>2530</v>
       </c>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G280" s="33"/>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>2080</v>
       </c>
@@ -50030,8 +50650,9 @@
       <c r="F281" s="16" t="s">
         <v>1364</v>
       </c>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G281" s="33"/>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>2081</v>
       </c>
@@ -50041,8 +50662,9 @@
       <c r="F282" s="16" t="s">
         <v>2531</v>
       </c>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G282" s="33"/>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>2082</v>
       </c>
@@ -50052,8 +50674,9 @@
       <c r="F283" s="16" t="s">
         <v>1495</v>
       </c>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G283" s="33"/>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>2083</v>
       </c>
@@ -50063,8 +50686,9 @@
       <c r="F284" s="16" t="s">
         <v>1504</v>
       </c>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G284" s="33"/>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>2084</v>
       </c>
@@ -50074,8 +50698,9 @@
       <c r="F285" s="16" t="s">
         <v>1413</v>
       </c>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G285" s="33"/>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>2085</v>
       </c>
@@ -50085,8 +50710,9 @@
       <c r="F286" s="16" t="s">
         <v>1585</v>
       </c>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G286" s="33"/>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>2086</v>
       </c>
@@ -50096,40 +50722,45 @@
       <c r="F287" s="16" t="s">
         <v>1437</v>
       </c>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G287" s="33"/>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E288" s="16" t="s">
         <v>2600</v>
       </c>
       <c r="F288" s="16" t="s">
         <v>1575</v>
       </c>
-    </row>
-    <row r="289" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G288" s="33"/>
+    </row>
+    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E289" s="16" t="s">
         <v>2601</v>
       </c>
       <c r="F289" s="16" t="s">
         <v>1320</v>
       </c>
-    </row>
-    <row r="290" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G289" s="33"/>
+    </row>
+    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E290" s="16" t="s">
         <v>2602</v>
       </c>
       <c r="F290" s="16" t="s">
         <v>2950</v>
       </c>
-    </row>
-    <row r="291" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G290" s="33"/>
+    </row>
+    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E291" s="16" t="s">
         <v>2603</v>
       </c>
       <c r="F291" s="16" t="s">
         <v>1423</v>
       </c>
-    </row>
-    <row r="292" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G291" s="33"/>
+    </row>
+    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C292" s="23"/>
       <c r="E292" s="16" t="s">
         <v>2604</v>
@@ -50137,192 +50768,216 @@
       <c r="F292" s="16" t="s">
         <v>1419</v>
       </c>
-    </row>
-    <row r="293" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G292" s="33"/>
+    </row>
+    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E293" s="16" t="s">
         <v>2605</v>
       </c>
       <c r="F293" s="16" t="s">
         <v>1385</v>
       </c>
-    </row>
-    <row r="294" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G293" s="33"/>
+    </row>
+    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E294" s="16" t="s">
         <v>2606</v>
       </c>
       <c r="F294" s="16" t="s">
         <v>1451</v>
       </c>
-    </row>
-    <row r="295" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G294" s="33"/>
+    </row>
+    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E295" s="16" t="s">
         <v>2607</v>
       </c>
       <c r="F295" s="16" t="s">
         <v>1373</v>
       </c>
-    </row>
-    <row r="296" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G295" s="33"/>
+    </row>
+    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E296" s="16" t="s">
         <v>2608</v>
       </c>
       <c r="F296" s="16" t="s">
         <v>1440</v>
       </c>
-    </row>
-    <row r="297" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G296" s="33"/>
+    </row>
+    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E297" s="16" t="s">
         <v>2609</v>
       </c>
       <c r="F297" s="16" t="s">
         <v>1482</v>
       </c>
-    </row>
-    <row r="298" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G297" s="33"/>
+    </row>
+    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E298" s="16" t="s">
         <v>2610</v>
       </c>
       <c r="F298" s="16" t="s">
         <v>1566</v>
       </c>
-    </row>
-    <row r="299" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G298" s="33"/>
+    </row>
+    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E299" s="16" t="s">
         <v>2611</v>
       </c>
       <c r="F299" s="16" t="s">
         <v>1310</v>
       </c>
-    </row>
-    <row r="300" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G299" s="33"/>
+    </row>
+    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E300" s="16" t="s">
         <v>2612</v>
       </c>
       <c r="F300" s="16" t="s">
         <v>1407</v>
       </c>
-    </row>
-    <row r="301" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G300" s="33"/>
+    </row>
+    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E301" s="16" t="s">
         <v>2613</v>
       </c>
       <c r="F301" s="16" t="s">
         <v>1339</v>
       </c>
-    </row>
-    <row r="302" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G301" s="33"/>
+    </row>
+    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E302" s="16" t="s">
         <v>2614</v>
       </c>
       <c r="F302" s="16" t="s">
         <v>1411</v>
       </c>
-    </row>
-    <row r="303" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G302" s="33"/>
+    </row>
+    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E303" s="16" t="s">
         <v>2615</v>
       </c>
       <c r="F303" s="16" t="s">
         <v>1559</v>
       </c>
-    </row>
-    <row r="304" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="G303" s="33"/>
+    </row>
+    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E304" s="16" t="s">
         <v>2616</v>
       </c>
       <c r="F304" s="16" t="s">
         <v>1312</v>
       </c>
-    </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G304" s="33"/>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E305" s="16" t="s">
         <v>2617</v>
       </c>
       <c r="F305" s="16" t="s">
         <v>2532</v>
       </c>
-    </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G305" s="33"/>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E306" s="16" t="s">
         <v>2618</v>
       </c>
       <c r="F306" s="16" t="s">
         <v>1418</v>
       </c>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G306" s="33"/>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E307" s="16" t="s">
         <v>2619</v>
       </c>
       <c r="F307" s="16" t="s">
         <v>1801</v>
       </c>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G307" s="33"/>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E308" s="16" t="s">
         <v>2620</v>
       </c>
       <c r="F308" s="16" t="s">
         <v>1334</v>
       </c>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G308" s="33"/>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E309" s="16" t="s">
         <v>2621</v>
       </c>
       <c r="F309" s="16" t="s">
         <v>1521</v>
       </c>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G309" s="33"/>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E310" s="16" t="s">
         <v>2622</v>
       </c>
       <c r="F310" s="16" t="s">
         <v>1414</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G310" s="33"/>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E311" s="16" t="s">
         <v>2623</v>
       </c>
       <c r="F311" s="16" t="s">
         <v>1526</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G311" s="33"/>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E312" s="16" t="s">
         <v>2624</v>
       </c>
       <c r="F312" s="16" t="s">
         <v>1584</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G312" s="33"/>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E313" s="16" t="s">
         <v>2625</v>
       </c>
       <c r="F313" s="16" t="s">
         <v>2727</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G313" s="33"/>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E314" s="16" t="s">
         <v>2626</v>
       </c>
       <c r="F314" s="16" t="s">
         <v>2729</v>
       </c>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G314" s="33"/>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E315" s="16" t="s">
         <v>2627</v>
       </c>
       <c r="F315" s="16" t="s">
         <v>1379</v>
       </c>
-    </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G315" s="33"/>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="s">
         <v>2766</v>
       </c>
@@ -50338,8 +50993,9 @@
       <c r="F316" s="16" t="s">
         <v>1569</v>
       </c>
-    </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G316" s="33"/>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="s">
         <v>2958</v>
       </c>
@@ -50355,8 +51011,9 @@
       <c r="F317" s="16" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G317" s="33"/>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="s">
         <v>2959</v>
       </c>
@@ -50372,8 +51029,9 @@
       <c r="F318" s="16" t="s">
         <v>1465</v>
       </c>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G318" s="33"/>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="s">
         <v>2960</v>
       </c>
@@ -50389,8 +51047,9 @@
       <c r="F319" s="16" t="s">
         <v>1499</v>
       </c>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G319" s="33"/>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="s">
         <v>2961</v>
       </c>
@@ -50406,8 +51065,9 @@
       <c r="F320" s="16" t="s">
         <v>1462</v>
       </c>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G320" s="33"/>
+    </row>
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="s">
         <v>2962</v>
       </c>
@@ -50423,8 +51083,9 @@
       <c r="F321" s="16" t="s">
         <v>1532</v>
       </c>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G321" s="33"/>
+    </row>
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
         <v>2963</v>
       </c>
@@ -50440,8 +51101,9 @@
       <c r="F322" s="16" t="s">
         <v>1486</v>
       </c>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G322" s="33"/>
+    </row>
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="s">
         <v>2964</v>
       </c>
@@ -50457,8 +51119,9 @@
       <c r="F323" s="16" t="s">
         <v>1496</v>
       </c>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G323" s="33"/>
+    </row>
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="s">
         <v>2965</v>
       </c>
@@ -50474,8 +51137,9 @@
       <c r="F324" s="16" t="s">
         <v>1562</v>
       </c>
-    </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G324" s="33"/>
+    </row>
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="s">
         <v>2966</v>
       </c>
@@ -50491,8 +51155,9 @@
       <c r="F325" s="16" t="s">
         <v>1417</v>
       </c>
-    </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G325" s="33"/>
+    </row>
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
         <v>2967</v>
       </c>
@@ -50508,8 +51173,9 @@
       <c r="F326" s="16" t="s">
         <v>1537</v>
       </c>
-    </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G326" s="33"/>
+    </row>
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
         <v>2968</v>
       </c>
@@ -50525,8 +51191,9 @@
       <c r="F327" s="16" t="s">
         <v>1488</v>
       </c>
-    </row>
-    <row r="328" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="G327" s="33"/>
+    </row>
+    <row r="328" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="24" t="s">
         <v>2969</v>
       </c>
@@ -50542,16 +51209,18 @@
       <c r="F328" s="17" t="s">
         <v>1434</v>
       </c>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G328" s="33"/>
+    </row>
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E329" s="16" t="s">
         <v>2742</v>
       </c>
       <c r="F329" s="16" t="s">
         <v>1375</v>
       </c>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G329" s="33"/>
+    </row>
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B330" s="26" t="s">
         <v>2977</v>
       </c>
@@ -50561,48 +51230,54 @@
       <c r="F330" s="16" t="s">
         <v>1456</v>
       </c>
-    </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G330" s="33"/>
+    </row>
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E331" s="16" t="s">
         <v>2753</v>
       </c>
       <c r="F331" s="16" t="s">
         <v>1553</v>
       </c>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G331" s="33"/>
+    </row>
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E332" s="16" t="s">
         <v>2754</v>
       </c>
       <c r="F332" s="16" t="s">
         <v>2760</v>
       </c>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G332" s="33"/>
+    </row>
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E333" s="16" t="s">
         <v>2755</v>
       </c>
       <c r="F333" s="16" t="s">
         <v>2762</v>
       </c>
-    </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G333" s="33"/>
+    </row>
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E334" s="16" t="s">
         <v>2756</v>
       </c>
       <c r="F334" s="16" t="s">
         <v>1581</v>
       </c>
-    </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G334" s="33"/>
+    </row>
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E335" s="16" t="s">
         <v>2757</v>
       </c>
       <c r="F335" s="16" t="s">
         <v>2765</v>
       </c>
-    </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G335" s="33"/>
+    </row>
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B336" s="7" t="s">
         <v>3150</v>
       </c>
@@ -50615,6 +51290,7 @@
       <c r="F336" s="18" t="s">
         <v>2768</v>
       </c>
+      <c r="G336" s="33"/>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="7" t="s">
@@ -50861,8 +51537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED3E70-2200-4646-9295-321DD5DC5132}">
   <dimension ref="B6:AF76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F22" workbookViewId="0">
-      <selection activeCell="AD28" sqref="AD28"/>
+    <sheetView topLeftCell="D40" workbookViewId="0">
+      <selection activeCell="AA26" sqref="AA26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -50875,7 +51551,7 @@
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
     <col min="15" max="15" width="23.5703125" customWidth="1"/>
     <col min="16" max="16" width="40.140625" customWidth="1"/>
-    <col min="19" max="19" width="40.140625" customWidth="1"/>
+    <col min="19" max="19" width="45.7109375" customWidth="1"/>
     <col min="23" max="23" width="16.28515625" customWidth="1"/>
     <col min="24" max="24" width="16.140625" customWidth="1"/>
     <col min="27" max="27" width="20.5703125" customWidth="1"/>
@@ -50902,7 +51578,7 @@
         <v>3134</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>3307</v>
+        <v>3306</v>
       </c>
       <c r="O7" s="30" t="s">
         <v>3238</v>
@@ -50917,7 +51593,7 @@
         <v>3282</v>
       </c>
       <c r="AF7" s="30" t="s">
-        <v>3361</v>
+        <v>3360</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
@@ -50934,10 +51610,10 @@
         <v>3135</v>
       </c>
       <c r="I8" t="s">
-        <v>3331</v>
+        <v>3330</v>
       </c>
       <c r="J8" t="s">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="N8" t="s">
         <v>3245</v>
@@ -50945,14 +51621,14 @@
       <c r="O8" t="s">
         <v>3239</v>
       </c>
-      <c r="Q8" s="32" t="s">
-        <v>3380</v>
+      <c r="Q8" s="31" t="s">
+        <v>3378</v>
       </c>
       <c r="R8" t="s">
-        <v>3357</v>
+        <v>3356</v>
       </c>
       <c r="S8" t="s">
-        <v>3356</v>
+        <v>3355</v>
       </c>
       <c r="V8" t="s">
         <v>3258</v>
@@ -50961,13 +51637,13 @@
         <v>3256</v>
       </c>
       <c r="Z8" t="s">
-        <v>3288</v>
+        <v>3287</v>
       </c>
       <c r="AA8" t="s">
-        <v>3283</v>
+        <v>3427</v>
       </c>
       <c r="AF8" t="s">
-        <v>3362</v>
+        <v>3361</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
@@ -50984,10 +51660,10 @@
         <v>3131</v>
       </c>
       <c r="I9" t="s">
-        <v>3332</v>
+        <v>3331</v>
       </c>
       <c r="J9" t="s">
-        <v>3309</v>
+        <v>3308</v>
       </c>
       <c r="N9" t="s">
         <v>3247</v>
@@ -51002,13 +51678,13 @@
         <v>3257</v>
       </c>
       <c r="Z9" t="s">
-        <v>3287</v>
+        <v>3286</v>
       </c>
       <c r="AA9" t="s">
-        <v>3284</v>
+        <v>3283</v>
       </c>
       <c r="AF9" t="s">
-        <v>3388</v>
+        <v>3386</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
@@ -51025,34 +51701,34 @@
         <v>3132</v>
       </c>
       <c r="I10" t="s">
-        <v>3330</v>
+        <v>3329</v>
       </c>
       <c r="J10" t="s">
-        <v>3329</v>
+        <v>3328</v>
       </c>
       <c r="N10" t="s">
-        <v>3354</v>
+        <v>3353</v>
       </c>
       <c r="O10" t="s">
-        <v>3333</v>
-      </c>
-      <c r="Q10" s="32" t="s">
-        <v>3381</v>
+        <v>3332</v>
+      </c>
+      <c r="Q10" s="31" t="s">
+        <v>3379</v>
       </c>
       <c r="R10" t="s">
-        <v>3363</v>
+        <v>3362</v>
       </c>
       <c r="S10" t="s">
         <v>3254</v>
       </c>
       <c r="Z10" t="s">
-        <v>3289</v>
+        <v>3288</v>
       </c>
       <c r="AA10" t="s">
-        <v>3285</v>
+        <v>3284</v>
       </c>
       <c r="AF10" t="s">
-        <v>3385</v>
+        <v>3383</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.25">
@@ -51066,25 +51742,25 @@
         <v>3133</v>
       </c>
       <c r="N11" t="s">
-        <v>3355</v>
+        <v>3354</v>
       </c>
       <c r="O11" t="s">
         <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>3366</v>
+        <v>3365</v>
       </c>
       <c r="S11" t="s">
-        <v>3364</v>
+        <v>3363</v>
       </c>
       <c r="Z11" t="s">
-        <v>3290</v>
+        <v>3289</v>
       </c>
       <c r="AA11" t="s">
-        <v>3286</v>
+        <v>3285</v>
       </c>
       <c r="AF11" t="s">
-        <v>3386</v>
+        <v>3384</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.25">
@@ -51098,19 +51774,19 @@
         <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>3367</v>
+        <v>3366</v>
       </c>
       <c r="S12" t="s">
-        <v>3365</v>
+        <v>3364</v>
       </c>
       <c r="Z12" t="s">
-        <v>3348</v>
+        <v>3347</v>
       </c>
       <c r="AA12" t="s">
-        <v>3347</v>
+        <v>3346</v>
       </c>
       <c r="AF12" t="s">
-        <v>3387</v>
+        <v>3385</v>
       </c>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
@@ -51124,16 +51800,16 @@
         <v>3241</v>
       </c>
       <c r="R13" t="s">
-        <v>3377</v>
+        <v>3375</v>
       </c>
       <c r="S13" t="s">
-        <v>3376</v>
+        <v>3374</v>
       </c>
       <c r="Z13" t="s">
-        <v>3300</v>
+        <v>3299</v>
       </c>
       <c r="AA13" t="s">
-        <v>3299</v>
+        <v>3298</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
@@ -51150,10 +51826,16 @@
         <v>10</v>
       </c>
       <c r="R14" t="s">
-        <v>3379</v>
+        <v>3377</v>
       </c>
       <c r="S14" t="s">
-        <v>3378</v>
+        <v>3376</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>3435</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>3436</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
@@ -51161,22 +51843,16 @@
         <v>2926</v>
       </c>
       <c r="I15" t="s">
-        <v>3353</v>
+        <v>3352</v>
       </c>
       <c r="J15" t="s">
-        <v>3352</v>
+        <v>3351</v>
       </c>
       <c r="N15" t="s">
         <v>3245</v>
       </c>
       <c r="O15" t="s">
         <v>3242</v>
-      </c>
-      <c r="Z15" t="s">
-        <v>3295</v>
-      </c>
-      <c r="AA15" t="s">
-        <v>3291</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
@@ -51190,16 +51866,10 @@
         <v>3243</v>
       </c>
       <c r="R16" t="s">
-        <v>3371</v>
+        <v>3369</v>
       </c>
       <c r="S16" t="s">
-        <v>3370</v>
-      </c>
-      <c r="Z16" t="s">
-        <v>3296</v>
-      </c>
-      <c r="AA16" t="s">
-        <v>3292</v>
+        <v>3368</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
@@ -51213,16 +51883,16 @@
         <v>3244</v>
       </c>
       <c r="R17" t="s">
-        <v>3373</v>
+        <v>3371</v>
       </c>
       <c r="S17" t="s">
-        <v>3372</v>
+        <v>3370</v>
       </c>
       <c r="Z17" t="s">
-        <v>3297</v>
+        <v>3294</v>
       </c>
       <c r="AA17" t="s">
-        <v>3293</v>
+        <v>3290</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
@@ -51236,16 +51906,16 @@
         <v>3280</v>
       </c>
       <c r="R18" t="s">
-        <v>3375</v>
+        <v>3373</v>
       </c>
       <c r="S18" t="s">
-        <v>3374</v>
+        <v>3372</v>
       </c>
       <c r="Z18" t="s">
-        <v>3298</v>
+        <v>3295</v>
       </c>
       <c r="AA18" t="s">
-        <v>3294</v>
+        <v>3291</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
@@ -51253,13 +51923,13 @@
         <v>2930</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>3358</v>
+        <v>3357</v>
       </c>
       <c r="Z19" t="s">
-        <v>3350</v>
+        <v>3296</v>
       </c>
       <c r="AA19" t="s">
-        <v>3349</v>
+        <v>3292</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
@@ -51267,25 +51937,28 @@
         <v>2931</v>
       </c>
       <c r="I20" t="s">
-        <v>3384</v>
+        <v>3382</v>
       </c>
       <c r="J20" t="s">
-        <v>3383</v>
-      </c>
-      <c r="Q20" s="32" t="s">
-        <v>3382</v>
+        <v>3381</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>3380</v>
       </c>
       <c r="R20" t="s">
-        <v>3369</v>
+        <v>3367</v>
       </c>
       <c r="S20" t="s">
-        <v>3368</v>
+        <v>3388</v>
+      </c>
+      <c r="W20" t="s">
+        <v>3389</v>
       </c>
       <c r="Z20" t="s">
-        <v>3301</v>
+        <v>3297</v>
       </c>
       <c r="AA20" t="s">
-        <v>3302</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
@@ -51293,10 +51966,10 @@
         <v>2932</v>
       </c>
       <c r="I21" t="s">
-        <v>3360</v>
+        <v>3359</v>
       </c>
       <c r="J21" t="s">
-        <v>3359</v>
+        <v>3358</v>
       </c>
       <c r="O21" s="30" t="s">
         <v>3261</v>
@@ -51305,7 +51978,13 @@
         <v>3273</v>
       </c>
       <c r="W21" s="30" t="s">
-        <v>3312</v>
+        <v>3311</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>3349</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>3348</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
@@ -51322,10 +52001,16 @@
         <v>3274</v>
       </c>
       <c r="V22" t="s">
-        <v>3326</v>
+        <v>3325</v>
       </c>
       <c r="W22" t="s">
-        <v>3325</v>
+        <v>3324</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>3300</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>3301</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
@@ -51342,10 +52027,10 @@
         <v>3275</v>
       </c>
       <c r="V23" t="s">
-        <v>3315</v>
+        <v>3314</v>
       </c>
       <c r="W23" t="s">
-        <v>3314</v>
+        <v>3313</v>
       </c>
       <c r="X23" t="s">
         <v>3254</v>
@@ -51365,16 +52050,20 @@
         <v>3276</v>
       </c>
       <c r="V24" t="s">
-        <v>3317</v>
+        <v>3316</v>
       </c>
       <c r="W24" t="s">
-        <v>3316</v>
+        <v>3315</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2936</v>
       </c>
+      <c r="H25" s="37" t="s">
+        <v>3393</v>
+      </c>
+      <c r="I25" s="37"/>
       <c r="N25" t="s">
         <v>3266</v>
       </c>
@@ -51385,16 +52074,23 @@
         <v>3277</v>
       </c>
       <c r="V25" t="s">
-        <v>3319</v>
+        <v>3318</v>
       </c>
       <c r="W25" t="s">
-        <v>3318</v>
+        <v>3317</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>2937</v>
       </c>
+      <c r="H26" s="34" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I26" s="34"/>
+      <c r="J26">
+        <v>0</v>
+      </c>
       <c r="N26" t="s">
         <v>3269</v>
       </c>
@@ -51405,16 +52101,23 @@
         <v>3278</v>
       </c>
       <c r="V26" t="s">
-        <v>3321</v>
+        <v>3320</v>
       </c>
       <c r="W26" t="s">
-        <v>3320</v>
+        <v>3319</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>2938</v>
       </c>
+      <c r="H27" s="34" t="s">
+        <v>3263</v>
+      </c>
+      <c r="I27" s="34"/>
+      <c r="J27">
+        <v>1</v>
+      </c>
       <c r="N27" t="s">
         <v>3270</v>
       </c>
@@ -51425,421 +52128,767 @@
         <v>3279</v>
       </c>
       <c r="V27" t="s">
-        <v>3323</v>
+        <v>3322</v>
       </c>
       <c r="W27" t="s">
-        <v>3322</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>2939</v>
       </c>
+      <c r="H28" s="34" t="s">
+        <v>3262</v>
+      </c>
+      <c r="I28" s="34"/>
+      <c r="J28">
+        <v>2</v>
+      </c>
       <c r="V28" t="s">
-        <v>3324</v>
+        <v>3323</v>
       </c>
       <c r="W28" t="s">
-        <v>3313</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H29" s="34" t="s">
+        <v>3394</v>
+      </c>
+      <c r="I29" s="34"/>
+      <c r="J29">
+        <v>3</v>
+      </c>
       <c r="N29" t="s">
+        <v>3303</v>
+      </c>
+      <c r="O29" t="s">
+        <v>3302</v>
+      </c>
+      <c r="P29" t="s">
         <v>3304</v>
       </c>
-      <c r="O29" t="s">
-        <v>3303</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="V29" t="s">
+        <v>3327</v>
+      </c>
+      <c r="W29" t="s">
+        <v>3326</v>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H30" s="34" t="s">
+        <v>3395</v>
+      </c>
+      <c r="I30" s="34"/>
+      <c r="J30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H31" s="34" t="s">
+        <v>3396</v>
+      </c>
+      <c r="I31" s="34"/>
+      <c r="J31">
+        <v>5</v>
+      </c>
+      <c r="S31" s="30" t="s">
         <v>3305</v>
       </c>
-      <c r="V29" t="s">
-        <v>3328</v>
-      </c>
-      <c r="W29" t="s">
-        <v>3327</v>
-      </c>
-    </row>
-    <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="S31" s="30" t="s">
-        <v>3306</v>
-      </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
+      <c r="H32" s="34" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I32" s="34"/>
+      <c r="J32">
+        <v>6</v>
+      </c>
       <c r="R32" t="s">
-        <v>3311</v>
+        <v>3310</v>
       </c>
       <c r="S32" t="s">
-        <v>3310</v>
-      </c>
-    </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
+        <v>3309</v>
+      </c>
+    </row>
+    <row r="33" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H33" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="34"/>
+      <c r="J33">
+        <v>7</v>
+      </c>
       <c r="O33" s="30" t="s">
+        <v>3333</v>
+      </c>
+    </row>
+    <row r="34" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H34" s="34" t="s">
+        <v>3419</v>
+      </c>
+      <c r="I34" s="34"/>
+      <c r="J34">
+        <v>8</v>
+      </c>
+      <c r="N34" t="s">
+        <v>3335</v>
+      </c>
+      <c r="O34" t="s">
         <v>3334</v>
       </c>
     </row>
-    <row r="34" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N34" t="s">
+    <row r="35" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H35" t="s">
+        <v>3420</v>
+      </c>
+      <c r="J35">
+        <v>9</v>
+      </c>
+      <c r="N35" t="s">
+        <v>3337</v>
+      </c>
+      <c r="O35" t="s">
         <v>3336</v>
       </c>
-      <c r="O34" t="s">
-        <v>3335</v>
-      </c>
-    </row>
-    <row r="35" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N35" t="s">
+    </row>
+    <row r="36" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H36" s="34" t="s">
+        <v>3280</v>
+      </c>
+      <c r="I36" s="34"/>
+      <c r="J36">
+        <v>10</v>
+      </c>
+      <c r="N36" t="s">
+        <v>3339</v>
+      </c>
+      <c r="O36" t="s">
         <v>3338</v>
       </c>
-      <c r="O35" t="s">
-        <v>3337</v>
-      </c>
-    </row>
-    <row r="36" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N36" t="s">
+    </row>
+    <row r="37" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H37" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I37" s="36"/>
+      <c r="J37" s="32">
+        <v>11</v>
+      </c>
+      <c r="N37" t="s">
+        <v>3341</v>
+      </c>
+      <c r="O37" t="s">
         <v>3340</v>
       </c>
-      <c r="O36" t="s">
-        <v>3339</v>
-      </c>
-    </row>
-    <row r="37" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N37" t="s">
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E38" s="34" t="s">
+        <v>3397</v>
+      </c>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" t="s">
+        <v>3401</v>
+      </c>
+      <c r="N38" t="s">
+        <v>3345</v>
+      </c>
+      <c r="O38" t="s">
+        <v>3344</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E39" s="34" t="s">
+        <v>3399</v>
+      </c>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" t="s">
+        <v>3402</v>
+      </c>
+      <c r="N39" t="s">
+        <v>3343</v>
+      </c>
+      <c r="O39" t="s">
         <v>3342</v>
       </c>
-      <c r="O37" t="s">
-        <v>3341</v>
-      </c>
-    </row>
-    <row r="38" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N38" t="s">
-        <v>3346</v>
-      </c>
-      <c r="O38" t="s">
-        <v>3345</v>
-      </c>
-    </row>
-    <row r="39" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N39" t="s">
-        <v>3344</v>
-      </c>
-      <c r="O39" t="s">
-        <v>3343</v>
-      </c>
-    </row>
-    <row r="51" spans="14:23" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E40" s="34" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" t="s">
+        <v>3403</v>
+      </c>
+    </row>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E41" s="34" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" t="s">
+        <v>3405</v>
+      </c>
+    </row>
+    <row r="42" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E42" s="35" t="s">
+        <v>3421</v>
+      </c>
+      <c r="F42" s="35"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="35"/>
+      <c r="I42" s="35"/>
+      <c r="J42" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="46" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H46" s="37" t="s">
+        <v>3418</v>
+      </c>
+      <c r="I46" s="37"/>
+    </row>
+    <row r="47" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H47" s="34" t="s">
+        <v>3398</v>
+      </c>
+      <c r="I47" s="34"/>
+      <c r="J47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="H48" s="34" t="s">
+        <v>3263</v>
+      </c>
+      <c r="I48" s="34"/>
+      <c r="J48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="H49" s="34" t="s">
+        <v>3262</v>
+      </c>
+      <c r="I49" s="34"/>
+      <c r="J49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="H50" s="34" t="s">
+        <v>3394</v>
+      </c>
+      <c r="I50" s="34"/>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="H51" s="34" t="s">
+        <v>3395</v>
+      </c>
+      <c r="I51" s="34"/>
+      <c r="J51">
+        <v>4</v>
+      </c>
       <c r="N51" t="s">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="52" spans="14:23" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="N52" s="31" t="s">
+        <v>3350</v>
+      </c>
+      <c r="X51" s="34" t="s">
+        <v>3390</v>
+      </c>
+      <c r="Y51" s="34"/>
+      <c r="Z51" s="34"/>
+      <c r="AA51" s="34"/>
+    </row>
+    <row r="52" spans="5:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="34" t="s">
+        <v>3396</v>
+      </c>
+      <c r="I52" s="34"/>
+      <c r="J52">
+        <v>5</v>
+      </c>
+      <c r="N52" s="40" t="s">
         <v>2464</v>
       </c>
-      <c r="O52" s="31"/>
-      <c r="P52" s="31"/>
-      <c r="Q52" s="31"/>
-      <c r="R52" s="31"/>
-      <c r="S52" s="31"/>
-      <c r="T52" s="33" t="s">
-        <v>3389</v>
-      </c>
-      <c r="U52" s="31"/>
-      <c r="V52" s="31"/>
-      <c r="W52" s="31"/>
-    </row>
-    <row r="53" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N53" s="31" t="s">
+      <c r="O52" s="40"/>
+      <c r="P52" s="40"/>
+      <c r="Q52" s="40"/>
+      <c r="R52" s="40"/>
+      <c r="S52" s="40"/>
+      <c r="T52" s="41" t="s">
+        <v>3387</v>
+      </c>
+      <c r="U52" s="40"/>
+      <c r="V52" s="40"/>
+      <c r="W52" s="40"/>
+      <c r="X52" s="38" t="s">
+        <v>3391</v>
+      </c>
+      <c r="Y52" s="34"/>
+      <c r="Z52" s="34"/>
+      <c r="AA52" s="34"/>
+    </row>
+    <row r="53" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="H53" s="34" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I53" s="34"/>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="N53" s="40" t="s">
         <v>2459</v>
       </c>
-      <c r="O53" s="31"/>
-      <c r="P53" s="31"/>
-      <c r="Q53" s="31"/>
-      <c r="R53" s="31"/>
-      <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-      <c r="U53" s="31"/>
-      <c r="V53" s="31"/>
-      <c r="W53" s="31"/>
-    </row>
-    <row r="54" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N54" s="31" t="s">
+      <c r="O53" s="40"/>
+      <c r="P53" s="40"/>
+      <c r="Q53" s="40"/>
+      <c r="R53" s="40"/>
+      <c r="S53" s="40"/>
+      <c r="T53" s="40"/>
+      <c r="U53" s="40"/>
+      <c r="V53" s="40"/>
+      <c r="W53" s="40"/>
+      <c r="X53" s="38" t="s">
+        <v>3392</v>
+      </c>
+      <c r="Y53" s="34"/>
+      <c r="Z53" s="34"/>
+      <c r="AA53" s="34"/>
+    </row>
+    <row r="54" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="H54" s="34" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="34"/>
+      <c r="J54">
+        <v>7</v>
+      </c>
+      <c r="N54" s="40" t="s">
         <v>2490</v>
       </c>
-      <c r="O54" s="31"/>
-      <c r="P54" s="31"/>
-      <c r="Q54" s="31"/>
-      <c r="R54" s="31"/>
-      <c r="S54" s="31"/>
-      <c r="T54" s="31"/>
-      <c r="U54" s="31"/>
-      <c r="V54" s="31"/>
-      <c r="W54" s="31"/>
-    </row>
-    <row r="55" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N55" s="31"/>
-      <c r="O55" s="31"/>
-      <c r="P55" s="31"/>
-      <c r="Q55" s="31"/>
-      <c r="R55" s="31"/>
-      <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-      <c r="U55" s="31"/>
-      <c r="V55" s="31"/>
-      <c r="W55" s="31"/>
-    </row>
-    <row r="56" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N56" s="31"/>
-      <c r="O56" s="31"/>
-      <c r="P56" s="31"/>
-      <c r="Q56" s="31"/>
-      <c r="R56" s="31"/>
-      <c r="S56" s="31"/>
-      <c r="T56" s="31"/>
-      <c r="U56" s="31"/>
-      <c r="V56" s="31"/>
-      <c r="W56" s="31"/>
-    </row>
-    <row r="57" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N57" s="31"/>
-      <c r="O57" s="31"/>
-      <c r="P57" s="31"/>
-      <c r="Q57" s="31"/>
-      <c r="R57" s="31"/>
-      <c r="S57" s="31"/>
-      <c r="T57" s="31"/>
-      <c r="U57" s="31"/>
-      <c r="V57" s="31"/>
-      <c r="W57" s="31"/>
-    </row>
-    <row r="58" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N58" s="31"/>
-      <c r="O58" s="31"/>
-      <c r="P58" s="31"/>
-      <c r="Q58" s="31"/>
-      <c r="R58" s="31"/>
-      <c r="S58" s="31"/>
-      <c r="T58" s="31"/>
-      <c r="U58" s="31"/>
-      <c r="V58" s="31"/>
-      <c r="W58" s="31"/>
-    </row>
-    <row r="59" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N59" s="31"/>
-      <c r="O59" s="31"/>
-      <c r="P59" s="31"/>
-      <c r="Q59" s="31"/>
-      <c r="R59" s="31"/>
-      <c r="S59" s="31"/>
-      <c r="T59" s="31"/>
-      <c r="U59" s="31"/>
-      <c r="V59" s="31"/>
-      <c r="W59" s="31"/>
-    </row>
-    <row r="60" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N60" s="31"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="31"/>
-      <c r="Q60" s="31"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="31"/>
-      <c r="T60" s="31"/>
-      <c r="U60" s="31"/>
-      <c r="V60" s="31"/>
-      <c r="W60" s="31"/>
-    </row>
-    <row r="61" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N61" s="31"/>
-      <c r="O61" s="31"/>
-      <c r="P61" s="31"/>
-      <c r="Q61" s="31"/>
-      <c r="R61" s="31"/>
-      <c r="S61" s="31"/>
-      <c r="T61" s="31"/>
-      <c r="U61" s="31"/>
-      <c r="V61" s="31"/>
-      <c r="W61" s="31"/>
-    </row>
-    <row r="62" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N62" s="31"/>
-      <c r="O62" s="31"/>
-      <c r="P62" s="31"/>
-      <c r="Q62" s="31"/>
-      <c r="R62" s="31"/>
-      <c r="S62" s="31"/>
-      <c r="T62" s="31"/>
-      <c r="U62" s="31"/>
-      <c r="V62" s="31"/>
-      <c r="W62" s="31"/>
-    </row>
-    <row r="63" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="31"/>
-    </row>
-    <row r="64" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N64" s="31"/>
-      <c r="O64" s="31"/>
-      <c r="P64" s="31"/>
-      <c r="Q64" s="31"/>
-      <c r="R64" s="31"/>
-      <c r="S64" s="31"/>
-      <c r="T64" s="31"/>
-      <c r="U64" s="31"/>
-      <c r="V64" s="31"/>
-      <c r="W64" s="31"/>
-    </row>
-    <row r="65" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N65" s="31"/>
-      <c r="O65" s="31"/>
-      <c r="P65" s="31"/>
-      <c r="Q65" s="31"/>
-      <c r="R65" s="31"/>
-      <c r="S65" s="31"/>
-      <c r="T65" s="31"/>
-      <c r="U65" s="31"/>
-      <c r="V65" s="31"/>
-      <c r="W65" s="31"/>
-    </row>
-    <row r="66" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N66" s="31"/>
-      <c r="O66" s="31"/>
-      <c r="P66" s="31"/>
-      <c r="Q66" s="31"/>
-      <c r="R66" s="31"/>
-      <c r="S66" s="31"/>
-      <c r="T66" s="31"/>
-      <c r="U66" s="31"/>
-      <c r="V66" s="31"/>
-      <c r="W66" s="31"/>
-    </row>
-    <row r="67" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N67" s="31"/>
-      <c r="O67" s="31"/>
-      <c r="P67" s="31"/>
-      <c r="Q67" s="31"/>
-      <c r="R67" s="31"/>
-      <c r="S67" s="31"/>
-      <c r="T67" s="31"/>
-      <c r="U67" s="31"/>
-      <c r="V67" s="31"/>
-      <c r="W67" s="31"/>
-    </row>
-    <row r="68" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N68" s="31"/>
-      <c r="O68" s="31"/>
-      <c r="P68" s="31"/>
-      <c r="Q68" s="31"/>
-      <c r="R68" s="31"/>
-      <c r="S68" s="31"/>
-      <c r="T68" s="31"/>
-      <c r="U68" s="31"/>
-      <c r="V68" s="31"/>
-      <c r="W68" s="31"/>
-    </row>
-    <row r="69" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N69" s="31"/>
-      <c r="O69" s="31"/>
-      <c r="P69" s="31"/>
-      <c r="Q69" s="31"/>
-      <c r="R69" s="31"/>
-      <c r="S69" s="31"/>
-      <c r="T69" s="31"/>
-      <c r="U69" s="31"/>
-      <c r="V69" s="31"/>
-      <c r="W69" s="31"/>
-    </row>
-    <row r="70" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N70" s="31"/>
-      <c r="O70" s="31"/>
-      <c r="P70" s="31"/>
-      <c r="Q70" s="31"/>
-      <c r="R70" s="31"/>
-      <c r="S70" s="31"/>
-      <c r="T70" s="31"/>
-      <c r="U70" s="31"/>
-      <c r="V70" s="31"/>
-      <c r="W70" s="31"/>
-    </row>
-    <row r="71" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N71" s="31"/>
-      <c r="O71" s="31"/>
-      <c r="P71" s="31"/>
-      <c r="Q71" s="31"/>
-      <c r="R71" s="31"/>
-      <c r="S71" s="31"/>
-      <c r="T71" s="31"/>
-      <c r="U71" s="31"/>
-      <c r="V71" s="31"/>
-      <c r="W71" s="31"/>
-    </row>
-    <row r="72" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N72" s="31"/>
-      <c r="O72" s="31"/>
-      <c r="P72" s="31"/>
-      <c r="Q72" s="31"/>
-      <c r="R72" s="31"/>
-      <c r="S72" s="31"/>
-      <c r="T72" s="31"/>
-      <c r="U72" s="31"/>
-      <c r="V72" s="31"/>
-      <c r="W72" s="31"/>
-    </row>
-    <row r="73" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N73" s="31"/>
-      <c r="O73" s="31"/>
-      <c r="P73" s="31"/>
-      <c r="Q73" s="31"/>
-      <c r="R73" s="31"/>
-      <c r="S73" s="31"/>
-      <c r="T73" s="31"/>
-      <c r="U73" s="31"/>
-      <c r="V73" s="31"/>
-      <c r="W73" s="31"/>
-    </row>
-    <row r="74" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N74" s="31"/>
-      <c r="O74" s="31"/>
-      <c r="P74" s="31"/>
-      <c r="Q74" s="31"/>
-      <c r="R74" s="31"/>
-      <c r="S74" s="31"/>
-      <c r="T74" s="31"/>
-      <c r="U74" s="31"/>
-      <c r="V74" s="31"/>
-      <c r="W74" s="31"/>
-    </row>
-    <row r="75" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N75" s="31"/>
-      <c r="O75" s="31"/>
-      <c r="P75" s="31"/>
-      <c r="Q75" s="31"/>
-      <c r="R75" s="31"/>
-      <c r="S75" s="31"/>
-      <c r="T75" s="31"/>
-      <c r="U75" s="31"/>
-      <c r="V75" s="31"/>
-      <c r="W75" s="31"/>
-    </row>
-    <row r="76" spans="14:23" x14ac:dyDescent="0.25">
-      <c r="N76" s="31"/>
-      <c r="O76" s="31"/>
-      <c r="P76" s="31"/>
-      <c r="Q76" s="31"/>
-      <c r="R76" s="31"/>
-      <c r="S76" s="31"/>
-      <c r="T76" s="31"/>
-      <c r="U76" s="31"/>
-      <c r="V76" s="31"/>
-      <c r="W76" s="31"/>
+      <c r="O54" s="40"/>
+      <c r="P54" s="40"/>
+      <c r="Q54" s="40"/>
+      <c r="R54" s="40"/>
+      <c r="S54" s="40"/>
+      <c r="T54" s="40"/>
+      <c r="U54" s="40"/>
+      <c r="V54" s="40"/>
+      <c r="W54" s="40"/>
+      <c r="X54" s="39"/>
+      <c r="Y54" s="34"/>
+      <c r="Z54" s="34"/>
+      <c r="AA54" s="34"/>
+    </row>
+    <row r="55" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="H55" s="34" t="s">
+        <v>3419</v>
+      </c>
+      <c r="I55" s="34"/>
+      <c r="J55">
+        <v>8</v>
+      </c>
+      <c r="N55" s="40"/>
+      <c r="O55" s="40"/>
+      <c r="P55" s="40"/>
+      <c r="Q55" s="40"/>
+      <c r="R55" s="40"/>
+      <c r="S55" s="40"/>
+      <c r="T55" s="40"/>
+      <c r="U55" s="40"/>
+      <c r="V55" s="40"/>
+      <c r="W55" s="40"/>
+      <c r="X55" s="39"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+    </row>
+    <row r="56" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="H56" t="s">
+        <v>3420</v>
+      </c>
+      <c r="J56">
+        <v>9</v>
+      </c>
+      <c r="N56" s="40"/>
+      <c r="O56" s="40"/>
+      <c r="P56" s="40"/>
+      <c r="Q56" s="40"/>
+      <c r="R56" s="40"/>
+      <c r="S56" s="40"/>
+      <c r="T56" s="40"/>
+      <c r="U56" s="40"/>
+      <c r="V56" s="40"/>
+      <c r="W56" s="40"/>
+      <c r="X56" s="39"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+    </row>
+    <row r="57" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="H57" s="34" t="s">
+        <v>3280</v>
+      </c>
+      <c r="I57" s="34"/>
+      <c r="J57">
+        <v>10</v>
+      </c>
+      <c r="N57" s="40"/>
+      <c r="O57" s="40"/>
+      <c r="P57" s="40"/>
+      <c r="Q57" s="40"/>
+      <c r="R57" s="40"/>
+      <c r="S57" s="40"/>
+      <c r="T57" s="40"/>
+      <c r="U57" s="40"/>
+      <c r="V57" s="40"/>
+      <c r="W57" s="40"/>
+      <c r="X57" s="39"/>
+      <c r="Y57" s="34"/>
+      <c r="Z57" s="34"/>
+      <c r="AA57" s="34"/>
+    </row>
+    <row r="58" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="H58" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="I58" s="36"/>
+      <c r="J58" s="32">
+        <v>11</v>
+      </c>
+      <c r="N58" s="40"/>
+      <c r="O58" s="40"/>
+      <c r="P58" s="40"/>
+      <c r="Q58" s="40"/>
+      <c r="R58" s="40"/>
+      <c r="S58" s="40"/>
+      <c r="T58" s="40"/>
+      <c r="U58" s="40"/>
+      <c r="V58" s="40"/>
+      <c r="W58" s="40"/>
+      <c r="X58" s="39"/>
+      <c r="Y58" s="34"/>
+      <c r="Z58" s="34"/>
+      <c r="AA58" s="34"/>
+    </row>
+    <row r="59" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E59" s="34" t="s">
+        <v>3406</v>
+      </c>
+      <c r="F59" s="34"/>
+      <c r="G59" s="34"/>
+      <c r="H59" s="34"/>
+      <c r="I59" s="34"/>
+      <c r="J59" t="s">
+        <v>3407</v>
+      </c>
+      <c r="N59" s="40"/>
+      <c r="O59" s="40"/>
+      <c r="P59" s="40"/>
+      <c r="Q59" s="40"/>
+      <c r="R59" s="40"/>
+      <c r="S59" s="40"/>
+      <c r="T59" s="40"/>
+      <c r="U59" s="40"/>
+      <c r="V59" s="40"/>
+      <c r="W59" s="40"/>
+      <c r="X59" s="39"/>
+      <c r="Y59" s="34"/>
+      <c r="Z59" s="34"/>
+      <c r="AA59" s="34"/>
+    </row>
+    <row r="60" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E60" s="34" t="s">
+        <v>3408</v>
+      </c>
+      <c r="F60" s="34"/>
+      <c r="G60" s="34"/>
+      <c r="H60" s="34"/>
+      <c r="I60" s="34"/>
+      <c r="J60" t="s">
+        <v>3409</v>
+      </c>
+      <c r="N60" s="40"/>
+      <c r="O60" s="40"/>
+      <c r="P60" s="40"/>
+      <c r="Q60" s="40"/>
+      <c r="R60" s="40"/>
+      <c r="S60" s="40"/>
+      <c r="T60" s="40"/>
+      <c r="U60" s="40"/>
+      <c r="V60" s="40"/>
+      <c r="W60" s="40"/>
+    </row>
+    <row r="61" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E61" s="34" t="s">
+        <v>3410</v>
+      </c>
+      <c r="F61" s="34"/>
+      <c r="G61" s="34"/>
+      <c r="H61" s="34"/>
+      <c r="I61" s="34"/>
+      <c r="J61" t="s">
+        <v>3411</v>
+      </c>
+      <c r="N61" s="40"/>
+      <c r="O61" s="40"/>
+      <c r="P61" s="40"/>
+      <c r="Q61" s="40"/>
+      <c r="R61" s="40"/>
+      <c r="S61" s="40"/>
+      <c r="T61" s="40"/>
+      <c r="U61" s="40"/>
+      <c r="V61" s="40"/>
+      <c r="W61" s="40"/>
+    </row>
+    <row r="62" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E62" s="34" t="s">
+        <v>3412</v>
+      </c>
+      <c r="F62" s="34"/>
+      <c r="G62" s="34"/>
+      <c r="H62" s="34"/>
+      <c r="I62" s="34"/>
+      <c r="J62" t="s">
+        <v>3413</v>
+      </c>
+      <c r="N62" s="40"/>
+      <c r="O62" s="40"/>
+      <c r="P62" s="40"/>
+      <c r="Q62" s="40"/>
+      <c r="R62" s="40"/>
+      <c r="S62" s="40"/>
+      <c r="T62" s="40"/>
+      <c r="U62" s="40"/>
+      <c r="V62" s="40"/>
+      <c r="W62" s="40"/>
+    </row>
+    <row r="63" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E63" s="34" t="s">
+        <v>3414</v>
+      </c>
+      <c r="F63" s="34"/>
+      <c r="G63" s="34"/>
+      <c r="H63" s="34"/>
+      <c r="I63" s="34"/>
+      <c r="J63" t="s">
+        <v>3415</v>
+      </c>
+      <c r="N63" s="40"/>
+      <c r="O63" s="40"/>
+      <c r="P63" s="40"/>
+      <c r="Q63" s="40"/>
+      <c r="R63" s="40"/>
+      <c r="S63" s="40"/>
+      <c r="T63" s="40"/>
+      <c r="U63" s="40"/>
+      <c r="V63" s="40"/>
+      <c r="W63" s="40"/>
+    </row>
+    <row r="64" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="E64" s="34" t="s">
+        <v>3416</v>
+      </c>
+      <c r="F64" s="34"/>
+      <c r="G64" s="34"/>
+      <c r="H64" s="34"/>
+      <c r="I64" s="34"/>
+      <c r="J64" t="s">
+        <v>3417</v>
+      </c>
+      <c r="N64" s="40"/>
+      <c r="O64" s="40"/>
+      <c r="P64" s="40"/>
+      <c r="Q64" s="40"/>
+      <c r="R64" s="40"/>
+      <c r="S64" s="40"/>
+      <c r="T64" s="40"/>
+      <c r="U64" s="40"/>
+      <c r="V64" s="40"/>
+      <c r="W64" s="40"/>
+    </row>
+    <row r="65" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E65" s="34" t="s">
+        <v>3423</v>
+      </c>
+      <c r="F65" s="34"/>
+      <c r="G65" s="34"/>
+      <c r="H65" s="34"/>
+      <c r="I65" s="34"/>
+      <c r="J65" t="s">
+        <v>3424</v>
+      </c>
+      <c r="N65" s="40"/>
+      <c r="O65" s="40"/>
+      <c r="P65" s="40"/>
+      <c r="Q65" s="40"/>
+      <c r="R65" s="40"/>
+      <c r="S65" s="40"/>
+      <c r="T65" s="40"/>
+      <c r="U65" s="40"/>
+      <c r="V65" s="40"/>
+      <c r="W65" s="40"/>
+    </row>
+    <row r="66" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="E66" s="34" t="s">
+        <v>3425</v>
+      </c>
+      <c r="F66" s="34"/>
+      <c r="G66" s="34"/>
+      <c r="H66" s="34"/>
+      <c r="I66" s="34"/>
+      <c r="J66" t="s">
+        <v>3426</v>
+      </c>
+      <c r="N66" s="40"/>
+      <c r="O66" s="40"/>
+      <c r="P66" s="40"/>
+      <c r="Q66" s="40"/>
+      <c r="R66" s="40"/>
+      <c r="S66" s="40"/>
+      <c r="T66" s="40"/>
+      <c r="U66" s="40"/>
+      <c r="V66" s="40"/>
+      <c r="W66" s="40"/>
+    </row>
+    <row r="67" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="N67" s="40"/>
+      <c r="O67" s="40"/>
+      <c r="P67" s="40"/>
+      <c r="Q67" s="40"/>
+      <c r="R67" s="40"/>
+      <c r="S67" s="40"/>
+      <c r="T67" s="40"/>
+      <c r="U67" s="40"/>
+      <c r="V67" s="40"/>
+      <c r="W67" s="40"/>
+    </row>
+    <row r="68" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="N68" s="40"/>
+      <c r="O68" s="40"/>
+      <c r="P68" s="40"/>
+      <c r="Q68" s="40"/>
+      <c r="R68" s="40"/>
+      <c r="S68" s="40"/>
+      <c r="T68" s="40"/>
+      <c r="U68" s="40"/>
+      <c r="V68" s="40"/>
+      <c r="W68" s="40"/>
+    </row>
+    <row r="69" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="N69" s="40"/>
+      <c r="O69" s="40"/>
+      <c r="P69" s="40"/>
+      <c r="Q69" s="40"/>
+      <c r="R69" s="40"/>
+      <c r="S69" s="40"/>
+      <c r="T69" s="40"/>
+      <c r="U69" s="40"/>
+      <c r="V69" s="40"/>
+      <c r="W69" s="40"/>
+    </row>
+    <row r="70" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="N70" s="40"/>
+      <c r="O70" s="40"/>
+      <c r="P70" s="40"/>
+      <c r="Q70" s="40"/>
+      <c r="R70" s="40"/>
+      <c r="S70" s="40"/>
+      <c r="T70" s="40"/>
+      <c r="U70" s="40"/>
+      <c r="V70" s="40"/>
+      <c r="W70" s="40"/>
+    </row>
+    <row r="71" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="N71" s="40"/>
+      <c r="O71" s="40"/>
+      <c r="P71" s="40"/>
+      <c r="Q71" s="40"/>
+      <c r="R71" s="40"/>
+      <c r="S71" s="40"/>
+      <c r="T71" s="40"/>
+      <c r="U71" s="40"/>
+      <c r="V71" s="40"/>
+      <c r="W71" s="40"/>
+    </row>
+    <row r="72" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="N72" s="40"/>
+      <c r="O72" s="40"/>
+      <c r="P72" s="40"/>
+      <c r="Q72" s="40"/>
+      <c r="R72" s="40"/>
+      <c r="S72" s="40"/>
+      <c r="T72" s="40"/>
+      <c r="U72" s="40"/>
+      <c r="V72" s="40"/>
+      <c r="W72" s="40"/>
+    </row>
+    <row r="73" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="N73" s="40"/>
+      <c r="O73" s="40"/>
+      <c r="P73" s="40"/>
+      <c r="Q73" s="40"/>
+      <c r="R73" s="40"/>
+      <c r="S73" s="40"/>
+      <c r="T73" s="40"/>
+      <c r="U73" s="40"/>
+      <c r="V73" s="40"/>
+      <c r="W73" s="40"/>
+    </row>
+    <row r="74" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="N74" s="40"/>
+      <c r="O74" s="40"/>
+      <c r="P74" s="40"/>
+      <c r="Q74" s="40"/>
+      <c r="R74" s="40"/>
+      <c r="S74" s="40"/>
+      <c r="T74" s="40"/>
+      <c r="U74" s="40"/>
+      <c r="V74" s="40"/>
+      <c r="W74" s="40"/>
+    </row>
+    <row r="75" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="N75" s="40"/>
+      <c r="O75" s="40"/>
+      <c r="P75" s="40"/>
+      <c r="Q75" s="40"/>
+      <c r="R75" s="40"/>
+      <c r="S75" s="40"/>
+      <c r="T75" s="40"/>
+      <c r="U75" s="40"/>
+      <c r="V75" s="40"/>
+      <c r="W75" s="40"/>
+    </row>
+    <row r="76" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="N76" s="40"/>
+      <c r="O76" s="40"/>
+      <c r="P76" s="40"/>
+      <c r="Q76" s="40"/>
+      <c r="R76" s="40"/>
+      <c r="S76" s="40"/>
+      <c r="T76" s="40"/>
+      <c r="U76" s="40"/>
+      <c r="V76" s="40"/>
+      <c r="W76" s="40"/>
     </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="96">
     <mergeCell ref="T76:W76"/>
     <mergeCell ref="T70:W70"/>
     <mergeCell ref="T71:W71"/>
@@ -51847,11 +52896,6 @@
     <mergeCell ref="T73:W73"/>
     <mergeCell ref="T74:W74"/>
     <mergeCell ref="T75:W75"/>
-    <mergeCell ref="T64:W64"/>
-    <mergeCell ref="T65:W65"/>
-    <mergeCell ref="T66:W66"/>
-    <mergeCell ref="T67:W67"/>
-    <mergeCell ref="T68:W68"/>
     <mergeCell ref="T69:W69"/>
     <mergeCell ref="T58:W58"/>
     <mergeCell ref="T59:W59"/>
@@ -51859,6 +52903,11 @@
     <mergeCell ref="T61:W61"/>
     <mergeCell ref="T62:W62"/>
     <mergeCell ref="T63:W63"/>
+    <mergeCell ref="T64:W64"/>
+    <mergeCell ref="T65:W65"/>
+    <mergeCell ref="T66:W66"/>
+    <mergeCell ref="T67:W67"/>
+    <mergeCell ref="T68:W68"/>
     <mergeCell ref="N73:S73"/>
     <mergeCell ref="N74:S74"/>
     <mergeCell ref="N75:S75"/>
@@ -51875,27 +52924,74 @@
     <mergeCell ref="N70:S70"/>
     <mergeCell ref="N71:S71"/>
     <mergeCell ref="N72:S72"/>
+    <mergeCell ref="N52:S52"/>
+    <mergeCell ref="N53:S53"/>
+    <mergeCell ref="N54:S54"/>
+    <mergeCell ref="N55:S55"/>
+    <mergeCell ref="N56:S56"/>
+    <mergeCell ref="X56:AA56"/>
+    <mergeCell ref="X57:AA57"/>
+    <mergeCell ref="X58:AA58"/>
+    <mergeCell ref="X59:AA59"/>
+    <mergeCell ref="N66:S66"/>
+    <mergeCell ref="N57:S57"/>
+    <mergeCell ref="N58:S58"/>
+    <mergeCell ref="N59:S59"/>
+    <mergeCell ref="N60:S60"/>
     <mergeCell ref="N61:S61"/>
     <mergeCell ref="N62:S62"/>
     <mergeCell ref="N63:S63"/>
     <mergeCell ref="N64:S64"/>
     <mergeCell ref="N65:S65"/>
-    <mergeCell ref="N66:S66"/>
-    <mergeCell ref="N52:S52"/>
-    <mergeCell ref="N53:S53"/>
-    <mergeCell ref="N54:S54"/>
-    <mergeCell ref="N55:S55"/>
-    <mergeCell ref="N56:S56"/>
-    <mergeCell ref="N57:S57"/>
-    <mergeCell ref="N58:S58"/>
-    <mergeCell ref="N59:S59"/>
-    <mergeCell ref="N60:S60"/>
+    <mergeCell ref="X51:AA51"/>
+    <mergeCell ref="X52:AA52"/>
+    <mergeCell ref="X53:AA53"/>
+    <mergeCell ref="X54:AA54"/>
+    <mergeCell ref="X55:AA55"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="E41:I41"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H46:I46"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="E40:I40"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="E64:I64"/>
+    <mergeCell ref="E65:I65"/>
+    <mergeCell ref="E66:I66"/>
+    <mergeCell ref="E42:I42"/>
+    <mergeCell ref="E59:I59"/>
+    <mergeCell ref="E60:I60"/>
+    <mergeCell ref="E61:I61"/>
+    <mergeCell ref="E62:I62"/>
+    <mergeCell ref="E63:I63"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="H51:I51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="Z15:AA20 AA22">
+  <conditionalFormatting sqref="Z17:AA22">
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/cards.json.xlsx
+++ b/cards.json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\PC2\Facultate\Licenta\DuelMasters\IntelliJ\DuelMastersServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F67CF380-62F0-434D-A228-9CE4EC3924C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7337A57A-B6D2-417A-8E48-482A15838352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2865" yWindow="1395" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10379" uniqueCount="3480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10584" uniqueCount="3664">
   <si>
     <t>cards</t>
   </si>
@@ -9298,21 +9298,6 @@
   </si>
   <si>
     <t>ABIL0001</t>
-  </si>
-  <si>
-    <t>$tap ABIL0001</t>
-  </si>
-  <si>
-    <t>When this creature is destroyed, you may ABIL0001</t>
-  </si>
-  <si>
-    <t>When you put this creature into the battle zone, ABIL0001</t>
-  </si>
-  <si>
-    <t>When you put this creature into the battle zone, you may ABIL0001</t>
-  </si>
-  <si>
-    <t>Whenever this creature is attacked, you may ABIL0001</t>
   </si>
   <si>
     <t>REPETITIVE ABILITY</t>
@@ -10768,9 +10753,6 @@
     <t>Move to top deck</t>
   </si>
   <si>
-    <t>MTTP</t>
-  </si>
-  <si>
     <t>Move from top deck</t>
   </si>
   <si>
@@ -11017,15 +10999,9 @@
     <t>Move to hand</t>
   </si>
   <si>
-    <t>Choose0(2, MN0) + MTH</t>
-  </si>
-  <si>
     <t>Choose0(1, BZ2) + MTH</t>
   </si>
   <si>
-    <t>Choose0(1, MN1) + MTH</t>
-  </si>
-  <si>
     <t>Choose8(2, BZ1) + ?</t>
   </si>
   <si>
@@ -11035,21 +11011,12 @@
     <t>Choose0(1, GV0) + ?</t>
   </si>
   <si>
-    <t>Choose0(1, BZ0) + MTS</t>
-  </si>
-  <si>
     <t>MTS</t>
   </si>
   <si>
     <t>Move to shields</t>
   </si>
   <si>
-    <t>Choose3(1, 2000, BZ1) + ?</t>
-  </si>
-  <si>
-    <t>Choose8(1, BZ1) + ?</t>
-  </si>
-  <si>
     <t>Choose0(3, GV0) + MTM</t>
   </si>
   <si>
@@ -11068,84 +11035,24 @@
     <t>Choose0(1, DK0) + MTH + ?</t>
   </si>
   <si>
-    <t>Choose2(1, DK0) + MTBZ + ?</t>
-  </si>
-  <si>
-    <t>Choose10(2, HD0) + ?</t>
-  </si>
-  <si>
     <t>Choose6(1, BZ1) + ?</t>
   </si>
   <si>
     <t>Choose0(1, GV0) + MTH</t>
   </si>
   <si>
-    <t>Count8(BZ0) + ?</t>
-  </si>
-  <si>
-    <t>Choose1(1, ~FIRE, MN0) + MTG + Choose1(1, ~FIRE, MN0) + MTG</t>
-  </si>
-  <si>
-    <t>Choose0(1, MN1) + MTG</t>
-  </si>
-  <si>
-    <t>Count1(WATER, BZ0) + ?</t>
-  </si>
-  <si>
-    <t>Choose0(1, HD0) + MTS/MTM</t>
-  </si>
-  <si>
-    <t>Choose0(1, HD0) + MTG</t>
-  </si>
-  <si>
-    <t>Choose???</t>
-  </si>
-  <si>
-    <t>Choose0(2, MN1) + MTG</t>
-  </si>
-  <si>
     <t>Choose3(1, 4000, BZ1) + MTG</t>
   </si>
   <si>
     <t>Choose9(1, BZ0) + ?</t>
   </si>
   <si>
-    <t>Choose12(1) + MTG</t>
-  </si>
-  <si>
-    <t>Choose12(1) + MTG + ?</t>
-  </si>
-  <si>
-    <t>Choose12(1, DK0) + MTH + ?</t>
-  </si>
-  <si>
-    <t>Choose1(1, DK0) + MTH + ?</t>
-  </si>
-  <si>
     <t>Choose0(1, MZ1) + MTH</t>
   </si>
   <si>
-    <t>Choose3(1, 2000, BZ2) + MTH</t>
-  </si>
-  <si>
-    <t>Choose1(1, DARKNESS/FIRE, BZ2) + ?</t>
-  </si>
-  <si>
-    <t>Choose1(1, FIRE/NATURE, BZ0) + MTH</t>
-  </si>
-  <si>
-    <t>Choose12(1) + ?</t>
-  </si>
-  <si>
     <t>Choose0(1, MN0) + MTG + ?</t>
   </si>
   <si>
-    <t>Choose1(1, NATURE, GV0) + MTZ</t>
-  </si>
-  <si>
-    <t>Choose1(1, DARKNESS, GV0) + MTH</t>
-  </si>
-  <si>
     <t>Choose10(1, HD0) + ?</t>
   </si>
   <si>
@@ -11170,7 +11077,652 @@
     <t>WTD</t>
   </si>
   <si>
+    <t>[Choose2(1, OBSIDIAN_SCARAB, MZ0) + MTBZ]</t>
+  </si>
+  <si>
+    <t>[Choose2(1, AMBUSH_SCORPION, MZ0) + MTBZ]</t>
+  </si>
+  <si>
+    <t>[Choose0(2, HD0) + MTG]</t>
+  </si>
+  <si>
+    <t>[MTS]</t>
+  </si>
+  <si>
+    <t>[MTM]</t>
+  </si>
+  <si>
+    <t>[MTD]</t>
+  </si>
+  <si>
+    <t>[Choose0(2, GV0) + MTH]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, BZ2) + MTH]</t>
+  </si>
+  <si>
+    <t>[Choose0(2, BZ1] + ?]</t>
+  </si>
+  <si>
+    <t>[MTH + Choose0(1, HD0) + MTG]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, MN0) + MTH + ?]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, SD0) + MTG]</t>
+  </si>
+  <si>
+    <t>[Choose0(2, MN0) + MTG] ???</t>
+  </si>
+  <si>
+    <t>[Choose0(1, MN0) + MTG] ???</t>
+  </si>
+  <si>
+    <t>[Choose2(1, DRAGON, HD0) + MTBZ]</t>
+  </si>
+  <si>
+    <t>[Choose11(1, GV0) + MTH]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, GV0) + MTH]</t>
+  </si>
+  <si>
+    <t>[Choose10(HD0) + MTG]</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>Choose6(1, BZ1) + MTG + OP{Choose10(1, HD0) + MTG)</t>
+  </si>
+  <si>
+    <t>Choose1(1, LIGTH/NATURE) + MTG</t>
+  </si>
+  <si>
+    <t>Choose11(1, MZ0 ) + MTH</t>
+  </si>
+  <si>
+    <t>Count0(MN0) + ?</t>
+  </si>
+  <si>
+    <t>Choose0(2, BZ1) + ?</t>
+  </si>
+  <si>
+    <t>Choose1(1, NATURE, DK0) + MTH + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ1) + MTG</t>
+  </si>
+  <si>
+    <t>Choose3(1, 3000, BZ1) + MTG</t>
+  </si>
+  <si>
+    <t>Count2(SURVIVOR, BZ2) + ?</t>
+  </si>
+  <si>
+    <t>Choose0(2, HD0) + MTM</t>
+  </si>
+  <si>
+    <t>Choose10(1, HD0) + MTG ???</t>
+  </si>
+  <si>
+    <t>Choose11(1, DK0) + MTH + ?</t>
+  </si>
+  <si>
+    <t>Choose2(1, SURVIVOR, DK0) + MTH + ?</t>
+  </si>
+  <si>
+    <t>Choose2(1, SURVIVOR, GV0) + MTH</t>
+  </si>
+  <si>
+    <t>Choose0(2, BZ2) + MTH</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ1) + ?</t>
+  </si>
+  <si>
+    <t>MTTD</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ1) + MTTD</t>
+  </si>
+  <si>
+    <t>Choose0(1, SD1) + MTG</t>
+  </si>
+  <si>
+    <t>Choose0(2, MN0) + MTG</t>
+  </si>
+  <si>
+    <t>Count0(HD0)</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + MTG + OP{Choose0(1, BZ0) + MTG}</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + MTG</t>
+  </si>
+  <si>
+    <t>Choose3(1, 3000, BZ0) + MTG</t>
+  </si>
+  <si>
+    <t>Count0(BZ0) + ?</t>
+  </si>
+  <si>
+    <t>Count0(SD0) + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN0) + MTG</t>
+  </si>
+  <si>
+    <t>Choose2(1, GIANT_INSECT, DK0) + MTH + ?</t>
+  </si>
+  <si>
+    <t>Choose2(1, WHISPERING_TOTEM, DK0) + MTH + ?</t>
+  </si>
+  <si>
+    <t>Choose2(1, ARMORED_DRAGON, DK0) + MTH + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD0) + MTS + Choose0(1, SD0) + MTH</t>
+  </si>
+  <si>
+    <t>Choose0(2, HD0) + MTS + Choose0(2, SD0) + MTH</t>
+  </si>
+  <si>
+    <t>Choose7(1, BZ1) + MTG</t>
+  </si>
+  <si>
+    <t>Choose3(1, 2000, BZ1) + MTG</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD1) + MTS</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD0) + MTM</t>
+  </si>
+  <si>
+    <t>Choose0(1, GV0) + MTM</t>
+  </si>
+  <si>
+    <t>Choose2(1, LIVING_DEAD, GV0) + MTH</t>
+  </si>
+  <si>
+    <t>Choose11(1, GV0) + MTH</t>
+  </si>
+  <si>
+    <t>OP{Choose0(1, BZ0) + MTM}</t>
+  </si>
+  <si>
+    <t>OP{Choose0(2, HD0) + MTBZ}</t>
+  </si>
+  <si>
+    <t>Count1(DARKNESS, BZ0) + OP{Choose10(1, HD0) + MTG}</t>
+  </si>
+  <si>
+    <t>OP{Choose0(1, HD0) + MTG}</t>
+  </si>
+  <si>
+    <t>OP{Choose0(1, HD0) + MTBZ}</t>
+  </si>
+  <si>
+    <t>OP{Choose0(1, BZ2) + MTH} + ?</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>Each light creature in the battle zone gets …</t>
+  </si>
+  <si>
+    <t>Get1(LIGHT, BZ2)</t>
+  </si>
+  <si>
+    <t>All your blockers in the battle zone get …</t>
+  </si>
+  <si>
+    <t>Get6(BZ0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Each of your fire creatures </t>
+  </si>
+  <si>
+    <t>Get1(FIRE, BZ0)</t>
+  </si>
+  <si>
+    <t>All creatures from the battle zone</t>
+  </si>
+  <si>
+    <t>Get0(BZ2)</t>
+  </si>
+  <si>
+    <t>Get3(2000, BZ1)</t>
+  </si>
+  <si>
+    <t>All your opp. creatures that have 2000 power or less</t>
+  </si>
+  <si>
+    <t>All your opponent's untapped creatures in the battle zone .</t>
+  </si>
+  <si>
+    <t>Get9(BZ1)</t>
+  </si>
+  <si>
+    <t>All light spells in your graveyard</t>
+  </si>
+  <si>
+    <t>Get11(GV0)</t>
+  </si>
+  <si>
+    <t>All of your opp. hand .</t>
+  </si>
+  <si>
+    <t>Get0(HD1)</t>
+  </si>
+  <si>
+    <t>[Choose0(1, MN0) + MTG]</t>
+  </si>
+  <si>
+    <t>All cards from your mana zone</t>
+  </si>
+  <si>
+    <t>Get0(MN0)</t>
+  </si>
+  <si>
+    <t>Get???</t>
+  </si>
+  <si>
+    <t>Get0(BZ2) + MTH</t>
+  </si>
+  <si>
+    <t>?????</t>
+  </si>
+  <si>
+    <t>Count1(DARKNESS, MN0) + ? + Choose10(1, HD1) + MTG</t>
+  </si>
+  <si>
+    <t>Count1(WATER, MN0) + ?</t>
+  </si>
+  <si>
     <t>[MTH]</t>
+  </si>
+  <si>
+    <t>[Get0(BZ2) + MTG]</t>
+  </si>
+  <si>
+    <t>[Get3(4000) + MTG]</t>
+  </si>
+  <si>
+    <t>[Get3(3000) + MTG]</t>
+  </si>
+  <si>
+    <t>[Get0(HD2) + MTG]</t>
+  </si>
+  <si>
+    <t>[Count2(DRAGON, MN0) + ?</t>
+  </si>
+  <si>
+    <t>[Choose0(1, BZ1) + MTG]</t>
+  </si>
+  <si>
+    <t>Get0(MN0) + MTH + Get0(HD0) + MTM</t>
+  </si>
+  <si>
+    <t>Get3(2000, BZ2) + MTG</t>
+  </si>
+  <si>
+    <t>Count2(EARTH_EATER, BZ0)  + ? + Count2(GIANT, BZ0) + ?</t>
+  </si>
+  <si>
+    <t>Give power</t>
+  </si>
+  <si>
+    <t>"Until end of turn"</t>
+  </si>
+  <si>
+    <t>Current/selected card</t>
+  </si>
+  <si>
+    <t>Get1(DARKNESS, BZ2) + MTG + Get1(~DARKNESS, MN2) + MTG</t>
+  </si>
+  <si>
+    <t>Get1(DARKNESS, BZ2) + MTG</t>
+  </si>
+  <si>
+    <t>Top of deck - x cards</t>
+  </si>
+  <si>
+    <t>Draw - x cards</t>
+  </si>
+  <si>
+    <t>Look to - x shields</t>
+  </si>
+  <si>
+    <t>Tap/Untap</t>
+  </si>
+  <si>
+    <t>Get6(BZ1) + ?</t>
+  </si>
+  <si>
+    <t>Get5(1000, BZ2) + MTG</t>
+  </si>
+  <si>
+    <t>Get6(BZ2) + MTG</t>
+  </si>
+  <si>
+    <t>Get3(3000, BZ2) + MTG</t>
+  </si>
+  <si>
+    <t>Get3(4000, LIGHT, BZ2) + MTG</t>
+  </si>
+  <si>
+    <t>Other creatures (not current/selected)</t>
+  </si>
+  <si>
+    <t>Count2(BUBBLE_LAMP, GV0) + ?</t>
+  </si>
+  <si>
+    <t>Count2(CYBER_LORD, BZ0) + ?</t>
+  </si>
+  <si>
+    <t>Count2(HUSTLE_BALL_TRIBE, GV0) + ?</t>
+  </si>
+  <si>
+    <t>Count0(SD1) + ? + Get3(1, 1000, BZ1) + MTG</t>
+  </si>
+  <si>
+    <t>Count0(SD1) + ? + ?</t>
+  </si>
+  <si>
+    <t>Count0(SD1) + ? + Choose10(1, HD1) + MTG</t>
+  </si>
+  <si>
+    <t>Count0(MN1) + Count0(MN0) + ? + ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Count0(BZ1) + Count0(BZ0) + ? + ? </t>
+  </si>
+  <si>
+    <t>Choose0(1, HD1) + MTM + Choose0(1, MN1) + MTH</t>
+  </si>
+  <si>
+    <t>Get11(HD1, DARKNESS) + Get11(HD1, FIRE) + MTG</t>
+  </si>
+  <si>
+    <t>Get0(HD0) + Count0(HD0) + MTM + ?</t>
+  </si>
+  <si>
+    <t>Using number</t>
+  </si>
+  <si>
+    <t>Get0(SD0) + MTH</t>
+  </si>
+  <si>
+    <t>Count9(LIGHT, MN0) + Choose1(LIGHT, BZ0) + ?</t>
+  </si>
+  <si>
+    <t>Get2(ANGEL_COMMAND, GV0) + Get2(DEMON_COMMAND, GV0) + MTH + ?</t>
+  </si>
+  <si>
+    <t>Get2(DRAGON, GV0) + MTH</t>
+  </si>
+  <si>
+    <t>$tap choose one of your opponent's creatures in the battle zone and tap it .</t>
+  </si>
+  <si>
+    <t>When this creature is destroyed, you may choose one of your opponent's creatures in the battle zone and tap it .</t>
+  </si>
+  <si>
+    <t>When you put this creature into the battle zone, choose one of your opponent's creatures in the battle zone and tap it .</t>
+  </si>
+  <si>
+    <t>When you put this creature into the battle zone, you may choose one of your opponent's creatures in the battle zone and tap it .</t>
+  </si>
+  <si>
+    <t>Whenever this creature is attacked, you may choose one of your opponent's creatures in the battle zone and tap it .</t>
+  </si>
+  <si>
+    <t>EOT</t>
+  </si>
+  <si>
+    <t>"When attacking"</t>
+  </si>
+  <si>
+    <t>WA</t>
+  </si>
+  <si>
+    <t>Give(POWER, EOT/WA)</t>
+  </si>
+  <si>
+    <t>Look to - x shields/cards/topdeck</t>
+  </si>
+  <si>
+    <t>Look(x, SD1/HD1/TD0)</t>
+  </si>
+  <si>
+    <t>Draw(x)</t>
+  </si>
+  <si>
+    <t>TAP/~TAP</t>
+  </si>
+  <si>
+    <t>Choose0(2, MN0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>SEL</t>
+  </si>
+  <si>
+    <t>~SEL</t>
+  </si>
+  <si>
+    <t>Choose0(1, SD0) + SEL:MTS</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ2) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN1) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Get1(FIRE, BZ0) + SEL:Give(CA0, EOT)</t>
+  </si>
+  <si>
+    <t>Get1(WATER, BZ0) + SEL:Give(CBB0, EOT)</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:Give(SA0, EOT)</t>
+  </si>
+  <si>
+    <t>Get3(3000, BZ0) + SEL:MTG + Look(HD1) + OP{Get3(3000, HD0) + SEL:MTG}</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:TAP</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:MTS</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:Give(CBB0, EOT)</t>
+  </si>
+  <si>
+    <t>Choose3(1, 2000, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose8(1, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose10(1, HD0) + SEL:MTG + OP{Choose10(1, HD0) + SEL:MTG)</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN0) + SEL:MTG + OP{Choose0(1, MN0) + SEL:MTG)</t>
+  </si>
+  <si>
+    <t>Count0(MN0) + Count0(MN1) + ? + Get12(1) + SEL:MTM</t>
+  </si>
+  <si>
+    <t>Look(3, TD0)</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:Give(SL0, EOT)</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:Give(TCG5000, EOT)</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:Give(DB0, EOT)</t>
+  </si>
+  <si>
+    <t>Get12(1) + SEL:MTM</t>
+  </si>
+  <si>
+    <t>Show to opp.</t>
+  </si>
+  <si>
+    <t>SHOW</t>
+  </si>
+  <si>
+    <t>Choose0(1, DK0) + SEL:{MTH, SHOW}</t>
+  </si>
+  <si>
+    <t>Choose2(1, DK0) + SEL:{MTBZ, SHOW}</t>
+  </si>
+  <si>
+    <t>Get1(DARKNESS, BZ0) + SEL:{Give(TCG4000, EOT), Give(DB0, EOT)} + ?</t>
+  </si>
+  <si>
+    <t>OP{Choose0(1, BZ0) + SEL:MTG}</t>
+  </si>
+  <si>
+    <t>OP{Choose10(2, HD0) + SEL:MTG}</t>
+  </si>
+  <si>
+    <t>Get3(3000, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose6(1, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Get1(LIGHT, BZ0) + SEL:UNTAP</t>
+  </si>
+  <si>
+    <t>Choose0(1, GV0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Count8(BZ0) + DRAW(SEL)</t>
+  </si>
+  <si>
+    <t>Choose1(1, ~FIRE, MN0) + SEL:MTG + OP{Choose1(1, ~FIRE, MN0) + SEL:MTG}</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Count1(WATER, BZ0) + DRAW(SEL)</t>
+  </si>
+  <si>
+    <t>Get0(MN0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Get(1) + SEL:MTS</t>
+  </si>
+  <si>
+    <t>Get0(BZ1) + SEL:TAP</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD0) + SEL:MTS/MTM</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Get11(GV0, LIGHT) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose0(2, MN1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>OP{Choose0(1, HD0) + SEL:MTG}</t>
+  </si>
+  <si>
+    <t>Choose3(1, 4000, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Look(2, SD1)</t>
+  </si>
+  <si>
+    <t>OP{Get0(HD1) + SEL:MTG}</t>
+  </si>
+  <si>
+    <t>SEL:Give(TCCG3000, EOT)</t>
+  </si>
+  <si>
+    <t>Choose3(SEL, BZ1) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose0(1, SD0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose0(1, SD0) + SEL:MTG + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose3(SEL, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose11(1, DK0) + SEL:{MTH, SHOW} + ?</t>
+  </si>
+  <si>
+    <t>Shuffle</t>
+  </si>
+  <si>
+    <t>Choose1(1, DK0) + SEL:{MTH, SHOW} + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, MZ1) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose3(1, 2000, BZ2) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose1(1, DARKNESS/FIRE, BZ2) + SEL:TAP</t>
+  </si>
+  <si>
+    <t>Choose1(1, FIRE/NATURE, BZ0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:{Give(TCCG2000, EOT), Give(DB0, EOT)}</t>
+  </si>
+  <si>
+    <t>Count0(BZ1) + DRAW(SEL)</t>
+  </si>
+  <si>
+    <t>Look(1, SD1)</t>
+  </si>
+  <si>
+    <t>Look(HD1) + Look(1, TD1)</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN0) + SEL:MTG + SEL0:{Give(PA2, EOT), Give(DB0, EOT)</t>
+  </si>
+  <si>
+    <t>Choose1(1, NATURE, GV0) + SEL:MTZ</t>
+  </si>
+  <si>
+    <t>Choose1(1, DARKNESS, GV0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose11(GV0, LIGHT) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose10(1, HD0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Compare</t>
   </si>
 </sst>
 </file>
@@ -11228,7 +11780,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -11331,6 +11883,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -11388,7 +11958,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -11431,6 +12001,7 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11447,6 +12018,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -12222,7 +12802,7 @@
         <v>37</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>3122</v>
+        <v>3117</v>
       </c>
       <c r="I16" t="str">
         <f t="shared" si="0"/>
@@ -12270,7 +12850,7 @@
         <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>2978</v>
+        <v>2973</v>
       </c>
       <c r="I19" t="str">
         <f t="shared" si="0"/>
@@ -12399,7 +12979,7 @@
         <v>9</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>3152</v>
+        <v>3147</v>
       </c>
       <c r="I26" t="str">
         <f t="shared" si="0"/>
@@ -12648,7 +13228,7 @@
         <v>27</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>2967</v>
+        <v>2962</v>
       </c>
       <c r="I35" t="str">
         <f t="shared" si="0"/>
@@ -12678,7 +13258,7 @@
         <v>14</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>3021</v>
+        <v>3016</v>
       </c>
       <c r="I36" t="str">
         <f t="shared" si="0"/>
@@ -12873,7 +13453,7 @@
         <v>9</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>2979</v>
+        <v>2974</v>
       </c>
       <c r="I45" t="str">
         <f t="shared" si="0"/>
@@ -13023,7 +13603,7 @@
         <v>14</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>2966</v>
+        <v>2961</v>
       </c>
       <c r="I50" t="str">
         <f t="shared" si="0"/>
@@ -13179,7 +13759,7 @@
         <v>14</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>3022</v>
+        <v>3017</v>
       </c>
       <c r="I58" t="str">
         <f t="shared" si="0"/>
@@ -13458,7 +14038,7 @@
         <v>14</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>3037</v>
+        <v>3032</v>
       </c>
       <c r="I68" t="str">
         <f t="shared" si="1"/>
@@ -13518,7 +14098,7 @@
         <v>27</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>2980</v>
+        <v>2975</v>
       </c>
       <c r="I70" t="str">
         <f t="shared" si="1"/>
@@ -13677,7 +14257,7 @@
         <v>14</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>3023</v>
+        <v>3018</v>
       </c>
       <c r="I76" t="str">
         <f t="shared" si="1"/>
@@ -13740,7 +14320,7 @@
         <v>27</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>2998</v>
+        <v>2993</v>
       </c>
       <c r="I78" t="str">
         <f t="shared" si="1"/>
@@ -13806,7 +14386,7 @@
         <v>20</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>3153</v>
+        <v>3148</v>
       </c>
       <c r="I80" t="str">
         <f t="shared" si="1"/>
@@ -13839,7 +14419,7 @@
         <v>9</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>2999</v>
+        <v>2994</v>
       </c>
       <c r="I81" t="str">
         <f t="shared" si="1"/>
@@ -13881,7 +14461,7 @@
         <v>14</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>3140</v>
+        <v>3135</v>
       </c>
       <c r="I83" t="str">
         <f t="shared" si="1"/>
@@ -13941,7 +14521,7 @@
         <v>27</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>3000</v>
+        <v>2995</v>
       </c>
       <c r="I85" t="str">
         <f t="shared" si="1"/>
@@ -14031,7 +14611,7 @@
         <v>14</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>3185</v>
+        <v>3180</v>
       </c>
       <c r="I88" t="str">
         <f t="shared" si="1"/>
@@ -14154,7 +14734,7 @@
         <v>14</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>3186</v>
+        <v>3181</v>
       </c>
       <c r="I92" t="str">
         <f t="shared" si="1"/>
@@ -14184,7 +14764,7 @@
         <v>20</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>3120</v>
+        <v>3115</v>
       </c>
       <c r="I93" t="str">
         <f t="shared" si="1"/>
@@ -14226,7 +14806,7 @@
         <v>9</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>3137</v>
+        <v>3132</v>
       </c>
       <c r="I96" t="str">
         <f t="shared" si="1"/>
@@ -14322,7 +14902,7 @@
         <v>14</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>3233</v>
+        <v>3228</v>
       </c>
       <c r="I100" t="str">
         <f t="shared" si="1"/>
@@ -14352,7 +14932,7 @@
         <v>14</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>3038</v>
+        <v>3033</v>
       </c>
       <c r="I101" t="str">
         <f t="shared" si="1"/>
@@ -14382,7 +14962,7 @@
         <v>20</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>3121</v>
+        <v>3116</v>
       </c>
       <c r="I102" t="str">
         <f t="shared" si="1"/>
@@ -14493,7 +15073,7 @@
         <v>14</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>2988</v>
+        <v>2983</v>
       </c>
       <c r="I107" t="str">
         <f t="shared" si="1"/>
@@ -14985,7 +15565,7 @@
         <v>27</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>3103</v>
+        <v>3098</v>
       </c>
       <c r="I127" t="str">
         <f t="shared" si="1"/>
@@ -15276,7 +15856,7 @@
         <v>9</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>2951</v>
+        <v>2946</v>
       </c>
       <c r="I138" t="str">
         <f t="shared" si="2"/>
@@ -15708,7 +16288,7 @@
         <v>14</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>2989</v>
+        <v>2984</v>
       </c>
       <c r="I153" t="str">
         <f t="shared" si="2"/>
@@ -15732,7 +16312,7 @@
         <v>9</v>
       </c>
       <c r="H154" s="2" t="s">
-        <v>3144</v>
+        <v>3139</v>
       </c>
       <c r="I154" t="str">
         <f t="shared" si="2"/>
@@ -15972,7 +16552,7 @@
         <v>20</v>
       </c>
       <c r="H165" s="2" t="s">
-        <v>3090</v>
+        <v>3085</v>
       </c>
       <c r="I165" t="str">
         <f t="shared" si="2"/>
@@ -16140,7 +16720,7 @@
         <v>37</v>
       </c>
       <c r="H172" s="2" t="s">
-        <v>3154</v>
+        <v>3149</v>
       </c>
       <c r="I172" t="str">
         <f t="shared" si="2"/>
@@ -16545,7 +17125,7 @@
         <v>14</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>3054</v>
+        <v>3049</v>
       </c>
       <c r="I188" t="str">
         <f t="shared" si="2"/>
@@ -16638,7 +17218,7 @@
         <v>14</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>3175</v>
+        <v>3170</v>
       </c>
       <c r="I192" t="str">
         <f t="shared" si="2"/>
@@ -16785,7 +17365,7 @@
         <v>27</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>3202</v>
+        <v>3197</v>
       </c>
       <c r="I199" t="str">
         <f t="shared" si="3"/>
@@ -16977,7 +17557,7 @@
         <v>27</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>3039</v>
+        <v>3034</v>
       </c>
       <c r="I207" t="str">
         <f t="shared" si="3"/>
@@ -17067,7 +17647,7 @@
         <v>27</v>
       </c>
       <c r="H210" s="3" t="s">
-        <v>3055</v>
+        <v>3050</v>
       </c>
       <c r="I210" t="str">
         <f t="shared" si="3"/>
@@ -17097,7 +17677,7 @@
         <v>27</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>3155</v>
+        <v>3150</v>
       </c>
       <c r="I211" t="str">
         <f t="shared" si="3"/>
@@ -17148,7 +17728,7 @@
         <v>14</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>3138</v>
+        <v>3133</v>
       </c>
       <c r="I213" t="str">
         <f t="shared" si="3"/>
@@ -17178,7 +17758,7 @@
         <v>9</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>3218</v>
+        <v>3213</v>
       </c>
       <c r="I214" t="str">
         <f t="shared" si="3"/>
@@ -17430,7 +18010,7 @@
         <v>14</v>
       </c>
       <c r="H224" s="2" t="s">
-        <v>3156</v>
+        <v>3151</v>
       </c>
       <c r="I224" t="str">
         <f t="shared" si="3"/>
@@ -17454,7 +18034,7 @@
         <v>27</v>
       </c>
       <c r="H225" s="2" t="s">
-        <v>3040</v>
+        <v>3035</v>
       </c>
       <c r="I225" t="str">
         <f t="shared" si="3"/>
@@ -17544,7 +18124,7 @@
         <v>9</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>3221</v>
+        <v>3216</v>
       </c>
       <c r="I228" t="str">
         <f t="shared" si="3"/>
@@ -17802,7 +18382,7 @@
         <v>20</v>
       </c>
       <c r="H237" s="2" t="s">
-        <v>3157</v>
+        <v>3152</v>
       </c>
       <c r="I237" t="str">
         <f t="shared" si="3"/>
@@ -17898,7 +18478,7 @@
         <v>9</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>3145</v>
+        <v>3140</v>
       </c>
       <c r="I241" t="str">
         <f t="shared" si="3"/>
@@ -17928,7 +18508,7 @@
         <v>9</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>3056</v>
+        <v>3051</v>
       </c>
       <c r="I242" t="str">
         <f t="shared" si="3"/>
@@ -18156,7 +18736,7 @@
         <v>27</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>3158</v>
+        <v>3153</v>
       </c>
       <c r="I251" t="str">
         <f t="shared" si="3"/>
@@ -18342,7 +18922,7 @@
         <v>27</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>3176</v>
+        <v>3171</v>
       </c>
       <c r="I258" t="str">
         <f t="shared" ref="I258:I321" si="4">IF(K258="Evolution","Evolution",J258)</f>
@@ -18396,7 +18976,7 @@
         <v>27</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>3187</v>
+        <v>3182</v>
       </c>
       <c r="I260" t="str">
         <f t="shared" si="4"/>
@@ -18960,7 +19540,7 @@
         <v>27</v>
       </c>
       <c r="H282" s="3" t="s">
-        <v>3141</v>
+        <v>3136</v>
       </c>
       <c r="I282" t="str">
         <f t="shared" si="4"/>
@@ -19263,7 +19843,7 @@
         <v>14</v>
       </c>
       <c r="H293" s="3" t="s">
-        <v>3159</v>
+        <v>3154</v>
       </c>
       <c r="I293" t="str">
         <f t="shared" si="4"/>
@@ -19293,7 +19873,7 @@
         <v>20</v>
       </c>
       <c r="H294" s="2" t="s">
-        <v>3078</v>
+        <v>3073</v>
       </c>
       <c r="I294" t="str">
         <f t="shared" si="4"/>
@@ -19473,7 +20053,7 @@
         <v>20</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>2970</v>
+        <v>2965</v>
       </c>
       <c r="I302" t="str">
         <f t="shared" si="4"/>
@@ -19746,7 +20326,7 @@
         <v>27</v>
       </c>
       <c r="H311" s="2" t="s">
-        <v>3203</v>
+        <v>3198</v>
       </c>
       <c r="I311" t="str">
         <f t="shared" si="4"/>
@@ -20076,7 +20656,7 @@
         <v>14</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>3233</v>
+        <v>3228</v>
       </c>
       <c r="I324" t="str">
         <f t="shared" si="5"/>
@@ -20190,7 +20770,7 @@
         <v>20</v>
       </c>
       <c r="H328" s="2" t="s">
-        <v>3079</v>
+        <v>3074</v>
       </c>
       <c r="I328" t="str">
         <f t="shared" si="5"/>
@@ -20304,7 +20884,7 @@
         <v>14</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>3024</v>
+        <v>3019</v>
       </c>
       <c r="I334" t="str">
         <f t="shared" si="5"/>
@@ -20394,7 +20974,7 @@
         <v>27</v>
       </c>
       <c r="H337" s="2" t="s">
-        <v>3160</v>
+        <v>3155</v>
       </c>
       <c r="I337" t="str">
         <f t="shared" si="5"/>
@@ -20661,7 +21241,7 @@
         <v>37</v>
       </c>
       <c r="H347" s="2" t="s">
-        <v>2971</v>
+        <v>2966</v>
       </c>
       <c r="I347" t="str">
         <f t="shared" si="5"/>
@@ -20757,7 +21337,7 @@
         <v>37</v>
       </c>
       <c r="H351" s="2" t="s">
-        <v>3209</v>
+        <v>3204</v>
       </c>
       <c r="I351" t="str">
         <f t="shared" si="5"/>
@@ -20844,7 +21424,7 @@
         <v>9</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>3001</v>
+        <v>2996</v>
       </c>
       <c r="I354" t="str">
         <f t="shared" si="5"/>
@@ -20874,7 +21454,7 @@
         <v>20</v>
       </c>
       <c r="H355" s="2" t="s">
-        <v>3124</v>
+        <v>3119</v>
       </c>
       <c r="I355" t="str">
         <f t="shared" si="5"/>
@@ -21207,7 +21787,7 @@
         <v>9</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>3233</v>
+        <v>3228</v>
       </c>
       <c r="I369" t="str">
         <f t="shared" si="5"/>
@@ -21330,7 +21910,7 @@
         <v>27</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>2972</v>
+        <v>2967</v>
       </c>
       <c r="I374" t="str">
         <f t="shared" si="5"/>
@@ -21360,7 +21940,7 @@
         <v>9</v>
       </c>
       <c r="H375" s="2" t="s">
-        <v>3041</v>
+        <v>3036</v>
       </c>
       <c r="I375" t="str">
         <f t="shared" si="5"/>
@@ -21423,7 +22003,7 @@
         <v>9</v>
       </c>
       <c r="H377" s="2" t="s">
-        <v>2952</v>
+        <v>2947</v>
       </c>
       <c r="I377" t="str">
         <f t="shared" si="5"/>
@@ -21588,7 +22168,7 @@
         <v>20</v>
       </c>
       <c r="H384" s="2" t="s">
-        <v>3177</v>
+        <v>3172</v>
       </c>
       <c r="I384" t="str">
         <f t="shared" si="5"/>
@@ -22131,7 +22711,7 @@
         <v>20</v>
       </c>
       <c r="H405" s="2" t="s">
-        <v>3091</v>
+        <v>3086</v>
       </c>
       <c r="I405" t="str">
         <f t="shared" si="6"/>
@@ -22188,7 +22768,7 @@
         <v>14</v>
       </c>
       <c r="H407" s="2" t="s">
-        <v>3067</v>
+        <v>3062</v>
       </c>
       <c r="I407" t="str">
         <f t="shared" si="6"/>
@@ -22305,7 +22885,7 @@
         <v>14</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>2990</v>
+        <v>2985</v>
       </c>
       <c r="I411" t="str">
         <f t="shared" si="6"/>
@@ -22488,7 +23068,7 @@
         <v>37</v>
       </c>
       <c r="H420" s="2" t="s">
-        <v>3088</v>
+        <v>3083</v>
       </c>
       <c r="I420" t="str">
         <f t="shared" si="6"/>
@@ -22668,7 +23248,7 @@
         <v>14</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>3178</v>
+        <v>3173</v>
       </c>
       <c r="I428" t="str">
         <f t="shared" si="6"/>
@@ -22728,7 +23308,7 @@
         <v>14</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>3002</v>
+        <v>2997</v>
       </c>
       <c r="I430" t="str">
         <f t="shared" si="6"/>
@@ -22872,7 +23452,7 @@
         <v>14</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>3025</v>
+        <v>3020</v>
       </c>
       <c r="I435" t="str">
         <f t="shared" si="6"/>
@@ -23139,7 +23719,7 @@
         <v>14</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>3057</v>
+        <v>3052</v>
       </c>
       <c r="I446" t="str">
         <f t="shared" si="6"/>
@@ -23373,7 +23953,7 @@
         <v>9</v>
       </c>
       <c r="H455" s="2" t="s">
-        <v>3068</v>
+        <v>3063</v>
       </c>
       <c r="I455" t="str">
         <f t="shared" si="7"/>
@@ -23478,7 +24058,7 @@
         <v>14</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>2973</v>
+        <v>2968</v>
       </c>
       <c r="I460" t="str">
         <f t="shared" si="7"/>
@@ -23829,7 +24409,7 @@
         <v>9</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>3080</v>
+        <v>3075</v>
       </c>
       <c r="I474" t="str">
         <f t="shared" si="7"/>
@@ -23952,7 +24532,7 @@
         <v>27</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>3226</v>
+        <v>3221</v>
       </c>
       <c r="I479" t="str">
         <f t="shared" si="7"/>
@@ -24012,7 +24592,7 @@
         <v>20</v>
       </c>
       <c r="H481" s="2" t="s">
-        <v>3123</v>
+        <v>3118</v>
       </c>
       <c r="I481" t="str">
         <f t="shared" si="7"/>
@@ -24177,7 +24757,7 @@
         <v>14</v>
       </c>
       <c r="H490" s="3" t="s">
-        <v>3146</v>
+        <v>3141</v>
       </c>
       <c r="I490" t="str">
         <f t="shared" si="7"/>
@@ -24336,7 +24916,7 @@
         <v>14</v>
       </c>
       <c r="H496" s="3" t="s">
-        <v>3104</v>
+        <v>3099</v>
       </c>
       <c r="I496" t="str">
         <f t="shared" si="7"/>
@@ -24465,7 +25045,7 @@
         <v>20</v>
       </c>
       <c r="H501" s="2" t="s">
-        <v>3161</v>
+        <v>3156</v>
       </c>
       <c r="I501" t="str">
         <f t="shared" si="7"/>
@@ -24603,7 +25183,7 @@
         <v>37</v>
       </c>
       <c r="H507" s="2" t="s">
-        <v>3125</v>
+        <v>3120</v>
       </c>
       <c r="I507" t="str">
         <f t="shared" si="7"/>
@@ -24651,7 +25231,7 @@
         <v>14</v>
       </c>
       <c r="H510" s="3" t="s">
-        <v>3188</v>
+        <v>3183</v>
       </c>
       <c r="I510" t="str">
         <f t="shared" si="7"/>
@@ -24681,7 +25261,7 @@
         <v>9</v>
       </c>
       <c r="H511" s="3" t="s">
-        <v>3105</v>
+        <v>3100</v>
       </c>
       <c r="I511" t="str">
         <f t="shared" si="7"/>
@@ -24882,7 +25462,7 @@
         <v>27</v>
       </c>
       <c r="H519" s="2" t="s">
-        <v>3042</v>
+        <v>3037</v>
       </c>
       <c r="I519" t="str">
         <f t="shared" si="8"/>
@@ -25074,7 +25654,7 @@
         <v>14</v>
       </c>
       <c r="H527" s="3" t="s">
-        <v>3231</v>
+        <v>3226</v>
       </c>
       <c r="I527" t="str">
         <f t="shared" si="8"/>
@@ -25305,7 +25885,7 @@
         <v>27</v>
       </c>
       <c r="H536" s="3" t="s">
-        <v>3058</v>
+        <v>3053</v>
       </c>
       <c r="I536" t="str">
         <f t="shared" si="8"/>
@@ -25452,7 +26032,7 @@
         <v>37</v>
       </c>
       <c r="H543" s="3" t="s">
-        <v>2974</v>
+        <v>2969</v>
       </c>
       <c r="I543" t="str">
         <f t="shared" si="8"/>
@@ -25482,7 +26062,7 @@
         <v>27</v>
       </c>
       <c r="H544" s="3" t="s">
-        <v>3204</v>
+        <v>3199</v>
       </c>
       <c r="I544" t="str">
         <f t="shared" si="8"/>
@@ -26322,7 +26902,7 @@
         <v>9</v>
       </c>
       <c r="H577" s="2" t="s">
-        <v>3003</v>
+        <v>2998</v>
       </c>
       <c r="I577" t="str">
         <f t="shared" ref="I577:I640" si="9">IF(K577="Evolution","Evolution",J577)</f>
@@ -27282,7 +27862,7 @@
         <v>14</v>
       </c>
       <c r="H613" s="3" t="s">
-        <v>3059</v>
+        <v>3054</v>
       </c>
       <c r="I613" t="str">
         <f t="shared" si="9"/>
@@ -27447,7 +28027,7 @@
         <v>27</v>
       </c>
       <c r="H620" s="2" t="s">
-        <v>3234</v>
+        <v>3229</v>
       </c>
       <c r="I620" t="str">
         <f t="shared" si="9"/>
@@ -27594,7 +28174,7 @@
         <v>14</v>
       </c>
       <c r="H625" s="3" t="s">
-        <v>3222</v>
+        <v>3217</v>
       </c>
       <c r="I625" t="str">
         <f t="shared" si="9"/>
@@ -27780,7 +28360,7 @@
         <v>27</v>
       </c>
       <c r="H632" s="3" t="s">
-        <v>3018</v>
+        <v>3013</v>
       </c>
       <c r="I632" t="str">
         <f t="shared" si="9"/>
@@ -27819,7 +28399,7 @@
         <v>9</v>
       </c>
       <c r="H634" s="2" t="s">
-        <v>3043</v>
+        <v>3038</v>
       </c>
       <c r="I634" t="str">
         <f t="shared" si="9"/>
@@ -27849,7 +28429,7 @@
         <v>9</v>
       </c>
       <c r="H635" s="2" t="s">
-        <v>3216</v>
+        <v>3211</v>
       </c>
       <c r="I635" t="str">
         <f t="shared" si="9"/>
@@ -27993,7 +28573,7 @@
         <v>37</v>
       </c>
       <c r="H641" s="3" t="s">
-        <v>3101</v>
+        <v>3096</v>
       </c>
       <c r="I641" t="str">
         <f t="shared" ref="I641:I703" si="10">IF(K641="Evolution","Evolution",J641)</f>
@@ -28047,7 +28627,7 @@
         <v>27</v>
       </c>
       <c r="H643" s="2" t="s">
-        <v>2991</v>
+        <v>2986</v>
       </c>
       <c r="I643" t="str">
         <f t="shared" si="10"/>
@@ -28077,7 +28657,7 @@
         <v>27</v>
       </c>
       <c r="H644" s="2" t="s">
-        <v>3044</v>
+        <v>3039</v>
       </c>
       <c r="I644" t="str">
         <f t="shared" si="10"/>
@@ -28203,7 +28783,7 @@
         <v>14</v>
       </c>
       <c r="H648" s="2" t="s">
-        <v>3235</v>
+        <v>3230</v>
       </c>
       <c r="I648" t="str">
         <f t="shared" si="10"/>
@@ -28272,7 +28852,7 @@
         <v>14</v>
       </c>
       <c r="H651" s="3" t="s">
-        <v>3162</v>
+        <v>3157</v>
       </c>
       <c r="I651" t="str">
         <f t="shared" si="10"/>
@@ -28356,7 +28936,7 @@
         <v>27</v>
       </c>
       <c r="H654" s="2" t="s">
-        <v>3069</v>
+        <v>3064</v>
       </c>
       <c r="I654" t="str">
         <f t="shared" si="10"/>
@@ -28476,7 +29056,7 @@
         <v>14</v>
       </c>
       <c r="H659" s="3" t="s">
-        <v>3055</v>
+        <v>3050</v>
       </c>
       <c r="I659" t="str">
         <f t="shared" si="10"/>
@@ -28683,7 +29263,7 @@
         <v>37</v>
       </c>
       <c r="H668" s="2" t="s">
-        <v>3060</v>
+        <v>3055</v>
       </c>
       <c r="I668" t="str">
         <f t="shared" si="10"/>
@@ -28743,7 +29323,7 @@
         <v>37</v>
       </c>
       <c r="H670" s="3" t="s">
-        <v>3092</v>
+        <v>3087</v>
       </c>
       <c r="I670" t="str">
         <f t="shared" si="10"/>
@@ -28893,7 +29473,7 @@
         <v>37</v>
       </c>
       <c r="H675" s="2" t="s">
-        <v>2981</v>
+        <v>2976</v>
       </c>
       <c r="I675" t="str">
         <f t="shared" si="10"/>
@@ -28983,7 +29563,7 @@
         <v>37</v>
       </c>
       <c r="H678" s="2" t="s">
-        <v>3081</v>
+        <v>3076</v>
       </c>
       <c r="I678" t="str">
         <f t="shared" si="10"/>
@@ -29103,7 +29683,7 @@
         <v>20</v>
       </c>
       <c r="H682" s="2" t="s">
-        <v>2975</v>
+        <v>2970</v>
       </c>
       <c r="I682" t="str">
         <f t="shared" si="10"/>
@@ -29817,7 +30397,7 @@
         <v>14</v>
       </c>
       <c r="H708" s="3" t="s">
-        <v>3163</v>
+        <v>3158</v>
       </c>
       <c r="I708" t="str">
         <f t="shared" si="11"/>
@@ -29940,7 +30520,7 @@
         <v>14</v>
       </c>
       <c r="H712" s="3" t="s">
-        <v>3163</v>
+        <v>3158</v>
       </c>
       <c r="I712" t="str">
         <f t="shared" si="11"/>
@@ -29970,7 +30550,7 @@
         <v>14</v>
       </c>
       <c r="H713" s="3" t="s">
-        <v>3142</v>
+        <v>3137</v>
       </c>
       <c r="I713" t="str">
         <f t="shared" si="11"/>
@@ -30063,7 +30643,7 @@
         <v>9</v>
       </c>
       <c r="H716" s="2" t="s">
-        <v>3045</v>
+        <v>3040</v>
       </c>
       <c r="I716" t="str">
         <f t="shared" si="11"/>
@@ -30324,7 +30904,7 @@
         <v>27</v>
       </c>
       <c r="H726" s="2" t="s">
-        <v>3217</v>
+        <v>3212</v>
       </c>
       <c r="I726" t="str">
         <f t="shared" si="11"/>
@@ -30831,7 +31411,7 @@
         <v>14</v>
       </c>
       <c r="H746" s="2" t="s">
-        <v>3236</v>
+        <v>3231</v>
       </c>
       <c r="I746" t="str">
         <f t="shared" si="11"/>
@@ -30855,7 +31435,7 @@
         <v>9</v>
       </c>
       <c r="H747" s="3" t="s">
-        <v>3147</v>
+        <v>3142</v>
       </c>
       <c r="I747" t="str">
         <f t="shared" si="11"/>
@@ -30885,7 +31465,7 @@
         <v>37</v>
       </c>
       <c r="H748" s="2" t="s">
-        <v>3223</v>
+        <v>3218</v>
       </c>
       <c r="I748" t="str">
         <f t="shared" si="11"/>
@@ -30951,7 +31531,7 @@
         <v>20</v>
       </c>
       <c r="H751" s="2" t="s">
-        <v>3179</v>
+        <v>3174</v>
       </c>
       <c r="I751" t="str">
         <f t="shared" si="11"/>
@@ -31011,7 +31591,7 @@
         <v>14</v>
       </c>
       <c r="H753" s="3" t="s">
-        <v>2966</v>
+        <v>2961</v>
       </c>
       <c r="I753" t="str">
         <f t="shared" si="11"/>
@@ -31182,7 +31762,7 @@
         <v>37</v>
       </c>
       <c r="H760" s="3" t="s">
-        <v>3070</v>
+        <v>3065</v>
       </c>
       <c r="I760" t="str">
         <f t="shared" si="11"/>
@@ -31212,7 +31792,7 @@
         <v>37</v>
       </c>
       <c r="H761" s="2" t="s">
-        <v>3093</v>
+        <v>3088</v>
       </c>
       <c r="I761" t="str">
         <f t="shared" si="11"/>
@@ -31449,7 +32029,7 @@
         <v>27</v>
       </c>
       <c r="H770" s="2" t="s">
-        <v>3164</v>
+        <v>3159</v>
       </c>
       <c r="I770" t="str">
         <f t="shared" si="12"/>
@@ -31551,7 +32131,7 @@
         <v>9</v>
       </c>
       <c r="H774" s="3" t="s">
-        <v>3094</v>
+        <v>3089</v>
       </c>
       <c r="I774" t="str">
         <f t="shared" si="12"/>
@@ -32238,7 +32818,7 @@
         <v>14</v>
       </c>
       <c r="H801" s="3" t="s">
-        <v>3227</v>
+        <v>3222</v>
       </c>
       <c r="I801" t="str">
         <f t="shared" si="12"/>
@@ -32496,7 +33076,7 @@
         <v>14</v>
       </c>
       <c r="H811" s="3" t="s">
-        <v>3071</v>
+        <v>3066</v>
       </c>
       <c r="I811" t="str">
         <f t="shared" si="12"/>
@@ -32550,7 +33130,7 @@
         <v>9</v>
       </c>
       <c r="H813" s="3" t="s">
-        <v>3061</v>
+        <v>3056</v>
       </c>
       <c r="I813" t="str">
         <f t="shared" si="12"/>
@@ -32580,7 +33160,7 @@
         <v>14</v>
       </c>
       <c r="H814" s="2" t="s">
-        <v>3237</v>
+        <v>3232</v>
       </c>
       <c r="I814" t="str">
         <f t="shared" si="12"/>
@@ -32943,7 +33523,7 @@
         <v>14</v>
       </c>
       <c r="H831" s="3" t="s">
-        <v>3228</v>
+        <v>3223</v>
       </c>
       <c r="I831" t="str">
         <f t="shared" si="12"/>
@@ -32973,7 +33553,7 @@
         <v>27</v>
       </c>
       <c r="H832" s="3" t="s">
-        <v>3072</v>
+        <v>3067</v>
       </c>
       <c r="I832" t="str">
         <f t="shared" ref="I832:I895" si="13">IF(K832="Evolution","Evolution",J832)</f>
@@ -33120,7 +33700,7 @@
         <v>27</v>
       </c>
       <c r="H839" s="3" t="s">
-        <v>3073</v>
+        <v>3068</v>
       </c>
       <c r="I839" t="str">
         <f t="shared" si="13"/>
@@ -33168,7 +33748,7 @@
         <v>27</v>
       </c>
       <c r="H842" s="2" t="s">
-        <v>3165</v>
+        <v>3160</v>
       </c>
       <c r="I842" t="str">
         <f t="shared" si="13"/>
@@ -33222,7 +33802,7 @@
         <v>9</v>
       </c>
       <c r="H844" s="2" t="s">
-        <v>3046</v>
+        <v>3041</v>
       </c>
       <c r="I844" t="str">
         <f t="shared" si="13"/>
@@ -33306,7 +33886,7 @@
         <v>9</v>
       </c>
       <c r="H847" s="2" t="s">
-        <v>3047</v>
+        <v>3042</v>
       </c>
       <c r="I847" t="str">
         <f t="shared" si="13"/>
@@ -33366,7 +33946,7 @@
         <v>14</v>
       </c>
       <c r="H849" s="3" t="s">
-        <v>2992</v>
+        <v>2987</v>
       </c>
       <c r="I849" t="str">
         <f t="shared" si="13"/>
@@ -33534,7 +34114,7 @@
         <v>14</v>
       </c>
       <c r="H855" s="3" t="s">
-        <v>3210</v>
+        <v>3205</v>
       </c>
       <c r="I855" t="str">
         <f t="shared" si="13"/>
@@ -33564,7 +34144,7 @@
         <v>14</v>
       </c>
       <c r="H856" s="3" t="s">
-        <v>3026</v>
+        <v>3021</v>
       </c>
       <c r="I856" t="str">
         <f t="shared" si="13"/>
@@ -33642,7 +34222,7 @@
         <v>9</v>
       </c>
       <c r="H859" s="2" t="s">
-        <v>3219</v>
+        <v>3214</v>
       </c>
       <c r="I859" t="str">
         <f t="shared" si="13"/>
@@ -33918,7 +34498,7 @@
         <v>27</v>
       </c>
       <c r="H870" s="2" t="s">
-        <v>3082</v>
+        <v>3077</v>
       </c>
       <c r="I870" t="str">
         <f t="shared" si="13"/>
@@ -33948,7 +34528,7 @@
         <v>37</v>
       </c>
       <c r="H871" s="2" t="s">
-        <v>3089</v>
+        <v>3084</v>
       </c>
       <c r="I871" t="str">
         <f t="shared" si="13"/>
@@ -34344,7 +34924,7 @@
         <v>14</v>
       </c>
       <c r="H887" s="3" t="s">
-        <v>3189</v>
+        <v>3184</v>
       </c>
       <c r="I887" t="str">
         <f t="shared" si="13"/>
@@ -34983,7 +35563,7 @@
         <v>27</v>
       </c>
       <c r="H911" s="3" t="s">
-        <v>3182</v>
+        <v>3177</v>
       </c>
       <c r="I911" t="str">
         <f t="shared" si="14"/>
@@ -35037,7 +35617,7 @@
         <v>27</v>
       </c>
       <c r="H913" s="2" t="s">
-        <v>3205</v>
+        <v>3200</v>
       </c>
       <c r="I913" t="str">
         <f t="shared" si="14"/>
@@ -35304,7 +35884,7 @@
         <v>9</v>
       </c>
       <c r="H924" s="2" t="s">
-        <v>3095</v>
+        <v>3090</v>
       </c>
       <c r="I924" t="str">
         <f t="shared" si="14"/>
@@ -35511,7 +36091,7 @@
         <v>9</v>
       </c>
       <c r="H933" s="2" t="s">
-        <v>3083</v>
+        <v>3078</v>
       </c>
       <c r="I933" t="str">
         <f t="shared" si="14"/>
@@ -35541,7 +36121,7 @@
         <v>27</v>
       </c>
       <c r="H934" s="3" t="s">
-        <v>3062</v>
+        <v>3057</v>
       </c>
       <c r="I934" t="str">
         <f t="shared" si="14"/>
@@ -36408,7 +36988,7 @@
         <v>14</v>
       </c>
       <c r="H967" s="2" t="s">
-        <v>3237</v>
+        <v>3232</v>
       </c>
       <c r="I967" t="str">
         <f t="shared" si="15"/>
@@ -36591,7 +37171,7 @@
         <v>27</v>
       </c>
       <c r="H973" s="2" t="s">
-        <v>3096</v>
+        <v>3091</v>
       </c>
       <c r="I973" t="str">
         <f t="shared" si="15"/>
@@ -36717,7 +37297,7 @@
         <v>14</v>
       </c>
       <c r="H978" s="3" t="s">
-        <v>3027</v>
+        <v>3022</v>
       </c>
       <c r="I978" t="str">
         <f t="shared" si="15"/>
@@ -36837,7 +37417,7 @@
         <v>14</v>
       </c>
       <c r="H982" s="3" t="s">
-        <v>3084</v>
+        <v>3079</v>
       </c>
       <c r="I982" t="str">
         <f t="shared" si="15"/>
@@ -37053,7 +37633,7 @@
         <v>27</v>
       </c>
       <c r="H990" s="3" t="s">
-        <v>3004</v>
+        <v>2999</v>
       </c>
       <c r="I990" t="str">
         <f t="shared" si="15"/>
@@ -37263,7 +37843,7 @@
         <v>27</v>
       </c>
       <c r="H999" s="2" t="s">
-        <v>3206</v>
+        <v>3201</v>
       </c>
       <c r="I999" t="str">
         <f t="shared" si="15"/>
@@ -37428,7 +38008,7 @@
         <v>14</v>
       </c>
       <c r="H1005" s="3" t="s">
-        <v>3190</v>
+        <v>3185</v>
       </c>
       <c r="I1005" t="str">
         <f t="shared" si="15"/>
@@ -37488,7 +38068,7 @@
         <v>14</v>
       </c>
       <c r="H1007" s="2" t="s">
-        <v>3048</v>
+        <v>3043</v>
       </c>
       <c r="I1007" t="str">
         <f t="shared" si="15"/>
@@ -37878,7 +38458,7 @@
         <v>9</v>
       </c>
       <c r="H1022" s="3" t="s">
-        <v>3106</v>
+        <v>3101</v>
       </c>
       <c r="I1022" t="str">
         <f t="shared" si="15"/>
@@ -38103,7 +38683,7 @@
         <v>9</v>
       </c>
       <c r="H1032" s="3" t="s">
-        <v>3106</v>
+        <v>3101</v>
       </c>
       <c r="I1032" t="str">
         <f t="shared" si="16"/>
@@ -38193,7 +38773,7 @@
         <v>14</v>
       </c>
       <c r="H1035" s="2" t="s">
-        <v>3049</v>
+        <v>3044</v>
       </c>
       <c r="I1035" t="str">
         <f t="shared" si="16"/>
@@ -38385,7 +38965,7 @@
         <v>37</v>
       </c>
       <c r="H1043" s="2" t="s">
-        <v>3005</v>
+        <v>3000</v>
       </c>
       <c r="I1043" t="str">
         <f t="shared" si="16"/>
@@ -38445,7 +39025,7 @@
         <v>14</v>
       </c>
       <c r="H1045" s="3" t="s">
-        <v>3191</v>
+        <v>3186</v>
       </c>
       <c r="I1045" t="str">
         <f t="shared" si="16"/>
@@ -38475,7 +39055,7 @@
         <v>9</v>
       </c>
       <c r="H1046" s="2" t="s">
-        <v>3050</v>
+        <v>3045</v>
       </c>
       <c r="I1046" t="str">
         <f t="shared" si="16"/>
@@ -38553,7 +39133,7 @@
         <v>14</v>
       </c>
       <c r="H1050" s="3" t="s">
-        <v>3192</v>
+        <v>3187</v>
       </c>
       <c r="I1050" t="str">
         <f t="shared" si="16"/>
@@ -38613,7 +39193,7 @@
         <v>9</v>
       </c>
       <c r="H1052" s="2" t="s">
-        <v>3199</v>
+        <v>3194</v>
       </c>
       <c r="I1052" t="str">
         <f t="shared" si="16"/>
@@ -38652,7 +39232,7 @@
         <v>9</v>
       </c>
       <c r="H1054" s="3" t="s">
-        <v>2976</v>
+        <v>2971</v>
       </c>
       <c r="I1054" t="str">
         <f t="shared" si="16"/>
@@ -38919,7 +39499,7 @@
         <v>9</v>
       </c>
       <c r="H1064" s="2" t="s">
-        <v>3166</v>
+        <v>3161</v>
       </c>
       <c r="I1064" t="str">
         <f t="shared" si="16"/>
@@ -39006,7 +39586,7 @@
         <v>14</v>
       </c>
       <c r="H1068" s="2" t="s">
-        <v>3033</v>
+        <v>3028</v>
       </c>
       <c r="I1068" t="str">
         <f t="shared" si="16"/>
@@ -39228,7 +39808,7 @@
         <v>14</v>
       </c>
       <c r="H1077" s="3" t="s">
-        <v>3229</v>
+        <v>3224</v>
       </c>
       <c r="I1077" t="str">
         <f t="shared" si="16"/>
@@ -39252,7 +39832,7 @@
         <v>14</v>
       </c>
       <c r="H1078" s="2" t="s">
-        <v>3051</v>
+        <v>3046</v>
       </c>
       <c r="I1078" t="str">
         <f t="shared" si="16"/>
@@ -39480,7 +40060,7 @@
         <v>14</v>
       </c>
       <c r="H1086" s="3" t="s">
-        <v>2953</v>
+        <v>2948</v>
       </c>
       <c r="I1086" t="str">
         <f t="shared" si="16"/>
@@ -39543,7 +40123,7 @@
         <v>14</v>
       </c>
       <c r="H1088" s="3" t="s">
-        <v>3167</v>
+        <v>3162</v>
       </c>
       <c r="I1088" t="str">
         <f t="shared" ref="I1088:I1151" si="17">IF(K1088="Evolution","Evolution",J1088)</f>
@@ -39816,7 +40396,7 @@
         <v>9</v>
       </c>
       <c r="H1098" s="2" t="s">
-        <v>3074</v>
+        <v>3069</v>
       </c>
       <c r="I1098" t="str">
         <f t="shared" si="17"/>
@@ -40089,7 +40669,7 @@
         <v>9</v>
       </c>
       <c r="H1110" s="3" t="s">
-        <v>3230</v>
+        <v>3225</v>
       </c>
       <c r="I1110" t="str">
         <f t="shared" si="17"/>
@@ -40245,7 +40825,7 @@
         <v>14</v>
       </c>
       <c r="H1118" s="3" t="s">
-        <v>3168</v>
+        <v>3163</v>
       </c>
       <c r="I1118" t="str">
         <f t="shared" si="17"/>
@@ -40347,7 +40927,7 @@
         <v>14</v>
       </c>
       <c r="H1123" s="2" t="s">
-        <v>3097</v>
+        <v>3092</v>
       </c>
       <c r="I1123" t="str">
         <f t="shared" si="17"/>
@@ -40566,7 +41146,7 @@
         <v>9</v>
       </c>
       <c r="H1131" s="2" t="s">
-        <v>3063</v>
+        <v>3058</v>
       </c>
       <c r="I1131" t="str">
         <f t="shared" si="17"/>
@@ -40605,7 +41185,7 @@
         <v>14</v>
       </c>
       <c r="H1133" s="2" t="s">
-        <v>3028</v>
+        <v>3023</v>
       </c>
       <c r="I1133" t="str">
         <f t="shared" si="17"/>
@@ -40635,7 +41215,7 @@
         <v>27</v>
       </c>
       <c r="H1134" s="3" t="s">
-        <v>3224</v>
+        <v>3219</v>
       </c>
       <c r="I1134" t="str">
         <f t="shared" si="17"/>
@@ -40752,7 +41332,7 @@
         <v>14</v>
       </c>
       <c r="H1139" s="3" t="s">
-        <v>2954</v>
+        <v>2949</v>
       </c>
       <c r="I1139" t="str">
         <f t="shared" si="17"/>
@@ -40965,7 +41545,7 @@
         <v>9</v>
       </c>
       <c r="H1148" s="3" t="s">
-        <v>2955</v>
+        <v>2950</v>
       </c>
       <c r="I1148" t="str">
         <f t="shared" si="17"/>
@@ -41238,7 +41818,7 @@
         <v>14</v>
       </c>
       <c r="H1161" s="3" t="s">
-        <v>3006</v>
+        <v>3001</v>
       </c>
       <c r="I1161" t="str">
         <f t="shared" si="18"/>
@@ -41418,7 +41998,7 @@
         <v>9</v>
       </c>
       <c r="H1169" s="2" t="s">
-        <v>3098</v>
+        <v>3093</v>
       </c>
       <c r="I1169" t="str">
         <f t="shared" si="18"/>
@@ -41442,7 +42022,7 @@
         <v>14</v>
       </c>
       <c r="H1170" s="2" t="s">
-        <v>3075</v>
+        <v>3070</v>
       </c>
       <c r="I1170" t="str">
         <f t="shared" si="18"/>
@@ -41472,7 +42052,7 @@
         <v>27</v>
       </c>
       <c r="H1171" s="2" t="s">
-        <v>2956</v>
+        <v>2951</v>
       </c>
       <c r="I1171" t="str">
         <f t="shared" si="18"/>
@@ -41571,7 +42151,7 @@
         <v>27</v>
       </c>
       <c r="H1175" s="3" t="s">
-        <v>3064</v>
+        <v>3059</v>
       </c>
       <c r="I1175" t="str">
         <f t="shared" si="18"/>
@@ -41601,7 +42181,7 @@
         <v>9</v>
       </c>
       <c r="H1176" s="3" t="s">
-        <v>3107</v>
+        <v>3102</v>
       </c>
       <c r="I1176" t="str">
         <f t="shared" si="18"/>
@@ -42414,7 +42994,7 @@
         <v>20</v>
       </c>
       <c r="H1209" s="2" t="s">
-        <v>3007</v>
+        <v>3002</v>
       </c>
       <c r="I1209" t="str">
         <f t="shared" si="18"/>
@@ -42474,7 +43054,7 @@
         <v>27</v>
       </c>
       <c r="H1211" s="3" t="s">
-        <v>3211</v>
+        <v>3206</v>
       </c>
       <c r="I1211" t="str">
         <f t="shared" si="18"/>
@@ -42504,7 +43084,7 @@
         <v>37</v>
       </c>
       <c r="H1212" s="3" t="s">
-        <v>3148</v>
+        <v>3143</v>
       </c>
       <c r="I1212" t="str">
         <f t="shared" si="18"/>
@@ -42642,7 +43222,7 @@
         <v>27</v>
       </c>
       <c r="H1217" s="3" t="s">
-        <v>3169</v>
+        <v>3164</v>
       </c>
       <c r="I1217" t="str">
         <f t="shared" si="19"/>
@@ -42780,7 +43360,7 @@
         <v>9</v>
       </c>
       <c r="H1223" s="2" t="s">
-        <v>3170</v>
+        <v>3165</v>
       </c>
       <c r="I1223" t="str">
         <f t="shared" si="19"/>
@@ -42819,7 +43399,7 @@
         <v>27</v>
       </c>
       <c r="H1225" s="2" t="s">
-        <v>3193</v>
+        <v>3188</v>
       </c>
       <c r="I1225" t="str">
         <f t="shared" si="19"/>
@@ -42996,7 +43576,7 @@
         <v>37</v>
       </c>
       <c r="H1233" s="2" t="s">
-        <v>3149</v>
+        <v>3144</v>
       </c>
       <c r="I1233" t="str">
         <f t="shared" si="19"/>
@@ -43230,7 +43810,7 @@
         <v>9</v>
       </c>
       <c r="H1242" s="2" t="s">
-        <v>3085</v>
+        <v>3080</v>
       </c>
       <c r="I1242" t="str">
         <f t="shared" si="19"/>
@@ -43269,7 +43849,7 @@
         <v>20</v>
       </c>
       <c r="H1244" s="2" t="s">
-        <v>3086</v>
+        <v>3081</v>
       </c>
       <c r="I1244" t="str">
         <f t="shared" si="19"/>
@@ -43359,7 +43939,7 @@
         <v>20</v>
       </c>
       <c r="H1247" s="2" t="s">
-        <v>3102</v>
+        <v>3097</v>
       </c>
       <c r="I1247" t="str">
         <f t="shared" si="19"/>
@@ -43419,7 +43999,7 @@
         <v>37</v>
       </c>
       <c r="H1249" s="2" t="s">
-        <v>3171</v>
+        <v>3166</v>
       </c>
       <c r="I1249" t="str">
         <f t="shared" si="19"/>
@@ -43539,7 +44119,7 @@
         <v>14</v>
       </c>
       <c r="H1255" s="3" t="s">
-        <v>3136</v>
+        <v>3131</v>
       </c>
       <c r="I1255" t="str">
         <f t="shared" si="19"/>
@@ -43623,7 +44203,7 @@
         <v>27</v>
       </c>
       <c r="H1258" s="2" t="s">
-        <v>2957</v>
+        <v>2952</v>
       </c>
       <c r="I1258" t="str">
         <f t="shared" si="19"/>
@@ -43983,7 +44563,7 @@
         <v>14</v>
       </c>
       <c r="H1273" s="3" t="s">
-        <v>3143</v>
+        <v>3138</v>
       </c>
       <c r="I1273" t="str">
         <f t="shared" si="19"/>
@@ -44076,7 +44656,7 @@
         <v>14</v>
       </c>
       <c r="H1277" s="3" t="s">
-        <v>2954</v>
+        <v>2949</v>
       </c>
       <c r="I1277" t="str">
         <f t="shared" si="19"/>
@@ -44106,7 +44686,7 @@
         <v>14</v>
       </c>
       <c r="H1278" s="3" t="s">
-        <v>3001</v>
+        <v>2996</v>
       </c>
       <c r="I1278" t="str">
         <f t="shared" si="19"/>
@@ -44136,7 +44716,7 @@
         <v>14</v>
       </c>
       <c r="H1279" s="3" t="s">
-        <v>3212</v>
+        <v>3207</v>
       </c>
       <c r="I1279" t="str">
         <f t="shared" si="19"/>
@@ -44532,7 +45112,7 @@
         <v>9</v>
       </c>
       <c r="H1294" s="2" t="s">
-        <v>3052</v>
+        <v>3047</v>
       </c>
       <c r="I1294" t="str">
         <f t="shared" si="20"/>
@@ -44712,7 +45292,7 @@
         <v>14</v>
       </c>
       <c r="H1301" s="3" t="s">
-        <v>3213</v>
+        <v>3208</v>
       </c>
       <c r="I1301" t="str">
         <f t="shared" si="20"/>
@@ -44811,7 +45391,7 @@
         <v>27</v>
       </c>
       <c r="H1305" s="3" t="s">
-        <v>3008</v>
+        <v>3003</v>
       </c>
       <c r="I1305" t="str">
         <f t="shared" si="20"/>
@@ -45024,7 +45604,7 @@
         <v>20</v>
       </c>
       <c r="H1313" s="2" t="s">
-        <v>3196</v>
+        <v>3191</v>
       </c>
       <c r="I1313" t="str">
         <f t="shared" si="20"/>
@@ -45252,7 +45832,7 @@
         <v>14</v>
       </c>
       <c r="H1321" s="3" t="s">
-        <v>2993</v>
+        <v>2988</v>
       </c>
       <c r="I1321" t="str">
         <f t="shared" si="20"/>
@@ -45369,7 +45949,7 @@
         <v>9</v>
       </c>
       <c r="H1326" s="2" t="s">
-        <v>3029</v>
+        <v>3024</v>
       </c>
       <c r="I1326" t="str">
         <f t="shared" si="20"/>
@@ -45600,7 +46180,7 @@
         <v>14</v>
       </c>
       <c r="H1335" s="3" t="s">
-        <v>3065</v>
+        <v>3060</v>
       </c>
       <c r="I1335" t="str">
         <f t="shared" si="20"/>
@@ -45714,7 +46294,7 @@
         <v>9</v>
       </c>
       <c r="H1339" s="3" t="s">
-        <v>3225</v>
+        <v>3220</v>
       </c>
       <c r="I1339" t="str">
         <f t="shared" si="20"/>
@@ -45909,7 +46489,7 @@
         <v>27</v>
       </c>
       <c r="H1347" s="3" t="s">
-        <v>3066</v>
+        <v>3061</v>
       </c>
       <c r="I1347" t="str">
         <f t="shared" si="21"/>
@@ -45939,7 +46519,7 @@
         <v>37</v>
       </c>
       <c r="H1348" s="3" t="s">
-        <v>3099</v>
+        <v>3094</v>
       </c>
       <c r="I1348" t="str">
         <f t="shared" si="21"/>
@@ -46116,7 +46696,7 @@
         <v>37</v>
       </c>
       <c r="H1354" s="2" t="s">
-        <v>3100</v>
+        <v>3095</v>
       </c>
       <c r="I1354" t="str">
         <f t="shared" si="21"/>
@@ -46140,7 +46720,7 @@
         <v>27</v>
       </c>
       <c r="H1355" s="3" t="s">
-        <v>3076</v>
+        <v>3071</v>
       </c>
       <c r="I1355" t="str">
         <f t="shared" si="21"/>
@@ -46482,7 +47062,7 @@
         <v>20</v>
       </c>
       <c r="H1368" s="2" t="s">
-        <v>3087</v>
+        <v>3082</v>
       </c>
       <c r="I1368" t="str">
         <f t="shared" si="21"/>
@@ -46800,7 +47380,7 @@
         <v>14</v>
       </c>
       <c r="H1380" s="3" t="s">
-        <v>2994</v>
+        <v>2989</v>
       </c>
       <c r="I1380" t="str">
         <f t="shared" si="21"/>
@@ -46890,7 +47470,7 @@
         <v>27</v>
       </c>
       <c r="H1383" s="2" t="s">
-        <v>2995</v>
+        <v>2990</v>
       </c>
       <c r="I1383" t="str">
         <f t="shared" si="21"/>
@@ -47097,7 +47677,7 @@
         <v>27</v>
       </c>
       <c r="H1390" s="3" t="s">
-        <v>3214</v>
+        <v>3209</v>
       </c>
       <c r="I1390" t="str">
         <f t="shared" si="21"/>
@@ -47160,7 +47740,7 @@
         <v>37</v>
       </c>
       <c r="H1392" s="2" t="s">
-        <v>3139</v>
+        <v>3134</v>
       </c>
       <c r="I1392" t="str">
         <f t="shared" si="21"/>
@@ -47289,7 +47869,7 @@
         <v>20</v>
       </c>
       <c r="H1396" s="2" t="s">
-        <v>3077</v>
+        <v>3072</v>
       </c>
       <c r="I1396" t="str">
         <f t="shared" si="21"/>
@@ -47385,7 +47965,7 @@
         <v>20</v>
       </c>
       <c r="H1399" s="2" t="s">
-        <v>3172</v>
+        <v>3167</v>
       </c>
       <c r="I1399" t="str">
         <f t="shared" si="21"/>
@@ -47406,10 +47986,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F3F974-4C98-45F8-96F5-103C5419490D}">
-  <dimension ref="A3:G376"/>
+  <dimension ref="A3:H376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D180" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I194" sqref="I194"/>
+    <sheetView tabSelected="1" topLeftCell="D172" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G186" sqref="G186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47418,9 +47998,9 @@
     <col min="2" max="2" width="17.5703125" customWidth="1"/>
     <col min="3" max="3" width="142.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="86.140625" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" customWidth="1"/>
+    <col min="6" max="6" width="108.7109375" customWidth="1"/>
+    <col min="7" max="7" width="47" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -47559,10 +48139,10 @@
         <v>1445</v>
       </c>
       <c r="E16" t="s">
-        <v>3108</v>
+        <v>3103</v>
       </c>
       <c r="F16" t="s">
-        <v>3109</v>
+        <v>3104</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.25">
@@ -47573,36 +48153,36 @@
         <v>1540</v>
       </c>
       <c r="E17" t="s">
-        <v>3110</v>
+        <v>3105</v>
       </c>
       <c r="F17" t="s">
-        <v>3114</v>
+        <v>3109</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
       <c r="E18" t="s">
-        <v>3111</v>
+        <v>3106</v>
       </c>
       <c r="F18" t="s">
-        <v>3115</v>
+        <v>3110</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>3112</v>
+        <v>3107</v>
       </c>
       <c r="F19" t="s">
-        <v>3116</v>
+        <v>3111</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
+        <v>3108</v>
+      </c>
+      <c r="F20" t="s">
         <v>3113</v>
-      </c>
-      <c r="F20" t="s">
-        <v>3118</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.25">
@@ -47613,10 +48193,10 @@
         <v>290</v>
       </c>
       <c r="E21" t="s">
-        <v>3117</v>
+        <v>3112</v>
       </c>
       <c r="F21" t="s">
-        <v>3119</v>
+        <v>3114</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.25">
@@ -47800,7 +48380,7 @@
         <v>2239</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>2941</v>
+        <v>2936</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
@@ -47857,7 +48437,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B49" s="29" t="s">
-        <v>3232</v>
+        <v>3227</v>
       </c>
       <c r="C49" s="29" t="s">
         <v>1314</v>
@@ -47874,7 +48454,7 @@
         <v>2246</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>2942</v>
+        <v>2937</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
@@ -47882,7 +48462,7 @@
         <v>2247</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>2943</v>
+        <v>2938</v>
       </c>
     </row>
     <row r="55" spans="2:6" x14ac:dyDescent="0.25">
@@ -47995,10 +48575,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>2982</v>
+        <v>2977</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>2983</v>
+        <v>2978</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>2114</v>
@@ -48009,10 +48589,10 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
-        <v>2985</v>
+        <v>2980</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>2984</v>
+        <v>2979</v>
       </c>
       <c r="E76" s="4" t="s">
         <v>2108</v>
@@ -48021,15 +48601,15 @@
         <v>2103</v>
       </c>
       <c r="G76" s="33" t="s">
-        <v>3428</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>2986</v>
+        <v>2981</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>2996</v>
+        <v>2991</v>
       </c>
       <c r="E77" s="4" t="s">
         <v>2109</v>
@@ -48037,17 +48617,19 @@
       <c r="F77" t="s">
         <v>2104</v>
       </c>
-      <c r="G77" s="33"/>
+      <c r="G77" s="33" t="s">
+        <v>3594</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>3019</v>
+        <v>3014</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>2987</v>
+        <v>2982</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>3009</v>
+        <v>3004</v>
       </c>
       <c r="E78" s="4" t="s">
         <v>2110</v>
@@ -48056,15 +48638,15 @@
         <v>2105</v>
       </c>
       <c r="G78" s="33" t="s">
-        <v>3429</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B79" s="8" t="s">
-        <v>3010</v>
+        <v>3005</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>3016</v>
+        <v>3011</v>
       </c>
       <c r="E79" s="4" t="s">
         <v>2111</v>
@@ -48073,15 +48655,15 @@
         <v>2106</v>
       </c>
       <c r="G79" s="33" t="s">
-        <v>3430</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B80" s="8" t="s">
-        <v>3011</v>
+        <v>3006</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>3017</v>
+        <v>3012</v>
       </c>
       <c r="E80" s="4" t="s">
         <v>2112</v>
@@ -48089,14 +48671,16 @@
       <c r="F80" t="s">
         <v>2107</v>
       </c>
-      <c r="G80" s="33"/>
+      <c r="G80" s="33" t="s">
+        <v>3597</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>3019</v>
+        <v>3014</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>3012</v>
+        <v>3007</v>
       </c>
       <c r="C81" s="8" t="s">
         <v>1425</v>
@@ -48107,34 +48691,36 @@
       <c r="F81" t="s">
         <v>2115</v>
       </c>
-      <c r="G81" s="33"/>
+      <c r="G81" s="33" t="s">
+        <v>3623</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>3019</v>
+        <v>3014</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>3013</v>
+        <v>3008</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>3032</v>
+        <v>3027</v>
       </c>
       <c r="E82" s="4" t="s">
         <v>2154</v>
       </c>
-      <c r="F82" t="s">
+      <c r="F82" s="45" t="s">
         <v>2116</v>
       </c>
-      <c r="G82" s="33" t="s">
-        <v>3431</v>
+      <c r="G82" s="46" t="s">
+        <v>3423</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B83" s="8" t="s">
-        <v>3014</v>
+        <v>3009</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>3034</v>
+        <v>3029</v>
       </c>
       <c r="E83" s="4" t="s">
         <v>2155</v>
@@ -48142,14 +48728,16 @@
       <c r="F83" t="s">
         <v>2117</v>
       </c>
-      <c r="G83" s="33"/>
+      <c r="G83" s="33" t="s">
+        <v>3598</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B84" s="8" t="s">
-        <v>3015</v>
+        <v>3010</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>3035</v>
+        <v>3030</v>
       </c>
       <c r="E84" s="4" t="s">
         <v>2156</v>
@@ -48158,29 +48746,29 @@
         <v>2118</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>3432</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>3030</v>
+        <v>3025</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>3036</v>
+        <v>3031</v>
       </c>
       <c r="E85" s="4" t="s">
         <v>2157</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F85" s="43" t="s">
         <v>2119</v>
       </c>
-      <c r="G85" s="33" t="s">
-        <v>3433</v>
+      <c r="G85" s="34" t="s">
+        <v>3425</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B86" s="8" t="s">
-        <v>3031</v>
+        <v>3026</v>
       </c>
       <c r="C86" s="8"/>
       <c r="E86" s="4" t="s">
@@ -48189,7 +48777,9 @@
       <c r="F86" t="s">
         <v>2120</v>
       </c>
-      <c r="G86" s="33"/>
+      <c r="G86" s="44" t="s">
+        <v>3600</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B87" s="8"/>
@@ -48198,9 +48788,11 @@
         <v>2159</v>
       </c>
       <c r="F87" t="s">
-        <v>2913</v>
-      </c>
-      <c r="G87" s="33"/>
+        <v>3578</v>
+      </c>
+      <c r="G87" s="33" t="s">
+        <v>3601</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B88" s="8"/>
@@ -48212,7 +48804,7 @@
         <v>2121</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>3434</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -48225,7 +48817,7 @@
         <v>2106</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>3430</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -48238,23 +48830,23 @@
         <v>2105</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>3429</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>3053</v>
+        <v>3048</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>3215</v>
+        <v>3210</v>
       </c>
       <c r="E91" s="4" t="s">
         <v>2163</v>
       </c>
-      <c r="F91" t="s">
+      <c r="F91" s="43" t="s">
         <v>2122</v>
       </c>
-      <c r="G91" s="33"/>
+      <c r="G91" s="34"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B92" s="8"/>
@@ -48262,10 +48854,10 @@
       <c r="E92" s="4" t="s">
         <v>2164</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F92" s="43" t="s">
         <v>2123</v>
       </c>
-      <c r="G92" s="33"/>
+      <c r="G92" s="34"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B93" s="8"/>
@@ -48273,25 +48865,25 @@
       <c r="E93" s="4" t="s">
         <v>2165</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F93" s="43" t="s">
         <v>2124</v>
       </c>
-      <c r="G93" s="33"/>
+      <c r="G93" s="34"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B94" s="8" t="s">
-        <v>3207</v>
+        <v>3202</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>3208</v>
+        <v>3203</v>
       </c>
       <c r="E94" s="4" t="s">
         <v>2166</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F94" s="43" t="s">
         <v>2125</v>
       </c>
-      <c r="G94" s="33"/>
+      <c r="G94" s="34"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B95" s="8"/>
@@ -48299,10 +48891,10 @@
       <c r="E95" s="4" t="s">
         <v>2167</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F95" s="43" t="s">
         <v>2126</v>
       </c>
-      <c r="G95" s="33"/>
+      <c r="G95" s="34"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B96" s="8"/>
@@ -48314,7 +48906,7 @@
         <v>2127</v>
       </c>
       <c r="G96" s="33" t="s">
-        <v>3432</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
@@ -48324,9 +48916,11 @@
         <v>2169</v>
       </c>
       <c r="F97" t="s">
-        <v>2913</v>
-      </c>
-      <c r="G97" s="33"/>
+        <v>3578</v>
+      </c>
+      <c r="G97" s="33" t="s">
+        <v>3601</v>
+      </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
@@ -48334,10 +48928,10 @@
       <c r="E98" s="4" t="s">
         <v>2170</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F98" s="43" t="s">
         <v>2128</v>
       </c>
-      <c r="G98" s="33"/>
+      <c r="G98" s="34"/>
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
@@ -48345,10 +48939,10 @@
       <c r="E99" s="4" t="s">
         <v>2171</v>
       </c>
-      <c r="F99" t="s">
+      <c r="F99" s="43" t="s">
         <v>2129</v>
       </c>
-      <c r="G99" s="33"/>
+      <c r="G99" s="34"/>
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
@@ -48360,7 +48954,7 @@
         <v>2130</v>
       </c>
       <c r="G100" s="33" t="s">
-        <v>3437</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
@@ -48373,7 +48967,7 @@
         <v>2131</v>
       </c>
       <c r="G101" s="33" t="s">
-        <v>3438</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
@@ -48396,7 +48990,9 @@
       <c r="F103" t="s">
         <v>2107</v>
       </c>
-      <c r="G103" s="33"/>
+      <c r="G103" s="33" t="s">
+        <v>3597</v>
+      </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
@@ -48407,7 +49003,9 @@
       <c r="F104" t="s">
         <v>2133</v>
       </c>
-      <c r="G104" s="33"/>
+      <c r="G104" s="33" t="s">
+        <v>3606</v>
+      </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
@@ -48418,7 +49016,9 @@
       <c r="F105" t="s">
         <v>2134</v>
       </c>
-      <c r="G105" s="33"/>
+      <c r="G105" s="33" t="s">
+        <v>3607</v>
+      </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -48429,7 +49029,9 @@
       <c r="F106" t="s">
         <v>2135</v>
       </c>
-      <c r="G106" s="33"/>
+      <c r="G106" s="33" t="s">
+        <v>3608</v>
+      </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
@@ -48440,7 +49042,9 @@
       <c r="F107" t="s">
         <v>2136</v>
       </c>
-      <c r="G107" s="33"/>
+      <c r="G107" s="33" t="s">
+        <v>3609</v>
+      </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
@@ -48452,7 +49056,7 @@
         <v>2137</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>3432</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
@@ -48465,7 +49069,7 @@
         <v>2138</v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>3432</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
@@ -48478,7 +49082,7 @@
         <v>2139</v>
       </c>
       <c r="G110" s="33" t="s">
-        <v>3432</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
@@ -48490,7 +49094,9 @@
       <c r="F111" t="s">
         <v>2140</v>
       </c>
-      <c r="G111" s="33"/>
+      <c r="G111" s="33" t="s">
+        <v>3613</v>
+      </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
@@ -48502,7 +49108,7 @@
         <v>2141</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>3439</v>
+        <v>3428</v>
       </c>
     </row>
     <row r="113" spans="2:7" x14ac:dyDescent="0.25">
@@ -48515,7 +49121,7 @@
         <v>2142</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>3440</v>
+        <v>3429</v>
       </c>
     </row>
     <row r="114" spans="2:7" x14ac:dyDescent="0.25">
@@ -48528,7 +49134,7 @@
         <v>2143</v>
       </c>
       <c r="G114" s="33" t="s">
-        <v>3441</v>
+        <v>3430</v>
       </c>
     </row>
     <row r="115" spans="2:7" x14ac:dyDescent="0.25">
@@ -48539,7 +49145,7 @@
         <v>2144</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>3442</v>
+        <v>3431</v>
       </c>
     </row>
     <row r="116" spans="2:7" x14ac:dyDescent="0.25">
@@ -48550,7 +49156,7 @@
         <v>2145</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>3443</v>
+        <v>3432</v>
       </c>
     </row>
     <row r="117" spans="2:7" x14ac:dyDescent="0.25">
@@ -48566,7 +49172,9 @@
       <c r="F117" t="s">
         <v>2146</v>
       </c>
-      <c r="G117" s="33"/>
+      <c r="G117" s="33" t="s">
+        <v>3533</v>
+      </c>
     </row>
     <row r="118" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
@@ -48582,7 +49190,7 @@
         <v>2147</v>
       </c>
       <c r="G118" s="33" t="s">
-        <v>3444</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="119" spans="2:7" x14ac:dyDescent="0.25">
@@ -48593,7 +49201,7 @@
         <v>2148</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>3445</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="120" spans="2:7" x14ac:dyDescent="0.25">
@@ -48606,10 +49214,12 @@
       <c r="E120" s="4" t="s">
         <v>2192</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F120" s="43" t="s">
         <v>2149</v>
       </c>
-      <c r="G120" s="33"/>
+      <c r="G120" s="34" t="s">
+        <v>3534</v>
+      </c>
     </row>
     <row r="121" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
@@ -48624,7 +49234,9 @@
       <c r="F121" t="s">
         <v>2150</v>
       </c>
-      <c r="G121" s="33"/>
+      <c r="G121" s="33" t="s">
+        <v>3618</v>
+      </c>
     </row>
     <row r="122" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
@@ -48640,7 +49252,7 @@
         <v>2151</v>
       </c>
       <c r="G122" s="33" t="s">
-        <v>3432</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="123" spans="2:7" x14ac:dyDescent="0.25">
@@ -48657,7 +49269,7 @@
         <v>2152</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>3446</v>
+        <v>3620</v>
       </c>
     </row>
     <row r="124" spans="2:7" x14ac:dyDescent="0.25">
@@ -48674,7 +49286,7 @@
         <v>2127</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>3432</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="125" spans="2:7" x14ac:dyDescent="0.25">
@@ -48690,7 +49302,9 @@
       <c r="F125" t="s">
         <v>2153</v>
       </c>
-      <c r="G125" s="33"/>
+      <c r="G125" s="33" t="s">
+        <v>3621</v>
+      </c>
     </row>
     <row r="126" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
@@ -48706,7 +49320,7 @@
         <v>2204</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>3447</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="127" spans="2:7" x14ac:dyDescent="0.25">
@@ -48747,7 +49361,7 @@
         <v>1303</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>3448</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -48758,7 +49372,7 @@
         <v>1306</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>3449</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
@@ -48775,7 +49389,7 @@
         <v>1311</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>3450</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
@@ -48791,7 +49405,9 @@
       <c r="F135" s="5" t="s">
         <v>2323</v>
       </c>
-      <c r="G135" s="33"/>
+      <c r="G135" s="33" t="s">
+        <v>3466</v>
+      </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B136" s="7" t="s">
@@ -48807,7 +49423,7 @@
         <v>2325</v>
       </c>
       <c r="G136" s="33" t="s">
-        <v>3428</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
@@ -48824,7 +49440,7 @@
         <v>1327</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>3451</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
@@ -48840,7 +49456,9 @@
       <c r="F138" s="5" t="s">
         <v>2328</v>
       </c>
-      <c r="G138" s="33"/>
+      <c r="G138" s="33" t="s">
+        <v>3466</v>
+      </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
@@ -48856,7 +49474,7 @@
         <v>2330</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>3452</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
@@ -48872,7 +49490,9 @@
       <c r="F140" s="5" t="s">
         <v>2331</v>
       </c>
-      <c r="G140" s="33"/>
+      <c r="G140" s="33" t="s">
+        <v>3629</v>
+      </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B141" s="7" t="s">
@@ -48885,7 +49505,7 @@
         <v>2276</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>2945</v>
+        <v>2940</v>
       </c>
       <c r="G141" s="33"/>
     </row>
@@ -48911,16 +49531,20 @@
       <c r="F143" s="5" t="s">
         <v>2337</v>
       </c>
-      <c r="G143" s="33"/>
+      <c r="G143" s="33" t="s">
+        <v>3630</v>
+      </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E144" s="5" t="s">
         <v>2279</v>
       </c>
-      <c r="F144" s="5" t="s">
+      <c r="F144" s="46" t="s">
         <v>2338</v>
       </c>
-      <c r="G144" s="33"/>
+      <c r="G144" s="46" t="s">
+        <v>3631</v>
+      </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B145" s="7" t="s">
@@ -48936,7 +49560,7 @@
         <v>2340</v>
       </c>
       <c r="G145" s="33" t="s">
-        <v>3453</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
@@ -48953,7 +49577,7 @@
         <v>2342</v>
       </c>
       <c r="G146" s="33" t="s">
-        <v>3441</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
@@ -48969,7 +49593,9 @@
       <c r="F147" s="5" t="s">
         <v>2344</v>
       </c>
-      <c r="G147" s="33"/>
+      <c r="G147" s="33" t="s">
+        <v>3466</v>
+      </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B148" s="7" t="s">
@@ -48985,7 +49611,7 @@
         <v>2346</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>3454</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
@@ -49002,7 +49628,7 @@
         <v>2348</v>
       </c>
       <c r="G149" s="33" t="s">
-        <v>3455</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
@@ -49018,7 +49644,9 @@
       <c r="F150" s="5" t="s">
         <v>2349</v>
       </c>
-      <c r="G150" s="33"/>
+      <c r="G150" s="33" t="s">
+        <v>3635</v>
+      </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E151" s="5" t="s">
@@ -49028,7 +49656,7 @@
         <v>2350</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>3456</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
@@ -49039,15 +49667,15 @@
         <v>2352</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>3455</v>
+        <v>3466</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B153" s="13" t="s">
-        <v>3220</v>
+        <v>3215</v>
       </c>
       <c r="C153" s="13" t="s">
-        <v>3208</v>
+        <v>3203</v>
       </c>
       <c r="E153" s="5" t="s">
         <v>2288</v>
@@ -49056,7 +49684,7 @@
         <v>2353</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>3454</v>
+        <v>3637</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
@@ -49067,7 +49695,7 @@
         <v>2355</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>3457</v>
+        <v>3638</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
@@ -49078,7 +49706,7 @@
         <v>2356</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>3455</v>
+        <v>3639</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
@@ -49088,7 +49716,9 @@
       <c r="F156" s="5" t="s">
         <v>2357</v>
       </c>
-      <c r="G156" s="33"/>
+      <c r="G156" s="33" t="s">
+        <v>3640</v>
+      </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E157" s="5" t="s">
@@ -49097,7 +49727,9 @@
       <c r="F157" s="5" t="s">
         <v>1507</v>
       </c>
-      <c r="G157" s="33"/>
+      <c r="G157" s="33" t="s">
+        <v>3641</v>
+      </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E158" s="5" t="s">
@@ -49107,18 +49739,18 @@
         <v>1485</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>3455</v>
+        <v>3642</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E159" s="5" t="s">
         <v>2294</v>
       </c>
-      <c r="F159" s="5" t="s">
+      <c r="F159" s="46" t="s">
         <v>1554</v>
       </c>
-      <c r="G159" s="33" t="s">
-        <v>3458</v>
+      <c r="G159" s="46" t="s">
+        <v>3437</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
@@ -49129,10 +49761,10 @@
         <v>1551</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>3459</v>
-      </c>
-    </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="161" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E161" s="5" t="s">
         <v>2296</v>
       </c>
@@ -49140,10 +49772,10 @@
         <v>2363</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3644</v>
+      </c>
+    </row>
+    <row r="162" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E162" s="5" t="s">
         <v>2297</v>
       </c>
@@ -49151,10 +49783,10 @@
         <v>2365</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="163" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E163" s="5" t="s">
         <v>2298</v>
       </c>
@@ -49162,10 +49794,10 @@
         <v>1472</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="164" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E164" s="5" t="s">
         <v>2299</v>
       </c>
@@ -49173,10 +49805,10 @@
         <v>1522</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>3441</v>
-      </c>
-    </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="165" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E165" s="5" t="s">
         <v>2300</v>
       </c>
@@ -49184,10 +49816,13 @@
         <v>1443</v>
       </c>
       <c r="G165" s="33" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3647</v>
+      </c>
+      <c r="H165" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="166" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E166" s="5" t="s">
         <v>2301</v>
       </c>
@@ -49195,10 +49830,13 @@
         <v>1436</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>3462</v>
-      </c>
-    </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3649</v>
+      </c>
+      <c r="H166" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="167" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E167" s="5" t="s">
         <v>2302</v>
       </c>
@@ -49206,10 +49844,10 @@
         <v>1539</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>3463</v>
-      </c>
-    </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="168" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B168" s="12" t="s">
         <v>1970</v>
       </c>
@@ -49223,10 +49861,10 @@
         <v>1435</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="169" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B169" s="12" t="s">
         <v>2872</v>
       </c>
@@ -49240,10 +49878,10 @@
         <v>1400</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="170" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B170" s="12" t="s">
         <v>2873</v>
       </c>
@@ -49257,10 +49895,10 @@
         <v>1548</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>3466</v>
-      </c>
-    </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="171" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B171" s="12" t="s">
         <v>2874</v>
       </c>
@@ -49274,10 +49912,10 @@
         <v>2375</v>
       </c>
       <c r="G171" s="33" t="s">
-        <v>3447</v>
-      </c>
-    </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="172" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B172" s="12" t="s">
         <v>2875</v>
       </c>
@@ -49291,10 +49929,10 @@
         <v>1476</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>3437</v>
-      </c>
-    </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="173" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B173" s="12" t="s">
         <v>2876</v>
       </c>
@@ -49308,10 +49946,10 @@
         <v>1563</v>
       </c>
       <c r="G173" s="33" t="s">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="174" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B174" s="12" t="s">
         <v>2877</v>
       </c>
@@ -49324,9 +49962,11 @@
       <c r="F174" s="5" t="s">
         <v>1493</v>
       </c>
-      <c r="G174" s="33"/>
-    </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G174" s="33" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="175" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B175" s="12" t="s">
         <v>2878</v>
       </c>
@@ -49340,10 +49980,10 @@
         <v>1366</v>
       </c>
       <c r="G175" s="33" t="s">
-        <v>3467</v>
-      </c>
-    </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="176" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
         <v>2879</v>
       </c>
@@ -49356,9 +49996,11 @@
       <c r="F176" s="5" t="s">
         <v>1444</v>
       </c>
-      <c r="G176" s="33"/>
-    </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G176" s="33" t="s">
+        <v>3657</v>
+      </c>
+    </row>
+    <row r="177" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B177" s="12" t="s">
         <v>2880</v>
       </c>
@@ -49372,10 +50014,10 @@
         <v>1389</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3658</v>
+      </c>
+    </row>
+    <row r="178" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B178" s="12" t="s">
         <v>2881</v>
       </c>
@@ -49389,10 +50031,10 @@
         <v>1502</v>
       </c>
       <c r="G178" s="33" t="s">
-        <v>3469</v>
-      </c>
-    </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="179" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B179" s="12" t="s">
         <v>2882</v>
       </c>
@@ -49405,14 +50047,16 @@
       <c r="F179" s="5" t="s">
         <v>1534</v>
       </c>
-      <c r="G179" s="33"/>
-    </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G179" s="33" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="180" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B180" s="12" t="s">
         <v>2883</v>
       </c>
       <c r="C180" s="12" t="s">
-        <v>2946</v>
+        <v>2941</v>
       </c>
       <c r="E180" s="5" t="s">
         <v>2315</v>
@@ -49421,10 +50065,10 @@
         <v>1397</v>
       </c>
       <c r="G180" s="33" t="s">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="181" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B181" s="12" t="s">
         <v>2884</v>
       </c>
@@ -49438,10 +50082,10 @@
         <v>1508</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="182" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B182" s="12" t="s">
         <v>2885</v>
       </c>
@@ -49455,10 +50099,10 @@
         <v>1369</v>
       </c>
       <c r="G182" s="33" t="s">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="183" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B183" s="12" t="s">
         <v>2886</v>
       </c>
@@ -49471,9 +50115,14 @@
       <c r="F183" s="5" t="s">
         <v>2387</v>
       </c>
-      <c r="G183" s="33"/>
-    </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G183" s="33" t="s">
+        <v>3535</v>
+      </c>
+      <c r="H183" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="184" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B184" s="12" t="s">
         <v>2894</v>
       </c>
@@ -49484,11 +50133,16 @@
         <v>2319</v>
       </c>
       <c r="F184" s="5" t="s">
-        <v>2947</v>
-      </c>
-      <c r="G184" s="33"/>
-    </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+        <v>2942</v>
+      </c>
+      <c r="G184" s="33" t="s">
+        <v>3536</v>
+      </c>
+      <c r="H184" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="185" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B185" s="12" t="s">
         <v>2895</v>
       </c>
@@ -49496,7 +50150,7 @@
         <v>2903</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="12" t="s">
         <v>2896</v>
       </c>
@@ -49504,7 +50158,7 @@
         <v>2905</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B187" s="12" t="s">
         <v>2897</v>
       </c>
@@ -49512,10 +50166,10 @@
         <v>2907</v>
       </c>
       <c r="G187" t="s">
-        <v>3478</v>
-      </c>
-    </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3447</v>
+      </c>
+    </row>
+    <row r="188" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B188" s="12" t="s">
         <v>2898</v>
       </c>
@@ -49528,11 +50182,11 @@
       <c r="F188" s="15" t="s">
         <v>2403</v>
       </c>
-      <c r="G188" t="s">
-        <v>3479</v>
-      </c>
-    </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G188" s="33" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="189" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B189" s="12" t="s">
         <v>2899</v>
       </c>
@@ -49545,16 +50199,22 @@
       <c r="F189" s="15" t="s">
         <v>2414</v>
       </c>
-    </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G189" s="33" t="s">
+        <v>3538</v>
+      </c>
+    </row>
+    <row r="190" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E190" s="15" t="s">
         <v>2416</v>
       </c>
       <c r="F190" s="15" t="s">
         <v>2444</v>
       </c>
-    </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G190" s="33" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="191" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
         <v>1977</v>
       </c>
@@ -49567,11 +50227,11 @@
       <c r="F191" s="15" t="s">
         <v>2446</v>
       </c>
-      <c r="G191" t="s">
-        <v>3351</v>
-      </c>
-    </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G191" s="33" t="s">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="192" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B192" t="s">
         <v>1978</v>
       </c>
@@ -49584,8 +50244,11 @@
       <c r="F192" s="15" t="s">
         <v>2449</v>
       </c>
-    </row>
-    <row r="193" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G192" s="33" t="s">
+        <v>3449</v>
+      </c>
+    </row>
+    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>1976</v>
       </c>
@@ -49595,11 +50258,12 @@
       <c r="E193" s="15" t="s">
         <v>2419</v>
       </c>
-      <c r="F193" s="15" t="s">
+      <c r="F193" s="34" t="s">
         <v>2450</v>
       </c>
-    </row>
-    <row r="194" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G193" s="34"/>
+    </row>
+    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>1987</v>
       </c>
@@ -49612,8 +50276,11 @@
       <c r="F194" s="15" t="s">
         <v>2452</v>
       </c>
-    </row>
-    <row r="195" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G194" s="33" t="s">
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>1990</v>
       </c>
@@ -49626,8 +50293,11 @@
       <c r="F195" s="15" t="s">
         <v>2407</v>
       </c>
-    </row>
-    <row r="196" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G195" s="33" t="s">
+        <v>3451</v>
+      </c>
+    </row>
+    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>1991</v>
       </c>
@@ -49640,8 +50310,11 @@
       <c r="F196" s="15" t="s">
         <v>2404</v>
       </c>
-    </row>
-    <row r="197" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G196" s="33" t="s">
+        <v>3452</v>
+      </c>
+    </row>
+    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>1995</v>
       </c>
@@ -49654,24 +50327,33 @@
       <c r="F197" s="15" t="s">
         <v>2458</v>
       </c>
-    </row>
-    <row r="198" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G197" s="33" t="s">
+        <v>3454</v>
+      </c>
+    </row>
+    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E198" s="15" t="s">
         <v>2424</v>
       </c>
       <c r="F198" s="15" t="s">
         <v>2459</v>
       </c>
-    </row>
-    <row r="199" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G198" s="33" t="s">
+        <v>3455</v>
+      </c>
+    </row>
+    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E199" s="15" t="s">
         <v>2425</v>
       </c>
       <c r="F199" s="15" t="s">
         <v>2461</v>
       </c>
-    </row>
-    <row r="200" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G199" s="33" t="s">
+        <v>3456</v>
+      </c>
+    </row>
+    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>1999</v>
       </c>
@@ -49682,10 +50364,13 @@
         <v>2426</v>
       </c>
       <c r="F200" s="15" t="s">
-        <v>2914</v>
-      </c>
-    </row>
-    <row r="201" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3579</v>
+      </c>
+      <c r="G200" s="33" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>2000</v>
       </c>
@@ -49698,8 +50383,11 @@
       <c r="F201" s="15" t="s">
         <v>2464</v>
       </c>
-    </row>
-    <row r="202" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G201" s="33" t="s">
+        <v>3453</v>
+      </c>
+    </row>
+    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>2001</v>
       </c>
@@ -49712,8 +50400,11 @@
       <c r="F202" s="15" t="s">
         <v>2406</v>
       </c>
-    </row>
-    <row r="203" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G202" s="33" t="s">
+        <v>3457</v>
+      </c>
+    </row>
+    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>2002</v>
       </c>
@@ -49726,8 +50417,11 @@
       <c r="F203" s="15" t="s">
         <v>1541</v>
       </c>
-    </row>
-    <row r="204" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G203" s="33" t="s">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>2003</v>
       </c>
@@ -49740,8 +50434,11 @@
       <c r="F204" s="15" t="s">
         <v>1335</v>
       </c>
-    </row>
-    <row r="205" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G204" s="33" t="s">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>2004</v>
       </c>
@@ -49751,8 +50448,11 @@
       <c r="F205" s="15" t="s">
         <v>1536</v>
       </c>
-    </row>
-    <row r="206" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G205" s="33" t="s">
+        <v>3540</v>
+      </c>
+    </row>
+    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>2005</v>
       </c>
@@ -49762,8 +50462,11 @@
       <c r="F206" s="15" t="s">
         <v>1329</v>
       </c>
-    </row>
-    <row r="207" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G206" s="33" t="s">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>2006</v>
       </c>
@@ -49773,8 +50476,11 @@
       <c r="F207" s="15" t="s">
         <v>1382</v>
       </c>
-    </row>
-    <row r="208" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G207" s="33" t="s">
+        <v>3461</v>
+      </c>
+    </row>
+    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>2007</v>
       </c>
@@ -49783,6 +50489,9 @@
       </c>
       <c r="F208" s="15" t="s">
         <v>1525</v>
+      </c>
+      <c r="G208" s="33" t="s">
+        <v>3541</v>
       </c>
     </row>
     <row r="209" spans="2:7" x14ac:dyDescent="0.25">
@@ -49795,6 +50504,9 @@
       <c r="F209" s="15" t="s">
         <v>2405</v>
       </c>
+      <c r="G209" s="33" t="s">
+        <v>3542</v>
+      </c>
     </row>
     <row r="210" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
@@ -49806,6 +50518,9 @@
       <c r="F210" s="15" t="s">
         <v>1484</v>
       </c>
+      <c r="G210" s="33" t="s">
+        <v>3529</v>
+      </c>
     </row>
     <row r="211" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
@@ -49814,9 +50529,10 @@
       <c r="E211" s="15" t="s">
         <v>2436</v>
       </c>
-      <c r="F211" s="15" t="s">
+      <c r="F211" s="34" t="s">
         <v>1421</v>
       </c>
+      <c r="G211" s="34"/>
     </row>
     <row r="212" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
@@ -49828,6 +50544,9 @@
       <c r="F212" s="15" t="s">
         <v>1405</v>
       </c>
+      <c r="G212" s="33" t="s">
+        <v>3543</v>
+      </c>
     </row>
     <row r="213" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
@@ -49837,8 +50556,9 @@
         <v>2438</v>
       </c>
       <c r="F213" s="15" t="s">
-        <v>2948</v>
-      </c>
+        <v>2943</v>
+      </c>
+      <c r="G213" s="33"/>
     </row>
     <row r="214" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
@@ -49850,6 +50570,9 @@
       <c r="F214" s="15" t="s">
         <v>1441</v>
       </c>
+      <c r="G214" s="33" t="s">
+        <v>3462</v>
+      </c>
     </row>
     <row r="215" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
@@ -49861,6 +50584,9 @@
       <c r="F215" s="15" t="s">
         <v>1489</v>
       </c>
+      <c r="G215" s="33" t="s">
+        <v>3463</v>
+      </c>
     </row>
     <row r="216" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
@@ -49872,6 +50598,9 @@
       <c r="F216" s="15" t="s">
         <v>2481</v>
       </c>
+      <c r="G216" s="33" t="s">
+        <v>3464</v>
+      </c>
     </row>
     <row r="217" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
@@ -49883,6 +50612,9 @@
       <c r="F217" s="15" t="s">
         <v>1500</v>
       </c>
+      <c r="G217" s="33" t="s">
+        <v>3465</v>
+      </c>
     </row>
     <row r="218" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
@@ -49909,7 +50641,9 @@
       <c r="F221" s="16" t="s">
         <v>2484</v>
       </c>
-      <c r="G221" s="33"/>
+      <c r="G221" s="33" t="s">
+        <v>3544</v>
+      </c>
     </row>
     <row r="222" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
@@ -49922,7 +50656,7 @@
         <v>2485</v>
       </c>
       <c r="G222" s="33" t="s">
-        <v>3472</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="223" spans="2:7" x14ac:dyDescent="0.25">
@@ -49936,7 +50670,7 @@
         <v>2486</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>3448</v>
+        <v>3435</v>
       </c>
     </row>
     <row r="224" spans="2:7" x14ac:dyDescent="0.25">
@@ -49947,9 +50681,11 @@
         <v>2536</v>
       </c>
       <c r="F224" s="16" t="s">
-        <v>2915</v>
-      </c>
-      <c r="G224" s="33"/>
+        <v>3580</v>
+      </c>
+      <c r="G224" s="33" t="s">
+        <v>3424</v>
+      </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B225" t="s">
@@ -49961,7 +50697,9 @@
       <c r="F225" s="16" t="s">
         <v>2487</v>
       </c>
-      <c r="G225" s="33"/>
+      <c r="G225" s="33" t="s">
+        <v>3545</v>
+      </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B226" t="s">
@@ -49974,7 +50712,7 @@
         <v>2488</v>
       </c>
       <c r="G226" s="33" t="s">
-        <v>3476</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
@@ -49984,11 +50722,11 @@
       <c r="E227" s="16" t="s">
         <v>2539</v>
       </c>
-      <c r="F227" s="16" t="s">
+      <c r="F227" s="43" t="s">
         <v>2489</v>
       </c>
-      <c r="G227" s="33" t="s">
-        <v>3473</v>
+      <c r="G227" s="34" t="s">
+        <v>3442</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
@@ -50002,7 +50740,7 @@
         <v>2490</v>
       </c>
       <c r="G228" s="33" t="s">
-        <v>3468</v>
+        <v>3439</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
@@ -50016,7 +50754,7 @@
         <v>2491</v>
       </c>
       <c r="G229" s="33" t="s">
-        <v>3432</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
@@ -50030,7 +50768,7 @@
         <v>2492</v>
       </c>
       <c r="G230" s="33" t="s">
-        <v>3474</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
@@ -50044,7 +50782,7 @@
         <v>2493</v>
       </c>
       <c r="G231" s="33" t="s">
-        <v>3475</v>
+        <v>3444</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
@@ -50057,7 +50795,9 @@
       <c r="F232" s="16" t="s">
         <v>2494</v>
       </c>
-      <c r="G232" s="33"/>
+      <c r="G232" s="33" t="s">
+        <v>3546</v>
+      </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B233" t="s">
@@ -50081,10 +50821,10 @@
       <c r="E234" s="16" t="s">
         <v>2546</v>
       </c>
-      <c r="F234" s="16" t="s">
+      <c r="F234" s="45" t="s">
         <v>2496</v>
       </c>
-      <c r="G234" s="33"/>
+      <c r="G234" s="46"/>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
@@ -50097,7 +50837,7 @@
         <v>2498</v>
       </c>
       <c r="G235" s="33" t="s">
-        <v>3477</v>
+        <v>3446</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
@@ -50110,7 +50850,9 @@
       <c r="F236" s="16" t="s">
         <v>2499</v>
       </c>
-      <c r="G236" s="33"/>
+      <c r="G236" s="33" t="s">
+        <v>3467</v>
+      </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B237" t="s">
@@ -50122,7 +50864,9 @@
       <c r="F237" s="16" t="s">
         <v>2500</v>
       </c>
-      <c r="G237" s="33"/>
+      <c r="G237" s="33" t="s">
+        <v>3440</v>
+      </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B238" t="s">
@@ -50146,7 +50890,9 @@
       <c r="F239" s="16" t="s">
         <v>2502</v>
       </c>
-      <c r="G239" s="33"/>
+      <c r="G239" s="33" t="s">
+        <v>3434</v>
+      </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B240" t="s">
@@ -50167,10 +50913,10 @@
       <c r="E241" s="16" t="s">
         <v>2553</v>
       </c>
-      <c r="F241" s="16" t="s">
+      <c r="F241" s="43" t="s">
         <v>2504</v>
       </c>
-      <c r="G241" s="33"/>
+      <c r="G241" s="34"/>
     </row>
     <row r="242" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
@@ -50179,10 +50925,10 @@
       <c r="E242" s="16" t="s">
         <v>2554</v>
       </c>
-      <c r="F242" s="16" t="s">
+      <c r="F242" s="43" t="s">
         <v>2505</v>
       </c>
-      <c r="G242" s="33"/>
+      <c r="G242" s="34"/>
     </row>
     <row r="243" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
@@ -50203,10 +50949,10 @@
       <c r="E244" s="16" t="s">
         <v>2556</v>
       </c>
-      <c r="F244" s="16" t="s">
+      <c r="F244" s="43" t="s">
         <v>2507</v>
       </c>
-      <c r="G244" s="33"/>
+      <c r="G244" s="34"/>
     </row>
     <row r="245" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
@@ -50218,7 +50964,9 @@
       <c r="F245" s="16" t="s">
         <v>2508</v>
       </c>
-      <c r="G245" s="33"/>
+      <c r="G245" s="33" t="s">
+        <v>3468</v>
+      </c>
     </row>
     <row r="246" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
@@ -50228,7 +50976,7 @@
         <v>2558</v>
       </c>
       <c r="F246" s="16" t="s">
-        <v>2949</v>
+        <v>2944</v>
       </c>
       <c r="G246" s="33"/>
     </row>
@@ -50242,7 +50990,9 @@
       <c r="F247" s="16" t="s">
         <v>1448</v>
       </c>
-      <c r="G247" s="33"/>
+      <c r="G247" s="33" t="s">
+        <v>3469</v>
+      </c>
     </row>
     <row r="248" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
@@ -50266,7 +51016,9 @@
       <c r="F249" s="16" t="s">
         <v>2510</v>
       </c>
-      <c r="G249" s="33"/>
+      <c r="G249" s="33" t="s">
+        <v>3471</v>
+      </c>
     </row>
     <row r="250" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
@@ -50278,7 +51030,9 @@
       <c r="F250" s="16" t="s">
         <v>2511</v>
       </c>
-      <c r="G250" s="33"/>
+      <c r="G250" s="33" t="s">
+        <v>3550</v>
+      </c>
     </row>
     <row r="251" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
@@ -50290,7 +51044,9 @@
       <c r="F251" s="16" t="s">
         <v>2512</v>
       </c>
-      <c r="G251" s="33"/>
+      <c r="G251" s="33" t="s">
+        <v>3551</v>
+      </c>
     </row>
     <row r="252" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
@@ -50302,7 +51058,9 @@
       <c r="F252" s="16" t="s">
         <v>2513</v>
       </c>
-      <c r="G252" s="33"/>
+      <c r="G252" s="33" t="s">
+        <v>3470</v>
+      </c>
     </row>
     <row r="253" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
@@ -50326,7 +51084,9 @@
       <c r="F254" s="16" t="s">
         <v>2515</v>
       </c>
-      <c r="G254" s="33"/>
+      <c r="G254" s="33" t="s">
+        <v>3430</v>
+      </c>
     </row>
     <row r="255" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
@@ -50350,7 +51110,9 @@
       <c r="F256" s="16" t="s">
         <v>2517</v>
       </c>
-      <c r="G256" s="33"/>
+      <c r="G256" s="33" t="s">
+        <v>3472</v>
+      </c>
     </row>
     <row r="257" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
@@ -50362,7 +51124,9 @@
       <c r="F257" s="16" t="s">
         <v>2518</v>
       </c>
-      <c r="G257" s="33"/>
+      <c r="G257" s="33" t="s">
+        <v>3556</v>
+      </c>
     </row>
     <row r="258" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
@@ -50374,7 +51138,9 @@
       <c r="F258" s="16" t="s">
         <v>2519</v>
       </c>
-      <c r="G258" s="33"/>
+      <c r="G258" s="33" t="s">
+        <v>3473</v>
+      </c>
     </row>
     <row r="259" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
@@ -50386,7 +51152,9 @@
       <c r="F259" s="16" t="s">
         <v>2520</v>
       </c>
-      <c r="G259" s="33"/>
+      <c r="G259" s="33" t="s">
+        <v>3474</v>
+      </c>
     </row>
     <row r="260" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
@@ -50398,7 +51166,9 @@
       <c r="F260" s="16" t="s">
         <v>2521</v>
       </c>
-      <c r="G260" s="33"/>
+      <c r="G260" s="33" t="s">
+        <v>3436</v>
+      </c>
     </row>
     <row r="261" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
@@ -50410,7 +51180,9 @@
       <c r="F261" s="16" t="s">
         <v>2522</v>
       </c>
-      <c r="G261" s="33"/>
+      <c r="G261" s="33" t="s">
+        <v>3475</v>
+      </c>
     </row>
     <row r="262" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
@@ -50422,7 +51194,9 @@
       <c r="F262" s="16" t="s">
         <v>2523</v>
       </c>
-      <c r="G262" s="33"/>
+      <c r="G262" s="33" t="s">
+        <v>3557</v>
+      </c>
     </row>
     <row r="263" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
@@ -50432,9 +51206,11 @@
         <v>2575</v>
       </c>
       <c r="F263" s="16" t="s">
-        <v>2916</v>
-      </c>
-      <c r="G263" s="33"/>
+        <v>3581</v>
+      </c>
+      <c r="G263" s="33" t="s">
+        <v>3424</v>
+      </c>
     </row>
     <row r="264" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
@@ -50446,7 +51222,9 @@
       <c r="F264" s="16" t="s">
         <v>2524</v>
       </c>
-      <c r="G264" s="33"/>
+      <c r="G264" s="33" t="s">
+        <v>3476</v>
+      </c>
     </row>
     <row r="265" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
@@ -50458,7 +51236,9 @@
       <c r="F265" s="16" t="s">
         <v>1458</v>
       </c>
-      <c r="G265" s="33"/>
+      <c r="G265" s="33" t="s">
+        <v>3477</v>
+      </c>
     </row>
     <row r="266" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
@@ -50470,7 +51250,9 @@
       <c r="F266" s="16" t="s">
         <v>1513</v>
       </c>
-      <c r="G266" s="33"/>
+      <c r="G266" s="33" t="s">
+        <v>3478</v>
+      </c>
     </row>
     <row r="267" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
@@ -50482,7 +51264,9 @@
       <c r="F267" s="16" t="s">
         <v>2525</v>
       </c>
-      <c r="G267" s="33"/>
+      <c r="G267" s="33" t="s">
+        <v>3479</v>
+      </c>
     </row>
     <row r="268" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
@@ -50494,7 +51278,9 @@
       <c r="F268" s="16" t="s">
         <v>2526</v>
       </c>
-      <c r="G268" s="33"/>
+      <c r="G268" s="33" t="s">
+        <v>3480</v>
+      </c>
     </row>
     <row r="269" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
@@ -50506,7 +51292,9 @@
       <c r="F269" s="16" t="s">
         <v>2527</v>
       </c>
-      <c r="G269" s="33"/>
+      <c r="G269" s="33" t="s">
+        <v>3481</v>
+      </c>
     </row>
     <row r="270" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
@@ -50518,7 +51306,9 @@
       <c r="F270" s="16" t="s">
         <v>2528</v>
       </c>
-      <c r="G270" s="33"/>
+      <c r="G270" s="33" t="s">
+        <v>3438</v>
+      </c>
     </row>
     <row r="271" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
@@ -50527,10 +51317,10 @@
       <c r="E271" s="16" t="s">
         <v>2583</v>
       </c>
-      <c r="F271" s="16" t="s">
+      <c r="F271" s="43" t="s">
         <v>1308</v>
       </c>
-      <c r="G271" s="33"/>
+      <c r="G271" s="34"/>
     </row>
     <row r="272" spans="2:7" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
@@ -50542,7 +51332,9 @@
       <c r="F272" s="17" t="s">
         <v>1357</v>
       </c>
-      <c r="G272" s="33"/>
+      <c r="G272" s="33" t="s">
+        <v>3484</v>
+      </c>
     </row>
     <row r="273" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
@@ -50554,7 +51346,9 @@
       <c r="F273" s="16" t="s">
         <v>1356</v>
       </c>
-      <c r="G273" s="33"/>
+      <c r="G273" s="33" t="s">
+        <v>3485</v>
+      </c>
     </row>
     <row r="274" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
@@ -50566,7 +51360,9 @@
       <c r="F274" s="16" t="s">
         <v>1392</v>
       </c>
-      <c r="G274" s="33"/>
+      <c r="G274" s="33" t="s">
+        <v>3486</v>
+      </c>
     </row>
     <row r="275" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
@@ -50578,7 +51374,9 @@
       <c r="F275" s="16" t="s">
         <v>1512</v>
       </c>
-      <c r="G275" s="33"/>
+      <c r="G275" s="33" t="s">
+        <v>3487</v>
+      </c>
     </row>
     <row r="276" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
@@ -50590,7 +51388,9 @@
       <c r="F276" s="16" t="s">
         <v>1518</v>
       </c>
-      <c r="G276" s="33"/>
+      <c r="G276" s="33" t="s">
+        <v>3488</v>
+      </c>
     </row>
     <row r="277" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
@@ -50602,7 +51402,9 @@
       <c r="F277" s="16" t="s">
         <v>1324</v>
       </c>
-      <c r="G277" s="33"/>
+      <c r="G277" s="33" t="s">
+        <v>3489</v>
+      </c>
     </row>
     <row r="278" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
@@ -50614,7 +51416,9 @@
       <c r="F278" s="16" t="s">
         <v>1523</v>
       </c>
-      <c r="G278" s="33"/>
+      <c r="G278" s="33" t="s">
+        <v>3558</v>
+      </c>
     </row>
     <row r="279" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
@@ -50626,7 +51430,9 @@
       <c r="F279" s="16" t="s">
         <v>1578</v>
       </c>
-      <c r="G279" s="33"/>
+      <c r="G279" s="33" t="s">
+        <v>3559</v>
+      </c>
     </row>
     <row r="280" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
@@ -50638,7 +51444,9 @@
       <c r="F280" s="16" t="s">
         <v>2530</v>
       </c>
-      <c r="G280" s="33"/>
+      <c r="G280" s="44" t="s">
+        <v>3560</v>
+      </c>
     </row>
     <row r="281" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
@@ -50650,7 +51458,9 @@
       <c r="F281" s="16" t="s">
         <v>1364</v>
       </c>
-      <c r="G281" s="33"/>
+      <c r="G281" s="33" t="s">
+        <v>3532</v>
+      </c>
     </row>
     <row r="282" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
@@ -50662,7 +51472,9 @@
       <c r="F282" s="16" t="s">
         <v>2531</v>
       </c>
-      <c r="G282" s="33"/>
+      <c r="G282" s="33" t="s">
+        <v>3532</v>
+      </c>
     </row>
     <row r="283" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
@@ -50674,7 +51486,9 @@
       <c r="F283" s="16" t="s">
         <v>1495</v>
       </c>
-      <c r="G283" s="33"/>
+      <c r="G283" s="33" t="s">
+        <v>3490</v>
+      </c>
     </row>
     <row r="284" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
@@ -50683,7 +51497,7 @@
       <c r="E284" s="16" t="s">
         <v>2596</v>
       </c>
-      <c r="F284" s="16" t="s">
+      <c r="F284" s="43" t="s">
         <v>1504</v>
       </c>
       <c r="G284" s="33"/>
@@ -50731,7 +51545,9 @@
       <c r="F288" s="16" t="s">
         <v>1575</v>
       </c>
-      <c r="G288" s="33"/>
+      <c r="G288" s="33" t="s">
+        <v>3491</v>
+      </c>
     </row>
     <row r="289" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E289" s="16" t="s">
@@ -50740,16 +51556,20 @@
       <c r="F289" s="16" t="s">
         <v>1320</v>
       </c>
-      <c r="G289" s="33"/>
+      <c r="G289" s="33" t="s">
+        <v>3492</v>
+      </c>
     </row>
     <row r="290" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E290" s="16" t="s">
         <v>2602</v>
       </c>
       <c r="F290" s="16" t="s">
-        <v>2950</v>
-      </c>
-      <c r="G290" s="33"/>
+        <v>2945</v>
+      </c>
+      <c r="G290" s="33" t="s">
+        <v>3562</v>
+      </c>
     </row>
     <row r="291" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E291" s="16" t="s">
@@ -50758,7 +51578,9 @@
       <c r="F291" s="16" t="s">
         <v>1423</v>
       </c>
-      <c r="G291" s="33"/>
+      <c r="G291" s="33" t="s">
+        <v>3563</v>
+      </c>
     </row>
     <row r="292" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C292" s="23"/>
@@ -50768,7 +51590,9 @@
       <c r="F292" s="16" t="s">
         <v>1419</v>
       </c>
-      <c r="G292" s="33"/>
+      <c r="G292" s="33" t="s">
+        <v>3564</v>
+      </c>
     </row>
     <row r="293" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E293" s="16" t="s">
@@ -50777,7 +51601,9 @@
       <c r="F293" s="16" t="s">
         <v>1385</v>
       </c>
-      <c r="G293" s="33"/>
+      <c r="G293" s="44" t="s">
+        <v>3565</v>
+      </c>
     </row>
     <row r="294" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E294" s="16" t="s">
@@ -50786,7 +51612,9 @@
       <c r="F294" s="16" t="s">
         <v>1451</v>
       </c>
-      <c r="G294" s="33"/>
+      <c r="G294" s="33" t="s">
+        <v>3566</v>
+      </c>
     </row>
     <row r="295" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E295" s="16" t="s">
@@ -50795,7 +51623,9 @@
       <c r="F295" s="16" t="s">
         <v>1373</v>
       </c>
-      <c r="G295" s="33"/>
+      <c r="G295" s="33" t="s">
+        <v>3567</v>
+      </c>
     </row>
     <row r="296" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E296" s="16" t="s">
@@ -50804,7 +51634,9 @@
       <c r="F296" s="16" t="s">
         <v>1440</v>
       </c>
-      <c r="G296" s="33"/>
+      <c r="G296" s="33" t="s">
+        <v>3568</v>
+      </c>
     </row>
     <row r="297" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E297" s="16" t="s">
@@ -50813,7 +51645,9 @@
       <c r="F297" s="16" t="s">
         <v>1482</v>
       </c>
-      <c r="G297" s="33"/>
+      <c r="G297" s="33" t="s">
+        <v>3569</v>
+      </c>
     </row>
     <row r="298" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E298" s="16" t="s">
@@ -50840,7 +51674,9 @@
       <c r="F300" s="16" t="s">
         <v>1407</v>
       </c>
-      <c r="G300" s="33"/>
+      <c r="G300" s="33" t="s">
+        <v>3570</v>
+      </c>
     </row>
     <row r="301" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E301" s="16" t="s">
@@ -50849,7 +51685,9 @@
       <c r="F301" s="16" t="s">
         <v>1339</v>
       </c>
-      <c r="G301" s="33"/>
+      <c r="G301" s="33" t="s">
+        <v>3571</v>
+      </c>
     </row>
     <row r="302" spans="3:7" x14ac:dyDescent="0.25">
       <c r="E302" s="16" t="s">
@@ -50876,36 +51714,47 @@
       <c r="F304" s="16" t="s">
         <v>1312</v>
       </c>
-      <c r="G304" s="33"/>
-    </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G304" s="33" t="s">
+        <v>3493</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E305" s="16" t="s">
         <v>2617</v>
       </c>
       <c r="F305" s="16" t="s">
         <v>2532</v>
       </c>
-      <c r="G305" s="33"/>
-    </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G305" s="33" t="s">
+        <v>3486</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E306" s="16" t="s">
         <v>2618</v>
       </c>
       <c r="F306" s="16" t="s">
         <v>1418</v>
       </c>
-      <c r="G306" s="33"/>
-    </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G306" s="33" t="s">
+        <v>3572</v>
+      </c>
+      <c r="H306" s="45" t="s">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E307" s="16" t="s">
         <v>2619</v>
       </c>
       <c r="F307" s="16" t="s">
         <v>1801</v>
       </c>
-      <c r="G307" s="33"/>
-    </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G307" s="33" t="s">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E308" s="16" t="s">
         <v>2620</v>
       </c>
@@ -50914,70 +51763,82 @@
       </c>
       <c r="G308" s="33"/>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E309" s="16" t="s">
         <v>2621</v>
       </c>
       <c r="F309" s="16" t="s">
         <v>1521</v>
       </c>
-      <c r="G309" s="33"/>
-    </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G309" s="33" t="s">
+        <v>3433</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E310" s="16" t="s">
         <v>2622</v>
       </c>
-      <c r="F310" s="16" t="s">
+      <c r="F310" s="43" t="s">
         <v>1414</v>
       </c>
-      <c r="G310" s="33"/>
-    </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G310" s="34"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E311" s="16" t="s">
         <v>2623</v>
       </c>
       <c r="F311" s="16" t="s">
         <v>1526</v>
       </c>
-      <c r="G311" s="33"/>
-    </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G311" s="33" t="s">
+        <v>3494</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E312" s="16" t="s">
         <v>2624</v>
       </c>
       <c r="F312" s="16" t="s">
         <v>1584</v>
       </c>
-      <c r="G312" s="33"/>
-    </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G312" s="33" t="s">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E313" s="16" t="s">
         <v>2625</v>
       </c>
       <c r="F313" s="16" t="s">
         <v>2727</v>
       </c>
-      <c r="G313" s="33"/>
-    </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G313" s="33" t="s">
+        <v>3496</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E314" s="16" t="s">
         <v>2626</v>
       </c>
       <c r="F314" s="16" t="s">
         <v>2729</v>
       </c>
-      <c r="G314" s="33"/>
-    </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G314" s="33" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E315" s="16" t="s">
         <v>2627</v>
       </c>
       <c r="F315" s="16" t="s">
         <v>1379</v>
       </c>
-      <c r="G315" s="33"/>
-    </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G315" s="33" t="s">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="13" t="s">
         <v>2766</v>
       </c>
@@ -50993,11 +51854,13 @@
       <c r="F316" s="16" t="s">
         <v>1569</v>
       </c>
-      <c r="G316" s="33"/>
-    </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G316" s="33" t="s">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="13" t="s">
-        <v>2958</v>
+        <v>2953</v>
       </c>
       <c r="B317" s="5" t="s">
         <v>1815</v>
@@ -51011,11 +51874,13 @@
       <c r="F317" s="16" t="s">
         <v>1577</v>
       </c>
-      <c r="G317" s="33"/>
-    </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G317" s="33" t="s">
+        <v>3422</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="13" t="s">
-        <v>2959</v>
+        <v>2954</v>
       </c>
       <c r="B318" s="5" t="s">
         <v>1816</v>
@@ -51029,11 +51894,13 @@
       <c r="F318" s="16" t="s">
         <v>1465</v>
       </c>
-      <c r="G318" s="33"/>
-    </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G318" s="33" t="s">
+        <v>3482</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="13" t="s">
-        <v>2960</v>
+        <v>2955</v>
       </c>
       <c r="B319" s="5" t="s">
         <v>1817</v>
@@ -51047,11 +51914,13 @@
       <c r="F319" s="16" t="s">
         <v>1499</v>
       </c>
-      <c r="G319" s="33"/>
-    </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G319" s="33" t="s">
+        <v>3499</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="13" t="s">
-        <v>2961</v>
+        <v>2956</v>
       </c>
       <c r="B320" s="5" t="s">
         <v>1818</v>
@@ -51065,11 +51934,13 @@
       <c r="F320" s="16" t="s">
         <v>1462</v>
       </c>
-      <c r="G320" s="33"/>
+      <c r="G320" s="33" t="s">
+        <v>3500</v>
+      </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="s">
-        <v>2962</v>
+        <v>2957</v>
       </c>
       <c r="B321" s="5" t="s">
         <v>1819</v>
@@ -51080,14 +51951,14 @@
       <c r="E321" s="16" t="s">
         <v>2633</v>
       </c>
-      <c r="F321" s="16" t="s">
+      <c r="F321" s="43" t="s">
         <v>1532</v>
       </c>
-      <c r="G321" s="33"/>
+      <c r="G321" s="34"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
-        <v>2963</v>
+        <v>2958</v>
       </c>
       <c r="B322" s="5" t="s">
         <v>1820</v>
@@ -51101,11 +51972,13 @@
       <c r="F322" s="16" t="s">
         <v>1486</v>
       </c>
-      <c r="G322" s="33"/>
+      <c r="G322" s="33" t="s">
+        <v>3501</v>
+      </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="s">
-        <v>2964</v>
+        <v>2959</v>
       </c>
       <c r="B323" s="5" t="s">
         <v>1821</v>
@@ -51119,11 +51992,13 @@
       <c r="F323" s="16" t="s">
         <v>1496</v>
       </c>
-      <c r="G323" s="33"/>
+      <c r="G323" s="33" t="s">
+        <v>3502</v>
+      </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="s">
-        <v>2965</v>
+        <v>2960</v>
       </c>
       <c r="B324" s="5" t="s">
         <v>1822</v>
@@ -51137,29 +52012,31 @@
       <c r="F324" s="16" t="s">
         <v>1562</v>
       </c>
-      <c r="G324" s="33"/>
+      <c r="G324" s="33" t="s">
+        <v>3503</v>
+      </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="s">
-        <v>2966</v>
+        <v>2961</v>
       </c>
       <c r="B325" s="10" t="s">
         <v>1806</v>
       </c>
       <c r="C325" s="11" t="s">
-        <v>2944</v>
+        <v>2939</v>
       </c>
       <c r="E325" s="16" t="s">
         <v>2738</v>
       </c>
-      <c r="F325" s="16" t="s">
+      <c r="F325" s="43" t="s">
         <v>1417</v>
       </c>
-      <c r="G325" s="33"/>
+      <c r="G325" s="34"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
-        <v>2967</v>
+        <v>2962</v>
       </c>
       <c r="B326" s="10" t="s">
         <v>1807</v>
@@ -51173,11 +52050,13 @@
       <c r="F326" s="16" t="s">
         <v>1537</v>
       </c>
-      <c r="G326" s="33"/>
+      <c r="G326" s="33" t="s">
+        <v>3504</v>
+      </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
-        <v>2968</v>
+        <v>2963</v>
       </c>
       <c r="B327" s="10" t="s">
         <v>1808</v>
@@ -51191,11 +52070,13 @@
       <c r="F327" s="16" t="s">
         <v>1488</v>
       </c>
-      <c r="G327" s="33"/>
+      <c r="G327" s="33" t="s">
+        <v>3505</v>
+      </c>
     </row>
     <row r="328" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="24" t="s">
-        <v>2969</v>
+        <v>2964</v>
       </c>
       <c r="B328" s="25" t="s">
         <v>1809</v>
@@ -51209,7 +52090,9 @@
       <c r="F328" s="17" t="s">
         <v>1434</v>
       </c>
-      <c r="G328" s="33"/>
+      <c r="G328" s="33" t="s">
+        <v>3576</v>
+      </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E329" s="16" t="s">
@@ -51218,11 +52101,13 @@
       <c r="F329" s="16" t="s">
         <v>1375</v>
       </c>
-      <c r="G329" s="33"/>
+      <c r="G329" s="33" t="s">
+        <v>3577</v>
+      </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B330" s="26" t="s">
-        <v>2977</v>
+        <v>2972</v>
       </c>
       <c r="E330" s="16" t="s">
         <v>2743</v>
@@ -51239,7 +52124,9 @@
       <c r="F331" s="16" t="s">
         <v>1553</v>
       </c>
-      <c r="G331" s="33"/>
+      <c r="G331" s="33" t="s">
+        <v>3506</v>
+      </c>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E332" s="16" t="s">
@@ -51248,7 +52135,9 @@
       <c r="F332" s="16" t="s">
         <v>2760</v>
       </c>
-      <c r="G332" s="33"/>
+      <c r="G332" s="33" t="s">
+        <v>3507</v>
+      </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E333" s="16" t="s">
@@ -51257,7 +52146,9 @@
       <c r="F333" s="16" t="s">
         <v>2762</v>
       </c>
-      <c r="G333" s="33"/>
+      <c r="G333" s="33" t="s">
+        <v>3508</v>
+      </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E334" s="16" t="s">
@@ -51266,7 +52157,9 @@
       <c r="F334" s="16" t="s">
         <v>1581</v>
       </c>
-      <c r="G334" s="33"/>
+      <c r="G334" s="33" t="s">
+        <v>3509</v>
+      </c>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E335" s="16" t="s">
@@ -51275,53 +52168,57 @@
       <c r="F335" s="16" t="s">
         <v>2765</v>
       </c>
-      <c r="G335" s="33"/>
+      <c r="G335" s="33" t="s">
+        <v>3510</v>
+      </c>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B336" s="7" t="s">
-        <v>3150</v>
+        <v>3145</v>
       </c>
       <c r="C336" s="7" t="s">
-        <v>3151</v>
+        <v>3146</v>
       </c>
       <c r="E336" s="18" t="s">
         <v>2766</v>
       </c>
-      <c r="F336" s="18" t="s">
+      <c r="F336" s="47" t="s">
         <v>2768</v>
       </c>
-      <c r="G336" s="33"/>
+      <c r="G336" s="34" t="s">
+        <v>3511</v>
+      </c>
     </row>
     <row r="337" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B337" s="7" t="s">
-        <v>3180</v>
+        <v>3175</v>
       </c>
       <c r="C337" s="7" t="s">
-        <v>3181</v>
+        <v>3176</v>
       </c>
     </row>
     <row r="338" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B338" s="7" t="s">
-        <v>3173</v>
+        <v>3168</v>
       </c>
       <c r="C338" s="7" t="s">
-        <v>3174</v>
+        <v>3169</v>
       </c>
     </row>
     <row r="339" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B339" s="7" t="s">
-        <v>3184</v>
+        <v>3179</v>
       </c>
       <c r="C339" s="7" t="s">
-        <v>3183</v>
+        <v>3178</v>
       </c>
     </row>
     <row r="340" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B340" s="7" t="s">
-        <v>3194</v>
+        <v>3189</v>
       </c>
       <c r="C340" s="7" t="s">
-        <v>3195</v>
+        <v>3190</v>
       </c>
       <c r="E340" s="19" t="s">
         <v>2769</v>
@@ -51332,10 +52229,10 @@
     </row>
     <row r="341" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B341" s="7" t="s">
-        <v>3197</v>
+        <v>3192</v>
       </c>
       <c r="C341" s="7" t="s">
-        <v>3198</v>
+        <v>3193</v>
       </c>
       <c r="E341" s="19" t="s">
         <v>2773</v>
@@ -51346,10 +52243,10 @@
     </row>
     <row r="344" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B344" s="7" t="s">
-        <v>3200</v>
+        <v>3195</v>
       </c>
       <c r="C344" s="7" t="s">
-        <v>3201</v>
+        <v>3196</v>
       </c>
       <c r="E344" t="s">
         <v>2776</v>
@@ -51486,15 +52383,18 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="369" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E369" s="21" t="s">
         <v>2817</v>
       </c>
       <c r="F369" s="21" t="s">
-        <v>2917</v>
-      </c>
-    </row>
-    <row r="370" spans="5:6" x14ac:dyDescent="0.25">
+        <v>3582</v>
+      </c>
+      <c r="G369" t="s">
+        <v>3424</v>
+      </c>
+    </row>
+    <row r="370" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E370" s="21" t="s">
         <v>2818</v>
       </c>
@@ -51502,7 +52402,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="371" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E371" s="21" t="s">
         <v>2822</v>
       </c>
@@ -51510,7 +52410,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="375" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E375" t="s">
         <v>2824</v>
       </c>
@@ -51518,7 +52418,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="376" spans="5:6" x14ac:dyDescent="0.25">
+    <row r="376" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E376" t="s">
         <v>2825</v>
       </c>
@@ -51535,18 +52435,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED3E70-2200-4646-9295-321DD5DC5132}">
-  <dimension ref="B6:AF76"/>
+  <dimension ref="B6:AF108"/>
   <sheetViews>
-    <sheetView topLeftCell="D40" workbookViewId="0">
-      <selection activeCell="AA26" sqref="AA26"/>
+    <sheetView topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="77.42578125" customWidth="1"/>
     <col min="6" max="6" width="10.5703125" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
     <col min="13" max="13" width="4.28515625" customWidth="1"/>
     <col min="14" max="14" width="21.5703125" customWidth="1"/>
     <col min="15" max="15" width="23.5703125" customWidth="1"/>
@@ -51561,7 +52463,7 @@
   <sheetData>
     <row r="6" spans="2:32" x14ac:dyDescent="0.25">
       <c r="C6" s="22" t="s">
-        <v>2918</v>
+        <v>2913</v>
       </c>
     </row>
     <row r="7" spans="2:32" x14ac:dyDescent="0.25">
@@ -51572,1323 +52474,1701 @@
         <v>1813</v>
       </c>
       <c r="F7" t="s">
-        <v>3126</v>
+        <v>3121</v>
       </c>
       <c r="G7" t="s">
-        <v>3134</v>
+        <v>3129</v>
       </c>
       <c r="J7" s="30" t="s">
-        <v>3306</v>
+        <v>3301</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>3238</v>
+        <v>3233</v>
       </c>
       <c r="S7" s="30" t="s">
-        <v>3253</v>
+        <v>3248</v>
       </c>
       <c r="W7" s="30" t="s">
-        <v>3255</v>
+        <v>3250</v>
       </c>
       <c r="AA7" s="30" t="s">
-        <v>3282</v>
+        <v>3277</v>
       </c>
       <c r="AF7" s="30" t="s">
-        <v>3360</v>
+        <v>3354</v>
       </c>
     </row>
     <row r="8" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>2919</v>
+        <v>2914</v>
       </c>
       <c r="C8" t="s">
-        <v>2940</v>
+        <v>2935</v>
       </c>
       <c r="F8" t="s">
-        <v>3127</v>
+        <v>3122</v>
       </c>
       <c r="G8" t="s">
-        <v>3135</v>
+        <v>3130</v>
       </c>
       <c r="I8" t="s">
-        <v>3330</v>
+        <v>3325</v>
       </c>
       <c r="J8" t="s">
-        <v>3307</v>
+        <v>3302</v>
       </c>
       <c r="N8" t="s">
-        <v>3245</v>
+        <v>3240</v>
       </c>
       <c r="O8" t="s">
-        <v>3239</v>
+        <v>3234</v>
       </c>
       <c r="Q8" s="31" t="s">
-        <v>3378</v>
+        <v>3372</v>
       </c>
       <c r="R8" t="s">
-        <v>3356</v>
+        <v>3350</v>
       </c>
       <c r="S8" t="s">
+        <v>3349</v>
+      </c>
+      <c r="V8" t="s">
+        <v>3253</v>
+      </c>
+      <c r="W8" t="s">
+        <v>3251</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>3282</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>3421</v>
+      </c>
+      <c r="AF8" t="s">
         <v>3355</v>
-      </c>
-      <c r="V8" t="s">
-        <v>3258</v>
-      </c>
-      <c r="W8" t="s">
-        <v>3256</v>
-      </c>
-      <c r="Z8" t="s">
-        <v>3287</v>
-      </c>
-      <c r="AA8" t="s">
-        <v>3427</v>
-      </c>
-      <c r="AF8" t="s">
-        <v>3361</v>
       </c>
     </row>
     <row r="9" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>2920</v>
+        <v>2915</v>
       </c>
       <c r="C9" t="s">
-        <v>2997</v>
+        <v>2992</v>
       </c>
       <c r="F9" t="s">
-        <v>3130</v>
+        <v>3125</v>
       </c>
       <c r="G9" t="s">
-        <v>3131</v>
+        <v>3126</v>
       </c>
       <c r="I9" t="s">
-        <v>3331</v>
+        <v>3326</v>
       </c>
       <c r="J9" t="s">
-        <v>3308</v>
+        <v>3303</v>
       </c>
       <c r="N9" t="s">
-        <v>3247</v>
+        <v>3242</v>
       </c>
       <c r="O9" t="s">
-        <v>3240</v>
+        <v>3235</v>
       </c>
       <c r="V9" t="s">
-        <v>3259</v>
+        <v>3254</v>
       </c>
       <c r="W9" t="s">
-        <v>3257</v>
+        <v>3252</v>
       </c>
       <c r="Z9" t="s">
-        <v>3286</v>
+        <v>3281</v>
       </c>
       <c r="AA9" t="s">
-        <v>3283</v>
+        <v>3278</v>
       </c>
       <c r="AF9" t="s">
-        <v>3386</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="10" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="C10" t="s">
-        <v>3020</v>
+        <v>3015</v>
       </c>
       <c r="F10" t="s">
-        <v>3128</v>
+        <v>3123</v>
       </c>
       <c r="G10" t="s">
-        <v>3132</v>
+        <v>3127</v>
       </c>
       <c r="I10" t="s">
-        <v>3329</v>
+        <v>3324</v>
       </c>
       <c r="J10" t="s">
-        <v>3328</v>
+        <v>3323</v>
       </c>
       <c r="N10" t="s">
-        <v>3353</v>
+        <v>3347</v>
       </c>
       <c r="O10" t="s">
-        <v>3332</v>
+        <v>3327</v>
       </c>
       <c r="Q10" s="31" t="s">
-        <v>3379</v>
+        <v>3373</v>
       </c>
       <c r="R10" t="s">
-        <v>3362</v>
+        <v>3356</v>
       </c>
       <c r="S10" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
       <c r="Z10" t="s">
-        <v>3288</v>
+        <v>3283</v>
       </c>
       <c r="AA10" t="s">
-        <v>3284</v>
+        <v>3279</v>
       </c>
       <c r="AF10" t="s">
-        <v>3383</v>
+        <v>3377</v>
       </c>
     </row>
     <row r="11" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>2922</v>
+        <v>2917</v>
       </c>
       <c r="F11" t="s">
-        <v>3129</v>
+        <v>3124</v>
       </c>
       <c r="G11" t="s">
-        <v>3133</v>
+        <v>3128</v>
       </c>
       <c r="N11" t="s">
-        <v>3354</v>
+        <v>3348</v>
       </c>
       <c r="O11" t="s">
         <v>15</v>
       </c>
       <c r="R11" t="s">
-        <v>3365</v>
+        <v>3359</v>
       </c>
       <c r="S11" t="s">
-        <v>3363</v>
+        <v>3357</v>
       </c>
       <c r="Z11" t="s">
-        <v>3289</v>
+        <v>3284</v>
       </c>
       <c r="AA11" t="s">
-        <v>3285</v>
+        <v>3280</v>
       </c>
       <c r="AF11" t="s">
-        <v>3384</v>
+        <v>3378</v>
       </c>
     </row>
     <row r="12" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>2923</v>
+        <v>2918</v>
       </c>
       <c r="N12" t="s">
-        <v>3248</v>
+        <v>3243</v>
       </c>
       <c r="O12" t="s">
         <v>23</v>
       </c>
       <c r="R12" t="s">
-        <v>3366</v>
+        <v>3360</v>
       </c>
       <c r="S12" t="s">
-        <v>3364</v>
+        <v>3358</v>
       </c>
       <c r="Z12" t="s">
-        <v>3347</v>
+        <v>3483</v>
       </c>
       <c r="AA12" t="s">
-        <v>3346</v>
+        <v>3341</v>
       </c>
       <c r="AF12" t="s">
-        <v>3385</v>
+        <v>3379</v>
       </c>
     </row>
     <row r="13" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>2924</v>
+        <v>2919</v>
       </c>
       <c r="N13" t="s">
-        <v>3246</v>
+        <v>3241</v>
       </c>
       <c r="O13" t="s">
-        <v>3241</v>
+        <v>3236</v>
       </c>
       <c r="R13" t="s">
-        <v>3375</v>
+        <v>3369</v>
       </c>
       <c r="S13" t="s">
-        <v>3374</v>
+        <v>3368</v>
       </c>
       <c r="Z13" t="s">
-        <v>3299</v>
+        <v>3294</v>
       </c>
       <c r="AA13" t="s">
-        <v>3298</v>
+        <v>3293</v>
       </c>
     </row>
     <row r="14" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>2925</v>
+        <v>2920</v>
       </c>
       <c r="J14" s="30" t="s">
-        <v>3252</v>
+        <v>3247</v>
       </c>
       <c r="N14" t="s">
-        <v>3249</v>
+        <v>3244</v>
       </c>
       <c r="O14" t="s">
         <v>10</v>
       </c>
       <c r="R14" t="s">
-        <v>3377</v>
+        <v>3371</v>
       </c>
       <c r="S14" t="s">
-        <v>3376</v>
+        <v>3370</v>
       </c>
       <c r="Z14" t="s">
-        <v>3435</v>
+        <v>3426</v>
       </c>
       <c r="AA14" t="s">
-        <v>3436</v>
+        <v>3427</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>2926</v>
+        <v>2921</v>
       </c>
       <c r="I15" t="s">
-        <v>3352</v>
+        <v>3346</v>
       </c>
       <c r="J15" t="s">
-        <v>3351</v>
+        <v>3345</v>
       </c>
       <c r="N15" t="s">
-        <v>3245</v>
+        <v>3240</v>
       </c>
       <c r="O15" t="s">
-        <v>3242</v>
+        <v>3237</v>
       </c>
     </row>
     <row r="16" spans="2:32" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>2927</v>
+        <v>2922</v>
       </c>
       <c r="N16" t="s">
-        <v>3250</v>
+        <v>3245</v>
       </c>
       <c r="O16" t="s">
-        <v>3243</v>
+        <v>3238</v>
       </c>
       <c r="R16" t="s">
-        <v>3369</v>
+        <v>3363</v>
       </c>
       <c r="S16" t="s">
-        <v>3368</v>
+        <v>3362</v>
       </c>
     </row>
     <row r="17" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>2928</v>
+        <v>2923</v>
       </c>
       <c r="N17" t="s">
-        <v>3251</v>
+        <v>3246</v>
       </c>
       <c r="O17" t="s">
-        <v>3244</v>
+        <v>3239</v>
       </c>
       <c r="R17" t="s">
-        <v>3371</v>
+        <v>3365</v>
       </c>
       <c r="S17" t="s">
-        <v>3370</v>
+        <v>3364</v>
       </c>
       <c r="Z17" t="s">
-        <v>3294</v>
+        <v>3289</v>
       </c>
       <c r="AA17" t="s">
-        <v>3290</v>
+        <v>3285</v>
       </c>
     </row>
     <row r="18" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>2929</v>
+        <v>2924</v>
       </c>
       <c r="N18" t="s">
-        <v>3281</v>
+        <v>3276</v>
       </c>
       <c r="O18" t="s">
-        <v>3280</v>
+        <v>3275</v>
       </c>
       <c r="R18" t="s">
-        <v>3373</v>
+        <v>3367</v>
       </c>
       <c r="S18" t="s">
-        <v>3372</v>
+        <v>3366</v>
       </c>
       <c r="Z18" t="s">
-        <v>3295</v>
+        <v>3290</v>
       </c>
       <c r="AA18" t="s">
-        <v>3291</v>
+        <v>3286</v>
       </c>
     </row>
     <row r="19" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>2930</v>
+        <v>2925</v>
       </c>
       <c r="J19" s="30" t="s">
-        <v>3357</v>
+        <v>3351</v>
       </c>
       <c r="Z19" t="s">
-        <v>3296</v>
+        <v>3291</v>
       </c>
       <c r="AA19" t="s">
-        <v>3292</v>
+        <v>3287</v>
       </c>
     </row>
     <row r="20" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>2931</v>
+        <v>2926</v>
       </c>
       <c r="I20" t="s">
+        <v>3376</v>
+      </c>
+      <c r="J20" t="s">
+        <v>3375</v>
+      </c>
+      <c r="Q20" s="31" t="s">
+        <v>3374</v>
+      </c>
+      <c r="R20" t="s">
+        <v>3361</v>
+      </c>
+      <c r="S20" t="s">
         <v>3382</v>
       </c>
-      <c r="J20" t="s">
-        <v>3381</v>
-      </c>
-      <c r="Q20" s="31" t="s">
-        <v>3380</v>
-      </c>
-      <c r="R20" t="s">
-        <v>3367</v>
-      </c>
-      <c r="S20" t="s">
-        <v>3388</v>
-      </c>
       <c r="W20" t="s">
-        <v>3389</v>
+        <v>3383</v>
       </c>
       <c r="Z20" t="s">
-        <v>3297</v>
+        <v>3292</v>
       </c>
       <c r="AA20" t="s">
-        <v>3293</v>
+        <v>3288</v>
       </c>
     </row>
     <row r="21" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>2932</v>
+        <v>2927</v>
       </c>
       <c r="I21" t="s">
-        <v>3359</v>
+        <v>3353</v>
       </c>
       <c r="J21" t="s">
-        <v>3358</v>
+        <v>3352</v>
       </c>
       <c r="O21" s="30" t="s">
-        <v>3261</v>
+        <v>3256</v>
       </c>
       <c r="P21" t="s">
-        <v>3273</v>
+        <v>3268</v>
       </c>
       <c r="W21" s="30" t="s">
-        <v>3311</v>
+        <v>3306</v>
       </c>
       <c r="Z21" t="s">
-        <v>3349</v>
+        <v>3343</v>
       </c>
       <c r="AA21" t="s">
-        <v>3348</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="22" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>2933</v>
+        <v>2928</v>
       </c>
       <c r="N22" t="s">
-        <v>3260</v>
+        <v>3255</v>
       </c>
       <c r="O22" t="s">
-        <v>3263</v>
+        <v>3258</v>
       </c>
       <c r="P22" t="s">
-        <v>3274</v>
+        <v>3269</v>
       </c>
       <c r="V22" t="s">
-        <v>3325</v>
+        <v>3320</v>
       </c>
       <c r="W22" t="s">
-        <v>3324</v>
+        <v>3319</v>
       </c>
       <c r="Z22" t="s">
-        <v>3300</v>
+        <v>3295</v>
       </c>
       <c r="AA22" t="s">
-        <v>3301</v>
+        <v>3296</v>
       </c>
     </row>
     <row r="23" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>2934</v>
+        <v>2929</v>
       </c>
       <c r="N23" t="s">
-        <v>3264</v>
+        <v>3259</v>
       </c>
       <c r="O23" t="s">
-        <v>3262</v>
+        <v>3257</v>
       </c>
       <c r="P23" t="s">
-        <v>3275</v>
+        <v>3270</v>
       </c>
       <c r="V23" t="s">
-        <v>3314</v>
+        <v>3309</v>
       </c>
       <c r="W23" t="s">
-        <v>3313</v>
+        <v>3308</v>
       </c>
       <c r="X23" t="s">
-        <v>3254</v>
+        <v>3249</v>
       </c>
     </row>
     <row r="24" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>2935</v>
+        <v>2930</v>
       </c>
       <c r="N24" t="s">
-        <v>3272</v>
+        <v>3267</v>
       </c>
       <c r="O24" t="s">
+        <v>3266</v>
+      </c>
+      <c r="P24" t="s">
         <v>3271</v>
       </c>
-      <c r="P24" t="s">
-        <v>3276</v>
-      </c>
       <c r="V24" t="s">
-        <v>3316</v>
+        <v>3311</v>
       </c>
       <c r="W24" t="s">
-        <v>3315</v>
+        <v>3310</v>
       </c>
     </row>
     <row r="25" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>2936</v>
-      </c>
-      <c r="H25" s="37" t="s">
-        <v>3393</v>
-      </c>
-      <c r="I25" s="37"/>
+        <v>2931</v>
+      </c>
+      <c r="H25" s="38" t="s">
+        <v>3387</v>
+      </c>
+      <c r="I25" s="38"/>
       <c r="N25" t="s">
-        <v>3266</v>
+        <v>3261</v>
       </c>
       <c r="O25" t="s">
-        <v>3265</v>
+        <v>3260</v>
       </c>
       <c r="P25" t="s">
-        <v>3277</v>
+        <v>3272</v>
       </c>
       <c r="V25" t="s">
-        <v>3318</v>
+        <v>3313</v>
       </c>
       <c r="W25" t="s">
-        <v>3317</v>
+        <v>3312</v>
       </c>
     </row>
     <row r="26" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>2937</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I26" s="34"/>
+        <v>2932</v>
+      </c>
+      <c r="H26" s="35" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I26" s="35"/>
       <c r="J26">
         <v>0</v>
       </c>
       <c r="N26" t="s">
-        <v>3269</v>
+        <v>3264</v>
       </c>
       <c r="O26" t="s">
-        <v>3267</v>
+        <v>3262</v>
       </c>
       <c r="P26" t="s">
-        <v>3278</v>
+        <v>3273</v>
       </c>
       <c r="V26" t="s">
-        <v>3320</v>
+        <v>3315</v>
       </c>
       <c r="W26" t="s">
-        <v>3319</v>
+        <v>3314</v>
       </c>
     </row>
     <row r="27" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>2938</v>
-      </c>
-      <c r="H27" s="34" t="s">
-        <v>3263</v>
-      </c>
-      <c r="I27" s="34"/>
+        <v>2933</v>
+      </c>
+      <c r="H27" s="35" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I27" s="35"/>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>3270</v>
+        <v>3265</v>
       </c>
       <c r="O27" t="s">
-        <v>3268</v>
+        <v>3263</v>
       </c>
       <c r="P27" t="s">
-        <v>3279</v>
+        <v>3274</v>
       </c>
       <c r="V27" t="s">
-        <v>3322</v>
+        <v>3317</v>
       </c>
       <c r="W27" t="s">
-        <v>3321</v>
+        <v>3316</v>
       </c>
     </row>
     <row r="28" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>2939</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>3262</v>
-      </c>
-      <c r="I28" s="34"/>
+        <v>2934</v>
+      </c>
+      <c r="H28" s="35" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I28" s="35"/>
       <c r="J28">
         <v>2</v>
       </c>
       <c r="V28" t="s">
-        <v>3323</v>
+        <v>3318</v>
       </c>
       <c r="W28" t="s">
-        <v>3312</v>
+        <v>3307</v>
       </c>
     </row>
     <row r="29" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="H29" s="34" t="s">
-        <v>3394</v>
-      </c>
-      <c r="I29" s="34"/>
+      <c r="H29" s="35" t="s">
+        <v>3388</v>
+      </c>
+      <c r="I29" s="35"/>
       <c r="J29">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>3303</v>
+        <v>3298</v>
       </c>
       <c r="O29" t="s">
-        <v>3302</v>
+        <v>3297</v>
       </c>
       <c r="P29" t="s">
-        <v>3304</v>
+        <v>3299</v>
       </c>
       <c r="V29" t="s">
-        <v>3327</v>
+        <v>3322</v>
       </c>
       <c r="W29" t="s">
-        <v>3326</v>
+        <v>3321</v>
       </c>
     </row>
     <row r="30" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="H30" s="34" t="s">
-        <v>3395</v>
-      </c>
-      <c r="I30" s="34"/>
+      <c r="H30" s="35" t="s">
+        <v>3389</v>
+      </c>
+      <c r="I30" s="35"/>
       <c r="J30">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="H31" s="34" t="s">
-        <v>3396</v>
-      </c>
-      <c r="I31" s="34"/>
+      <c r="H31" s="35" t="s">
+        <v>3390</v>
+      </c>
+      <c r="I31" s="35"/>
       <c r="J31">
         <v>5</v>
       </c>
       <c r="S31" s="30" t="s">
-        <v>3305</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="32" spans="2:27" x14ac:dyDescent="0.25">
-      <c r="H32" s="34" t="s">
+      <c r="H32" s="35" t="s">
         <v>1592</v>
       </c>
-      <c r="I32" s="34"/>
+      <c r="I32" s="35"/>
       <c r="J32">
         <v>6</v>
       </c>
       <c r="R32" t="s">
-        <v>3310</v>
+        <v>3305</v>
       </c>
       <c r="S32" t="s">
-        <v>3309</v>
+        <v>3304</v>
       </c>
     </row>
     <row r="33" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H33" s="34" t="s">
+      <c r="H33" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I33" s="34"/>
+      <c r="I33" s="35"/>
       <c r="J33">
         <v>7</v>
       </c>
       <c r="O33" s="30" t="s">
-        <v>3333</v>
+        <v>3328</v>
       </c>
     </row>
     <row r="34" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H34" s="34" t="s">
-        <v>3419</v>
-      </c>
-      <c r="I34" s="34"/>
+      <c r="H34" s="35" t="s">
+        <v>3413</v>
+      </c>
+      <c r="I34" s="35"/>
       <c r="J34">
         <v>8</v>
       </c>
       <c r="N34" t="s">
-        <v>3335</v>
+        <v>3330</v>
       </c>
       <c r="O34" t="s">
-        <v>3334</v>
+        <v>3329</v>
       </c>
     </row>
     <row r="35" spans="5:15" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>3420</v>
+        <v>3414</v>
       </c>
       <c r="J35">
         <v>9</v>
       </c>
       <c r="N35" t="s">
-        <v>3337</v>
+        <v>3332</v>
       </c>
       <c r="O35" t="s">
-        <v>3336</v>
+        <v>3331</v>
       </c>
     </row>
     <row r="36" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H36" s="34" t="s">
-        <v>3280</v>
-      </c>
-      <c r="I36" s="34"/>
+      <c r="H36" s="35" t="s">
+        <v>3275</v>
+      </c>
+      <c r="I36" s="35"/>
       <c r="J36">
         <v>10</v>
       </c>
       <c r="N36" t="s">
-        <v>3339</v>
+        <v>3334</v>
       </c>
       <c r="O36" t="s">
-        <v>3338</v>
+        <v>3333</v>
       </c>
     </row>
     <row r="37" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H37" s="36" t="s">
+      <c r="H37" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I37" s="36"/>
+      <c r="I37" s="37"/>
       <c r="J37" s="32">
         <v>11</v>
       </c>
       <c r="N37" t="s">
-        <v>3341</v>
+        <v>3336</v>
       </c>
       <c r="O37" t="s">
+        <v>3335</v>
+      </c>
+    </row>
+    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E38" s="35" t="s">
+        <v>3391</v>
+      </c>
+      <c r="F38" s="35"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="35"/>
+      <c r="I38" s="35"/>
+      <c r="J38" t="s">
+        <v>3395</v>
+      </c>
+      <c r="N38" t="s">
         <v>3340</v>
       </c>
-    </row>
-    <row r="38" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E38" s="34" t="s">
+      <c r="O38" t="s">
+        <v>3339</v>
+      </c>
+    </row>
+    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E39" s="35" t="s">
+        <v>3393</v>
+      </c>
+      <c r="F39" s="35"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="35"/>
+      <c r="I39" s="35"/>
+      <c r="J39" t="s">
+        <v>3396</v>
+      </c>
+      <c r="N39" t="s">
+        <v>3338</v>
+      </c>
+      <c r="O39" t="s">
+        <v>3337</v>
+      </c>
+    </row>
+    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E40" s="35" t="s">
+        <v>3394</v>
+      </c>
+      <c r="F40" s="35"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="35"/>
+      <c r="I40" s="35"/>
+      <c r="J40" t="s">
         <v>3397</v>
       </c>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" t="s">
-        <v>3401</v>
-      </c>
-      <c r="N38" t="s">
-        <v>3345</v>
-      </c>
-      <c r="O38" t="s">
-        <v>3344</v>
-      </c>
-    </row>
-    <row r="39" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E39" s="34" t="s">
+    </row>
+    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
+      <c r="E41" s="35" t="s">
+        <v>3398</v>
+      </c>
+      <c r="F41" s="35"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="35"/>
+      <c r="I41" s="35"/>
+      <c r="J41" t="s">
         <v>3399</v>
       </c>
-      <c r="F39" s="34"/>
-      <c r="G39" s="34"/>
-      <c r="H39" s="34"/>
-      <c r="I39" s="34"/>
-      <c r="J39" t="s">
-        <v>3402</v>
-      </c>
-      <c r="N39" t="s">
-        <v>3343</v>
-      </c>
-      <c r="O39" t="s">
-        <v>3342</v>
-      </c>
-    </row>
-    <row r="40" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E40" s="34" t="s">
-        <v>3400</v>
-      </c>
-      <c r="F40" s="34"/>
-      <c r="G40" s="34"/>
-      <c r="H40" s="34"/>
-      <c r="I40" s="34"/>
-      <c r="J40" t="s">
-        <v>3403</v>
-      </c>
-    </row>
-    <row r="41" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E41" s="34" t="s">
-        <v>3404</v>
-      </c>
-      <c r="F41" s="34"/>
-      <c r="G41" s="34"/>
-      <c r="H41" s="34"/>
-      <c r="I41" s="34"/>
-      <c r="J41" t="s">
-        <v>3405</v>
-      </c>
     </row>
     <row r="42" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="E42" s="35" t="s">
-        <v>3421</v>
-      </c>
-      <c r="F42" s="35"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
+      <c r="E42" s="36" t="s">
+        <v>3415</v>
+      </c>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="36"/>
+      <c r="I42" s="36"/>
       <c r="J42" t="s">
-        <v>3422</v>
+        <v>3416</v>
       </c>
     </row>
     <row r="46" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H46" s="37" t="s">
-        <v>3418</v>
-      </c>
-      <c r="I46" s="37"/>
+      <c r="H46" s="38" t="s">
+        <v>3412</v>
+      </c>
+      <c r="I46" s="38"/>
     </row>
     <row r="47" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H47" s="34" t="s">
-        <v>3398</v>
-      </c>
-      <c r="I47" s="34"/>
+      <c r="H47" s="35" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I47" s="35"/>
       <c r="J47">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="5:15" x14ac:dyDescent="0.25">
-      <c r="H48" s="34" t="s">
-        <v>3263</v>
-      </c>
-      <c r="I48" s="34"/>
+      <c r="H48" s="35" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I48" s="35"/>
       <c r="J48">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H49" s="34" t="s">
-        <v>3262</v>
-      </c>
-      <c r="I49" s="34"/>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H49" s="35" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I49" s="35"/>
       <c r="J49">
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H50" s="34" t="s">
-        <v>3394</v>
-      </c>
-      <c r="I50" s="34"/>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H50" s="35" t="s">
+        <v>3388</v>
+      </c>
+      <c r="I50" s="35"/>
       <c r="J50">
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H51" s="34" t="s">
-        <v>3395</v>
-      </c>
-      <c r="I51" s="34"/>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H51" s="35" t="s">
+        <v>3389</v>
+      </c>
+      <c r="I51" s="35"/>
       <c r="J51">
         <v>4</v>
       </c>
       <c r="N51" t="s">
-        <v>3350</v>
-      </c>
-      <c r="X51" s="34" t="s">
+        <v>3344</v>
+      </c>
+      <c r="X51" s="35" t="s">
+        <v>3384</v>
+      </c>
+      <c r="Y51" s="35"/>
+      <c r="Z51" s="35"/>
+      <c r="AA51" s="35"/>
+    </row>
+    <row r="52" spans="3:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H52" s="35" t="s">
         <v>3390</v>
       </c>
-      <c r="Y51" s="34"/>
-      <c r="Z51" s="34"/>
-      <c r="AA51" s="34"/>
-    </row>
-    <row r="52" spans="5:27" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H52" s="34" t="s">
-        <v>3396</v>
-      </c>
-      <c r="I52" s="34"/>
+      <c r="I52" s="35"/>
       <c r="J52">
         <v>5</v>
       </c>
-      <c r="N52" s="40" t="s">
+      <c r="N52" s="41" t="s">
         <v>2464</v>
       </c>
-      <c r="O52" s="40"/>
-      <c r="P52" s="40"/>
-      <c r="Q52" s="40"/>
-      <c r="R52" s="40"/>
-      <c r="S52" s="40"/>
-      <c r="T52" s="41" t="s">
-        <v>3387</v>
-      </c>
-      <c r="U52" s="40"/>
-      <c r="V52" s="40"/>
-      <c r="W52" s="40"/>
-      <c r="X52" s="38" t="s">
-        <v>3391</v>
-      </c>
-      <c r="Y52" s="34"/>
-      <c r="Z52" s="34"/>
-      <c r="AA52" s="34"/>
-    </row>
-    <row r="53" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H53" s="34" t="s">
+      <c r="O52" s="41"/>
+      <c r="P52" s="41"/>
+      <c r="Q52" s="41"/>
+      <c r="R52" s="41"/>
+      <c r="S52" s="41"/>
+      <c r="T52" s="42" t="s">
+        <v>3381</v>
+      </c>
+      <c r="U52" s="41"/>
+      <c r="V52" s="41"/>
+      <c r="W52" s="41"/>
+      <c r="X52" s="39" t="s">
+        <v>3385</v>
+      </c>
+      <c r="Y52" s="35"/>
+      <c r="Z52" s="35"/>
+      <c r="AA52" s="35"/>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H53" s="35" t="s">
         <v>1592</v>
       </c>
-      <c r="I53" s="34"/>
+      <c r="I53" s="35"/>
       <c r="J53">
         <v>6</v>
       </c>
-      <c r="N53" s="40" t="s">
+      <c r="N53" s="41" t="s">
         <v>2459</v>
       </c>
-      <c r="O53" s="40"/>
-      <c r="P53" s="40"/>
-      <c r="Q53" s="40"/>
-      <c r="R53" s="40"/>
-      <c r="S53" s="40"/>
-      <c r="T53" s="40"/>
-      <c r="U53" s="40"/>
-      <c r="V53" s="40"/>
-      <c r="W53" s="40"/>
-      <c r="X53" s="38" t="s">
-        <v>3392</v>
-      </c>
-      <c r="Y53" s="34"/>
-      <c r="Z53" s="34"/>
-      <c r="AA53" s="34"/>
-    </row>
-    <row r="54" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H54" s="34" t="s">
+      <c r="O53" s="41"/>
+      <c r="P53" s="41"/>
+      <c r="Q53" s="41"/>
+      <c r="R53" s="41"/>
+      <c r="S53" s="41"/>
+      <c r="T53" s="41"/>
+      <c r="U53" s="41"/>
+      <c r="V53" s="41"/>
+      <c r="W53" s="41"/>
+      <c r="X53" s="39" t="s">
+        <v>3386</v>
+      </c>
+      <c r="Y53" s="35"/>
+      <c r="Z53" s="35"/>
+      <c r="AA53" s="35"/>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H54" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="I54" s="34"/>
+      <c r="I54" s="35"/>
       <c r="J54">
         <v>7</v>
       </c>
-      <c r="N54" s="40" t="s">
+      <c r="N54" s="41" t="s">
         <v>2490</v>
       </c>
-      <c r="O54" s="40"/>
-      <c r="P54" s="40"/>
-      <c r="Q54" s="40"/>
-      <c r="R54" s="40"/>
-      <c r="S54" s="40"/>
-      <c r="T54" s="40"/>
-      <c r="U54" s="40"/>
-      <c r="V54" s="40"/>
-      <c r="W54" s="40"/>
-      <c r="X54" s="39"/>
-      <c r="Y54" s="34"/>
-      <c r="Z54" s="34"/>
-      <c r="AA54" s="34"/>
-    </row>
-    <row r="55" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H55" s="34" t="s">
-        <v>3419</v>
-      </c>
-      <c r="I55" s="34"/>
+      <c r="O54" s="41"/>
+      <c r="P54" s="41"/>
+      <c r="Q54" s="41"/>
+      <c r="R54" s="41"/>
+      <c r="S54" s="41"/>
+      <c r="T54" s="41"/>
+      <c r="U54" s="41"/>
+      <c r="V54" s="41"/>
+      <c r="W54" s="41"/>
+      <c r="X54" s="40"/>
+      <c r="Y54" s="35"/>
+      <c r="Z54" s="35"/>
+      <c r="AA54" s="35"/>
+    </row>
+    <row r="55" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H55" s="35" t="s">
+        <v>3413</v>
+      </c>
+      <c r="I55" s="35"/>
       <c r="J55">
         <v>8</v>
       </c>
-      <c r="N55" s="40"/>
-      <c r="O55" s="40"/>
-      <c r="P55" s="40"/>
-      <c r="Q55" s="40"/>
-      <c r="R55" s="40"/>
-      <c r="S55" s="40"/>
-      <c r="T55" s="40"/>
-      <c r="U55" s="40"/>
-      <c r="V55" s="40"/>
-      <c r="W55" s="40"/>
-      <c r="X55" s="39"/>
-      <c r="Y55" s="34"/>
-      <c r="Z55" s="34"/>
-      <c r="AA55" s="34"/>
-    </row>
-    <row r="56" spans="5:27" x14ac:dyDescent="0.25">
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="40"/>
+      <c r="Y55" s="35"/>
+      <c r="Z55" s="35"/>
+      <c r="AA55" s="35"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.25">
       <c r="H56" t="s">
-        <v>3420</v>
+        <v>3414</v>
       </c>
       <c r="J56">
         <v>9</v>
       </c>
-      <c r="N56" s="40"/>
-      <c r="O56" s="40"/>
-      <c r="P56" s="40"/>
-      <c r="Q56" s="40"/>
-      <c r="R56" s="40"/>
-      <c r="S56" s="40"/>
-      <c r="T56" s="40"/>
-      <c r="U56" s="40"/>
-      <c r="V56" s="40"/>
-      <c r="W56" s="40"/>
-      <c r="X56" s="39"/>
-      <c r="Y56" s="34"/>
-      <c r="Z56" s="34"/>
-      <c r="AA56" s="34"/>
-    </row>
-    <row r="57" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H57" s="34" t="s">
-        <v>3280</v>
-      </c>
-      <c r="I57" s="34"/>
+      <c r="N56" s="41"/>
+      <c r="O56" s="41"/>
+      <c r="P56" s="41"/>
+      <c r="Q56" s="41"/>
+      <c r="R56" s="41"/>
+      <c r="S56" s="41"/>
+      <c r="T56" s="41"/>
+      <c r="U56" s="41"/>
+      <c r="V56" s="41"/>
+      <c r="W56" s="41"/>
+      <c r="X56" s="40"/>
+      <c r="Y56" s="35"/>
+      <c r="Z56" s="35"/>
+      <c r="AA56" s="35"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H57" s="35" t="s">
+        <v>3275</v>
+      </c>
+      <c r="I57" s="35"/>
       <c r="J57">
         <v>10</v>
       </c>
-      <c r="N57" s="40"/>
-      <c r="O57" s="40"/>
-      <c r="P57" s="40"/>
-      <c r="Q57" s="40"/>
-      <c r="R57" s="40"/>
-      <c r="S57" s="40"/>
-      <c r="T57" s="40"/>
-      <c r="U57" s="40"/>
-      <c r="V57" s="40"/>
-      <c r="W57" s="40"/>
-      <c r="X57" s="39"/>
-      <c r="Y57" s="34"/>
-      <c r="Z57" s="34"/>
-      <c r="AA57" s="34"/>
-    </row>
-    <row r="58" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="H58" s="36" t="s">
+      <c r="N57" s="41"/>
+      <c r="O57" s="41"/>
+      <c r="P57" s="41"/>
+      <c r="Q57" s="41"/>
+      <c r="R57" s="41"/>
+      <c r="S57" s="41"/>
+      <c r="T57" s="41"/>
+      <c r="U57" s="41"/>
+      <c r="V57" s="41"/>
+      <c r="W57" s="41"/>
+      <c r="X57" s="40"/>
+      <c r="Y57" s="35"/>
+      <c r="Z57" s="35"/>
+      <c r="AA57" s="35"/>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="H58" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="I58" s="36"/>
+      <c r="I58" s="37"/>
       <c r="J58" s="32">
         <v>11</v>
       </c>
-      <c r="N58" s="40"/>
-      <c r="O58" s="40"/>
-      <c r="P58" s="40"/>
-      <c r="Q58" s="40"/>
-      <c r="R58" s="40"/>
-      <c r="S58" s="40"/>
-      <c r="T58" s="40"/>
-      <c r="U58" s="40"/>
-      <c r="V58" s="40"/>
-      <c r="W58" s="40"/>
-      <c r="X58" s="39"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-    </row>
-    <row r="59" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E59" s="34" t="s">
+      <c r="N58" s="41"/>
+      <c r="O58" s="41"/>
+      <c r="P58" s="41"/>
+      <c r="Q58" s="41"/>
+      <c r="R58" s="41"/>
+      <c r="S58" s="41"/>
+      <c r="T58" s="41"/>
+      <c r="U58" s="41"/>
+      <c r="V58" s="41"/>
+      <c r="W58" s="41"/>
+      <c r="X58" s="40"/>
+      <c r="Y58" s="35"/>
+      <c r="Z58" s="35"/>
+      <c r="AA58" s="35"/>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>3554</v>
+      </c>
+      <c r="E59" s="35" t="s">
+        <v>3400</v>
+      </c>
+      <c r="F59" s="35"/>
+      <c r="G59" s="35"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" t="s">
+        <v>3401</v>
+      </c>
+      <c r="N59" s="41"/>
+      <c r="O59" s="41"/>
+      <c r="P59" s="41"/>
+      <c r="Q59" s="41"/>
+      <c r="R59" s="41"/>
+      <c r="S59" s="41"/>
+      <c r="T59" s="41"/>
+      <c r="U59" s="41"/>
+      <c r="V59" s="41"/>
+      <c r="W59" s="41"/>
+      <c r="X59" s="40"/>
+      <c r="Y59" s="35"/>
+      <c r="Z59" s="35"/>
+      <c r="AA59" s="35"/>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>3547</v>
+      </c>
+      <c r="E60" s="35" t="s">
+        <v>3402</v>
+      </c>
+      <c r="F60" s="35"/>
+      <c r="G60" s="35"/>
+      <c r="H60" s="35"/>
+      <c r="I60" s="35"/>
+      <c r="J60" t="s">
+        <v>3403</v>
+      </c>
+      <c r="N60" s="41"/>
+      <c r="O60" s="41"/>
+      <c r="P60" s="41"/>
+      <c r="Q60" s="41"/>
+      <c r="R60" s="41"/>
+      <c r="S60" s="41"/>
+      <c r="T60" s="41"/>
+      <c r="U60" s="41"/>
+      <c r="V60" s="41"/>
+      <c r="W60" s="41"/>
+    </row>
+    <row r="61" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>3553</v>
+      </c>
+      <c r="E61" s="35" t="s">
+        <v>3404</v>
+      </c>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" t="s">
+        <v>3405</v>
+      </c>
+      <c r="N61" s="41"/>
+      <c r="O61" s="41"/>
+      <c r="P61" s="41"/>
+      <c r="Q61" s="41"/>
+      <c r="R61" s="41"/>
+      <c r="S61" s="41"/>
+      <c r="T61" s="41"/>
+      <c r="U61" s="41"/>
+      <c r="V61" s="41"/>
+      <c r="W61" s="41"/>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E62" s="35" t="s">
         <v>3406</v>
       </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" t="s">
+      <c r="F62" s="35"/>
+      <c r="G62" s="35"/>
+      <c r="H62" s="35"/>
+      <c r="I62" s="35"/>
+      <c r="J62" t="s">
         <v>3407</v>
       </c>
-      <c r="N59" s="40"/>
-      <c r="O59" s="40"/>
-      <c r="P59" s="40"/>
-      <c r="Q59" s="40"/>
-      <c r="R59" s="40"/>
-      <c r="S59" s="40"/>
-      <c r="T59" s="40"/>
-      <c r="U59" s="40"/>
-      <c r="V59" s="40"/>
-      <c r="W59" s="40"/>
-      <c r="X59" s="39"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="34"/>
-    </row>
-    <row r="60" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E60" s="34" t="s">
+      <c r="N62" s="41"/>
+      <c r="O62" s="41"/>
+      <c r="P62" s="41"/>
+      <c r="Q62" s="41"/>
+      <c r="R62" s="41"/>
+      <c r="S62" s="41"/>
+      <c r="T62" s="41"/>
+      <c r="U62" s="41"/>
+      <c r="V62" s="41"/>
+      <c r="W62" s="41"/>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>3549</v>
+      </c>
+      <c r="E63" s="35" t="s">
         <v>3408</v>
       </c>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" t="s">
+      <c r="F63" s="35"/>
+      <c r="G63" s="35"/>
+      <c r="H63" s="35"/>
+      <c r="I63" s="35"/>
+      <c r="J63" t="s">
         <v>3409</v>
       </c>
-      <c r="N60" s="40"/>
-      <c r="O60" s="40"/>
-      <c r="P60" s="40"/>
-      <c r="Q60" s="40"/>
-      <c r="R60" s="40"/>
-      <c r="S60" s="40"/>
-      <c r="T60" s="40"/>
-      <c r="U60" s="40"/>
-      <c r="V60" s="40"/>
-      <c r="W60" s="40"/>
-    </row>
-    <row r="61" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E61" s="34" t="s">
+      <c r="N63" s="41"/>
+      <c r="O63" s="41"/>
+      <c r="P63" s="41"/>
+      <c r="Q63" s="41"/>
+      <c r="R63" s="41"/>
+      <c r="S63" s="41"/>
+      <c r="T63" s="41"/>
+      <c r="U63" s="41"/>
+      <c r="V63" s="41"/>
+      <c r="W63" s="41"/>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>3561</v>
+      </c>
+      <c r="E64" s="35" t="s">
         <v>3410</v>
       </c>
-      <c r="F61" s="34"/>
-      <c r="G61" s="34"/>
-      <c r="H61" s="34"/>
-      <c r="I61" s="34"/>
-      <c r="J61" t="s">
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" t="s">
         <v>3411</v>
       </c>
-      <c r="N61" s="40"/>
-      <c r="O61" s="40"/>
-      <c r="P61" s="40"/>
-      <c r="Q61" s="40"/>
-      <c r="R61" s="40"/>
-      <c r="S61" s="40"/>
-      <c r="T61" s="40"/>
-      <c r="U61" s="40"/>
-      <c r="V61" s="40"/>
-      <c r="W61" s="40"/>
-    </row>
-    <row r="62" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E62" s="34" t="s">
-        <v>3412</v>
-      </c>
-      <c r="F62" s="34"/>
-      <c r="G62" s="34"/>
-      <c r="H62" s="34"/>
-      <c r="I62" s="34"/>
-      <c r="J62" t="s">
+      <c r="N64" s="41"/>
+      <c r="O64" s="41"/>
+      <c r="P64" s="41"/>
+      <c r="Q64" s="41"/>
+      <c r="R64" s="41"/>
+      <c r="S64" s="41"/>
+      <c r="T64" s="41"/>
+      <c r="U64" s="41"/>
+      <c r="V64" s="41"/>
+      <c r="W64" s="41"/>
+    </row>
+    <row r="65" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>3552</v>
+      </c>
+      <c r="E65" s="35" t="s">
+        <v>3417</v>
+      </c>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
+      <c r="I65" s="35"/>
+      <c r="J65" t="s">
+        <v>3418</v>
+      </c>
+      <c r="N65" s="41"/>
+      <c r="O65" s="41"/>
+      <c r="P65" s="41"/>
+      <c r="Q65" s="41"/>
+      <c r="R65" s="41"/>
+      <c r="S65" s="41"/>
+      <c r="T65" s="41"/>
+      <c r="U65" s="41"/>
+      <c r="V65" s="41"/>
+      <c r="W65" s="41"/>
+    </row>
+    <row r="66" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C66" t="s">
+        <v>3555</v>
+      </c>
+      <c r="E66" s="35" t="s">
+        <v>3419</v>
+      </c>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
+      <c r="I66" s="35"/>
+      <c r="J66" t="s">
+        <v>3420</v>
+      </c>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="41"/>
+    </row>
+    <row r="67" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="N67" s="41"/>
+      <c r="O67" s="41"/>
+      <c r="P67" s="41"/>
+      <c r="Q67" s="41"/>
+      <c r="R67" s="41"/>
+      <c r="S67" s="41"/>
+      <c r="T67" s="41"/>
+      <c r="U67" s="41"/>
+      <c r="V67" s="41"/>
+      <c r="W67" s="41"/>
+    </row>
+    <row r="68" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="N68" s="41"/>
+      <c r="O68" s="41"/>
+      <c r="P68" s="41"/>
+      <c r="Q68" s="41"/>
+      <c r="R68" s="41"/>
+      <c r="S68" s="41"/>
+      <c r="T68" s="41"/>
+      <c r="U68" s="41"/>
+      <c r="V68" s="41"/>
+      <c r="W68" s="41"/>
+    </row>
+    <row r="69" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="N69" s="41"/>
+      <c r="O69" s="41"/>
+      <c r="P69" s="41"/>
+      <c r="Q69" s="41"/>
+      <c r="R69" s="41"/>
+      <c r="S69" s="41"/>
+      <c r="T69" s="41"/>
+      <c r="U69" s="41"/>
+      <c r="V69" s="41"/>
+      <c r="W69" s="41"/>
+    </row>
+    <row r="70" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H70" s="38" t="s">
+        <v>3512</v>
+      </c>
+      <c r="I70" s="38"/>
+      <c r="N70" s="41"/>
+      <c r="O70" s="41"/>
+      <c r="P70" s="41"/>
+      <c r="Q70" s="41"/>
+      <c r="R70" s="41"/>
+      <c r="S70" s="41"/>
+      <c r="T70" s="41"/>
+      <c r="U70" s="41"/>
+      <c r="V70" s="41"/>
+      <c r="W70" s="41"/>
+    </row>
+    <row r="71" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H71" s="35" t="s">
+        <v>3392</v>
+      </c>
+      <c r="I71" s="35"/>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="N71" s="41"/>
+      <c r="O71" s="41"/>
+      <c r="P71" s="41"/>
+      <c r="Q71" s="41"/>
+      <c r="R71" s="41"/>
+      <c r="S71" s="41"/>
+      <c r="T71" s="41"/>
+      <c r="U71" s="41"/>
+      <c r="V71" s="41"/>
+      <c r="W71" s="41"/>
+    </row>
+    <row r="72" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H72" s="35" t="s">
+        <v>3258</v>
+      </c>
+      <c r="I72" s="35"/>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="N72" s="41"/>
+      <c r="O72" s="41"/>
+      <c r="P72" s="41"/>
+      <c r="Q72" s="41"/>
+      <c r="R72" s="41"/>
+      <c r="S72" s="41"/>
+      <c r="T72" s="41"/>
+      <c r="U72" s="41"/>
+      <c r="V72" s="41"/>
+      <c r="W72" s="41"/>
+    </row>
+    <row r="73" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H73" s="35" t="s">
+        <v>3257</v>
+      </c>
+      <c r="I73" s="35"/>
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="N73" s="41"/>
+      <c r="O73" s="41"/>
+      <c r="P73" s="41"/>
+      <c r="Q73" s="41"/>
+      <c r="R73" s="41"/>
+      <c r="S73" s="41"/>
+      <c r="T73" s="41"/>
+      <c r="U73" s="41"/>
+      <c r="V73" s="41"/>
+      <c r="W73" s="41"/>
+    </row>
+    <row r="74" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H74" s="35" t="s">
+        <v>3388</v>
+      </c>
+      <c r="I74" s="35"/>
+      <c r="J74">
+        <v>3</v>
+      </c>
+      <c r="N74" s="41"/>
+      <c r="O74" s="41"/>
+      <c r="P74" s="41"/>
+      <c r="Q74" s="41"/>
+      <c r="R74" s="41"/>
+      <c r="S74" s="41"/>
+      <c r="T74" s="41"/>
+      <c r="U74" s="41"/>
+      <c r="V74" s="41"/>
+      <c r="W74" s="41"/>
+    </row>
+    <row r="75" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H75" s="35" t="s">
+        <v>3389</v>
+      </c>
+      <c r="I75" s="35"/>
+      <c r="J75">
+        <v>4</v>
+      </c>
+      <c r="N75" s="41"/>
+      <c r="O75" s="41"/>
+      <c r="P75" s="41"/>
+      <c r="Q75" s="41"/>
+      <c r="R75" s="41"/>
+      <c r="S75" s="41"/>
+      <c r="T75" s="41"/>
+      <c r="U75" s="41"/>
+      <c r="V75" s="41"/>
+      <c r="W75" s="41"/>
+    </row>
+    <row r="76" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H76" s="35" t="s">
+        <v>3390</v>
+      </c>
+      <c r="I76" s="35"/>
+      <c r="J76">
+        <v>5</v>
+      </c>
+      <c r="N76" s="41"/>
+      <c r="O76" s="41"/>
+      <c r="P76" s="41"/>
+      <c r="Q76" s="41"/>
+      <c r="R76" s="41"/>
+      <c r="S76" s="41"/>
+      <c r="T76" s="41"/>
+      <c r="U76" s="41"/>
+      <c r="V76" s="41"/>
+      <c r="W76" s="41"/>
+    </row>
+    <row r="77" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H77" s="35" t="s">
+        <v>1592</v>
+      </c>
+      <c r="I77" s="35"/>
+      <c r="J77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H78" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="I78" s="35"/>
+      <c r="J78">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H79" s="35" t="s">
         <v>3413</v>
       </c>
-      <c r="N62" s="40"/>
-      <c r="O62" s="40"/>
-      <c r="P62" s="40"/>
-      <c r="Q62" s="40"/>
-      <c r="R62" s="40"/>
-      <c r="S62" s="40"/>
-      <c r="T62" s="40"/>
-      <c r="U62" s="40"/>
-      <c r="V62" s="40"/>
-      <c r="W62" s="40"/>
-    </row>
-    <row r="63" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E63" s="34" t="s">
+      <c r="I79" s="35"/>
+      <c r="J79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="H80" t="s">
         <v>3414</v>
       </c>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="34"/>
-      <c r="I63" s="34"/>
-      <c r="J63" t="s">
-        <v>3415</v>
-      </c>
-      <c r="N63" s="40"/>
-      <c r="O63" s="40"/>
-      <c r="P63" s="40"/>
-      <c r="Q63" s="40"/>
-      <c r="R63" s="40"/>
-      <c r="S63" s="40"/>
-      <c r="T63" s="40"/>
-      <c r="U63" s="40"/>
-      <c r="V63" s="40"/>
-      <c r="W63" s="40"/>
-    </row>
-    <row r="64" spans="5:27" x14ac:dyDescent="0.25">
-      <c r="E64" s="34" t="s">
-        <v>3416</v>
-      </c>
-      <c r="F64" s="34"/>
-      <c r="G64" s="34"/>
-      <c r="H64" s="34"/>
-      <c r="I64" s="34"/>
-      <c r="J64" t="s">
-        <v>3417</v>
-      </c>
-      <c r="N64" s="40"/>
-      <c r="O64" s="40"/>
-      <c r="P64" s="40"/>
-      <c r="Q64" s="40"/>
-      <c r="R64" s="40"/>
-      <c r="S64" s="40"/>
-      <c r="T64" s="40"/>
-      <c r="U64" s="40"/>
-      <c r="V64" s="40"/>
-      <c r="W64" s="40"/>
-    </row>
-    <row r="65" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E65" s="34" t="s">
-        <v>3423</v>
-      </c>
-      <c r="F65" s="34"/>
-      <c r="G65" s="34"/>
-      <c r="H65" s="34"/>
-      <c r="I65" s="34"/>
-      <c r="J65" t="s">
-        <v>3424</v>
-      </c>
-      <c r="N65" s="40"/>
-      <c r="O65" s="40"/>
-      <c r="P65" s="40"/>
-      <c r="Q65" s="40"/>
-      <c r="R65" s="40"/>
-      <c r="S65" s="40"/>
-      <c r="T65" s="40"/>
-      <c r="U65" s="40"/>
-      <c r="V65" s="40"/>
-      <c r="W65" s="40"/>
-    </row>
-    <row r="66" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="E66" s="34" t="s">
-        <v>3425</v>
-      </c>
-      <c r="F66" s="34"/>
-      <c r="G66" s="34"/>
-      <c r="H66" s="34"/>
-      <c r="I66" s="34"/>
-      <c r="J66" t="s">
-        <v>3426</v>
-      </c>
-      <c r="N66" s="40"/>
-      <c r="O66" s="40"/>
-      <c r="P66" s="40"/>
-      <c r="Q66" s="40"/>
-      <c r="R66" s="40"/>
-      <c r="S66" s="40"/>
-      <c r="T66" s="40"/>
-      <c r="U66" s="40"/>
-      <c r="V66" s="40"/>
-      <c r="W66" s="40"/>
-    </row>
-    <row r="67" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="N67" s="40"/>
-      <c r="O67" s="40"/>
-      <c r="P67" s="40"/>
-      <c r="Q67" s="40"/>
-      <c r="R67" s="40"/>
-      <c r="S67" s="40"/>
-      <c r="T67" s="40"/>
-      <c r="U67" s="40"/>
-      <c r="V67" s="40"/>
-      <c r="W67" s="40"/>
-    </row>
-    <row r="68" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="N68" s="40"/>
-      <c r="O68" s="40"/>
-      <c r="P68" s="40"/>
-      <c r="Q68" s="40"/>
-      <c r="R68" s="40"/>
-      <c r="S68" s="40"/>
-      <c r="T68" s="40"/>
-      <c r="U68" s="40"/>
-      <c r="V68" s="40"/>
-      <c r="W68" s="40"/>
-    </row>
-    <row r="69" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="N69" s="40"/>
-      <c r="O69" s="40"/>
-      <c r="P69" s="40"/>
-      <c r="Q69" s="40"/>
-      <c r="R69" s="40"/>
-      <c r="S69" s="40"/>
-      <c r="T69" s="40"/>
-      <c r="U69" s="40"/>
-      <c r="V69" s="40"/>
-      <c r="W69" s="40"/>
-    </row>
-    <row r="70" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="N70" s="40"/>
-      <c r="O70" s="40"/>
-      <c r="P70" s="40"/>
-      <c r="Q70" s="40"/>
-      <c r="R70" s="40"/>
-      <c r="S70" s="40"/>
-      <c r="T70" s="40"/>
-      <c r="U70" s="40"/>
-      <c r="V70" s="40"/>
-      <c r="W70" s="40"/>
-    </row>
-    <row r="71" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="N71" s="40"/>
-      <c r="O71" s="40"/>
-      <c r="P71" s="40"/>
-      <c r="Q71" s="40"/>
-      <c r="R71" s="40"/>
-      <c r="S71" s="40"/>
-      <c r="T71" s="40"/>
-      <c r="U71" s="40"/>
-      <c r="V71" s="40"/>
-      <c r="W71" s="40"/>
-    </row>
-    <row r="72" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="N72" s="40"/>
-      <c r="O72" s="40"/>
-      <c r="P72" s="40"/>
-      <c r="Q72" s="40"/>
-      <c r="R72" s="40"/>
-      <c r="S72" s="40"/>
-      <c r="T72" s="40"/>
-      <c r="U72" s="40"/>
-      <c r="V72" s="40"/>
-      <c r="W72" s="40"/>
-    </row>
-    <row r="73" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="N73" s="40"/>
-      <c r="O73" s="40"/>
-      <c r="P73" s="40"/>
-      <c r="Q73" s="40"/>
-      <c r="R73" s="40"/>
-      <c r="S73" s="40"/>
-      <c r="T73" s="40"/>
-      <c r="U73" s="40"/>
-      <c r="V73" s="40"/>
-      <c r="W73" s="40"/>
-    </row>
-    <row r="74" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="N74" s="40"/>
-      <c r="O74" s="40"/>
-      <c r="P74" s="40"/>
-      <c r="Q74" s="40"/>
-      <c r="R74" s="40"/>
-      <c r="S74" s="40"/>
-      <c r="T74" s="40"/>
-      <c r="U74" s="40"/>
-      <c r="V74" s="40"/>
-      <c r="W74" s="40"/>
-    </row>
-    <row r="75" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="N75" s="40"/>
-      <c r="O75" s="40"/>
-      <c r="P75" s="40"/>
-      <c r="Q75" s="40"/>
-      <c r="R75" s="40"/>
-      <c r="S75" s="40"/>
-      <c r="T75" s="40"/>
-      <c r="U75" s="40"/>
-      <c r="V75" s="40"/>
-      <c r="W75" s="40"/>
-    </row>
-    <row r="76" spans="5:23" x14ac:dyDescent="0.25">
-      <c r="N76" s="40"/>
-      <c r="O76" s="40"/>
-      <c r="P76" s="40"/>
-      <c r="Q76" s="40"/>
-      <c r="R76" s="40"/>
-      <c r="S76" s="40"/>
-      <c r="T76" s="40"/>
-      <c r="U76" s="40"/>
-      <c r="V76" s="40"/>
-      <c r="W76" s="40"/>
+      <c r="J80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H81" s="35" t="s">
+        <v>3275</v>
+      </c>
+      <c r="I81" s="35"/>
+      <c r="J81">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H82" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="49"/>
+      <c r="J82" s="50">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="83" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="H83" s="37" t="s">
+        <v>3337</v>
+      </c>
+      <c r="I83" s="37"/>
+      <c r="J83" s="51">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="85" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E85" s="35" t="s">
+        <v>3513</v>
+      </c>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
+      <c r="I85" s="35"/>
+      <c r="J85" t="s">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="86" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E86" s="35" t="s">
+        <v>3515</v>
+      </c>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
+      <c r="I86" s="35"/>
+      <c r="J86" t="s">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="87" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E87" s="35" t="s">
+        <v>3517</v>
+      </c>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
+      <c r="I87" s="35"/>
+      <c r="J87" t="s">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="88" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E88" s="35" t="s">
+        <v>3519</v>
+      </c>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
+      <c r="I88" s="35"/>
+      <c r="J88" t="s">
+        <v>3520</v>
+      </c>
+    </row>
+    <row r="89" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E89" s="35" t="s">
+        <v>3522</v>
+      </c>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
+      <c r="I89" s="35"/>
+      <c r="J89" t="s">
+        <v>3521</v>
+      </c>
+    </row>
+    <row r="90" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E90" s="35" t="s">
+        <v>3523</v>
+      </c>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
+      <c r="I90" s="35"/>
+      <c r="J90" t="s">
+        <v>3524</v>
+      </c>
+    </row>
+    <row r="91" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E91" s="35" t="s">
+        <v>3525</v>
+      </c>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
+      <c r="I91" s="35"/>
+      <c r="J91" t="s">
+        <v>3526</v>
+      </c>
+    </row>
+    <row r="92" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E92" s="35" t="s">
+        <v>3527</v>
+      </c>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
+      <c r="I92" s="35"/>
+      <c r="J92" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="93" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E93" s="35" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
+      <c r="I93" s="35"/>
+      <c r="J93" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="94" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E94" s="35" t="s">
+        <v>3527</v>
+      </c>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
+      <c r="I94" s="35"/>
+      <c r="J94" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="95" spans="5:10" x14ac:dyDescent="0.25">
+      <c r="E95" s="35" t="s">
+        <v>3527</v>
+      </c>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+      <c r="I95" s="35"/>
+      <c r="J95" t="s">
+        <v>3528</v>
+      </c>
+    </row>
+    <row r="99" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H99" s="35" t="s">
+        <v>3587</v>
+      </c>
+      <c r="I99" s="35"/>
+      <c r="J99" t="s">
+        <v>3588</v>
+      </c>
+    </row>
+    <row r="100" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H100" s="35" t="s">
+        <v>3547</v>
+      </c>
+      <c r="I100" s="35"/>
+      <c r="J100" t="s">
+        <v>3586</v>
+      </c>
+    </row>
+    <row r="101" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H101" s="35" t="s">
+        <v>3548</v>
+      </c>
+      <c r="I101" s="35"/>
+      <c r="J101" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="102" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H102" s="48" t="s">
+        <v>3584</v>
+      </c>
+      <c r="I102" s="48"/>
+      <c r="J102" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="103" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H103" s="35" t="s">
+        <v>3553</v>
+      </c>
+      <c r="I103" s="35"/>
+      <c r="J103" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="104" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H104" s="35" t="s">
+        <v>3549</v>
+      </c>
+      <c r="I104" s="35"/>
+      <c r="J104" t="s">
+        <v>3592</v>
+      </c>
+    </row>
+    <row r="105" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H105" s="35" t="s">
+        <v>3561</v>
+      </c>
+      <c r="I105" s="35"/>
+      <c r="J105" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="106" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H106" s="35" t="s">
+        <v>3555</v>
+      </c>
+      <c r="I106" s="35"/>
+      <c r="J106" t="s">
+        <v>3590</v>
+      </c>
+    </row>
+    <row r="108" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H108" s="35" t="s">
+        <v>3614</v>
+      </c>
+      <c r="I108" s="35"/>
+      <c r="J108" t="s">
+        <v>3615</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="96">
+  <mergeCells count="129">
+    <mergeCell ref="H99:I99"/>
+    <mergeCell ref="H102:I102"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="H108:I108"/>
+    <mergeCell ref="H101:I101"/>
+    <mergeCell ref="H104:I104"/>
+    <mergeCell ref="H105:I105"/>
+    <mergeCell ref="H106:I106"/>
+    <mergeCell ref="E93:I93"/>
+    <mergeCell ref="E94:I94"/>
+    <mergeCell ref="E95:I95"/>
+    <mergeCell ref="H100:I100"/>
+    <mergeCell ref="H103:I103"/>
+    <mergeCell ref="E88:I88"/>
+    <mergeCell ref="E89:I89"/>
+    <mergeCell ref="E90:I90"/>
+    <mergeCell ref="E91:I91"/>
+    <mergeCell ref="E92:I92"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="E85:I85"/>
+    <mergeCell ref="E86:I86"/>
+    <mergeCell ref="E87:I87"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="H74:I74"/>
     <mergeCell ref="T76:W76"/>
     <mergeCell ref="T70:W70"/>
     <mergeCell ref="T71:W71"/>

--- a/cards.json.xlsx
+++ b/cards.json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\PC2\Facultate\Licenta\DuelMasters\IntelliJ\DuelMastersServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7337A57A-B6D2-417A-8E48-482A15838352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD66CD1-FCF2-42A4-B884-509CC97C570F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2865" yWindow="1395" windowWidth="21600" windowHeight="11505" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="1080" windowWidth="23310" windowHeight="12390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10584" uniqueCount="3664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10628" uniqueCount="3681">
   <si>
     <t>cards</t>
   </si>
@@ -10999,9 +10999,6 @@
     <t>Move to hand</t>
   </si>
   <si>
-    <t>Choose0(1, BZ2) + MTH</t>
-  </si>
-  <si>
     <t>Choose8(2, BZ1) + ?</t>
   </si>
   <si>
@@ -11032,240 +11029,24 @@
     <t>Choose11(1, MN0) + MTH</t>
   </si>
   <si>
-    <t>Choose0(1, DK0) + MTH + ?</t>
-  </si>
-  <si>
-    <t>Choose6(1, BZ1) + ?</t>
-  </si>
-  <si>
-    <t>Choose0(1, GV0) + MTH</t>
-  </si>
-  <si>
-    <t>Choose3(1, 4000, BZ1) + MTG</t>
-  </si>
-  <si>
     <t>Choose9(1, BZ0) + ?</t>
   </si>
   <si>
-    <t>Choose0(1, MZ1) + MTH</t>
-  </si>
-  <si>
-    <t>Choose0(1, MN0) + MTG + ?</t>
-  </si>
-  <si>
-    <t>Choose10(1, HD0) + ?</t>
-  </si>
-  <si>
-    <t>Choose10(1, DK0) + MTH</t>
-  </si>
-  <si>
     <t>Count???</t>
   </si>
   <si>
-    <t>Choose0(1, BZ0) + MTM</t>
-  </si>
-  <si>
-    <t>Choose10(3, HD0) + MTG</t>
-  </si>
-  <si>
-    <t>Choose6(2, BZ1) + MTG</t>
-  </si>
-  <si>
-    <t>Choose0(1, BZ0) + MTG + Choose0(1, MN0) + MTG + ?</t>
-  </si>
-  <si>
     <t>WTD</t>
   </si>
   <si>
-    <t>[Choose2(1, OBSIDIAN_SCARAB, MZ0) + MTBZ]</t>
-  </si>
-  <si>
-    <t>[Choose2(1, AMBUSH_SCORPION, MZ0) + MTBZ]</t>
-  </si>
-  <si>
-    <t>[Choose0(2, HD0) + MTG]</t>
-  </si>
-  <si>
-    <t>[MTS]</t>
-  </si>
-  <si>
-    <t>[MTM]</t>
-  </si>
-  <si>
-    <t>[MTD]</t>
-  </si>
-  <si>
-    <t>[Choose0(2, GV0) + MTH]</t>
-  </si>
-  <si>
-    <t>[Choose0(1, BZ2) + MTH]</t>
-  </si>
-  <si>
-    <t>[Choose0(2, BZ1] + ?]</t>
-  </si>
-  <si>
-    <t>[MTH + Choose0(1, HD0) + MTG]</t>
-  </si>
-  <si>
-    <t>[Choose0(1, MN0) + MTH + ?]</t>
-  </si>
-  <si>
-    <t>[Choose0(1, SD0) + MTG]</t>
-  </si>
-  <si>
-    <t>[Choose0(2, MN0) + MTG] ???</t>
-  </si>
-  <si>
-    <t>[Choose0(1, MN0) + MTG] ???</t>
-  </si>
-  <si>
-    <t>[Choose2(1, DRAGON, HD0) + MTBZ]</t>
-  </si>
-  <si>
-    <t>[Choose11(1, GV0) + MTH]</t>
-  </si>
-  <si>
-    <t>[Choose0(1, GV0) + MTH]</t>
-  </si>
-  <si>
     <t>[Choose10(HD0) + MTG]</t>
   </si>
   <si>
     <t>???</t>
   </si>
   <si>
-    <t>Choose6(1, BZ1) + MTG + OP{Choose10(1, HD0) + MTG)</t>
-  </si>
-  <si>
-    <t>Choose1(1, LIGTH/NATURE) + MTG</t>
-  </si>
-  <si>
-    <t>Choose11(1, MZ0 ) + MTH</t>
-  </si>
-  <si>
-    <t>Count0(MN0) + ?</t>
-  </si>
-  <si>
-    <t>Choose0(2, BZ1) + ?</t>
-  </si>
-  <si>
-    <t>Choose1(1, NATURE, DK0) + MTH + ?</t>
-  </si>
-  <si>
-    <t>Choose0(1, BZ1) + MTG</t>
-  </si>
-  <si>
-    <t>Choose3(1, 3000, BZ1) + MTG</t>
-  </si>
-  <si>
-    <t>Count2(SURVIVOR, BZ2) + ?</t>
-  </si>
-  <si>
-    <t>Choose0(2, HD0) + MTM</t>
-  </si>
-  <si>
-    <t>Choose10(1, HD0) + MTG ???</t>
-  </si>
-  <si>
-    <t>Choose11(1, DK0) + MTH + ?</t>
-  </si>
-  <si>
-    <t>Choose2(1, SURVIVOR, DK0) + MTH + ?</t>
-  </si>
-  <si>
-    <t>Choose2(1, SURVIVOR, GV0) + MTH</t>
-  </si>
-  <si>
-    <t>Choose0(2, BZ2) + MTH</t>
-  </si>
-  <si>
-    <t>Choose0(1, BZ1) + ?</t>
-  </si>
-  <si>
     <t>MTTD</t>
   </si>
   <si>
-    <t>Choose0(1, BZ1) + MTTD</t>
-  </si>
-  <si>
-    <t>Choose0(1, SD1) + MTG</t>
-  </si>
-  <si>
-    <t>Choose0(2, MN0) + MTG</t>
-  </si>
-  <si>
-    <t>Count0(HD0)</t>
-  </si>
-  <si>
-    <t>Choose0(1, BZ0) + MTG + OP{Choose0(1, BZ0) + MTG}</t>
-  </si>
-  <si>
-    <t>Choose0(1, BZ0) + MTG</t>
-  </si>
-  <si>
-    <t>Choose3(1, 3000, BZ0) + MTG</t>
-  </si>
-  <si>
-    <t>Count0(BZ0) + ?</t>
-  </si>
-  <si>
-    <t>Count0(SD0) + ?</t>
-  </si>
-  <si>
-    <t>Choose0(1, MN0) + MTG</t>
-  </si>
-  <si>
-    <t>Choose2(1, GIANT_INSECT, DK0) + MTH + ?</t>
-  </si>
-  <si>
-    <t>Choose2(1, WHISPERING_TOTEM, DK0) + MTH + ?</t>
-  </si>
-  <si>
-    <t>Choose2(1, ARMORED_DRAGON, DK0) + MTH + ?</t>
-  </si>
-  <si>
-    <t>Choose0(1, HD0) + MTS + Choose0(1, SD0) + MTH</t>
-  </si>
-  <si>
-    <t>Choose0(2, HD0) + MTS + Choose0(2, SD0) + MTH</t>
-  </si>
-  <si>
-    <t>Choose7(1, BZ1) + MTG</t>
-  </si>
-  <si>
-    <t>Choose3(1, 2000, BZ1) + MTG</t>
-  </si>
-  <si>
-    <t>Choose0(1, HD1) + MTS</t>
-  </si>
-  <si>
-    <t>Choose0(1, HD0) + MTM</t>
-  </si>
-  <si>
-    <t>Choose0(1, GV0) + MTM</t>
-  </si>
-  <si>
-    <t>Choose2(1, LIVING_DEAD, GV0) + MTH</t>
-  </si>
-  <si>
-    <t>Choose11(1, GV0) + MTH</t>
-  </si>
-  <si>
-    <t>OP{Choose0(1, BZ0) + MTM}</t>
-  </si>
-  <si>
-    <t>OP{Choose0(2, HD0) + MTBZ}</t>
-  </si>
-  <si>
-    <t>Count1(DARKNESS, BZ0) + OP{Choose10(1, HD0) + MTG}</t>
-  </si>
-  <si>
-    <t>OP{Choose0(1, HD0) + MTG}</t>
-  </si>
-  <si>
-    <t>OP{Choose0(1, HD0) + MTBZ}</t>
-  </si>
-  <si>
     <t>OP{Choose0(1, BZ2) + MTH} + ?</t>
   </si>
   <si>
@@ -11320,9 +11101,6 @@
     <t>Get0(HD1)</t>
   </si>
   <si>
-    <t>[Choose0(1, MN0) + MTG]</t>
-  </si>
-  <si>
     <t>All cards from your mana zone</t>
   </si>
   <si>
@@ -11344,36 +11122,6 @@
     <t>Count1(WATER, MN0) + ?</t>
   </si>
   <si>
-    <t>[MTH]</t>
-  </si>
-  <si>
-    <t>[Get0(BZ2) + MTG]</t>
-  </si>
-  <si>
-    <t>[Get3(4000) + MTG]</t>
-  </si>
-  <si>
-    <t>[Get3(3000) + MTG]</t>
-  </si>
-  <si>
-    <t>[Get0(HD2) + MTG]</t>
-  </si>
-  <si>
-    <t>[Count2(DRAGON, MN0) + ?</t>
-  </si>
-  <si>
-    <t>[Choose0(1, BZ1) + MTG]</t>
-  </si>
-  <si>
-    <t>Get0(MN0) + MTH + Get0(HD0) + MTM</t>
-  </si>
-  <si>
-    <t>Get3(2000, BZ2) + MTG</t>
-  </si>
-  <si>
-    <t>Count2(EARTH_EATER, BZ0)  + ? + Count2(GIANT, BZ0) + ?</t>
-  </si>
-  <si>
     <t>Give power</t>
   </si>
   <si>
@@ -11383,12 +11131,6 @@
     <t>Current/selected card</t>
   </si>
   <si>
-    <t>Get1(DARKNESS, BZ2) + MTG + Get1(~DARKNESS, MN2) + MTG</t>
-  </si>
-  <si>
-    <t>Get1(DARKNESS, BZ2) + MTG</t>
-  </si>
-  <si>
     <t>Top of deck - x cards</t>
   </si>
   <si>
@@ -11401,72 +11143,12 @@
     <t>Tap/Untap</t>
   </si>
   <si>
-    <t>Get6(BZ1) + ?</t>
-  </si>
-  <si>
-    <t>Get5(1000, BZ2) + MTG</t>
-  </si>
-  <si>
-    <t>Get6(BZ2) + MTG</t>
-  </si>
-  <si>
-    <t>Get3(3000, BZ2) + MTG</t>
-  </si>
-  <si>
-    <t>Get3(4000, LIGHT, BZ2) + MTG</t>
-  </si>
-  <si>
     <t>Other creatures (not current/selected)</t>
   </si>
   <si>
     <t>Count2(BUBBLE_LAMP, GV0) + ?</t>
   </si>
   <si>
-    <t>Count2(CYBER_LORD, BZ0) + ?</t>
-  </si>
-  <si>
-    <t>Count2(HUSTLE_BALL_TRIBE, GV0) + ?</t>
-  </si>
-  <si>
-    <t>Count0(SD1) + ? + Get3(1, 1000, BZ1) + MTG</t>
-  </si>
-  <si>
-    <t>Count0(SD1) + ? + ?</t>
-  </si>
-  <si>
-    <t>Count0(SD1) + ? + Choose10(1, HD1) + MTG</t>
-  </si>
-  <si>
-    <t>Count0(MN1) + Count0(MN0) + ? + ?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Count0(BZ1) + Count0(BZ0) + ? + ? </t>
-  </si>
-  <si>
-    <t>Choose0(1, HD1) + MTM + Choose0(1, MN1) + MTH</t>
-  </si>
-  <si>
-    <t>Get11(HD1, DARKNESS) + Get11(HD1, FIRE) + MTG</t>
-  </si>
-  <si>
-    <t>Get0(HD0) + Count0(HD0) + MTM + ?</t>
-  </si>
-  <si>
-    <t>Using number</t>
-  </si>
-  <si>
-    <t>Get0(SD0) + MTH</t>
-  </si>
-  <si>
-    <t>Count9(LIGHT, MN0) + Choose1(LIGHT, BZ0) + ?</t>
-  </si>
-  <si>
-    <t>Get2(ANGEL_COMMAND, GV0) + Get2(DEMON_COMMAND, GV0) + MTH + ?</t>
-  </si>
-  <si>
-    <t>Get2(DRAGON, GV0) + MTH</t>
-  </si>
-  <si>
     <t>$tap choose one of your opponent's creatures in the battle zone and tap it .</t>
   </si>
   <si>
@@ -11723,6 +11405,375 @@
   </si>
   <si>
     <t>Compare</t>
+  </si>
+  <si>
+    <t>[SEL:MTH]</t>
+  </si>
+  <si>
+    <t>[Get0(BZ2) + SEL:MTG]</t>
+  </si>
+  <si>
+    <t>[Get3(4000) + SEL:MTG]</t>
+  </si>
+  <si>
+    <t>[Choose2(1, OBSIDIAN_SCARAB, MZ0) + SEL:MTBZ]</t>
+  </si>
+  <si>
+    <t>[Choose2(1, AMBUSH_SCORPION, MZ0) + SEL:MTBZ]</t>
+  </si>
+  <si>
+    <t>[OP{Choose0(2, HD0) + SEL:MTG}]</t>
+  </si>
+  <si>
+    <t>[SEL:MTS]</t>
+  </si>
+  <si>
+    <t>[SEL:MTM]</t>
+  </si>
+  <si>
+    <t>[Choose0(2, GV0) + SEL:MTH]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, BZ2) + SEL:MTH]</t>
+  </si>
+  <si>
+    <t>[Choose0(2, BZ1] + SEL:TAP]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, BZ0) + SEL:TAP]</t>
+  </si>
+  <si>
+    <t>[SEL:MTD]</t>
+  </si>
+  <si>
+    <t>[SEL:MTH + Choose0(1, HD0) + SEL:MTG]</t>
+  </si>
+  <si>
+    <t>Optional</t>
+  </si>
+  <si>
+    <t>[Choose0(1, MN0) + SEL:MTH + Get12(1) + SEL:MTM]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, SD0) + SEL:MTG]</t>
+  </si>
+  <si>
+    <t>[Get3(3000) + SEL:MTG]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, MN0) + SEL:MTG]</t>
+  </si>
+  <si>
+    <t>[Choose0(2, MN0) + SEL:MTG + OP{Choose0(2, MN0) + SEL:MTG}]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, MN0) + SEL:MTG + OP{Choose0(1, MN0) + SEL:MTG}]</t>
+  </si>
+  <si>
+    <t>[Get0(HD2) + SEL:MTG + OP{Get0(HD2) + SEL:MTG}]</t>
+  </si>
+  <si>
+    <t>Replacement</t>
+  </si>
+  <si>
+    <t>[Count2(DRAGON, MN0) + ? + SEL0:MTM + SEL:MTBZ]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, BZ1) + SEL:MTG]</t>
+  </si>
+  <si>
+    <t>[Choose2(1, DRAGON, HD0) + SEL:MTBZ]</t>
+  </si>
+  <si>
+    <t>[Choose11(1, GV0) + SEL:MTH]</t>
+  </si>
+  <si>
+    <t>[Choose0(1, GV0) + SEL:MTH]</t>
+  </si>
+  <si>
+    <t>Shield trigger class</t>
+  </si>
+  <si>
+    <t>Get0(MN0) + SEL:MTH + Get0(HD0) + SEL:{MTM, TAP}</t>
+  </si>
+  <si>
+    <t>Choose10(1, DK0) + SEL:MTH + ?</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ1) + SEL:TAP</t>
+  </si>
+  <si>
+    <t>Get3(2000, BZ2) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose6(2, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Get12(1) + SEL:MTM + Choose0(1, MN0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>OP{Choose0(1, BZ0) + SEL:MTM}</t>
+  </si>
+  <si>
+    <t>OP{Choose10(3, HD0) + SEL:MTG}</t>
+  </si>
+  <si>
+    <t>Count2(EARTH_EATER, BZ0) + DRAW(SEL) + Count2(GIANT, BZ0) + DRAW(SEL)</t>
+  </si>
+  <si>
+    <t>Get12(1) + SEL:MTS + Look(1, SD1)</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:MTG + Choose0(1, MN0) + SEL:MTG + OP{Choose0(1, BZ0) + SEL:MTG + Choose0(1, MN0) + SEL:MTG}</t>
+  </si>
+  <si>
+    <t>Choose6(1, BZ1) + SEL:MTG + OP{Choose10(1, HD0) + SEL:MTG)</t>
+  </si>
+  <si>
+    <t>Look(1, SD1) + Choose10(1, HD0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Get12(1) + SEL:MTM + Get12(1) + SEL:MTS</t>
+  </si>
+  <si>
+    <t>Choose6(1, BZ1) + SEL:MTG + Get12(1) + SEL:MTM</t>
+  </si>
+  <si>
+    <t>Look(SD0)</t>
+  </si>
+  <si>
+    <t>Look(SD1)</t>
+  </si>
+  <si>
+    <t>Choose1(1, LIGTH/NATURE) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose11(1, MZ0 ) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Get12(1) + SEL:MTS</t>
+  </si>
+  <si>
+    <t>Choose0(2, BZ1) + SEL:TAP</t>
+  </si>
+  <si>
+    <t>Get1(DARKNESS, BZ2) + SEL:MTG + Get1(~DARKNESS, MN2) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Get1(DARKNESS, BZ2) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Count0(MN0) + DRAW(SEL)</t>
+  </si>
+  <si>
+    <t>DRAW(3)</t>
+  </si>
+  <si>
+    <t>Get12(2) + SEL:MTM + Choose0(1, MN0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Get12(2) + SEL:MTM</t>
+  </si>
+  <si>
+    <t>Choose1(1, NATURE, DK0) + SEL:{MTH, SHOW} + ?</t>
+  </si>
+  <si>
+    <t>Get6(BZ1) + SEL:TAP</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose3(1, 3000, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Count2(SURVIVOR, BZ2) + DRAW(SEL)</t>
+  </si>
+  <si>
+    <t>Get5(1000, BZ2) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose0(2, HD0) + SEL:MTM</t>
+  </si>
+  <si>
+    <t>Choose2(1, SURVIVOR, DK0) + SEL:{MTH, SHOW} + ?</t>
+  </si>
+  <si>
+    <t>Choose2(1, SURVIVOR, GV0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose0(2, BZ2) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ1) + SEL:MTTD</t>
+  </si>
+  <si>
+    <t>Choose0(1, SD1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose0(2, MN0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Count0(HD0) + SEL:MTD + Draw(SEL)</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:MTG + OP{Choose0(1, BZ0) + SEL:MTG}</t>
+  </si>
+  <si>
+    <t>Get6(BZ2) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Get3(3000, BZ2) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Get3(4000, LIGHT, BZ2) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Get0(BZ0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose3(1, 3000, BZ0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Get0(HD0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>DRAW(2) + Choose0(2, HD0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>DRAW(2)</t>
+  </si>
+  <si>
+    <t>Count0(BZ0) + Look(SEL, SD0) + ?</t>
+  </si>
+  <si>
+    <t>Shield face up</t>
+  </si>
+  <si>
+    <t>Count0(SD0) + ? + Get12(1) + SEL:MTS</t>
+  </si>
+  <si>
+    <t>Count2(CYBER_LORD, BZ0) + DRAW(3)</t>
+  </si>
+  <si>
+    <t>Count2(HUSTLE_BALL_TRIBE, GV0) + Get12(1) + SEL:MTM</t>
+  </si>
+  <si>
+    <t>Count0(SD1) + ? + Get3(1, 1000, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Count0(SD1) + ? + Choose10(1, HD1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Count0(MN1) + Count0(MN0) + ? + Get12(1) + SEL:MTM</t>
+  </si>
+  <si>
+    <t>Count0(BZ1) + Count0(BZ0) + ? + DRAW(?) + SEL:{MTH, SHOW} + ?</t>
+  </si>
+  <si>
+    <t>Compare, Shuffle</t>
+  </si>
+  <si>
+    <t>Look(1, TD1)</t>
+  </si>
+  <si>
+    <t>Look(5, TD0) + ?</t>
+  </si>
+  <si>
+    <t>Any order</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD1) + SEL:MTM + Choose0(1, MN1) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Get11(HD1, DARKNESS) + Get11(HD1, FIRE) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Look(HD1)</t>
+  </si>
+  <si>
+    <t>Choose0(1, MN0) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Get0(HD0) + Count0(HD0) + SEL:MTM + Choose0(SEL1, MN0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Count0(SD1) + ? + DRAW(3)</t>
+  </si>
+  <si>
+    <t>Get0(SD0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose0(1, DK0) + SEL:{MTH, SHOW} + ?</t>
+  </si>
+  <si>
+    <t>Choose2(1, GIANT_INSECT, DK0) + SEL:{MTH, SHOW} + ?</t>
+  </si>
+  <si>
+    <t>Choose2(1, WHISPERING_TOTEM, DK0) + SEL:{MTH, SHOW} + ?</t>
+  </si>
+  <si>
+    <t>Choose2(1, ARMORED_DRAGON, DK0) + SEL:{MTH, SHOW} + ?</t>
+  </si>
+  <si>
+    <t>Count9(LIGHT, MN0) + Choose1(SEL1, LIGHT, BZ1) + SEL:TAP</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD0) + SEL:MTS + Choose0(1, SD0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose0(2, HD0) + SEL:MTS + Choose0(2, SD0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose7(1, BZ1) + SEL:MTG</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD1) + SEL:MTS</t>
+  </si>
+  <si>
+    <t>Choose0(1, HD0) + SEL:MTM</t>
+  </si>
+  <si>
+    <t>Choose0(1, GV0) + SEL:MTM</t>
+  </si>
+  <si>
+    <t>Choose2(1, LIVING_DEAD, GV0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Choose11(1, GV0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Get2(ANGEL_COMMAND, GV0) + Get2(DEMON_COMMAND, GV0) + SEL:MTH + Get2(ANGEL_COMMAND, BZ0) + Get2(DEMON_COMMAND) + SEL:Give(TCCG2000, EOT)</t>
+  </si>
+  <si>
+    <t>Get2(DRAGON, GV0) + SEL:MTH</t>
+  </si>
+  <si>
+    <t>Get12(3) + Choose1(LIGHT/DARKNESS, SEL) + SEL:MTH + ?</t>
+  </si>
+  <si>
+    <t>Rest</t>
+  </si>
+  <si>
+    <t>OP{Choose0(2, HD0) + SEL:MTBZ}</t>
+  </si>
+  <si>
+    <t>Count1(DARKNESS, BZ0) + OP{Choose10(SEL, HD0) + SEL:MTG}</t>
+  </si>
+  <si>
+    <t>OP{Choose0(1, HD0) + SEL:MTBZ}</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>39 DONE</t>
+  </si>
+  <si>
+    <t>26 DONE</t>
+  </si>
+  <si>
+    <t>82 DONE</t>
   </si>
 </sst>
 </file>
@@ -11958,7 +12009,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -12019,6 +12070,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -47988,8 +48040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F3F974-4C98-45F8-96F5-103C5419490D}">
   <dimension ref="A3:H376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D172" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G186" sqref="G186"/>
+    <sheetView tabSelected="1" topLeftCell="E359" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G375" sqref="G375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47999,8 +48051,8 @@
     <col min="3" max="3" width="142.5703125" customWidth="1"/>
     <col min="5" max="5" width="15.5703125" customWidth="1"/>
     <col min="6" max="6" width="108.7109375" customWidth="1"/>
-    <col min="7" max="7" width="47" customWidth="1"/>
-    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="69.7109375" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
@@ -48601,7 +48653,7 @@
         <v>2103</v>
       </c>
       <c r="G76" s="33" t="s">
-        <v>3591</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -48618,7 +48670,7 @@
         <v>2104</v>
       </c>
       <c r="G77" s="33" t="s">
-        <v>3594</v>
+        <v>3488</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -48638,7 +48690,7 @@
         <v>2105</v>
       </c>
       <c r="G78" s="33" t="s">
-        <v>3595</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
@@ -48655,7 +48707,7 @@
         <v>2106</v>
       </c>
       <c r="G79" s="33" t="s">
-        <v>3596</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
@@ -48672,7 +48724,7 @@
         <v>2107</v>
       </c>
       <c r="G80" s="33" t="s">
-        <v>3597</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
@@ -48692,7 +48744,7 @@
         <v>2115</v>
       </c>
       <c r="G81" s="33" t="s">
-        <v>3623</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -48708,11 +48760,11 @@
       <c r="E82" s="4" t="s">
         <v>2154</v>
       </c>
-      <c r="F82" s="45" t="s">
+      <c r="F82" s="46" t="s">
         <v>2116</v>
       </c>
-      <c r="G82" s="46" t="s">
-        <v>3423</v>
+      <c r="G82" s="47" t="s">
+        <v>3422</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
@@ -48729,7 +48781,7 @@
         <v>2117</v>
       </c>
       <c r="G83" s="33" t="s">
-        <v>3598</v>
+        <v>3492</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
@@ -48746,7 +48798,7 @@
         <v>2118</v>
       </c>
       <c r="G84" s="33" t="s">
-        <v>3599</v>
+        <v>3493</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
@@ -48763,7 +48815,7 @@
         <v>2119</v>
       </c>
       <c r="G85" s="34" t="s">
-        <v>3425</v>
+        <v>3424</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
@@ -48777,8 +48829,8 @@
       <c r="F86" t="s">
         <v>2120</v>
       </c>
-      <c r="G86" s="44" t="s">
-        <v>3600</v>
+      <c r="G86" s="45" t="s">
+        <v>3494</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
@@ -48788,10 +48840,10 @@
         <v>2159</v>
       </c>
       <c r="F87" t="s">
-        <v>3578</v>
+        <v>3472</v>
       </c>
       <c r="G87" s="33" t="s">
-        <v>3601</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
@@ -48804,7 +48856,7 @@
         <v>2121</v>
       </c>
       <c r="G88" s="33" t="s">
-        <v>3602</v>
+        <v>3496</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
@@ -48817,7 +48869,7 @@
         <v>2106</v>
       </c>
       <c r="G89" s="33" t="s">
-        <v>3596</v>
+        <v>3490</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
@@ -48830,7 +48882,7 @@
         <v>2105</v>
       </c>
       <c r="G90" s="33" t="s">
-        <v>3595</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
@@ -48906,7 +48958,7 @@
         <v>2127</v>
       </c>
       <c r="G96" s="33" t="s">
-        <v>3603</v>
+        <v>3497</v>
       </c>
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.25">
@@ -48916,10 +48968,10 @@
         <v>2169</v>
       </c>
       <c r="F97" t="s">
-        <v>3578</v>
+        <v>3472</v>
       </c>
       <c r="G97" s="33" t="s">
-        <v>3601</v>
+        <v>3495</v>
       </c>
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.25">
@@ -48954,7 +49006,7 @@
         <v>2130</v>
       </c>
       <c r="G100" s="33" t="s">
-        <v>3604</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.25">
@@ -48967,7 +49019,7 @@
         <v>2131</v>
       </c>
       <c r="G101" s="33" t="s">
-        <v>3605</v>
+        <v>3499</v>
       </c>
     </row>
     <row r="102" spans="2:7" x14ac:dyDescent="0.25">
@@ -48991,7 +49043,7 @@
         <v>2107</v>
       </c>
       <c r="G103" s="33" t="s">
-        <v>3597</v>
+        <v>3491</v>
       </c>
     </row>
     <row r="104" spans="2:7" x14ac:dyDescent="0.25">
@@ -49004,7 +49056,7 @@
         <v>2133</v>
       </c>
       <c r="G104" s="33" t="s">
-        <v>3606</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="105" spans="2:7" x14ac:dyDescent="0.25">
@@ -49017,7 +49069,7 @@
         <v>2134</v>
       </c>
       <c r="G105" s="33" t="s">
-        <v>3607</v>
+        <v>3501</v>
       </c>
     </row>
     <row r="106" spans="2:7" x14ac:dyDescent="0.25">
@@ -49030,7 +49082,7 @@
         <v>2135</v>
       </c>
       <c r="G106" s="33" t="s">
-        <v>3608</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="107" spans="2:7" x14ac:dyDescent="0.25">
@@ -49043,7 +49095,7 @@
         <v>2136</v>
       </c>
       <c r="G107" s="33" t="s">
-        <v>3609</v>
+        <v>3503</v>
       </c>
     </row>
     <row r="108" spans="2:7" x14ac:dyDescent="0.25">
@@ -49056,7 +49108,7 @@
         <v>2137</v>
       </c>
       <c r="G108" s="33" t="s">
-        <v>3610</v>
+        <v>3504</v>
       </c>
     </row>
     <row r="109" spans="2:7" x14ac:dyDescent="0.25">
@@ -49069,7 +49121,7 @@
         <v>2138</v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>3611</v>
+        <v>3505</v>
       </c>
     </row>
     <row r="110" spans="2:7" x14ac:dyDescent="0.25">
@@ -49082,7 +49134,7 @@
         <v>2139</v>
       </c>
       <c r="G110" s="33" t="s">
-        <v>3612</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="111" spans="2:7" x14ac:dyDescent="0.25">
@@ -49095,7 +49147,7 @@
         <v>2140</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>3613</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="112" spans="2:7" x14ac:dyDescent="0.25">
@@ -49108,10 +49160,10 @@
         <v>2141</v>
       </c>
       <c r="G112" s="33" t="s">
-        <v>3428</v>
-      </c>
-    </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
       <c r="E113" s="4" t="s">
@@ -49121,10 +49173,10 @@
         <v>2142</v>
       </c>
       <c r="G113" s="33" t="s">
-        <v>3429</v>
-      </c>
-    </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3428</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
       <c r="E114" s="4" t="s">
@@ -49134,10 +49186,10 @@
         <v>2143</v>
       </c>
       <c r="G114" s="33" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3429</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E115" s="4" t="s">
         <v>2187</v>
       </c>
@@ -49145,10 +49197,10 @@
         <v>2144</v>
       </c>
       <c r="G115" s="33" t="s">
-        <v>3431</v>
-      </c>
-    </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3430</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E116" s="4" t="s">
         <v>2188</v>
       </c>
@@ -49156,10 +49208,10 @@
         <v>2145</v>
       </c>
       <c r="G116" s="33" t="s">
-        <v>3432</v>
-      </c>
-    </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3431</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
         <v>1830</v>
       </c>
@@ -49173,10 +49225,10 @@
         <v>2146</v>
       </c>
       <c r="G117" s="33" t="s">
-        <v>3533</v>
-      </c>
-    </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3459</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
         <v>1866</v>
       </c>
@@ -49190,10 +49242,10 @@
         <v>2147</v>
       </c>
       <c r="G118" s="33" t="s">
-        <v>3616</v>
-      </c>
-    </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3510</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E119" s="4" t="s">
         <v>2191</v>
       </c>
@@ -49201,10 +49253,10 @@
         <v>2148</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>3617</v>
-      </c>
-    </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3511</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B120" s="7" t="s">
         <v>1872</v>
       </c>
@@ -49218,10 +49270,10 @@
         <v>2149</v>
       </c>
       <c r="G120" s="34" t="s">
-        <v>3534</v>
-      </c>
-    </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B121" s="7" t="s">
         <v>1874</v>
       </c>
@@ -49235,10 +49287,13 @@
         <v>2150</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>3618</v>
-      </c>
-    </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3512</v>
+      </c>
+      <c r="H121" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B122" s="7" t="s">
         <v>1875</v>
       </c>
@@ -49252,10 +49307,10 @@
         <v>2151</v>
       </c>
       <c r="G122" s="33" t="s">
-        <v>3619</v>
-      </c>
-    </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3513</v>
+      </c>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B123" s="7" t="s">
         <v>1876</v>
       </c>
@@ -49269,10 +49324,10 @@
         <v>2152</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>3620</v>
-      </c>
-    </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3514</v>
+      </c>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B124" s="7" t="s">
         <v>1897</v>
       </c>
@@ -49286,10 +49341,10 @@
         <v>2127</v>
       </c>
       <c r="G124" s="33" t="s">
-        <v>3603</v>
-      </c>
-    </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3497</v>
+      </c>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
         <v>1898</v>
       </c>
@@ -49303,10 +49358,10 @@
         <v>2153</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>3621</v>
-      </c>
-    </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B126" s="7" t="s">
         <v>1899</v>
       </c>
@@ -49320,15 +49375,18 @@
         <v>2204</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>3622</v>
-      </c>
-    </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="127" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B127" s="7" t="s">
         <v>1900</v>
       </c>
       <c r="C127" s="7" t="s">
         <v>1905</v>
+      </c>
+      <c r="H127" t="s">
+        <v>3678</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -49361,7 +49419,7 @@
         <v>1303</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>3624</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -49372,7 +49430,7 @@
         <v>1306</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>3625</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
@@ -49389,7 +49447,7 @@
         <v>1311</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>3626</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
@@ -49406,7 +49464,7 @@
         <v>2323</v>
       </c>
       <c r="G135" s="33" t="s">
-        <v>3466</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="136" spans="2:7" x14ac:dyDescent="0.25">
@@ -49423,7 +49481,7 @@
         <v>2325</v>
       </c>
       <c r="G136" s="33" t="s">
-        <v>3591</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="137" spans="2:7" x14ac:dyDescent="0.25">
@@ -49440,7 +49498,7 @@
         <v>1327</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>3627</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
@@ -49457,7 +49515,7 @@
         <v>2328</v>
       </c>
       <c r="G138" s="33" t="s">
-        <v>3466</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="139" spans="2:7" x14ac:dyDescent="0.25">
@@ -49474,7 +49532,7 @@
         <v>2330</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>3628</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
@@ -49491,7 +49549,7 @@
         <v>2331</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>3629</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
@@ -49532,18 +49590,18 @@
         <v>2337</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>3630</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E144" s="5" t="s">
         <v>2279</v>
       </c>
-      <c r="F144" s="46" t="s">
+      <c r="F144" s="47" t="s">
         <v>2338</v>
       </c>
-      <c r="G144" s="46" t="s">
-        <v>3631</v>
+      <c r="G144" s="47" t="s">
+        <v>3525</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
@@ -49560,7 +49618,7 @@
         <v>2340</v>
       </c>
       <c r="G145" s="33" t="s">
-        <v>3632</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
@@ -49577,7 +49635,7 @@
         <v>2342</v>
       </c>
       <c r="G146" s="33" t="s">
-        <v>3633</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
@@ -49594,7 +49652,7 @@
         <v>2344</v>
       </c>
       <c r="G147" s="33" t="s">
-        <v>3466</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="148" spans="2:7" x14ac:dyDescent="0.25">
@@ -49611,7 +49669,7 @@
         <v>2346</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>3634</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
@@ -49628,7 +49686,7 @@
         <v>2348</v>
       </c>
       <c r="G149" s="33" t="s">
-        <v>3466</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="150" spans="2:7" x14ac:dyDescent="0.25">
@@ -49645,7 +49703,7 @@
         <v>2349</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>3635</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
@@ -49656,7 +49714,7 @@
         <v>2350</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>3636</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
@@ -49667,7 +49725,7 @@
         <v>2352</v>
       </c>
       <c r="G152" s="33" t="s">
-        <v>3466</v>
+        <v>3436</v>
       </c>
     </row>
     <row r="153" spans="2:7" x14ac:dyDescent="0.25">
@@ -49684,7 +49742,7 @@
         <v>2353</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>3637</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
@@ -49695,7 +49753,7 @@
         <v>2355</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>3638</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
@@ -49706,7 +49764,7 @@
         <v>2356</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>3639</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
@@ -49717,7 +49775,7 @@
         <v>2357</v>
       </c>
       <c r="G156" s="33" t="s">
-        <v>3640</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
@@ -49728,7 +49786,7 @@
         <v>1507</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>3641</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
@@ -49739,18 +49797,18 @@
         <v>1485</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>3642</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
       <c r="E159" s="5" t="s">
         <v>2294</v>
       </c>
-      <c r="F159" s="46" t="s">
+      <c r="F159" s="47" t="s">
         <v>1554</v>
       </c>
-      <c r="G159" s="46" t="s">
-        <v>3437</v>
+      <c r="G159" s="47" t="s">
+        <v>3432</v>
       </c>
     </row>
     <row r="160" spans="2:7" x14ac:dyDescent="0.25">
@@ -49761,7 +49819,7 @@
         <v>1551</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>3643</v>
+        <v>3537</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
@@ -49772,7 +49830,10 @@
         <v>2363</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>3644</v>
+        <v>3538</v>
+      </c>
+      <c r="H161" t="s">
+        <v>3586</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -49783,7 +49844,7 @@
         <v>2365</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>3645</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
@@ -49794,7 +49855,7 @@
         <v>1472</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>3646</v>
+        <v>3540</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
@@ -49805,7 +49866,7 @@
         <v>1522</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>3633</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
@@ -49816,10 +49877,10 @@
         <v>1443</v>
       </c>
       <c r="G165" s="33" t="s">
-        <v>3647</v>
+        <v>3541</v>
       </c>
       <c r="H165" t="s">
-        <v>3648</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
@@ -49830,10 +49891,10 @@
         <v>1436</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>3649</v>
+        <v>3543</v>
       </c>
       <c r="H166" t="s">
-        <v>3648</v>
+        <v>3542</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
@@ -49844,7 +49905,7 @@
         <v>1539</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>3650</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
@@ -49861,7 +49922,7 @@
         <v>1435</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>3651</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
@@ -49878,7 +49939,7 @@
         <v>1400</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>3652</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
@@ -49895,7 +49956,7 @@
         <v>1548</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>3653</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
@@ -49912,7 +49973,7 @@
         <v>2375</v>
       </c>
       <c r="G171" s="33" t="s">
-        <v>3622</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
@@ -49929,7 +49990,7 @@
         <v>1476</v>
       </c>
       <c r="G172" s="33" t="s">
-        <v>3604</v>
+        <v>3498</v>
       </c>
     </row>
     <row r="173" spans="2:8" x14ac:dyDescent="0.25">
@@ -49946,7 +50007,7 @@
         <v>1563</v>
       </c>
       <c r="G173" s="33" t="s">
-        <v>3654</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
@@ -49963,7 +50024,7 @@
         <v>1493</v>
       </c>
       <c r="G174" s="33" t="s">
-        <v>3655</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
@@ -49980,7 +50041,7 @@
         <v>1366</v>
       </c>
       <c r="G175" s="33" t="s">
-        <v>3656</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
@@ -49997,7 +50058,7 @@
         <v>1444</v>
       </c>
       <c r="G176" s="33" t="s">
-        <v>3657</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
@@ -50014,7 +50075,7 @@
         <v>1389</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>3658</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
@@ -50031,7 +50092,7 @@
         <v>1502</v>
       </c>
       <c r="G178" s="33" t="s">
-        <v>3659</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
@@ -50048,7 +50109,7 @@
         <v>1534</v>
       </c>
       <c r="G179" s="33" t="s">
-        <v>3613</v>
+        <v>3507</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
@@ -50065,7 +50126,7 @@
         <v>1397</v>
       </c>
       <c r="G180" s="33" t="s">
-        <v>3660</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
@@ -50082,7 +50143,7 @@
         <v>1508</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>3661</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
@@ -50099,7 +50160,7 @@
         <v>1369</v>
       </c>
       <c r="G182" s="33" t="s">
-        <v>3662</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
@@ -50116,10 +50177,10 @@
         <v>2387</v>
       </c>
       <c r="G183" s="33" t="s">
-        <v>3535</v>
+        <v>3461</v>
       </c>
       <c r="H183" t="s">
-        <v>3663</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
@@ -50136,10 +50197,10 @@
         <v>2942</v>
       </c>
       <c r="G184" s="33" t="s">
-        <v>3536</v>
+        <v>3462</v>
       </c>
       <c r="H184" t="s">
-        <v>3663</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
@@ -50149,6 +50210,9 @@
       <c r="C185" s="12" t="s">
         <v>2903</v>
       </c>
+      <c r="H185" t="s">
+        <v>3678</v>
+      </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B186" s="12" t="s">
@@ -50166,7 +50230,7 @@
         <v>2907</v>
       </c>
       <c r="G187" t="s">
-        <v>3447</v>
+        <v>3434</v>
       </c>
     </row>
     <row r="188" spans="2:8" x14ac:dyDescent="0.25">
@@ -50183,7 +50247,7 @@
         <v>2403</v>
       </c>
       <c r="G188" s="33" t="s">
-        <v>3537</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
@@ -50200,7 +50264,7 @@
         <v>2414</v>
       </c>
       <c r="G189" s="33" t="s">
-        <v>3538</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
@@ -50211,7 +50275,7 @@
         <v>2444</v>
       </c>
       <c r="G190" s="33" t="s">
-        <v>3539</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
@@ -50228,7 +50292,7 @@
         <v>2446</v>
       </c>
       <c r="G191" s="33" t="s">
-        <v>3448</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
@@ -50245,10 +50309,10 @@
         <v>2449</v>
       </c>
       <c r="G192" s="33" t="s">
-        <v>3449</v>
-      </c>
-    </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3562</v>
+      </c>
+    </row>
+    <row r="193" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B193" t="s">
         <v>1976</v>
       </c>
@@ -50263,7 +50327,7 @@
       </c>
       <c r="G193" s="34"/>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B194" t="s">
         <v>1987</v>
       </c>
@@ -50277,10 +50341,10 @@
         <v>2452</v>
       </c>
       <c r="G194" s="33" t="s">
-        <v>3450</v>
-      </c>
-    </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3563</v>
+      </c>
+    </row>
+    <row r="195" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B195" t="s">
         <v>1990</v>
       </c>
@@ -50294,10 +50358,10 @@
         <v>2407</v>
       </c>
       <c r="G195" s="33" t="s">
-        <v>3451</v>
-      </c>
-    </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="196" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B196" t="s">
         <v>1991</v>
       </c>
@@ -50311,10 +50375,10 @@
         <v>2404</v>
       </c>
       <c r="G196" s="33" t="s">
-        <v>3452</v>
-      </c>
-    </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="197" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B197" t="s">
         <v>1995</v>
       </c>
@@ -50328,10 +50392,10 @@
         <v>2458</v>
       </c>
       <c r="G197" s="33" t="s">
-        <v>3454</v>
-      </c>
-    </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3566</v>
+      </c>
+    </row>
+    <row r="198" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E198" s="15" t="s">
         <v>2424</v>
       </c>
@@ -50339,10 +50403,10 @@
         <v>2459</v>
       </c>
       <c r="G198" s="33" t="s">
-        <v>3455</v>
-      </c>
-    </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3567</v>
+      </c>
+    </row>
+    <row r="199" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E199" s="15" t="s">
         <v>2425</v>
       </c>
@@ -50350,10 +50414,10 @@
         <v>2461</v>
       </c>
       <c r="G199" s="33" t="s">
-        <v>3456</v>
-      </c>
-    </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3568</v>
+      </c>
+    </row>
+    <row r="200" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B200" t="s">
         <v>1999</v>
       </c>
@@ -50364,13 +50428,13 @@
         <v>2426</v>
       </c>
       <c r="F200" s="15" t="s">
-        <v>3579</v>
+        <v>3473</v>
       </c>
       <c r="G200" s="33" t="s">
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3569</v>
+      </c>
+    </row>
+    <row r="201" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B201" t="s">
         <v>2000</v>
       </c>
@@ -50384,10 +50448,10 @@
         <v>2464</v>
       </c>
       <c r="G201" s="33" t="s">
-        <v>3453</v>
-      </c>
-    </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3570</v>
+      </c>
+    </row>
+    <row r="202" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B202" t="s">
         <v>2001</v>
       </c>
@@ -50401,10 +50465,13 @@
         <v>2406</v>
       </c>
       <c r="G202" s="33" t="s">
-        <v>3457</v>
-      </c>
-    </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3571</v>
+      </c>
+      <c r="H202" t="s">
+        <v>3572</v>
+      </c>
+    </row>
+    <row r="203" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B203" t="s">
         <v>2002</v>
       </c>
@@ -50418,10 +50485,10 @@
         <v>1541</v>
       </c>
       <c r="G203" s="33" t="s">
-        <v>3458</v>
-      </c>
-    </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3573</v>
+      </c>
+    </row>
+    <row r="204" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B204" t="s">
         <v>2003</v>
       </c>
@@ -50435,10 +50502,10 @@
         <v>1335</v>
       </c>
       <c r="G204" s="33" t="s">
-        <v>3459</v>
-      </c>
-    </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3574</v>
+      </c>
+    </row>
+    <row r="205" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B205" t="s">
         <v>2004</v>
       </c>
@@ -50449,10 +50516,10 @@
         <v>1536</v>
       </c>
       <c r="G205" s="33" t="s">
-        <v>3540</v>
-      </c>
-    </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="206" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B206" t="s">
         <v>2005</v>
       </c>
@@ -50463,10 +50530,10 @@
         <v>1329</v>
       </c>
       <c r="G206" s="33" t="s">
-        <v>3460</v>
-      </c>
-    </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3577</v>
+      </c>
+    </row>
+    <row r="207" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B207" t="s">
         <v>2006</v>
       </c>
@@ -50477,10 +50544,10 @@
         <v>1382</v>
       </c>
       <c r="G207" s="33" t="s">
-        <v>3461</v>
-      </c>
-    </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3578</v>
+      </c>
+    </row>
+    <row r="208" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B208" t="s">
         <v>2007</v>
       </c>
@@ -50491,10 +50558,10 @@
         <v>1525</v>
       </c>
       <c r="G208" s="33" t="s">
-        <v>3541</v>
-      </c>
-    </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3579</v>
+      </c>
+    </row>
+    <row r="209" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B209" t="s">
         <v>2008</v>
       </c>
@@ -50505,10 +50572,13 @@
         <v>2405</v>
       </c>
       <c r="G209" s="33" t="s">
-        <v>3542</v>
-      </c>
-    </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3581</v>
+      </c>
+      <c r="H209" t="s">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="210" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B210" t="s">
         <v>2009</v>
       </c>
@@ -50519,10 +50589,10 @@
         <v>1484</v>
       </c>
       <c r="G210" s="33" t="s">
-        <v>3529</v>
-      </c>
-    </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3576</v>
+      </c>
+    </row>
+    <row r="211" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B211" t="s">
         <v>2010</v>
       </c>
@@ -50534,7 +50604,7 @@
       </c>
       <c r="G211" s="34"/>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B212" t="s">
         <v>2011</v>
       </c>
@@ -50545,10 +50615,10 @@
         <v>1405</v>
       </c>
       <c r="G212" s="33" t="s">
-        <v>3543</v>
-      </c>
-    </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3582</v>
+      </c>
+    </row>
+    <row r="213" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B213" t="s">
         <v>2012</v>
       </c>
@@ -50560,7 +50630,7 @@
       </c>
       <c r="G213" s="33"/>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B214" t="s">
         <v>2013</v>
       </c>
@@ -50571,10 +50641,10 @@
         <v>1441</v>
       </c>
       <c r="G214" s="33" t="s">
-        <v>3462</v>
-      </c>
-    </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="215" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B215" t="s">
         <v>2014</v>
       </c>
@@ -50585,10 +50655,10 @@
         <v>1489</v>
       </c>
       <c r="G215" s="33" t="s">
-        <v>3463</v>
-      </c>
-    </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3584</v>
+      </c>
+    </row>
+    <row r="216" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B216" t="s">
         <v>2015</v>
       </c>
@@ -50599,10 +50669,10 @@
         <v>2481</v>
       </c>
       <c r="G216" s="33" t="s">
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="217" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B217" t="s">
         <v>2016</v>
       </c>
@@ -50613,25 +50683,28 @@
         <v>1500</v>
       </c>
       <c r="G217" s="33" t="s">
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3435</v>
+      </c>
+    </row>
+    <row r="218" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B218" t="s">
         <v>2017</v>
       </c>
-    </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H218" t="s">
+        <v>3679</v>
+      </c>
+    </row>
+    <row r="219" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B219" t="s">
         <v>2018</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B220" t="s">
         <v>2019</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B221" t="s">
         <v>2020</v>
       </c>
@@ -50642,10 +50715,10 @@
         <v>2484</v>
       </c>
       <c r="G221" s="33" t="s">
-        <v>3544</v>
-      </c>
-    </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="222" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B222" t="s">
         <v>2021</v>
       </c>
@@ -50656,10 +50729,13 @@
         <v>2485</v>
       </c>
       <c r="G222" s="33" t="s">
-        <v>3441</v>
-      </c>
-    </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3588</v>
+      </c>
+      <c r="H222" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="223" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B223" t="s">
         <v>2022</v>
       </c>
@@ -50670,10 +50746,10 @@
         <v>2486</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>3435</v>
-      </c>
-    </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3518</v>
+      </c>
+    </row>
+    <row r="224" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B224" t="s">
         <v>2023</v>
       </c>
@@ -50681,10 +50757,10 @@
         <v>2536</v>
       </c>
       <c r="F224" s="16" t="s">
-        <v>3580</v>
+        <v>3474</v>
       </c>
       <c r="G224" s="33" t="s">
-        <v>3424</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
@@ -50698,7 +50774,7 @@
         <v>2487</v>
       </c>
       <c r="G225" s="33" t="s">
-        <v>3545</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
@@ -50712,7 +50788,7 @@
         <v>2488</v>
       </c>
       <c r="G226" s="33" t="s">
-        <v>3445</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
@@ -50726,7 +50802,7 @@
         <v>2489</v>
       </c>
       <c r="G227" s="34" t="s">
-        <v>3442</v>
+        <v>3433</v>
       </c>
     </row>
     <row r="228" spans="2:7" x14ac:dyDescent="0.25">
@@ -50740,7 +50816,7 @@
         <v>2490</v>
       </c>
       <c r="G228" s="33" t="s">
-        <v>3439</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
@@ -50754,7 +50830,7 @@
         <v>2491</v>
       </c>
       <c r="G229" s="33" t="s">
-        <v>3424</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
@@ -50768,7 +50844,7 @@
         <v>2492</v>
       </c>
       <c r="G230" s="33" t="s">
-        <v>3443</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
@@ -50782,7 +50858,7 @@
         <v>2493</v>
       </c>
       <c r="G231" s="33" t="s">
-        <v>3444</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
@@ -50796,7 +50872,7 @@
         <v>2494</v>
       </c>
       <c r="G232" s="33" t="s">
-        <v>3546</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
@@ -50809,7 +50885,9 @@
       <c r="F233" s="16" t="s">
         <v>2495</v>
       </c>
-      <c r="G233" s="33"/>
+      <c r="G233" s="33" t="s">
+        <v>3596</v>
+      </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B234" t="s">
@@ -50821,10 +50899,10 @@
       <c r="E234" s="16" t="s">
         <v>2546</v>
       </c>
-      <c r="F234" s="45" t="s">
+      <c r="F234" s="46" t="s">
         <v>2496</v>
       </c>
-      <c r="G234" s="46"/>
+      <c r="G234" s="47"/>
     </row>
     <row r="235" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B235" t="s">
@@ -50837,7 +50915,7 @@
         <v>2498</v>
       </c>
       <c r="G235" s="33" t="s">
-        <v>3446</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
@@ -50851,7 +50929,7 @@
         <v>2499</v>
       </c>
       <c r="G236" s="33" t="s">
-        <v>3467</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
@@ -50865,7 +50943,7 @@
         <v>2500</v>
       </c>
       <c r="G237" s="33" t="s">
-        <v>3440</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
@@ -50878,7 +50956,9 @@
       <c r="F238" s="16" t="s">
         <v>2501</v>
       </c>
-      <c r="G238" s="33"/>
+      <c r="G238" s="33" t="s">
+        <v>3600</v>
+      </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B239" t="s">
@@ -50891,7 +50971,7 @@
         <v>2502</v>
       </c>
       <c r="G239" s="33" t="s">
-        <v>3434</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
@@ -50904,9 +50984,11 @@
       <c r="F240" s="16" t="s">
         <v>2503</v>
       </c>
-      <c r="G240" s="33"/>
-    </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G240" s="33" t="s">
+        <v>3602</v>
+      </c>
+    </row>
+    <row r="241" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B241" t="s">
         <v>2040</v>
       </c>
@@ -50918,7 +51000,7 @@
       </c>
       <c r="G241" s="34"/>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B242" t="s">
         <v>2041</v>
       </c>
@@ -50930,7 +51012,7 @@
       </c>
       <c r="G242" s="34"/>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B243" t="s">
         <v>2042</v>
       </c>
@@ -50940,9 +51022,11 @@
       <c r="F243" s="16" t="s">
         <v>2506</v>
       </c>
-      <c r="G243" s="33"/>
-    </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G243" s="33" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="244" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B244" t="s">
         <v>2043</v>
       </c>
@@ -50954,7 +51038,7 @@
       </c>
       <c r="G244" s="34"/>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B245" t="s">
         <v>2044</v>
       </c>
@@ -50965,10 +51049,10 @@
         <v>2508</v>
       </c>
       <c r="G245" s="33" t="s">
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3604</v>
+      </c>
+    </row>
+    <row r="246" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B246" t="s">
         <v>2045</v>
       </c>
@@ -50980,7 +51064,7 @@
       </c>
       <c r="G246" s="33"/>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B247" t="s">
         <v>2046</v>
       </c>
@@ -50991,10 +51075,10 @@
         <v>1448</v>
       </c>
       <c r="G247" s="33" t="s">
-        <v>3469</v>
-      </c>
-    </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="248" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B248" t="s">
         <v>2047</v>
       </c>
@@ -51004,9 +51088,11 @@
       <c r="F248" s="16" t="s">
         <v>2509</v>
       </c>
-      <c r="G248" s="33"/>
-    </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G248" s="33" t="s">
+        <v>3606</v>
+      </c>
+    </row>
+    <row r="249" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B249" t="s">
         <v>2048</v>
       </c>
@@ -51017,10 +51103,10 @@
         <v>2510</v>
       </c>
       <c r="G249" s="33" t="s">
-        <v>3471</v>
-      </c>
-    </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="250" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B250" t="s">
         <v>2049</v>
       </c>
@@ -51031,10 +51117,10 @@
         <v>2511</v>
       </c>
       <c r="G250" s="33" t="s">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3608</v>
+      </c>
+    </row>
+    <row r="251" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B251" t="s">
         <v>2050</v>
       </c>
@@ -51045,10 +51131,10 @@
         <v>2512</v>
       </c>
       <c r="G251" s="33" t="s">
-        <v>3551</v>
-      </c>
-    </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="252" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B252" t="s">
         <v>2051</v>
       </c>
@@ -51059,10 +51145,10 @@
         <v>2513</v>
       </c>
       <c r="G252" s="33" t="s">
-        <v>3470</v>
-      </c>
-    </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3610</v>
+      </c>
+    </row>
+    <row r="253" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B253" t="s">
         <v>2052</v>
       </c>
@@ -51072,9 +51158,11 @@
       <c r="F253" s="16" t="s">
         <v>2514</v>
       </c>
-      <c r="G253" s="33"/>
-    </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G253" s="33" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="254" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B254" t="s">
         <v>2053</v>
       </c>
@@ -51085,10 +51173,10 @@
         <v>2515</v>
       </c>
       <c r="G254" s="33" t="s">
-        <v>3430</v>
-      </c>
-    </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3612</v>
+      </c>
+    </row>
+    <row r="255" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B255" t="s">
         <v>2054</v>
       </c>
@@ -51098,9 +51186,11 @@
       <c r="F255" s="16" t="s">
         <v>2516</v>
       </c>
-      <c r="G255" s="33"/>
-    </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G255" s="33" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="256" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B256" t="s">
         <v>2055</v>
       </c>
@@ -51111,10 +51201,13 @@
         <v>2517</v>
       </c>
       <c r="G256" s="33" t="s">
-        <v>3472</v>
-      </c>
-    </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3614</v>
+      </c>
+      <c r="H256" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="257" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B257" t="s">
         <v>2056</v>
       </c>
@@ -51125,10 +51218,10 @@
         <v>2518</v>
       </c>
       <c r="G257" s="33" t="s">
-        <v>3556</v>
-      </c>
-    </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="258" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B258" t="s">
         <v>2057</v>
       </c>
@@ -51139,10 +51232,10 @@
         <v>2519</v>
       </c>
       <c r="G258" s="33" t="s">
-        <v>3473</v>
-      </c>
-    </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3616</v>
+      </c>
+    </row>
+    <row r="259" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B259" t="s">
         <v>2058</v>
       </c>
@@ -51153,10 +51246,10 @@
         <v>2520</v>
       </c>
       <c r="G259" s="33" t="s">
-        <v>3474</v>
-      </c>
-    </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="260" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B260" t="s">
         <v>2059</v>
       </c>
@@ -51167,10 +51260,10 @@
         <v>2521</v>
       </c>
       <c r="G260" s="33" t="s">
-        <v>3436</v>
-      </c>
-    </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3532</v>
+      </c>
+    </row>
+    <row r="261" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B261" t="s">
         <v>2060</v>
       </c>
@@ -51181,10 +51274,10 @@
         <v>2522</v>
       </c>
       <c r="G261" s="33" t="s">
-        <v>3475</v>
-      </c>
-    </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3618</v>
+      </c>
+    </row>
+    <row r="262" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B262" t="s">
         <v>2061</v>
       </c>
@@ -51195,10 +51288,10 @@
         <v>2523</v>
       </c>
       <c r="G262" s="33" t="s">
-        <v>3557</v>
-      </c>
-    </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="263" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B263" t="s">
         <v>2062</v>
       </c>
@@ -51206,13 +51299,13 @@
         <v>2575</v>
       </c>
       <c r="F263" s="16" t="s">
-        <v>3581</v>
+        <v>3475</v>
       </c>
       <c r="G263" s="33" t="s">
-        <v>3424</v>
-      </c>
-    </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3495</v>
+      </c>
+    </row>
+    <row r="264" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B264" t="s">
         <v>2063</v>
       </c>
@@ -51223,10 +51316,10 @@
         <v>2524</v>
       </c>
       <c r="G264" s="33" t="s">
-        <v>3476</v>
-      </c>
-    </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3620</v>
+      </c>
+    </row>
+    <row r="265" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B265" t="s">
         <v>2064</v>
       </c>
@@ -51237,10 +51330,10 @@
         <v>1458</v>
       </c>
       <c r="G265" s="33" t="s">
-        <v>3477</v>
-      </c>
-    </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="266" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B266" t="s">
         <v>2065</v>
       </c>
@@ -51251,10 +51344,13 @@
         <v>1513</v>
       </c>
       <c r="G266" s="33" t="s">
-        <v>3478</v>
-      </c>
-    </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3541</v>
+      </c>
+      <c r="H266" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="267" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B267" t="s">
         <v>2066</v>
       </c>
@@ -51265,10 +51361,13 @@
         <v>2525</v>
       </c>
       <c r="G267" s="33" t="s">
-        <v>3479</v>
-      </c>
-    </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3621</v>
+      </c>
+      <c r="H267" t="s">
+        <v>3542</v>
+      </c>
+    </row>
+    <row r="268" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B268" t="s">
         <v>2067</v>
       </c>
@@ -51279,10 +51378,10 @@
         <v>2526</v>
       </c>
       <c r="G268" s="33" t="s">
-        <v>3480</v>
-      </c>
-    </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3622</v>
+      </c>
+    </row>
+    <row r="269" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B269" t="s">
         <v>2068</v>
       </c>
@@ -51293,10 +51392,10 @@
         <v>2527</v>
       </c>
       <c r="G269" s="33" t="s">
-        <v>3481</v>
-      </c>
-    </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="270" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B270" t="s">
         <v>2069</v>
       </c>
@@ -51307,10 +51406,10 @@
         <v>2528</v>
       </c>
       <c r="G270" s="33" t="s">
-        <v>3438</v>
-      </c>
-    </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3544</v>
+      </c>
+    </row>
+    <row r="271" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B271" t="s">
         <v>2070</v>
       </c>
@@ -51322,7 +51421,7 @@
       </c>
       <c r="G271" s="34"/>
     </row>
-    <row r="272" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B272" t="s">
         <v>2071</v>
       </c>
@@ -51333,10 +51432,10 @@
         <v>1357</v>
       </c>
       <c r="G272" s="33" t="s">
-        <v>3484</v>
-      </c>
-    </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3624</v>
+      </c>
+    </row>
+    <row r="273" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B273" t="s">
         <v>2072</v>
       </c>
@@ -51347,10 +51446,10 @@
         <v>1356</v>
       </c>
       <c r="G273" s="33" t="s">
-        <v>3485</v>
-      </c>
-    </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="274" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B274" t="s">
         <v>2073</v>
       </c>
@@ -51361,10 +51460,10 @@
         <v>1392</v>
       </c>
       <c r="G274" s="33" t="s">
-        <v>3486</v>
-      </c>
-    </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3626</v>
+      </c>
+    </row>
+    <row r="275" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B275" t="s">
         <v>2074</v>
       </c>
@@ -51375,10 +51474,10 @@
         <v>1512</v>
       </c>
       <c r="G275" s="33" t="s">
-        <v>3487</v>
-      </c>
-    </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="276" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B276" t="s">
         <v>2075</v>
       </c>
@@ -51389,10 +51488,10 @@
         <v>1518</v>
       </c>
       <c r="G276" s="33" t="s">
-        <v>3488</v>
-      </c>
-    </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3628</v>
+      </c>
+    </row>
+    <row r="277" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B277" t="s">
         <v>2076</v>
       </c>
@@ -51403,10 +51502,10 @@
         <v>1324</v>
       </c>
       <c r="G277" s="33" t="s">
-        <v>3489</v>
-      </c>
-    </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="278" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B278" t="s">
         <v>2077</v>
       </c>
@@ -51417,10 +51516,10 @@
         <v>1523</v>
       </c>
       <c r="G278" s="33" t="s">
-        <v>3558</v>
-      </c>
-    </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="279" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B279" t="s">
         <v>2078</v>
       </c>
@@ -51431,10 +51530,10 @@
         <v>1578</v>
       </c>
       <c r="G279" s="33" t="s">
-        <v>3559</v>
-      </c>
-    </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3630</v>
+      </c>
+    </row>
+    <row r="280" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B280" t="s">
         <v>2079</v>
       </c>
@@ -51444,11 +51543,11 @@
       <c r="F280" s="16" t="s">
         <v>2530</v>
       </c>
-      <c r="G280" s="44" t="s">
-        <v>3560</v>
-      </c>
-    </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G280" s="33" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="281" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B281" t="s">
         <v>2080</v>
       </c>
@@ -51459,10 +51558,10 @@
         <v>1364</v>
       </c>
       <c r="G281" s="33" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3458</v>
+      </c>
+    </row>
+    <row r="282" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B282" t="s">
         <v>2081</v>
       </c>
@@ -51473,10 +51572,10 @@
         <v>2531</v>
       </c>
       <c r="G282" s="33" t="s">
-        <v>3532</v>
-      </c>
-    </row>
-    <row r="283" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="283" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B283" t="s">
         <v>2082</v>
       </c>
@@ -51487,10 +51586,10 @@
         <v>1495</v>
       </c>
       <c r="G283" s="33" t="s">
-        <v>3490</v>
-      </c>
-    </row>
-    <row r="284" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="284" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B284" t="s">
         <v>2083</v>
       </c>
@@ -51500,9 +51599,9 @@
       <c r="F284" s="43" t="s">
         <v>1504</v>
       </c>
-      <c r="G284" s="33"/>
-    </row>
-    <row r="285" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G284" s="34"/>
+    </row>
+    <row r="285" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B285" t="s">
         <v>2084</v>
       </c>
@@ -51512,9 +51611,11 @@
       <c r="F285" s="16" t="s">
         <v>1413</v>
       </c>
-      <c r="G285" s="33"/>
-    </row>
-    <row r="286" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G285" s="33" t="s">
+        <v>3634</v>
+      </c>
+    </row>
+    <row r="286" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B286" t="s">
         <v>2085</v>
       </c>
@@ -51524,9 +51625,11 @@
       <c r="F286" s="16" t="s">
         <v>1585</v>
       </c>
-      <c r="G286" s="33"/>
-    </row>
-    <row r="287" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G286" s="33" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="287" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B287" t="s">
         <v>2086</v>
       </c>
@@ -51536,9 +51639,11 @@
       <c r="F287" s="16" t="s">
         <v>1437</v>
       </c>
-      <c r="G287" s="33"/>
-    </row>
-    <row r="288" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G287" s="33" t="s">
+        <v>3636</v>
+      </c>
+    </row>
+    <row r="288" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E288" s="16" t="s">
         <v>2600</v>
       </c>
@@ -51546,10 +51651,13 @@
         <v>1575</v>
       </c>
       <c r="G288" s="33" t="s">
-        <v>3491</v>
-      </c>
-    </row>
-    <row r="289" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3637</v>
+      </c>
+      <c r="H288" t="s">
+        <v>3638</v>
+      </c>
+    </row>
+    <row r="289" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E289" s="16" t="s">
         <v>2601</v>
       </c>
@@ -51557,10 +51665,13 @@
         <v>1320</v>
       </c>
       <c r="G289" s="33" t="s">
-        <v>3492</v>
-      </c>
-    </row>
-    <row r="290" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3639</v>
+      </c>
+      <c r="H289" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="290" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E290" s="16" t="s">
         <v>2602</v>
       </c>
@@ -51568,10 +51679,13 @@
         <v>2945</v>
       </c>
       <c r="G290" s="33" t="s">
-        <v>3562</v>
-      </c>
-    </row>
-    <row r="291" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3471</v>
+      </c>
+      <c r="H290" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="291" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E291" s="16" t="s">
         <v>2603</v>
       </c>
@@ -51579,10 +51693,13 @@
         <v>1423</v>
       </c>
       <c r="G291" s="33" t="s">
-        <v>3563</v>
-      </c>
-    </row>
-    <row r="292" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3640</v>
+      </c>
+      <c r="H291" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="292" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C292" s="23"/>
       <c r="E292" s="16" t="s">
         <v>2604</v>
@@ -51591,21 +51708,27 @@
         <v>1419</v>
       </c>
       <c r="G292" s="33" t="s">
-        <v>3564</v>
-      </c>
-    </row>
-    <row r="293" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3641</v>
+      </c>
+      <c r="H292" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="293" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E293" s="16" t="s">
         <v>2605</v>
       </c>
       <c r="F293" s="16" t="s">
         <v>1385</v>
       </c>
-      <c r="G293" s="44" t="s">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="294" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G293" s="33" t="s">
+        <v>3642</v>
+      </c>
+      <c r="H293" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="294" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E294" s="16" t="s">
         <v>2606</v>
       </c>
@@ -51613,10 +51736,13 @@
         <v>1451</v>
       </c>
       <c r="G294" s="33" t="s">
-        <v>3566</v>
-      </c>
-    </row>
-    <row r="295" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3655</v>
+      </c>
+      <c r="H294" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="295" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E295" s="16" t="s">
         <v>2607</v>
       </c>
@@ -51624,10 +51750,13 @@
         <v>1373</v>
       </c>
       <c r="G295" s="33" t="s">
-        <v>3567</v>
-      </c>
-    </row>
-    <row r="296" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3643</v>
+      </c>
+      <c r="H295" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="296" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E296" s="16" t="s">
         <v>2608</v>
       </c>
@@ -51635,10 +51764,13 @@
         <v>1440</v>
       </c>
       <c r="G296" s="33" t="s">
-        <v>3568</v>
-      </c>
-    </row>
-    <row r="297" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3644</v>
+      </c>
+      <c r="H296" t="s">
+        <v>3557</v>
+      </c>
+    </row>
+    <row r="297" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E297" s="16" t="s">
         <v>2609</v>
       </c>
@@ -51646,28 +51778,38 @@
         <v>1482</v>
       </c>
       <c r="G297" s="33" t="s">
-        <v>3569</v>
-      </c>
-    </row>
-    <row r="298" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3645</v>
+      </c>
+      <c r="H297" t="s">
+        <v>3646</v>
+      </c>
+    </row>
+    <row r="298" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E298" s="16" t="s">
         <v>2610</v>
       </c>
       <c r="F298" s="16" t="s">
         <v>1566</v>
       </c>
-      <c r="G298" s="33"/>
-    </row>
-    <row r="299" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G298" s="33" t="s">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="299" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E299" s="16" t="s">
         <v>2611</v>
       </c>
       <c r="F299" s="16" t="s">
         <v>1310</v>
       </c>
-      <c r="G299" s="33"/>
-    </row>
-    <row r="300" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G299" s="33" t="s">
+        <v>3648</v>
+      </c>
+      <c r="H299" t="s">
+        <v>3649</v>
+      </c>
+    </row>
+    <row r="300" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E300" s="16" t="s">
         <v>2612</v>
       </c>
@@ -51675,10 +51817,10 @@
         <v>1407</v>
       </c>
       <c r="G300" s="33" t="s">
-        <v>3570</v>
-      </c>
-    </row>
-    <row r="301" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3650</v>
+      </c>
+    </row>
+    <row r="301" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E301" s="16" t="s">
         <v>2613</v>
       </c>
@@ -51686,28 +51828,32 @@
         <v>1339</v>
       </c>
       <c r="G301" s="33" t="s">
-        <v>3571</v>
-      </c>
-    </row>
-    <row r="302" spans="3:7" x14ac:dyDescent="0.25">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="302" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E302" s="16" t="s">
         <v>2614</v>
       </c>
       <c r="F302" s="16" t="s">
         <v>1411</v>
       </c>
-      <c r="G302" s="33"/>
-    </row>
-    <row r="303" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G302" s="33" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="303" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E303" s="16" t="s">
         <v>2615</v>
       </c>
       <c r="F303" s="16" t="s">
         <v>1559</v>
       </c>
-      <c r="G303" s="33"/>
-    </row>
-    <row r="304" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="G303" s="33" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="304" spans="3:8" x14ac:dyDescent="0.25">
       <c r="E304" s="16" t="s">
         <v>2616</v>
       </c>
@@ -51715,7 +51861,7 @@
         <v>1312</v>
       </c>
       <c r="G304" s="33" t="s">
-        <v>3493</v>
+        <v>3653</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -51726,7 +51872,7 @@
         <v>2532</v>
       </c>
       <c r="G305" s="33" t="s">
-        <v>3486</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -51737,10 +51883,10 @@
         <v>1418</v>
       </c>
       <c r="G306" s="33" t="s">
-        <v>3572</v>
-      </c>
-      <c r="H306" s="45" t="s">
-        <v>3573</v>
+        <v>3654</v>
+      </c>
+      <c r="H306" s="44" t="s">
+        <v>3557</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -51751,7 +51897,7 @@
         <v>1801</v>
       </c>
       <c r="G307" s="33" t="s">
-        <v>3574</v>
+        <v>3656</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -51761,7 +51907,9 @@
       <c r="F308" s="16" t="s">
         <v>1334</v>
       </c>
-      <c r="G308" s="33"/>
+      <c r="G308" s="33" t="s">
+        <v>3507</v>
+      </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E309" s="16" t="s">
@@ -51771,7 +51919,10 @@
         <v>1521</v>
       </c>
       <c r="G309" s="33" t="s">
-        <v>3433</v>
+        <v>3657</v>
+      </c>
+      <c r="H309" t="s">
+        <v>3542</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -51791,7 +51942,10 @@
         <v>1526</v>
       </c>
       <c r="G311" s="33" t="s">
-        <v>3494</v>
+        <v>3658</v>
+      </c>
+      <c r="H311" t="s">
+        <v>3542</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -51802,7 +51956,10 @@
         <v>1584</v>
       </c>
       <c r="G312" s="33" t="s">
-        <v>3495</v>
+        <v>3659</v>
+      </c>
+      <c r="H312" t="s">
+        <v>3542</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -51813,7 +51970,10 @@
         <v>2727</v>
       </c>
       <c r="G313" s="33" t="s">
-        <v>3496</v>
+        <v>3660</v>
+      </c>
+      <c r="H313" t="s">
+        <v>3542</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -51824,7 +51984,7 @@
         <v>2729</v>
       </c>
       <c r="G314" s="33" t="s">
-        <v>3575</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -51835,7 +51995,7 @@
         <v>1379</v>
       </c>
       <c r="G315" s="33" t="s">
-        <v>3497</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
@@ -51855,7 +52015,7 @@
         <v>1569</v>
       </c>
       <c r="G316" s="33" t="s">
-        <v>3498</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -51875,7 +52035,7 @@
         <v>1577</v>
       </c>
       <c r="G317" s="33" t="s">
-        <v>3422</v>
+        <v>3489</v>
       </c>
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
@@ -51895,7 +52055,7 @@
         <v>1465</v>
       </c>
       <c r="G318" s="33" t="s">
-        <v>3482</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -51915,7 +52075,7 @@
         <v>1499</v>
       </c>
       <c r="G319" s="33" t="s">
-        <v>3499</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
@@ -51935,10 +52095,10 @@
         <v>1462</v>
       </c>
       <c r="G320" s="33" t="s">
-        <v>3500</v>
-      </c>
-    </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3498</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="13" t="s">
         <v>2957</v>
       </c>
@@ -51956,7 +52116,7 @@
       </c>
       <c r="G321" s="34"/>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="13" t="s">
         <v>2958</v>
       </c>
@@ -51973,10 +52133,10 @@
         <v>1486</v>
       </c>
       <c r="G322" s="33" t="s">
-        <v>3501</v>
-      </c>
-    </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="13" t="s">
         <v>2959</v>
       </c>
@@ -51993,10 +52153,10 @@
         <v>1496</v>
       </c>
       <c r="G323" s="33" t="s">
-        <v>3502</v>
-      </c>
-    </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="13" t="s">
         <v>2960</v>
       </c>
@@ -52013,10 +52173,10 @@
         <v>1562</v>
       </c>
       <c r="G324" s="33" t="s">
-        <v>3503</v>
-      </c>
-    </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="13" t="s">
         <v>2961</v>
       </c>
@@ -52034,7 +52194,7 @@
       </c>
       <c r="G325" s="34"/>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="13" t="s">
         <v>2962</v>
       </c>
@@ -52051,10 +52211,10 @@
         <v>1537</v>
       </c>
       <c r="G326" s="33" t="s">
-        <v>3504</v>
-      </c>
-    </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3668</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="13" t="s">
         <v>2963</v>
       </c>
@@ -52071,10 +52231,10 @@
         <v>1488</v>
       </c>
       <c r="G327" s="33" t="s">
-        <v>3505</v>
-      </c>
-    </row>
-    <row r="328" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A328" s="24" t="s">
         <v>2964</v>
       </c>
@@ -52091,10 +52251,10 @@
         <v>1434</v>
       </c>
       <c r="G328" s="33" t="s">
-        <v>3576</v>
-      </c>
-    </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E329" s="16" t="s">
         <v>2742</v>
       </c>
@@ -52102,10 +52262,10 @@
         <v>1375</v>
       </c>
       <c r="G329" s="33" t="s">
-        <v>3577</v>
-      </c>
-    </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B330" s="26" t="s">
         <v>2972</v>
       </c>
@@ -52115,9 +52275,14 @@
       <c r="F330" s="16" t="s">
         <v>1456</v>
       </c>
-      <c r="G330" s="33"/>
-    </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G330" s="33" t="s">
+        <v>3672</v>
+      </c>
+      <c r="H330" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E331" s="16" t="s">
         <v>2753</v>
       </c>
@@ -52125,10 +52290,10 @@
         <v>1553</v>
       </c>
       <c r="G331" s="33" t="s">
-        <v>3506</v>
-      </c>
-    </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E332" s="16" t="s">
         <v>2754</v>
       </c>
@@ -52136,10 +52301,10 @@
         <v>2760</v>
       </c>
       <c r="G332" s="33" t="s">
-        <v>3507</v>
-      </c>
-    </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E333" s="16" t="s">
         <v>2755</v>
       </c>
@@ -52147,10 +52312,10 @@
         <v>2762</v>
       </c>
       <c r="G333" s="33" t="s">
-        <v>3508</v>
-      </c>
-    </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E334" s="16" t="s">
         <v>2756</v>
       </c>
@@ -52158,10 +52323,10 @@
         <v>1581</v>
       </c>
       <c r="G334" s="33" t="s">
-        <v>3509</v>
-      </c>
-    </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E335" s="16" t="s">
         <v>2757</v>
       </c>
@@ -52169,10 +52334,10 @@
         <v>2765</v>
       </c>
       <c r="G335" s="33" t="s">
-        <v>3510</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B336" s="7" t="s">
         <v>3145</v>
       </c>
@@ -52182,22 +52347,25 @@
       <c r="E336" s="18" t="s">
         <v>2766</v>
       </c>
-      <c r="F336" s="47" t="s">
+      <c r="F336" s="48" t="s">
         <v>2768</v>
       </c>
       <c r="G336" s="34" t="s">
-        <v>3511</v>
-      </c>
-    </row>
-    <row r="337" spans="2:6" x14ac:dyDescent="0.25">
+        <v>3438</v>
+      </c>
+    </row>
+    <row r="337" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B337" s="7" t="s">
         <v>3175</v>
       </c>
       <c r="C337" s="7" t="s">
         <v>3176</v>
       </c>
-    </row>
-    <row r="338" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="H337" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="338" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B338" s="7" t="s">
         <v>3168</v>
       </c>
@@ -52205,7 +52373,7 @@
         <v>3169</v>
       </c>
     </row>
-    <row r="339" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="339" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B339" s="7" t="s">
         <v>3179</v>
       </c>
@@ -52213,7 +52381,7 @@
         <v>3178</v>
       </c>
     </row>
-    <row r="340" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="340" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B340" s="7" t="s">
         <v>3189</v>
       </c>
@@ -52227,7 +52395,7 @@
         <v>2770</v>
       </c>
     </row>
-    <row r="341" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="341" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B341" s="7" t="s">
         <v>3192</v>
       </c>
@@ -52241,7 +52409,7 @@
         <v>2772</v>
       </c>
     </row>
-    <row r="344" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B344" s="7" t="s">
         <v>3195</v>
       </c>
@@ -52255,7 +52423,7 @@
         <v>2775</v>
       </c>
     </row>
-    <row r="345" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E345" t="s">
         <v>2780</v>
       </c>
@@ -52263,7 +52431,7 @@
         <v>2779</v>
       </c>
     </row>
-    <row r="346" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E346" t="s">
         <v>2781</v>
       </c>
@@ -52271,7 +52439,7 @@
         <v>2785</v>
       </c>
     </row>
-    <row r="347" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E347" t="s">
         <v>2782</v>
       </c>
@@ -52279,7 +52447,7 @@
         <v>2787</v>
       </c>
     </row>
-    <row r="348" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E348" t="s">
         <v>2789</v>
       </c>
@@ -52388,10 +52556,10 @@
         <v>2817</v>
       </c>
       <c r="F369" s="21" t="s">
-        <v>3582</v>
+        <v>3476</v>
       </c>
       <c r="G369" t="s">
-        <v>3424</v>
+        <v>3423</v>
       </c>
     </row>
     <row r="370" spans="5:7" x14ac:dyDescent="0.25">
@@ -52682,7 +52850,7 @@
         <v>3358</v>
       </c>
       <c r="Z12" t="s">
-        <v>3483</v>
+        <v>3437</v>
       </c>
       <c r="AA12" t="s">
         <v>3341</v>
@@ -52734,10 +52902,10 @@
         <v>3370</v>
       </c>
       <c r="Z14" t="s">
+        <v>3425</v>
+      </c>
+      <c r="AA14" t="s">
         <v>3426</v>
-      </c>
-      <c r="AA14" t="s">
-        <v>3427</v>
       </c>
     </row>
     <row r="15" spans="2:32" x14ac:dyDescent="0.25">
@@ -53491,7 +53659,7 @@
     </row>
     <row r="59" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>3554</v>
+        <v>3468</v>
       </c>
       <c r="E59" s="35" t="s">
         <v>3400</v>
@@ -53520,7 +53688,7 @@
     </row>
     <row r="60" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>3547</v>
+        <v>3463</v>
       </c>
       <c r="E60" s="35" t="s">
         <v>3402</v>
@@ -53545,7 +53713,7 @@
     </row>
     <row r="61" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>3553</v>
+        <v>3467</v>
       </c>
       <c r="E61" s="35" t="s">
         <v>3404</v>
@@ -53570,7 +53738,7 @@
     </row>
     <row r="62" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>3548</v>
+        <v>3464</v>
       </c>
       <c r="E62" s="35" t="s">
         <v>3406</v>
@@ -53595,7 +53763,7 @@
     </row>
     <row r="63" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>3549</v>
+        <v>3465</v>
       </c>
       <c r="E63" s="35" t="s">
         <v>3408</v>
@@ -53620,7 +53788,7 @@
     </row>
     <row r="64" spans="3:27" x14ac:dyDescent="0.25">
       <c r="C64" t="s">
-        <v>3561</v>
+        <v>3470</v>
       </c>
       <c r="E64" s="35" t="s">
         <v>3410</v>
@@ -53645,7 +53813,7 @@
     </row>
     <row r="65" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
-        <v>3552</v>
+        <v>3466</v>
       </c>
       <c r="E65" s="35" t="s">
         <v>3417</v>
@@ -53670,7 +53838,7 @@
     </row>
     <row r="66" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
-        <v>3555</v>
+        <v>3469</v>
       </c>
       <c r="E66" s="35" t="s">
         <v>3419</v>
@@ -53731,7 +53899,7 @@
     </row>
     <row r="70" spans="3:23" x14ac:dyDescent="0.25">
       <c r="H70" s="38" t="s">
-        <v>3512</v>
+        <v>3439</v>
       </c>
       <c r="I70" s="38"/>
       <c r="N70" s="41"/>
@@ -53904,11 +54072,11 @@
       </c>
     </row>
     <row r="82" spans="5:10" x14ac:dyDescent="0.25">
-      <c r="H82" s="49" t="s">
+      <c r="H82" s="50" t="s">
         <v>10</v>
       </c>
-      <c r="I82" s="49"/>
-      <c r="J82" s="50">
+      <c r="I82" s="50"/>
+      <c r="J82" s="51">
         <v>11</v>
       </c>
     </row>
@@ -53917,221 +54085,221 @@
         <v>3337</v>
       </c>
       <c r="I83" s="37"/>
-      <c r="J83" s="51">
+      <c r="J83" s="52">
         <v>12</v>
       </c>
     </row>
     <row r="85" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E85" s="35" t="s">
-        <v>3513</v>
+        <v>3440</v>
       </c>
       <c r="F85" s="35"/>
       <c r="G85" s="35"/>
       <c r="H85" s="35"/>
       <c r="I85" s="35"/>
       <c r="J85" t="s">
-        <v>3514</v>
+        <v>3441</v>
       </c>
     </row>
     <row r="86" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E86" s="35" t="s">
-        <v>3515</v>
+        <v>3442</v>
       </c>
       <c r="F86" s="35"/>
       <c r="G86" s="35"/>
       <c r="H86" s="35"/>
       <c r="I86" s="35"/>
       <c r="J86" t="s">
-        <v>3516</v>
+        <v>3443</v>
       </c>
     </row>
     <row r="87" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E87" s="35" t="s">
-        <v>3517</v>
+        <v>3444</v>
       </c>
       <c r="F87" s="35"/>
       <c r="G87" s="35"/>
       <c r="H87" s="35"/>
       <c r="I87" s="35"/>
       <c r="J87" t="s">
-        <v>3518</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="88" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E88" s="35" t="s">
-        <v>3519</v>
+        <v>3446</v>
       </c>
       <c r="F88" s="35"/>
       <c r="G88" s="35"/>
       <c r="H88" s="35"/>
       <c r="I88" s="35"/>
       <c r="J88" t="s">
-        <v>3520</v>
+        <v>3447</v>
       </c>
     </row>
     <row r="89" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E89" s="35" t="s">
-        <v>3522</v>
+        <v>3449</v>
       </c>
       <c r="F89" s="35"/>
       <c r="G89" s="35"/>
       <c r="H89" s="35"/>
       <c r="I89" s="35"/>
       <c r="J89" t="s">
-        <v>3521</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="90" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E90" s="35" t="s">
-        <v>3523</v>
+        <v>3450</v>
       </c>
       <c r="F90" s="35"/>
       <c r="G90" s="35"/>
       <c r="H90" s="35"/>
       <c r="I90" s="35"/>
       <c r="J90" t="s">
-        <v>3524</v>
+        <v>3451</v>
       </c>
     </row>
     <row r="91" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E91" s="35" t="s">
-        <v>3525</v>
+        <v>3452</v>
       </c>
       <c r="F91" s="35"/>
       <c r="G91" s="35"/>
       <c r="H91" s="35"/>
       <c r="I91" s="35"/>
       <c r="J91" t="s">
-        <v>3526</v>
+        <v>3453</v>
       </c>
     </row>
     <row r="92" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E92" s="35" t="s">
-        <v>3527</v>
+        <v>3454</v>
       </c>
       <c r="F92" s="35"/>
       <c r="G92" s="35"/>
       <c r="H92" s="35"/>
       <c r="I92" s="35"/>
       <c r="J92" t="s">
-        <v>3528</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="93" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E93" s="35" t="s">
-        <v>3530</v>
+        <v>3456</v>
       </c>
       <c r="F93" s="35"/>
       <c r="G93" s="35"/>
       <c r="H93" s="35"/>
       <c r="I93" s="35"/>
       <c r="J93" t="s">
-        <v>3531</v>
+        <v>3457</v>
       </c>
     </row>
     <row r="94" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E94" s="35" t="s">
-        <v>3527</v>
+        <v>3454</v>
       </c>
       <c r="F94" s="35"/>
       <c r="G94" s="35"/>
       <c r="H94" s="35"/>
       <c r="I94" s="35"/>
       <c r="J94" t="s">
-        <v>3528</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="95" spans="5:10" x14ac:dyDescent="0.25">
       <c r="E95" s="35" t="s">
-        <v>3527</v>
+        <v>3454</v>
       </c>
       <c r="F95" s="35"/>
       <c r="G95" s="35"/>
       <c r="H95" s="35"/>
       <c r="I95" s="35"/>
       <c r="J95" t="s">
-        <v>3528</v>
+        <v>3455</v>
       </c>
     </row>
     <row r="99" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H99" s="35" t="s">
-        <v>3587</v>
+        <v>3481</v>
       </c>
       <c r="I99" s="35"/>
       <c r="J99" t="s">
-        <v>3588</v>
+        <v>3482</v>
       </c>
     </row>
     <row r="100" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H100" s="35" t="s">
-        <v>3547</v>
+        <v>3463</v>
       </c>
       <c r="I100" s="35"/>
       <c r="J100" t="s">
-        <v>3586</v>
+        <v>3480</v>
       </c>
     </row>
     <row r="101" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H101" s="35" t="s">
-        <v>3548</v>
+        <v>3464</v>
       </c>
       <c r="I101" s="35"/>
       <c r="J101" t="s">
-        <v>3583</v>
+        <v>3477</v>
       </c>
     </row>
     <row r="102" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H102" s="48" t="s">
-        <v>3584</v>
-      </c>
-      <c r="I102" s="48"/>
+      <c r="H102" s="49" t="s">
+        <v>3478</v>
+      </c>
+      <c r="I102" s="49"/>
       <c r="J102" t="s">
-        <v>3585</v>
+        <v>3479</v>
       </c>
     </row>
     <row r="103" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H103" s="35" t="s">
-        <v>3553</v>
+        <v>3467</v>
       </c>
       <c r="I103" s="35"/>
       <c r="J103" t="s">
-        <v>3589</v>
+        <v>3483</v>
       </c>
     </row>
     <row r="104" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H104" s="35" t="s">
-        <v>3549</v>
+        <v>3465</v>
       </c>
       <c r="I104" s="35"/>
       <c r="J104" t="s">
-        <v>3592</v>
+        <v>3486</v>
       </c>
     </row>
     <row r="105" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H105" s="35" t="s">
-        <v>3561</v>
+        <v>3470</v>
       </c>
       <c r="I105" s="35"/>
       <c r="J105" t="s">
-        <v>3593</v>
+        <v>3487</v>
       </c>
     </row>
     <row r="106" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H106" s="35" t="s">
-        <v>3555</v>
+        <v>3469</v>
       </c>
       <c r="I106" s="35"/>
       <c r="J106" t="s">
-        <v>3590</v>
+        <v>3484</v>
       </c>
     </row>
     <row r="108" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H108" s="35" t="s">
-        <v>3614</v>
+        <v>3508</v>
       </c>
       <c r="I108" s="35"/>
       <c r="J108" t="s">
-        <v>3615</v>
+        <v>3509</v>
       </c>
     </row>
   </sheetData>

--- a/cards.json.xlsx
+++ b/cards.json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\PC2\Facultate\Licenta\DuelMasters\IntelliJ\DuelMastersServer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD66CD1-FCF2-42A4-B884-509CC97C570F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE99FEB2-1041-442C-BD1A-4178CD45B3C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="1080" windowWidth="23310" windowHeight="12390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cards" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10628" uniqueCount="3681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10629" uniqueCount="3683">
   <si>
     <t>cards</t>
   </si>
@@ -11248,9 +11248,6 @@
     <t>Choose0(1, BZ0) + SEL:Give(SL0, EOT)</t>
   </si>
   <si>
-    <t>Choose0(1, BZ0) + SEL:Give(TCG5000, EOT)</t>
-  </si>
-  <si>
     <t>Choose0(1, BZ0) + SEL:Give(DB0, EOT)</t>
   </si>
   <si>
@@ -11774,6 +11771,15 @@
   </si>
   <si>
     <t>82 DONE</t>
+  </si>
+  <si>
+    <t>OP{Choose0(2, MN0) + SEL:MTH}</t>
+  </si>
+  <si>
+    <t>Choose0(1, BZ0) + SEL:Give(TCCG5000, EOT)</t>
+  </si>
+  <si>
+    <t>38 DONE</t>
   </si>
 </sst>
 </file>
@@ -48040,8 +48046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5F3F974-4C98-45F8-96F5-103C5419490D}">
   <dimension ref="A3:H376"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E359" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G375" sqref="G375"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48653,7 +48659,7 @@
         <v>2103</v>
       </c>
       <c r="G76" s="33" t="s">
-        <v>3485</v>
+        <v>3680</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
@@ -48744,7 +48750,7 @@
         <v>2115</v>
       </c>
       <c r="G81" s="33" t="s">
-        <v>3517</v>
+        <v>3516</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
@@ -48961,7 +48967,7 @@
         <v>3497</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
       <c r="E97" s="4" t="s">
@@ -48974,7 +48980,7 @@
         <v>3495</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
       <c r="E98" s="4" t="s">
@@ -48985,7 +48991,7 @@
       </c>
       <c r="G98" s="34"/>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B99" s="28"/>
       <c r="C99" s="28"/>
       <c r="E99" s="4" t="s">
@@ -48996,7 +49002,7 @@
       </c>
       <c r="G99" s="34"/>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B100" s="28"/>
       <c r="C100" s="28"/>
       <c r="E100" s="4" t="s">
@@ -49009,7 +49015,7 @@
         <v>3498</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B101" s="8"/>
       <c r="C101" s="8"/>
       <c r="E101" s="4" t="s">
@@ -49022,7 +49028,7 @@
         <v>3499</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
       <c r="C102" s="8"/>
       <c r="E102" s="4" t="s">
@@ -49033,7 +49039,7 @@
       </c>
       <c r="G102" s="33"/>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
       <c r="E103" s="4" t="s">
@@ -49046,7 +49052,7 @@
         <v>3491</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
       <c r="E104" s="4" t="s">
@@ -49059,7 +49065,7 @@
         <v>3500</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
       <c r="E105" s="4" t="s">
@@ -49072,7 +49078,7 @@
         <v>3501</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
       <c r="E106" s="4" t="s">
@@ -49084,8 +49090,11 @@
       <c r="G106" s="33" t="s">
         <v>3502</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H106" t="s">
+        <v>3556</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
       <c r="E107" s="4" t="s">
@@ -49098,7 +49107,7 @@
         <v>3503</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
       <c r="E108" s="4" t="s">
@@ -49111,7 +49120,7 @@
         <v>3504</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B109" s="8"/>
       <c r="C109" s="8"/>
       <c r="E109" s="4" t="s">
@@ -49121,10 +49130,10 @@
         <v>2138</v>
       </c>
       <c r="G109" s="33" t="s">
-        <v>3505</v>
-      </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3681</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
       <c r="E110" s="4" t="s">
@@ -49134,10 +49143,10 @@
         <v>2139</v>
       </c>
       <c r="G110" s="33" t="s">
-        <v>3506</v>
-      </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3505</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
       <c r="E111" s="4" t="s">
@@ -49147,10 +49156,10 @@
         <v>2140</v>
       </c>
       <c r="G111" s="33" t="s">
-        <v>3507</v>
-      </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+        <v>3506</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
       <c r="E112" s="4" t="s">
@@ -49242,7 +49251,7 @@
         <v>2147</v>
       </c>
       <c r="G118" s="33" t="s">
-        <v>3510</v>
+        <v>3509</v>
       </c>
     </row>
     <row r="119" spans="2:8" x14ac:dyDescent="0.25">
@@ -49253,7 +49262,7 @@
         <v>2148</v>
       </c>
       <c r="G119" s="33" t="s">
-        <v>3511</v>
+        <v>3510</v>
       </c>
     </row>
     <row r="120" spans="2:8" x14ac:dyDescent="0.25">
@@ -49287,10 +49296,10 @@
         <v>2150</v>
       </c>
       <c r="G121" s="33" t="s">
-        <v>3512</v>
+        <v>3511</v>
       </c>
       <c r="H121" t="s">
-        <v>3677</v>
+        <v>3676</v>
       </c>
     </row>
     <row r="122" spans="2:8" x14ac:dyDescent="0.25">
@@ -49307,7 +49316,7 @@
         <v>2151</v>
       </c>
       <c r="G122" s="33" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="123" spans="2:8" x14ac:dyDescent="0.25">
@@ -49324,7 +49333,7 @@
         <v>2152</v>
       </c>
       <c r="G123" s="33" t="s">
-        <v>3514</v>
+        <v>3513</v>
       </c>
     </row>
     <row r="124" spans="2:8" x14ac:dyDescent="0.25">
@@ -49358,7 +49367,7 @@
         <v>2153</v>
       </c>
       <c r="G125" s="33" t="s">
-        <v>3515</v>
+        <v>3514</v>
       </c>
     </row>
     <row r="126" spans="2:8" x14ac:dyDescent="0.25">
@@ -49375,7 +49384,7 @@
         <v>2204</v>
       </c>
       <c r="G126" s="33" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="127" spans="2:8" x14ac:dyDescent="0.25">
@@ -49386,7 +49395,7 @@
         <v>1905</v>
       </c>
       <c r="H127" t="s">
-        <v>3678</v>
+        <v>3682</v>
       </c>
     </row>
     <row r="129" spans="2:7" x14ac:dyDescent="0.25">
@@ -49419,7 +49428,7 @@
         <v>1303</v>
       </c>
       <c r="G132" s="33" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="133" spans="2:7" x14ac:dyDescent="0.25">
@@ -49430,7 +49439,7 @@
         <v>1306</v>
       </c>
       <c r="G133" s="33" t="s">
-        <v>3519</v>
+        <v>3518</v>
       </c>
     </row>
     <row r="134" spans="2:7" x14ac:dyDescent="0.25">
@@ -49447,7 +49456,7 @@
         <v>1311</v>
       </c>
       <c r="G134" s="33" t="s">
-        <v>3520</v>
+        <v>3519</v>
       </c>
     </row>
     <row r="135" spans="2:7" x14ac:dyDescent="0.25">
@@ -49498,7 +49507,7 @@
         <v>1327</v>
       </c>
       <c r="G137" s="33" t="s">
-        <v>3521</v>
+        <v>3520</v>
       </c>
     </row>
     <row r="138" spans="2:7" x14ac:dyDescent="0.25">
@@ -49532,7 +49541,7 @@
         <v>2330</v>
       </c>
       <c r="G139" s="33" t="s">
-        <v>3522</v>
+        <v>3521</v>
       </c>
     </row>
     <row r="140" spans="2:7" x14ac:dyDescent="0.25">
@@ -49549,7 +49558,7 @@
         <v>2331</v>
       </c>
       <c r="G140" s="33" t="s">
-        <v>3523</v>
+        <v>3522</v>
       </c>
     </row>
     <row r="141" spans="2:7" x14ac:dyDescent="0.25">
@@ -49590,7 +49599,7 @@
         <v>2337</v>
       </c>
       <c r="G143" s="33" t="s">
-        <v>3524</v>
+        <v>3523</v>
       </c>
     </row>
     <row r="144" spans="2:7" x14ac:dyDescent="0.25">
@@ -49601,7 +49610,7 @@
         <v>2338</v>
       </c>
       <c r="G144" s="47" t="s">
-        <v>3525</v>
+        <v>3524</v>
       </c>
     </row>
     <row r="145" spans="2:7" x14ac:dyDescent="0.25">
@@ -49618,7 +49627,7 @@
         <v>2340</v>
       </c>
       <c r="G145" s="33" t="s">
-        <v>3526</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="146" spans="2:7" x14ac:dyDescent="0.25">
@@ -49635,7 +49644,7 @@
         <v>2342</v>
       </c>
       <c r="G146" s="33" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="147" spans="2:7" x14ac:dyDescent="0.25">
@@ -49669,7 +49678,7 @@
         <v>2346</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>3528</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="149" spans="2:7" x14ac:dyDescent="0.25">
@@ -49703,7 +49712,7 @@
         <v>2349</v>
       </c>
       <c r="G150" s="33" t="s">
-        <v>3529</v>
+        <v>3528</v>
       </c>
     </row>
     <row r="151" spans="2:7" x14ac:dyDescent="0.25">
@@ -49714,7 +49723,7 @@
         <v>2350</v>
       </c>
       <c r="G151" s="33" t="s">
-        <v>3530</v>
+        <v>3529</v>
       </c>
     </row>
     <row r="152" spans="2:7" x14ac:dyDescent="0.25">
@@ -49742,7 +49751,7 @@
         <v>2353</v>
       </c>
       <c r="G153" s="33" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="154" spans="2:7" x14ac:dyDescent="0.25">
@@ -49753,7 +49762,7 @@
         <v>2355</v>
       </c>
       <c r="G154" s="33" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="155" spans="2:7" x14ac:dyDescent="0.25">
@@ -49764,7 +49773,7 @@
         <v>2356</v>
       </c>
       <c r="G155" s="33" t="s">
-        <v>3533</v>
+        <v>3532</v>
       </c>
     </row>
     <row r="156" spans="2:7" x14ac:dyDescent="0.25">
@@ -49775,7 +49784,7 @@
         <v>2357</v>
       </c>
       <c r="G156" s="33" t="s">
-        <v>3534</v>
+        <v>3533</v>
       </c>
     </row>
     <row r="157" spans="2:7" x14ac:dyDescent="0.25">
@@ -49786,7 +49795,7 @@
         <v>1507</v>
       </c>
       <c r="G157" s="33" t="s">
-        <v>3535</v>
+        <v>3534</v>
       </c>
     </row>
     <row r="158" spans="2:7" x14ac:dyDescent="0.25">
@@ -49797,7 +49806,7 @@
         <v>1485</v>
       </c>
       <c r="G158" s="33" t="s">
-        <v>3536</v>
+        <v>3535</v>
       </c>
     </row>
     <row r="159" spans="2:7" x14ac:dyDescent="0.25">
@@ -49819,7 +49828,7 @@
         <v>1551</v>
       </c>
       <c r="G160" s="33" t="s">
-        <v>3537</v>
+        <v>3536</v>
       </c>
     </row>
     <row r="161" spans="2:8" x14ac:dyDescent="0.25">
@@ -49830,10 +49839,10 @@
         <v>2363</v>
       </c>
       <c r="G161" s="33" t="s">
-        <v>3538</v>
+        <v>3537</v>
       </c>
       <c r="H161" t="s">
-        <v>3586</v>
+        <v>3585</v>
       </c>
     </row>
     <row r="162" spans="2:8" x14ac:dyDescent="0.25">
@@ -49844,7 +49853,7 @@
         <v>2365</v>
       </c>
       <c r="G162" s="33" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="163" spans="2:8" x14ac:dyDescent="0.25">
@@ -49855,7 +49864,7 @@
         <v>1472</v>
       </c>
       <c r="G163" s="33" t="s">
-        <v>3540</v>
+        <v>3539</v>
       </c>
     </row>
     <row r="164" spans="2:8" x14ac:dyDescent="0.25">
@@ -49866,7 +49875,7 @@
         <v>1522</v>
       </c>
       <c r="G164" s="33" t="s">
-        <v>3527</v>
+        <v>3526</v>
       </c>
     </row>
     <row r="165" spans="2:8" x14ac:dyDescent="0.25">
@@ -49877,10 +49886,10 @@
         <v>1443</v>
       </c>
       <c r="G165" s="33" t="s">
+        <v>3540</v>
+      </c>
+      <c r="H165" t="s">
         <v>3541</v>
-      </c>
-      <c r="H165" t="s">
-        <v>3542</v>
       </c>
     </row>
     <row r="166" spans="2:8" x14ac:dyDescent="0.25">
@@ -49891,10 +49900,10 @@
         <v>1436</v>
       </c>
       <c r="G166" s="33" t="s">
-        <v>3543</v>
+        <v>3542</v>
       </c>
       <c r="H166" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="167" spans="2:8" x14ac:dyDescent="0.25">
@@ -49905,7 +49914,7 @@
         <v>1539</v>
       </c>
       <c r="G167" s="33" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="168" spans="2:8" x14ac:dyDescent="0.25">
@@ -49922,7 +49931,7 @@
         <v>1435</v>
       </c>
       <c r="G168" s="33" t="s">
-        <v>3545</v>
+        <v>3544</v>
       </c>
     </row>
     <row r="169" spans="2:8" x14ac:dyDescent="0.25">
@@ -49939,7 +49948,7 @@
         <v>1400</v>
       </c>
       <c r="G169" s="33" t="s">
-        <v>3546</v>
+        <v>3545</v>
       </c>
     </row>
     <row r="170" spans="2:8" x14ac:dyDescent="0.25">
@@ -49956,7 +49965,7 @@
         <v>1548</v>
       </c>
       <c r="G170" s="33" t="s">
-        <v>3547</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="171" spans="2:8" x14ac:dyDescent="0.25">
@@ -49973,7 +49982,7 @@
         <v>2375</v>
       </c>
       <c r="G171" s="33" t="s">
-        <v>3516</v>
+        <v>3515</v>
       </c>
     </row>
     <row r="172" spans="2:8" x14ac:dyDescent="0.25">
@@ -50007,7 +50016,7 @@
         <v>1563</v>
       </c>
       <c r="G173" s="33" t="s">
-        <v>3548</v>
+        <v>3547</v>
       </c>
     </row>
     <row r="174" spans="2:8" x14ac:dyDescent="0.25">
@@ -50024,7 +50033,7 @@
         <v>1493</v>
       </c>
       <c r="G174" s="33" t="s">
-        <v>3549</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="175" spans="2:8" x14ac:dyDescent="0.25">
@@ -50041,7 +50050,7 @@
         <v>1366</v>
       </c>
       <c r="G175" s="33" t="s">
-        <v>3550</v>
+        <v>3549</v>
       </c>
     </row>
     <row r="176" spans="2:8" x14ac:dyDescent="0.25">
@@ -50058,7 +50067,7 @@
         <v>1444</v>
       </c>
       <c r="G176" s="33" t="s">
-        <v>3551</v>
+        <v>3550</v>
       </c>
     </row>
     <row r="177" spans="2:8" x14ac:dyDescent="0.25">
@@ -50075,7 +50084,7 @@
         <v>1389</v>
       </c>
       <c r="G177" s="33" t="s">
-        <v>3552</v>
+        <v>3551</v>
       </c>
     </row>
     <row r="178" spans="2:8" x14ac:dyDescent="0.25">
@@ -50092,7 +50101,7 @@
         <v>1502</v>
       </c>
       <c r="G178" s="33" t="s">
-        <v>3553</v>
+        <v>3552</v>
       </c>
     </row>
     <row r="179" spans="2:8" x14ac:dyDescent="0.25">
@@ -50109,7 +50118,7 @@
         <v>1534</v>
       </c>
       <c r="G179" s="33" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="180" spans="2:8" x14ac:dyDescent="0.25">
@@ -50126,7 +50135,7 @@
         <v>1397</v>
       </c>
       <c r="G180" s="33" t="s">
-        <v>3554</v>
+        <v>3553</v>
       </c>
     </row>
     <row r="181" spans="2:8" x14ac:dyDescent="0.25">
@@ -50143,7 +50152,7 @@
         <v>1508</v>
       </c>
       <c r="G181" s="33" t="s">
-        <v>3555</v>
+        <v>3554</v>
       </c>
     </row>
     <row r="182" spans="2:8" x14ac:dyDescent="0.25">
@@ -50160,7 +50169,7 @@
         <v>1369</v>
       </c>
       <c r="G182" s="33" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="183" spans="2:8" x14ac:dyDescent="0.25">
@@ -50180,7 +50189,7 @@
         <v>3461</v>
       </c>
       <c r="H183" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="184" spans="2:8" x14ac:dyDescent="0.25">
@@ -50200,7 +50209,7 @@
         <v>3462</v>
       </c>
       <c r="H184" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="185" spans="2:8" x14ac:dyDescent="0.25">
@@ -50211,7 +50220,7 @@
         <v>2903</v>
       </c>
       <c r="H185" t="s">
-        <v>3678</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="186" spans="2:8" x14ac:dyDescent="0.25">
@@ -50247,7 +50256,7 @@
         <v>2403</v>
       </c>
       <c r="G188" s="33" t="s">
-        <v>3558</v>
+        <v>3557</v>
       </c>
     </row>
     <row r="189" spans="2:8" x14ac:dyDescent="0.25">
@@ -50264,7 +50273,7 @@
         <v>2414</v>
       </c>
       <c r="G189" s="33" t="s">
-        <v>3559</v>
+        <v>3558</v>
       </c>
     </row>
     <row r="190" spans="2:8" x14ac:dyDescent="0.25">
@@ -50275,7 +50284,7 @@
         <v>2444</v>
       </c>
       <c r="G190" s="33" t="s">
-        <v>3560</v>
+        <v>3559</v>
       </c>
     </row>
     <row r="191" spans="2:8" x14ac:dyDescent="0.25">
@@ -50292,7 +50301,7 @@
         <v>2446</v>
       </c>
       <c r="G191" s="33" t="s">
-        <v>3561</v>
+        <v>3560</v>
       </c>
     </row>
     <row r="192" spans="2:8" x14ac:dyDescent="0.25">
@@ -50309,7 +50318,7 @@
         <v>2449</v>
       </c>
       <c r="G192" s="33" t="s">
-        <v>3562</v>
+        <v>3561</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
@@ -50341,7 +50350,7 @@
         <v>2452</v>
       </c>
       <c r="G194" s="33" t="s">
-        <v>3563</v>
+        <v>3562</v>
       </c>
     </row>
     <row r="195" spans="2:8" x14ac:dyDescent="0.25">
@@ -50358,7 +50367,7 @@
         <v>2407</v>
       </c>
       <c r="G195" s="33" t="s">
-        <v>3564</v>
+        <v>3563</v>
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
@@ -50375,7 +50384,7 @@
         <v>2404</v>
       </c>
       <c r="G196" s="33" t="s">
-        <v>3565</v>
+        <v>3564</v>
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
@@ -50392,7 +50401,7 @@
         <v>2458</v>
       </c>
       <c r="G197" s="33" t="s">
-        <v>3566</v>
+        <v>3565</v>
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
@@ -50403,7 +50412,7 @@
         <v>2459</v>
       </c>
       <c r="G198" s="33" t="s">
-        <v>3567</v>
+        <v>3566</v>
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
@@ -50414,7 +50423,7 @@
         <v>2461</v>
       </c>
       <c r="G199" s="33" t="s">
-        <v>3568</v>
+        <v>3567</v>
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
@@ -50431,7 +50440,7 @@
         <v>3473</v>
       </c>
       <c r="G200" s="33" t="s">
-        <v>3569</v>
+        <v>3568</v>
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
@@ -50448,7 +50457,7 @@
         <v>2464</v>
       </c>
       <c r="G201" s="33" t="s">
-        <v>3570</v>
+        <v>3569</v>
       </c>
     </row>
     <row r="202" spans="2:8" x14ac:dyDescent="0.25">
@@ -50465,10 +50474,10 @@
         <v>2406</v>
       </c>
       <c r="G202" s="33" t="s">
+        <v>3570</v>
+      </c>
+      <c r="H202" t="s">
         <v>3571</v>
-      </c>
-      <c r="H202" t="s">
-        <v>3572</v>
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
@@ -50485,7 +50494,7 @@
         <v>1541</v>
       </c>
       <c r="G203" s="33" t="s">
-        <v>3573</v>
+        <v>3572</v>
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
@@ -50502,7 +50511,7 @@
         <v>1335</v>
       </c>
       <c r="G204" s="33" t="s">
-        <v>3574</v>
+        <v>3573</v>
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
@@ -50516,7 +50525,7 @@
         <v>1536</v>
       </c>
       <c r="G205" s="33" t="s">
-        <v>3575</v>
+        <v>3574</v>
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
@@ -50530,7 +50539,7 @@
         <v>1329</v>
       </c>
       <c r="G206" s="33" t="s">
-        <v>3577</v>
+        <v>3576</v>
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
@@ -50544,7 +50553,7 @@
         <v>1382</v>
       </c>
       <c r="G207" s="33" t="s">
-        <v>3578</v>
+        <v>3577</v>
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
@@ -50558,7 +50567,7 @@
         <v>1525</v>
       </c>
       <c r="G208" s="33" t="s">
-        <v>3579</v>
+        <v>3578</v>
       </c>
     </row>
     <row r="209" spans="2:8" x14ac:dyDescent="0.25">
@@ -50572,10 +50581,10 @@
         <v>2405</v>
       </c>
       <c r="G209" s="33" t="s">
-        <v>3581</v>
+        <v>3580</v>
       </c>
       <c r="H209" t="s">
-        <v>3580</v>
+        <v>3579</v>
       </c>
     </row>
     <row r="210" spans="2:8" x14ac:dyDescent="0.25">
@@ -50589,7 +50598,7 @@
         <v>1484</v>
       </c>
       <c r="G210" s="33" t="s">
-        <v>3576</v>
+        <v>3575</v>
       </c>
     </row>
     <row r="211" spans="2:8" x14ac:dyDescent="0.25">
@@ -50615,7 +50624,7 @@
         <v>1405</v>
       </c>
       <c r="G212" s="33" t="s">
-        <v>3582</v>
+        <v>3581</v>
       </c>
     </row>
     <row r="213" spans="2:8" x14ac:dyDescent="0.25">
@@ -50641,7 +50650,7 @@
         <v>1441</v>
       </c>
       <c r="G214" s="33" t="s">
-        <v>3583</v>
+        <v>3582</v>
       </c>
     </row>
     <row r="215" spans="2:8" x14ac:dyDescent="0.25">
@@ -50655,7 +50664,7 @@
         <v>1489</v>
       </c>
       <c r="G215" s="33" t="s">
-        <v>3584</v>
+        <v>3583</v>
       </c>
     </row>
     <row r="216" spans="2:8" x14ac:dyDescent="0.25">
@@ -50669,7 +50678,7 @@
         <v>2481</v>
       </c>
       <c r="G216" s="33" t="s">
-        <v>3585</v>
+        <v>3584</v>
       </c>
     </row>
     <row r="217" spans="2:8" x14ac:dyDescent="0.25">
@@ -50691,7 +50700,7 @@
         <v>2017</v>
       </c>
       <c r="H218" t="s">
-        <v>3679</v>
+        <v>3678</v>
       </c>
     </row>
     <row r="219" spans="2:8" x14ac:dyDescent="0.25">
@@ -50715,7 +50724,7 @@
         <v>2484</v>
       </c>
       <c r="G221" s="33" t="s">
-        <v>3587</v>
+        <v>3586</v>
       </c>
     </row>
     <row r="222" spans="2:8" x14ac:dyDescent="0.25">
@@ -50729,10 +50738,10 @@
         <v>2485</v>
       </c>
       <c r="G222" s="33" t="s">
-        <v>3588</v>
+        <v>3587</v>
       </c>
       <c r="H222" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="223" spans="2:8" x14ac:dyDescent="0.25">
@@ -50746,7 +50755,7 @@
         <v>2486</v>
       </c>
       <c r="G223" s="33" t="s">
-        <v>3518</v>
+        <v>3517</v>
       </c>
     </row>
     <row r="224" spans="2:8" x14ac:dyDescent="0.25">
@@ -50760,7 +50769,7 @@
         <v>3474</v>
       </c>
       <c r="G224" s="33" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="225" spans="2:7" x14ac:dyDescent="0.25">
@@ -50774,7 +50783,7 @@
         <v>2487</v>
       </c>
       <c r="G225" s="33" t="s">
-        <v>3590</v>
+        <v>3589</v>
       </c>
     </row>
     <row r="226" spans="2:7" x14ac:dyDescent="0.25">
@@ -50788,7 +50797,7 @@
         <v>2488</v>
       </c>
       <c r="G226" s="33" t="s">
-        <v>3591</v>
+        <v>3590</v>
       </c>
     </row>
     <row r="227" spans="2:7" x14ac:dyDescent="0.25">
@@ -50816,7 +50825,7 @@
         <v>2490</v>
       </c>
       <c r="G228" s="33" t="s">
-        <v>3592</v>
+        <v>3591</v>
       </c>
     </row>
     <row r="229" spans="2:7" x14ac:dyDescent="0.25">
@@ -50830,7 +50839,7 @@
         <v>2491</v>
       </c>
       <c r="G229" s="33" t="s">
-        <v>3513</v>
+        <v>3512</v>
       </c>
     </row>
     <row r="230" spans="2:7" x14ac:dyDescent="0.25">
@@ -50844,7 +50853,7 @@
         <v>2492</v>
       </c>
       <c r="G230" s="33" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="231" spans="2:7" x14ac:dyDescent="0.25">
@@ -50858,7 +50867,7 @@
         <v>2493</v>
       </c>
       <c r="G231" s="33" t="s">
-        <v>3594</v>
+        <v>3593</v>
       </c>
     </row>
     <row r="232" spans="2:7" x14ac:dyDescent="0.25">
@@ -50872,7 +50881,7 @@
         <v>2494</v>
       </c>
       <c r="G232" s="33" t="s">
-        <v>3595</v>
+        <v>3594</v>
       </c>
     </row>
     <row r="233" spans="2:7" x14ac:dyDescent="0.25">
@@ -50886,7 +50895,7 @@
         <v>2495</v>
       </c>
       <c r="G233" s="33" t="s">
-        <v>3596</v>
+        <v>3595</v>
       </c>
     </row>
     <row r="234" spans="2:7" x14ac:dyDescent="0.25">
@@ -50915,7 +50924,7 @@
         <v>2498</v>
       </c>
       <c r="G235" s="33" t="s">
-        <v>3597</v>
+        <v>3596</v>
       </c>
     </row>
     <row r="236" spans="2:7" x14ac:dyDescent="0.25">
@@ -50929,7 +50938,7 @@
         <v>2499</v>
       </c>
       <c r="G236" s="33" t="s">
-        <v>3598</v>
+        <v>3597</v>
       </c>
     </row>
     <row r="237" spans="2:7" x14ac:dyDescent="0.25">
@@ -50943,7 +50952,7 @@
         <v>2500</v>
       </c>
       <c r="G237" s="33" t="s">
-        <v>3599</v>
+        <v>3598</v>
       </c>
     </row>
     <row r="238" spans="2:7" x14ac:dyDescent="0.25">
@@ -50957,7 +50966,7 @@
         <v>2501</v>
       </c>
       <c r="G238" s="33" t="s">
-        <v>3600</v>
+        <v>3599</v>
       </c>
     </row>
     <row r="239" spans="2:7" x14ac:dyDescent="0.25">
@@ -50971,7 +50980,7 @@
         <v>2502</v>
       </c>
       <c r="G239" s="33" t="s">
-        <v>3601</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="240" spans="2:7" x14ac:dyDescent="0.25">
@@ -50985,7 +50994,7 @@
         <v>2503</v>
       </c>
       <c r="G240" s="33" t="s">
-        <v>3602</v>
+        <v>3601</v>
       </c>
     </row>
     <row r="241" spans="2:8" x14ac:dyDescent="0.25">
@@ -51023,7 +51032,7 @@
         <v>2506</v>
       </c>
       <c r="G243" s="33" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="244" spans="2:8" x14ac:dyDescent="0.25">
@@ -51049,7 +51058,7 @@
         <v>2508</v>
       </c>
       <c r="G245" s="33" t="s">
-        <v>3604</v>
+        <v>3603</v>
       </c>
     </row>
     <row r="246" spans="2:8" x14ac:dyDescent="0.25">
@@ -51075,7 +51084,7 @@
         <v>1448</v>
       </c>
       <c r="G247" s="33" t="s">
-        <v>3605</v>
+        <v>3604</v>
       </c>
     </row>
     <row r="248" spans="2:8" x14ac:dyDescent="0.25">
@@ -51089,7 +51098,7 @@
         <v>2509</v>
       </c>
       <c r="G248" s="33" t="s">
-        <v>3606</v>
+        <v>3605</v>
       </c>
     </row>
     <row r="249" spans="2:8" x14ac:dyDescent="0.25">
@@ -51103,7 +51112,7 @@
         <v>2510</v>
       </c>
       <c r="G249" s="33" t="s">
-        <v>3607</v>
+        <v>3606</v>
       </c>
     </row>
     <row r="250" spans="2:8" x14ac:dyDescent="0.25">
@@ -51117,7 +51126,7 @@
         <v>2511</v>
       </c>
       <c r="G250" s="33" t="s">
-        <v>3608</v>
+        <v>3607</v>
       </c>
     </row>
     <row r="251" spans="2:8" x14ac:dyDescent="0.25">
@@ -51131,7 +51140,7 @@
         <v>2512</v>
       </c>
       <c r="G251" s="33" t="s">
-        <v>3609</v>
+        <v>3608</v>
       </c>
     </row>
     <row r="252" spans="2:8" x14ac:dyDescent="0.25">
@@ -51145,7 +51154,7 @@
         <v>2513</v>
       </c>
       <c r="G252" s="33" t="s">
-        <v>3610</v>
+        <v>3609</v>
       </c>
     </row>
     <row r="253" spans="2:8" x14ac:dyDescent="0.25">
@@ -51159,7 +51168,7 @@
         <v>2514</v>
       </c>
       <c r="G253" s="33" t="s">
-        <v>3611</v>
+        <v>3610</v>
       </c>
     </row>
     <row r="254" spans="2:8" x14ac:dyDescent="0.25">
@@ -51173,7 +51182,7 @@
         <v>2515</v>
       </c>
       <c r="G254" s="33" t="s">
-        <v>3612</v>
+        <v>3611</v>
       </c>
     </row>
     <row r="255" spans="2:8" x14ac:dyDescent="0.25">
@@ -51187,7 +51196,7 @@
         <v>2516</v>
       </c>
       <c r="G255" s="33" t="s">
-        <v>3613</v>
+        <v>3612</v>
       </c>
     </row>
     <row r="256" spans="2:8" x14ac:dyDescent="0.25">
@@ -51201,10 +51210,10 @@
         <v>2517</v>
       </c>
       <c r="G256" s="33" t="s">
-        <v>3614</v>
+        <v>3613</v>
       </c>
       <c r="H256" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="257" spans="2:8" x14ac:dyDescent="0.25">
@@ -51218,7 +51227,7 @@
         <v>2518</v>
       </c>
       <c r="G257" s="33" t="s">
-        <v>3615</v>
+        <v>3614</v>
       </c>
     </row>
     <row r="258" spans="2:8" x14ac:dyDescent="0.25">
@@ -51232,7 +51241,7 @@
         <v>2519</v>
       </c>
       <c r="G258" s="33" t="s">
-        <v>3616</v>
+        <v>3615</v>
       </c>
     </row>
     <row r="259" spans="2:8" x14ac:dyDescent="0.25">
@@ -51246,7 +51255,7 @@
         <v>2520</v>
       </c>
       <c r="G259" s="33" t="s">
-        <v>3617</v>
+        <v>3616</v>
       </c>
     </row>
     <row r="260" spans="2:8" x14ac:dyDescent="0.25">
@@ -51260,7 +51269,7 @@
         <v>2521</v>
       </c>
       <c r="G260" s="33" t="s">
-        <v>3532</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="261" spans="2:8" x14ac:dyDescent="0.25">
@@ -51274,7 +51283,7 @@
         <v>2522</v>
       </c>
       <c r="G261" s="33" t="s">
-        <v>3618</v>
+        <v>3617</v>
       </c>
     </row>
     <row r="262" spans="2:8" x14ac:dyDescent="0.25">
@@ -51288,7 +51297,7 @@
         <v>2523</v>
       </c>
       <c r="G262" s="33" t="s">
-        <v>3619</v>
+        <v>3618</v>
       </c>
     </row>
     <row r="263" spans="2:8" x14ac:dyDescent="0.25">
@@ -51316,7 +51325,7 @@
         <v>2524</v>
       </c>
       <c r="G264" s="33" t="s">
-        <v>3620</v>
+        <v>3619</v>
       </c>
     </row>
     <row r="265" spans="2:8" x14ac:dyDescent="0.25">
@@ -51330,7 +51339,7 @@
         <v>1458</v>
       </c>
       <c r="G265" s="33" t="s">
-        <v>3556</v>
+        <v>3555</v>
       </c>
     </row>
     <row r="266" spans="2:8" x14ac:dyDescent="0.25">
@@ -51344,10 +51353,10 @@
         <v>1513</v>
       </c>
       <c r="G266" s="33" t="s">
+        <v>3540</v>
+      </c>
+      <c r="H266" t="s">
         <v>3541</v>
-      </c>
-      <c r="H266" t="s">
-        <v>3542</v>
       </c>
     </row>
     <row r="267" spans="2:8" x14ac:dyDescent="0.25">
@@ -51361,10 +51370,10 @@
         <v>2525</v>
       </c>
       <c r="G267" s="33" t="s">
-        <v>3621</v>
+        <v>3620</v>
       </c>
       <c r="H267" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="268" spans="2:8" x14ac:dyDescent="0.25">
@@ -51378,7 +51387,7 @@
         <v>2526</v>
       </c>
       <c r="G268" s="33" t="s">
-        <v>3622</v>
+        <v>3621</v>
       </c>
     </row>
     <row r="269" spans="2:8" x14ac:dyDescent="0.25">
@@ -51392,7 +51401,7 @@
         <v>2527</v>
       </c>
       <c r="G269" s="33" t="s">
-        <v>3623</v>
+        <v>3622</v>
       </c>
     </row>
     <row r="270" spans="2:8" x14ac:dyDescent="0.25">
@@ -51406,7 +51415,7 @@
         <v>2528</v>
       </c>
       <c r="G270" s="33" t="s">
-        <v>3544</v>
+        <v>3543</v>
       </c>
     </row>
     <row r="271" spans="2:8" x14ac:dyDescent="0.25">
@@ -51432,7 +51441,7 @@
         <v>1357</v>
       </c>
       <c r="G272" s="33" t="s">
-        <v>3624</v>
+        <v>3623</v>
       </c>
     </row>
     <row r="273" spans="2:8" x14ac:dyDescent="0.25">
@@ -51446,7 +51455,7 @@
         <v>1356</v>
       </c>
       <c r="G273" s="33" t="s">
-        <v>3625</v>
+        <v>3624</v>
       </c>
     </row>
     <row r="274" spans="2:8" x14ac:dyDescent="0.25">
@@ -51460,7 +51469,7 @@
         <v>1392</v>
       </c>
       <c r="G274" s="33" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="275" spans="2:8" x14ac:dyDescent="0.25">
@@ -51474,7 +51483,7 @@
         <v>1512</v>
       </c>
       <c r="G275" s="33" t="s">
-        <v>3627</v>
+        <v>3626</v>
       </c>
     </row>
     <row r="276" spans="2:8" x14ac:dyDescent="0.25">
@@ -51488,7 +51497,7 @@
         <v>1518</v>
       </c>
       <c r="G276" s="33" t="s">
-        <v>3628</v>
+        <v>3627</v>
       </c>
     </row>
     <row r="277" spans="2:8" x14ac:dyDescent="0.25">
@@ -51502,7 +51511,7 @@
         <v>1324</v>
       </c>
       <c r="G277" s="33" t="s">
-        <v>3539</v>
+        <v>3538</v>
       </c>
     </row>
     <row r="278" spans="2:8" x14ac:dyDescent="0.25">
@@ -51516,7 +51525,7 @@
         <v>1523</v>
       </c>
       <c r="G278" s="33" t="s">
-        <v>3629</v>
+        <v>3628</v>
       </c>
     </row>
     <row r="279" spans="2:8" x14ac:dyDescent="0.25">
@@ -51530,7 +51539,7 @@
         <v>1578</v>
       </c>
       <c r="G279" s="33" t="s">
-        <v>3630</v>
+        <v>3629</v>
       </c>
     </row>
     <row r="280" spans="2:8" x14ac:dyDescent="0.25">
@@ -51544,7 +51553,7 @@
         <v>2530</v>
       </c>
       <c r="G280" s="33" t="s">
-        <v>3631</v>
+        <v>3630</v>
       </c>
     </row>
     <row r="281" spans="2:8" x14ac:dyDescent="0.25">
@@ -51572,7 +51581,7 @@
         <v>2531</v>
       </c>
       <c r="G282" s="33" t="s">
-        <v>3632</v>
+        <v>3631</v>
       </c>
     </row>
     <row r="283" spans="2:8" x14ac:dyDescent="0.25">
@@ -51586,7 +51595,7 @@
         <v>1495</v>
       </c>
       <c r="G283" s="33" t="s">
-        <v>3633</v>
+        <v>3632</v>
       </c>
     </row>
     <row r="284" spans="2:8" x14ac:dyDescent="0.25">
@@ -51612,7 +51621,7 @@
         <v>1413</v>
       </c>
       <c r="G285" s="33" t="s">
-        <v>3634</v>
+        <v>3633</v>
       </c>
     </row>
     <row r="286" spans="2:8" x14ac:dyDescent="0.25">
@@ -51626,7 +51635,7 @@
         <v>1585</v>
       </c>
       <c r="G286" s="33" t="s">
-        <v>3635</v>
+        <v>3634</v>
       </c>
     </row>
     <row r="287" spans="2:8" x14ac:dyDescent="0.25">
@@ -51640,7 +51649,7 @@
         <v>1437</v>
       </c>
       <c r="G287" s="33" t="s">
-        <v>3636</v>
+        <v>3635</v>
       </c>
     </row>
     <row r="288" spans="2:8" x14ac:dyDescent="0.25">
@@ -51651,10 +51660,10 @@
         <v>1575</v>
       </c>
       <c r="G288" s="33" t="s">
+        <v>3636</v>
+      </c>
+      <c r="H288" t="s">
         <v>3637</v>
-      </c>
-      <c r="H288" t="s">
-        <v>3638</v>
       </c>
     </row>
     <row r="289" spans="3:8" x14ac:dyDescent="0.25">
@@ -51665,10 +51674,10 @@
         <v>1320</v>
       </c>
       <c r="G289" s="33" t="s">
-        <v>3639</v>
+        <v>3638</v>
       </c>
       <c r="H289" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="290" spans="3:8" x14ac:dyDescent="0.25">
@@ -51682,7 +51691,7 @@
         <v>3471</v>
       </c>
       <c r="H290" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="291" spans="3:8" x14ac:dyDescent="0.25">
@@ -51693,10 +51702,10 @@
         <v>1423</v>
       </c>
       <c r="G291" s="33" t="s">
-        <v>3640</v>
+        <v>3639</v>
       </c>
       <c r="H291" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="292" spans="3:8" x14ac:dyDescent="0.25">
@@ -51708,10 +51717,10 @@
         <v>1419</v>
       </c>
       <c r="G292" s="33" t="s">
-        <v>3641</v>
+        <v>3640</v>
       </c>
       <c r="H292" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="293" spans="3:8" x14ac:dyDescent="0.25">
@@ -51722,10 +51731,10 @@
         <v>1385</v>
       </c>
       <c r="G293" s="33" t="s">
-        <v>3642</v>
+        <v>3641</v>
       </c>
       <c r="H293" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="294" spans="3:8" x14ac:dyDescent="0.25">
@@ -51736,10 +51745,10 @@
         <v>1451</v>
       </c>
       <c r="G294" s="33" t="s">
-        <v>3655</v>
+        <v>3654</v>
       </c>
       <c r="H294" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="295" spans="3:8" x14ac:dyDescent="0.25">
@@ -51750,10 +51759,10 @@
         <v>1373</v>
       </c>
       <c r="G295" s="33" t="s">
-        <v>3643</v>
+        <v>3642</v>
       </c>
       <c r="H295" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="296" spans="3:8" x14ac:dyDescent="0.25">
@@ -51764,10 +51773,10 @@
         <v>1440</v>
       </c>
       <c r="G296" s="33" t="s">
-        <v>3644</v>
+        <v>3643</v>
       </c>
       <c r="H296" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="297" spans="3:8" x14ac:dyDescent="0.25">
@@ -51778,10 +51787,10 @@
         <v>1482</v>
       </c>
       <c r="G297" s="33" t="s">
+        <v>3644</v>
+      </c>
+      <c r="H297" t="s">
         <v>3645</v>
-      </c>
-      <c r="H297" t="s">
-        <v>3646</v>
       </c>
     </row>
     <row r="298" spans="3:8" x14ac:dyDescent="0.25">
@@ -51792,7 +51801,7 @@
         <v>1566</v>
       </c>
       <c r="G298" s="33" t="s">
-        <v>3647</v>
+        <v>3646</v>
       </c>
     </row>
     <row r="299" spans="3:8" x14ac:dyDescent="0.25">
@@ -51803,10 +51812,10 @@
         <v>1310</v>
       </c>
       <c r="G299" s="33" t="s">
+        <v>3647</v>
+      </c>
+      <c r="H299" t="s">
         <v>3648</v>
-      </c>
-      <c r="H299" t="s">
-        <v>3649</v>
       </c>
     </row>
     <row r="300" spans="3:8" x14ac:dyDescent="0.25">
@@ -51817,7 +51826,7 @@
         <v>1407</v>
       </c>
       <c r="G300" s="33" t="s">
-        <v>3650</v>
+        <v>3649</v>
       </c>
     </row>
     <row r="301" spans="3:8" x14ac:dyDescent="0.25">
@@ -51828,7 +51837,7 @@
         <v>1339</v>
       </c>
       <c r="G301" s="33" t="s">
-        <v>3651</v>
+        <v>3650</v>
       </c>
     </row>
     <row r="302" spans="3:8" x14ac:dyDescent="0.25">
@@ -51839,7 +51848,7 @@
         <v>1411</v>
       </c>
       <c r="G302" s="33" t="s">
-        <v>3652</v>
+        <v>3651</v>
       </c>
     </row>
     <row r="303" spans="3:8" x14ac:dyDescent="0.25">
@@ -51850,7 +51859,7 @@
         <v>1559</v>
       </c>
       <c r="G303" s="33" t="s">
-        <v>3603</v>
+        <v>3602</v>
       </c>
     </row>
     <row r="304" spans="3:8" x14ac:dyDescent="0.25">
@@ -51861,7 +51870,7 @@
         <v>1312</v>
       </c>
       <c r="G304" s="33" t="s">
-        <v>3653</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
@@ -51872,7 +51881,7 @@
         <v>2532</v>
       </c>
       <c r="G305" s="33" t="s">
-        <v>3626</v>
+        <v>3625</v>
       </c>
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
@@ -51883,10 +51892,10 @@
         <v>1418</v>
       </c>
       <c r="G306" s="33" t="s">
-        <v>3654</v>
+        <v>3653</v>
       </c>
       <c r="H306" s="44" t="s">
-        <v>3557</v>
+        <v>3556</v>
       </c>
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
@@ -51897,7 +51906,7 @@
         <v>1801</v>
       </c>
       <c r="G307" s="33" t="s">
-        <v>3656</v>
+        <v>3655</v>
       </c>
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
@@ -51908,7 +51917,7 @@
         <v>1334</v>
       </c>
       <c r="G308" s="33" t="s">
-        <v>3507</v>
+        <v>3506</v>
       </c>
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
@@ -51919,10 +51928,10 @@
         <v>1521</v>
       </c>
       <c r="G309" s="33" t="s">
-        <v>3657</v>
+        <v>3656</v>
       </c>
       <c r="H309" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
@@ -51942,10 +51951,10 @@
         <v>1526</v>
       </c>
       <c r="G311" s="33" t="s">
-        <v>3658</v>
+        <v>3657</v>
       </c>
       <c r="H311" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
@@ -51956,10 +51965,10 @@
         <v>1584</v>
       </c>
       <c r="G312" s="33" t="s">
-        <v>3659</v>
+        <v>3658</v>
       </c>
       <c r="H312" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
@@ -51970,10 +51979,10 @@
         <v>2727</v>
       </c>
       <c r="G313" s="33" t="s">
-        <v>3660</v>
+        <v>3659</v>
       </c>
       <c r="H313" t="s">
-        <v>3542</v>
+        <v>3541</v>
       </c>
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
@@ -51984,7 +51993,7 @@
         <v>2729</v>
       </c>
       <c r="G314" s="33" t="s">
-        <v>3661</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
@@ -51995,7 +52004,7 @@
         <v>1379</v>
       </c>
       <c r="G315" s="33" t="s">
-        <v>3662</v>
+        <v>3661</v>
       </c>
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
@@ -52015,7 +52024,7 @@
         <v>1569</v>
       </c>
       <c r="G316" s="33" t="s">
-        <v>3663</v>
+        <v>3662</v>
       </c>
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
@@ -52055,7 +52064,7 @@
         <v>1465</v>
       </c>
       <c r="G318" s="33" t="s">
-        <v>3589</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
@@ -52075,7 +52084,7 @@
         <v>1499</v>
       </c>
       <c r="G319" s="33" t="s">
-        <v>3664</v>
+        <v>3663</v>
       </c>
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
@@ -52133,7 +52142,7 @@
         <v>1486</v>
       </c>
       <c r="G322" s="33" t="s">
-        <v>3665</v>
+        <v>3664</v>
       </c>
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
@@ -52153,7 +52162,7 @@
         <v>1496</v>
       </c>
       <c r="G323" s="33" t="s">
-        <v>3666</v>
+        <v>3665</v>
       </c>
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
@@ -52173,7 +52182,7 @@
         <v>1562</v>
       </c>
       <c r="G324" s="33" t="s">
-        <v>3667</v>
+        <v>3666</v>
       </c>
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
@@ -52211,7 +52220,7 @@
         <v>1537</v>
       </c>
       <c r="G326" s="33" t="s">
-        <v>3668</v>
+        <v>3667</v>
       </c>
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
@@ -52231,7 +52240,7 @@
         <v>1488</v>
       </c>
       <c r="G327" s="33" t="s">
-        <v>3669</v>
+        <v>3668</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -52251,7 +52260,7 @@
         <v>1434</v>
       </c>
       <c r="G328" s="33" t="s">
-        <v>3670</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
@@ -52262,7 +52271,7 @@
         <v>1375</v>
       </c>
       <c r="G329" s="33" t="s">
-        <v>3671</v>
+        <v>3670</v>
       </c>
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
@@ -52276,10 +52285,10 @@
         <v>1456</v>
       </c>
       <c r="G330" s="33" t="s">
+        <v>3671</v>
+      </c>
+      <c r="H330" t="s">
         <v>3672</v>
-      </c>
-      <c r="H330" t="s">
-        <v>3673</v>
       </c>
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
@@ -52290,7 +52299,7 @@
         <v>1553</v>
       </c>
       <c r="G331" s="33" t="s">
-        <v>3593</v>
+        <v>3592</v>
       </c>
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
@@ -52301,7 +52310,7 @@
         <v>2760</v>
       </c>
       <c r="G332" s="33" t="s">
-        <v>3674</v>
+        <v>3673</v>
       </c>
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
@@ -52312,7 +52321,7 @@
         <v>2762</v>
       </c>
       <c r="G333" s="33" t="s">
-        <v>3675</v>
+        <v>3674</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
@@ -52323,7 +52332,7 @@
         <v>1581</v>
       </c>
       <c r="G334" s="33" t="s">
-        <v>3531</v>
+        <v>3530</v>
       </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
@@ -52334,7 +52343,7 @@
         <v>2765</v>
       </c>
       <c r="G335" s="33" t="s">
-        <v>3676</v>
+        <v>3675</v>
       </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
@@ -52362,7 +52371,7 @@
         <v>3176</v>
       </c>
       <c r="H337" t="s">
-        <v>3680</v>
+        <v>3679</v>
       </c>
     </row>
     <row r="338" spans="2:8" x14ac:dyDescent="0.25">
@@ -52605,8 +52614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8ED3E70-2200-4646-9295-321DD5DC5132}">
   <dimension ref="B6:AF108"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54:I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -54295,11 +54304,11 @@
     </row>
     <row r="108" spans="8:10" x14ac:dyDescent="0.25">
       <c r="H108" s="35" t="s">
-        <v>3508</v>
+        <v>3507</v>
       </c>
       <c r="I108" s="35"/>
       <c r="J108" t="s">
-        <v>3509</v>
+        <v>3508</v>
       </c>
     </row>
   </sheetData>
